--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6CCFF6-75C3-4B49-9ED1-257064B6FE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5936ABE7-C3A1-415A-9E29-EDEBA3EEB7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
     <sheet name="Subclasses" sheetId="2" r:id="rId2"/>
-    <sheet name="NewSpells" sheetId="3" r:id="rId3"/>
-    <sheet name="RevisedSpells" sheetId="4" r:id="rId4"/>
+    <sheet name="NewClassFeatures" sheetId="11" r:id="rId3"/>
+    <sheet name="Spells" sheetId="3" r:id="rId4"/>
     <sheet name="MagicItems" sheetId="5" r:id="rId5"/>
     <sheet name="Feats" sheetId="6" r:id="rId6"/>
     <sheet name="Races" sheetId="7" r:id="rId7"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="271">
   <si>
     <t>Name</t>
   </si>
@@ -409,9 +409,6 @@
     <t>Fiend</t>
   </si>
   <si>
-    <t>Humanoid(human, shapechanger)</t>
-  </si>
-  <si>
     <t>Fey</t>
   </si>
   <si>
@@ -463,9 +460,6 @@
     <t>Circle of Rivers</t>
   </si>
   <si>
-    <t>Supporting Content Needs Cleanup</t>
-  </si>
-  <si>
     <t>Needs Clean Up</t>
   </si>
   <si>
@@ -481,9 +475,6 @@
     <t>Otherworldly Patron - The Cauldron w/ NPCs</t>
   </si>
   <si>
-    <t>Needs Cleanup</t>
-  </si>
-  <si>
     <t>College of Elements</t>
   </si>
   <si>
@@ -521,13 +512,379 @@
   </si>
   <si>
     <t>College of Illumination w/ NPCs</t>
+  </si>
+  <si>
+    <t>Paladin</t>
+  </si>
+  <si>
+    <t>Warlock</t>
+  </si>
+  <si>
+    <t>Supporting Content Needs Clean Up</t>
+  </si>
+  <si>
+    <t>Apothecary</t>
+  </si>
+  <si>
+    <t>Humanoid(Any Race)</t>
+  </si>
+  <si>
+    <t>Humanoid(Human, Shapechanger)</t>
+  </si>
+  <si>
+    <t>Cauldron Warlock</t>
+  </si>
+  <si>
+    <t>Great Cauldron Warlock</t>
+  </si>
+  <si>
+    <t>Legendary Cauldron Warlock</t>
+  </si>
+  <si>
+    <t>Spectacle Bard</t>
+  </si>
+  <si>
+    <t>Kinetic Artist</t>
+  </si>
+  <si>
+    <t>Field Historian</t>
+  </si>
+  <si>
+    <t>Combat Professor</t>
+  </si>
+  <si>
+    <t>Lightscribe</t>
+  </si>
+  <si>
+    <t>Radiant Professor</t>
+  </si>
+  <si>
+    <t>Geometry Druid</t>
+  </si>
+  <si>
+    <t>Arch Geometry Druid</t>
+  </si>
+  <si>
+    <t>Geese</t>
+  </si>
+  <si>
+    <t>Goose</t>
+  </si>
+  <si>
+    <t>Gaggle of Geese</t>
+  </si>
+  <si>
+    <t>Swarm of Beasts</t>
+  </si>
+  <si>
+    <t>Giant Flightless Goose</t>
+  </si>
+  <si>
+    <t>Golden Goose</t>
+  </si>
+  <si>
+    <t>Mishievous Goose</t>
+  </si>
+  <si>
+    <t>Turkeys</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Lesser Dungeon Turkey</t>
+  </si>
+  <si>
+    <t>Greater Dungeon Turkey</t>
+  </si>
+  <si>
+    <t>Water Horses</t>
+  </si>
+  <si>
+    <t>Kelpie</t>
+  </si>
+  <si>
+    <t>Nuggle</t>
+  </si>
+  <si>
+    <t>Nykur</t>
+  </si>
+  <si>
+    <t>Water Stallions</t>
+  </si>
+  <si>
+    <t>Water Stallion</t>
+  </si>
+  <si>
+    <t>Toads</t>
+  </si>
+  <si>
+    <t>Toad</t>
+  </si>
+  <si>
+    <t>Giant Toad</t>
+  </si>
+  <si>
+    <t>Knot of Toads</t>
+  </si>
+  <si>
+    <t>Hypnotoad</t>
+  </si>
+  <si>
+    <t>Monstrosity</t>
+  </si>
+  <si>
+    <t>Giant Hypnotoad</t>
+  </si>
+  <si>
+    <t>Gitrog</t>
+  </si>
+  <si>
+    <t>Yule Cat</t>
+  </si>
+  <si>
+    <t>Mishipeshu</t>
+  </si>
+  <si>
+    <t>Elder Mishipeshu</t>
+  </si>
+  <si>
+    <t>Mishipeshu River Lord</t>
+  </si>
+  <si>
+    <t>The Damned River</t>
+  </si>
+  <si>
+    <t>Gunk Spawn</t>
+  </si>
+  <si>
+    <t>Gnawed Effigy</t>
+  </si>
+  <si>
+    <t>A Wicked Brew</t>
+  </si>
+  <si>
+    <t>Cauldron Toad</t>
+  </si>
+  <si>
+    <t>Giant Cauldron Toad</t>
+  </si>
+  <si>
+    <t>Knot of Cauldron Toads</t>
+  </si>
+  <si>
+    <t>Swarm of Monstrosities</t>
+  </si>
+  <si>
+    <t>Monstrous Cauldron Toad</t>
+  </si>
+  <si>
+    <t>New/Revised</t>
+  </si>
+  <si>
+    <t>New Cantrip Invocations</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Source Document</t>
+  </si>
+  <si>
+    <t>Spell Level</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>Artificer</t>
+  </si>
+  <si>
+    <t>Sorcerer</t>
+  </si>
+  <si>
+    <t>Wizard</t>
+  </si>
+  <si>
+    <t>Rarity</t>
+  </si>
+  <si>
+    <t>Attunement</t>
+  </si>
+  <si>
+    <t>Cost(gp)</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t># of Effects</t>
+  </si>
+  <si>
+    <t>Uncommon</t>
+  </si>
+  <si>
+    <t>Item Type</t>
+  </si>
+  <si>
+    <t>Rod</t>
+  </si>
+  <si>
+    <t>Wonderous Item</t>
+  </si>
+  <si>
+    <t>Crystal Slippers</t>
+  </si>
+  <si>
+    <t>Revised Elemental Spells</t>
+  </si>
+  <si>
+    <t>New Elemental Spells</t>
+  </si>
+  <si>
+    <t>Fireworks</t>
+  </si>
+  <si>
+    <t>Player Race: Trolls</t>
+  </si>
+  <si>
+    <t>Spellcasting Feats</t>
+  </si>
+  <si>
+    <t>Armor of Wrath</t>
+  </si>
+  <si>
+    <t>Armor(Heavy)</t>
+  </si>
+  <si>
+    <t>Very Rare</t>
+  </si>
+  <si>
+    <t>Beguiling Gem</t>
+  </si>
+  <si>
+    <t>Rare</t>
+  </si>
+  <si>
+    <t>Blade of Fate</t>
+  </si>
+  <si>
+    <t>Weapon(Any Sword)</t>
+  </si>
+  <si>
+    <t>Blood Blade</t>
+  </si>
+  <si>
+    <t>Weapon(Greatsword)</t>
+  </si>
+  <si>
+    <t>Carnage Axe</t>
+  </si>
+  <si>
+    <t>Weapon(Any Axe)</t>
+  </si>
+  <si>
+    <t>Collar of Scorn</t>
+  </si>
+  <si>
+    <t>Legendary</t>
+  </si>
+  <si>
+    <t>Cursed?</t>
+  </si>
+  <si>
+    <t>Chromatic Tome</t>
+  </si>
+  <si>
+    <t>Enrapturing Instrument</t>
+  </si>
+  <si>
+    <t>Fetid Shroud</t>
+  </si>
+  <si>
+    <t>Flail of Pestilence</t>
+  </si>
+  <si>
+    <t>Weapon (Flail)</t>
+  </si>
+  <si>
+    <t>Flesh Peeling Bell</t>
+  </si>
+  <si>
+    <t>Helm of the Blighter</t>
+  </si>
+  <si>
+    <t>Instrument of Maddening Inspiration</t>
+  </si>
+  <si>
+    <t>Lash of Despair</t>
+  </si>
+  <si>
+    <t>Weapon(Whip)</t>
+  </si>
+  <si>
+    <t>Magic Hand Gaurds +1</t>
+  </si>
+  <si>
+    <t>Magic Hand Gaurds +2</t>
+  </si>
+  <si>
+    <t>Magic Hand Gaurds +3</t>
+  </si>
+  <si>
+    <t>Mask of the Destroyer</t>
+  </si>
+  <si>
+    <t>Masque of Subversion</t>
+  </si>
+  <si>
+    <t>Paradoxical Armor</t>
+  </si>
+  <si>
+    <t>Armor(Any)</t>
+  </si>
+  <si>
+    <t>Rapier of Ecstatic Conquest</t>
+  </si>
+  <si>
+    <t>Weapon(Rapier)</t>
+  </si>
+  <si>
+    <t>Rot Blade</t>
+  </si>
+  <si>
+    <t>Weapon (Any Sword or Axe)</t>
+  </si>
+  <si>
+    <t>Shield of Growths</t>
+  </si>
+  <si>
+    <t>Staff of Change</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>Staff of Decay</t>
+  </si>
+  <si>
+    <t>Unfathomable Tome</t>
+  </si>
+  <si>
+    <t>Wand of Whimsy</t>
+  </si>
+  <si>
+    <t>Wand</t>
+  </si>
+  <si>
+    <t>Witstealer Sword</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -555,6 +912,12 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -888,11 +1251,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,7 +1263,7 @@
     <col min="1" max="1" width="33.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" style="7" customWidth="1"/>
     <col min="3" max="3" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -1078,7 +1441,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>32</v>
@@ -1101,7 +1464,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>32</v>
@@ -1121,7 +1484,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>32</v>
@@ -1144,7 +1507,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>42</v>
@@ -1167,7 +1530,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>42</v>
@@ -1190,7 +1553,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>42</v>
@@ -1213,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>53</v>
@@ -1233,7 +1596,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>56</v>
@@ -1256,7 +1619,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>56</v>
@@ -1279,7 +1642,7 @@
         <v>0.5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>56</v>
@@ -1302,7 +1665,7 @@
         <v>0.25</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>56</v>
@@ -1325,7 +1688,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>56</v>
@@ -1508,7 +1871,7 @@
         <v>9</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>90</v>
@@ -1531,7 +1894,7 @@
         <v>17</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>90</v>
@@ -1554,7 +1917,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>90</v>
@@ -1757,7 +2120,7 @@
         <v>5</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>104</v>
@@ -1771,7 +2134,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B42" s="7">
         <v>0</v>
@@ -1780,7 +2143,7 @@
         <v>112</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>64</v>
@@ -1791,7 +2154,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B43" s="7">
         <v>0.5</v>
@@ -1800,7 +2163,7 @@
         <v>112</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>64</v>
@@ -1811,16 +2174,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B44" s="7">
         <v>4</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>64</v>
@@ -1831,7 +2194,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B45" s="7">
         <v>0.5</v>
@@ -1840,12 +2203,812 @@
         <v>112</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F45" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B46" s="7">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B47" s="7">
+        <v>6</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" s="7">
+        <v>10</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" s="7">
+        <v>15</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" s="7">
+        <v>2</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51" s="7">
+        <v>7</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" s="7">
+        <v>3</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" s="7">
+        <v>7</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B54" s="7">
+        <v>2</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" s="7">
+        <v>8</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B56" s="7">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" s="7">
+        <v>5</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B58" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B59" s="7">
+        <v>2</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B60" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B61" s="7">
+        <v>3</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B62" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B63" s="7">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B64" s="7">
+        <v>1</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B65" s="7">
+        <v>5</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B66" s="7">
+        <v>5</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B67" s="7">
+        <v>2</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B68" s="7">
+        <v>8</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B69" s="7">
+        <v>11</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B70" s="7">
+        <v>0</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B71" s="7">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B72" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B73" s="7">
+        <v>1</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B74" s="7">
+        <v>5</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B75" s="7">
+        <v>8</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B76" s="7">
+        <v>8</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B77" s="7">
+        <v>5</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B78" s="7">
+        <v>10</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B79" s="7">
+        <v>14</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B80" s="7">
+        <v>8</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B81" s="7">
+        <v>1</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B82" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B83" s="7">
+        <v>4</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B84" s="7">
+        <v>3</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B85" s="7">
+        <v>8</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1895,6 +3058,35 @@
     <hyperlink ref="D43" r:id="rId42" xr:uid="{7A3BD16B-8858-465D-830F-AAF9665E5D89}"/>
     <hyperlink ref="D44" r:id="rId43" xr:uid="{094297A6-51FD-4AF3-9151-DD82513578E4}"/>
     <hyperlink ref="D45" r:id="rId44" xr:uid="{57546C68-ADAF-4334-B7C0-41099A192C4A}"/>
+    <hyperlink ref="D46" r:id="rId45" xr:uid="{ADD38CEC-06F2-44A7-9700-7CC10BA39E75}"/>
+    <hyperlink ref="D47" r:id="rId46" xr:uid="{E01695A3-B401-4B95-B970-6FA356FD3FE3}"/>
+    <hyperlink ref="D48" r:id="rId47" xr:uid="{E391D678-1D23-4E8E-9E23-A72E9FEB3068}"/>
+    <hyperlink ref="D49" r:id="rId48" xr:uid="{A97CE7D2-1460-454E-B0D2-40ECF741B2FE}"/>
+    <hyperlink ref="D50" r:id="rId49" xr:uid="{FE221D30-7AE1-4EEF-9D84-64C57824A934}"/>
+    <hyperlink ref="D51" r:id="rId50" xr:uid="{12CFBB73-4914-41EA-A225-9DAB15B39F17}"/>
+    <hyperlink ref="D52" r:id="rId51" xr:uid="{49D3FA59-466E-40C3-9307-189F4C25B515}"/>
+    <hyperlink ref="D53" r:id="rId52" xr:uid="{A2C2D73E-3C7B-4269-A2CE-AF2031165F1D}"/>
+    <hyperlink ref="D54" r:id="rId53" xr:uid="{69E37AD3-078C-4ABE-92E1-5B718FD5985B}"/>
+    <hyperlink ref="D55" r:id="rId54" xr:uid="{241E4031-2953-49CA-B78C-ABC6F4218C56}"/>
+    <hyperlink ref="D56" r:id="rId55" xr:uid="{E3FEE332-F12E-4767-B7A2-86D2D14995AA}"/>
+    <hyperlink ref="D57" r:id="rId56" xr:uid="{E09C3C30-4220-47F8-851F-249CDC2F3A48}"/>
+    <hyperlink ref="D58" r:id="rId57" xr:uid="{EA7B830B-8B1D-45C6-B3B0-11144454EBD8}"/>
+    <hyperlink ref="D59:D62" r:id="rId58" display="Geese" xr:uid="{D5210730-CAC4-4647-AA75-C5D2115D7346}"/>
+    <hyperlink ref="D63" r:id="rId59" xr:uid="{B920B403-CE2F-41DD-BC22-6D822A56A84E}"/>
+    <hyperlink ref="D64:D65" r:id="rId60" display="Turkeys" xr:uid="{6E8BC3F9-0861-45A7-A3B8-25095D91B78E}"/>
+    <hyperlink ref="D66" r:id="rId61" xr:uid="{3736D5CA-F738-41D8-B30D-E0D538BC03B0}"/>
+    <hyperlink ref="D67:D68" r:id="rId62" display="Water Horses" xr:uid="{835CBD62-F67E-4BED-888A-79F84748E32F}"/>
+    <hyperlink ref="D69" r:id="rId63" xr:uid="{B9B62ADC-6AD3-4200-AEA5-3E04DF82CF90}"/>
+    <hyperlink ref="D70" r:id="rId64" xr:uid="{53847029-8BC7-4ACB-882F-3DA4BBFFFB48}"/>
+    <hyperlink ref="D71:D75" r:id="rId65" display="Toads" xr:uid="{60A942B1-A307-4EB4-BC0B-E436C5CDC583}"/>
+    <hyperlink ref="D76" r:id="rId66" xr:uid="{BBE390BC-F63A-47C8-9FF8-9A80F2A42018}"/>
+    <hyperlink ref="D77" r:id="rId67" xr:uid="{376FE528-A053-44C1-AE1C-3C3C7B615EA2}"/>
+    <hyperlink ref="D78:D79" r:id="rId68" display="Mishipeshu" xr:uid="{BAF42D5B-FD22-4743-8043-DC2F1941E1D8}"/>
+    <hyperlink ref="D81" r:id="rId69" xr:uid="{5805A097-BC9D-4685-86E0-E30134117A8D}"/>
+    <hyperlink ref="D80" r:id="rId70" xr:uid="{32007A61-8128-435C-8AA0-543B2ECD8C9F}"/>
+    <hyperlink ref="D82" r:id="rId71" xr:uid="{9EACEB53-922E-4BE1-9434-4CA25F45F00A}"/>
+    <hyperlink ref="D83:D84" r:id="rId72" display="A Wicked Brew" xr:uid="{8CC7516F-2F79-47F4-954B-DD7D68021827}"/>
+    <hyperlink ref="D85" r:id="rId73" xr:uid="{DA59FB52-321A-4018-A2EA-F3850051FF44}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1902,11 +3094,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8015A8-CD76-4317-A710-EE332EB4DCD2}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2473,7 +3665,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>15</v>
@@ -2493,7 +3685,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>15</v>
@@ -2508,12 +3700,12 @@
         <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>64</v>
@@ -2528,12 +3720,12 @@
         <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>64</v>
@@ -2548,12 +3740,12 @@
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>64</v>
@@ -2573,10 +3765,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>49</v>
@@ -2588,12 +3780,12 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>64</v>
@@ -2608,12 +3800,12 @@
         <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>64</v>
@@ -2628,15 +3820,15 @@
         <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>49</v>
@@ -2653,10 +3845,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>49</v>
@@ -2673,10 +3865,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>49</v>
@@ -2693,10 +3885,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>49</v>
@@ -2713,10 +3905,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>49</v>
@@ -2733,10 +3925,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>49</v>
@@ -2753,10 +3945,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>49</v>
@@ -2773,10 +3965,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>49</v>
@@ -2793,10 +3985,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>49</v>
@@ -2813,10 +4005,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>49</v>
@@ -2833,10 +4025,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>49</v>
@@ -2848,15 +4040,15 @@
         <v>1</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>49</v>
@@ -2871,15 +4063,15 @@
         <v>26</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>49</v>
@@ -2894,10 +4086,331 @@
         <v>38</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{C55CB9CD-89FC-41D2-BE89-F83FEF576EBC}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{84669FF6-40B4-49C6-B700-AC57E54B7D84}"/>
@@ -2946,25 +4459,41 @@
     <hyperlink ref="A43" r:id="rId45" xr:uid="{EF232471-F9BF-4790-BF60-4D6873A50B9D}"/>
     <hyperlink ref="A44" r:id="rId46" xr:uid="{9FDC9976-771C-44CA-90AD-3E685A462250}"/>
     <hyperlink ref="A45" r:id="rId47" xr:uid="{C387D933-12EE-4133-9F7E-4316BFB3C36D}"/>
+    <hyperlink ref="A49" r:id="rId48" xr:uid="{7F4A0F63-B5AC-4DE3-A745-E33AAC5B7B87}"/>
+    <hyperlink ref="A50" r:id="rId49" xr:uid="{6A5E754F-4DB1-45D1-9CFC-1A5059E4737E}"/>
+    <hyperlink ref="A51" r:id="rId50" xr:uid="{3FDEA5A7-57B5-40A6-9E7A-7EDF4D7D9BEF}"/>
+    <hyperlink ref="A52" r:id="rId51" xr:uid="{A4CCFE41-7B5C-4F43-BC67-914085CA9E77}"/>
+    <hyperlink ref="A53" r:id="rId52" xr:uid="{D7A44C96-38AF-4CC3-B1AC-939A90FC7606}"/>
+    <hyperlink ref="A54" r:id="rId53" xr:uid="{4DF06760-F5C0-4B36-8A6E-2AF428B4841F}"/>
+    <hyperlink ref="A55" r:id="rId54" xr:uid="{823C84F9-8E46-44DE-8CFE-D6D79616E9AB}"/>
+    <hyperlink ref="A56" r:id="rId55" xr:uid="{F837A5BB-A4D8-4FB0-8054-7744319A4A07}"/>
+    <hyperlink ref="A57" r:id="rId56" xr:uid="{BEE8A103-A25E-41ED-8A83-2C2526652AF4}"/>
+    <hyperlink ref="A58" r:id="rId57" xr:uid="{29B0F2FA-57E4-40D5-AD93-D74BD18E64E7}"/>
+    <hyperlink ref="A59" r:id="rId58" xr:uid="{61B1C35B-867F-48BF-A055-C2EE16407ED4}"/>
+    <hyperlink ref="A60" r:id="rId59" xr:uid="{ED7E00BE-81F0-4E89-A789-9A410F15A510}"/>
+    <hyperlink ref="A61" r:id="rId60" xr:uid="{51C907B6-F720-4FC0-A001-A8B24CEC6B50}"/>
+    <hyperlink ref="A62" r:id="rId61" xr:uid="{D76022EE-A7CB-4E71-9E8F-38BBF0A2D1C0}"/>
+    <hyperlink ref="A63" r:id="rId62" xr:uid="{934BAAED-90F7-4112-AC56-DBC1B05CCB8E}"/>
+    <hyperlink ref="A64" r:id="rId63" display="Spell Casting Feats" xr:uid="{7866684D-7A4E-4DF6-910F-623213CA2205}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId48"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId64"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E52FED-6497-4FDC-A0DA-7ECEAA0549B9}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -3157,22 +4686,22 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>49</v>
@@ -3183,22 +4712,22 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>49</v>
@@ -3209,16 +4738,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>17</v>
@@ -3235,28 +4764,158 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>49</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>133</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3271,67 +4930,148 @@
     <hyperlink ref="C9" r:id="rId8" xr:uid="{32D3AEAD-DC96-4E4A-A814-B820CCCBC9D8}"/>
     <hyperlink ref="C10" r:id="rId9" xr:uid="{71F8E491-3602-4733-A77C-1F129B96DD15}"/>
     <hyperlink ref="C11" r:id="rId10" xr:uid="{7B0C47BA-6BF0-43D4-97A3-DEC3DD41DE80}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{6B42B538-626A-4AED-88BB-CE788905EFAA}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{A5D00F7F-CAF6-4692-99AF-364156BB3E99}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{DA8C1FF8-D707-497A-8BB3-1402B5C00BBF}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{C083E929-5CF3-4052-85EB-11B89BC99501}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{386B58F7-C010-4574-A086-788FF9F2A52B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C264C694-D993-4798-AD5F-1273142184DE}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD42EE7F-9159-4C80-95B9-C05FE7C82AF2}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{BF831952-A8A4-4D67-87F9-EC49AF5853BF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA34B2A-4FD8-4E9E-8D47-80725278EFC3}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C264C694-D993-4798-AD5F-1273142184DE}">
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="33.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3342,97 +5082,886 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDE69A5-0DEA-4E6C-8C42-A4C78FD0BD58}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="C2" s="1">
+        <v>100</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6000</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9000</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="1">
+        <v>50000</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" s="1">
+        <v>12000</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C14" s="1">
+        <v>6000</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C15" s="1">
+        <v>24000</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" s="1">
+        <v>26000</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C17" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C23" s="1">
+        <v>9000</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C25" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C29" s="1">
+        <v>15000</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C30" s="1">
+        <v>26000</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C31" s="1">
+        <v>8000</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C32" s="1">
+        <v>24000</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FD0084-15F3-4E8F-BDC9-AA450191B803}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
     </row>

--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5936ABE7-C3A1-415A-9E29-EDEBA3EEB7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD4BCBB-609F-4407-B008-3FADBB279579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="312">
   <si>
     <t>Name</t>
   </si>
@@ -715,9 +715,6 @@
     <t>Cost(gp)</t>
   </si>
   <si>
-    <t>Requirement</t>
-  </si>
-  <si>
     <t># of Effects</t>
   </si>
   <si>
@@ -745,6 +742,9 @@
     <t>Fireworks</t>
   </si>
   <si>
+    <t>Trolls</t>
+  </si>
+  <si>
     <t>Player Race: Trolls</t>
   </si>
   <si>
@@ -878,13 +878,136 @@
   </si>
   <si>
     <t>Witstealer Sword</t>
+  </si>
+  <si>
+    <t>Tigers</t>
+  </si>
+  <si>
+    <t>Tiger</t>
+  </si>
+  <si>
+    <t>Dire Tiger</t>
+  </si>
+  <si>
+    <t>Weretiger</t>
+  </si>
+  <si>
+    <t>Equation Master</t>
+  </si>
+  <si>
+    <t>Material Master</t>
+  </si>
+  <si>
+    <t>Scroll Master</t>
+  </si>
+  <si>
+    <t>Somatic Master</t>
+  </si>
+  <si>
+    <t>Verbal Master</t>
+  </si>
+  <si>
+    <t>Prerequisite</t>
+  </si>
+  <si>
+    <t>A spellcasting feature that grants spell slots</t>
+  </si>
+  <si>
+    <t>The ability to cast at least one spell</t>
+  </si>
+  <si>
+    <t>The ability to use spell scrolls</t>
+  </si>
+  <si>
+    <t>Acid Rain</t>
+  </si>
+  <si>
+    <t>Evocation</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Acid Wave</t>
+  </si>
+  <si>
+    <t>Bolt of Change</t>
+  </si>
+  <si>
+    <t>Trasmutation</t>
+  </si>
+  <si>
+    <t>Cacophonic Caress</t>
+  </si>
+  <si>
+    <t>Chaos Storm</t>
+  </si>
+  <si>
+    <t>Frost Nova</t>
+  </si>
+  <si>
+    <t>Glean Magic</t>
+  </si>
+  <si>
+    <t>Divination</t>
+  </si>
+  <si>
+    <t>Inflict Rot</t>
+  </si>
+  <si>
+    <t>Necromancy</t>
+  </si>
+  <si>
+    <t>Miasma of Pestilence</t>
+  </si>
+  <si>
+    <t>Conjuration</t>
+  </si>
+  <si>
+    <t>Overdrive</t>
+  </si>
+  <si>
+    <t>Puddle of Ooze</t>
+  </si>
+  <si>
+    <t>Slicing Shards</t>
+  </si>
+  <si>
+    <t>Static Field</t>
+  </si>
+  <si>
+    <t>Stream of Corruption</t>
+  </si>
+  <si>
+    <t>Acid Arrow</t>
+  </si>
+  <si>
+    <t>Revised</t>
+  </si>
+  <si>
+    <t>Elemental Weapon</t>
+  </si>
+  <si>
+    <t>Flame Arrows</t>
+  </si>
+  <si>
+    <t>Flame Blade</t>
+  </si>
+  <si>
+    <t>Snilloc's Snowball Storm</t>
+  </si>
+  <si>
+    <t>Storm of Vengeance</t>
+  </si>
+  <si>
+    <t>Witch Bolt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -922,6 +1045,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -944,7 +1075,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -968,6 +1099,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="12" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1251,11 +1394,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3009,6 +3152,66 @@
         <v>131</v>
       </c>
       <c r="F85" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B86" s="7">
+        <v>3</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B87" s="7">
+        <v>4</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B88" s="7">
+        <v>4</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3087,6 +3290,9 @@
     <hyperlink ref="D82" r:id="rId71" xr:uid="{9EACEB53-922E-4BE1-9434-4CA25F45F00A}"/>
     <hyperlink ref="D83:D84" r:id="rId72" display="A Wicked Brew" xr:uid="{8CC7516F-2F79-47F4-954B-DD7D68021827}"/>
     <hyperlink ref="D85" r:id="rId73" xr:uid="{DA59FB52-321A-4018-A2EA-F3850051FF44}"/>
+    <hyperlink ref="D86" r:id="rId74" xr:uid="{30888777-3C22-4812-8CF7-6C3657A8345E}"/>
+    <hyperlink ref="D87" r:id="rId75" xr:uid="{5BBE3482-35FC-4EA0-AA26-64236FE929AA}"/>
+    <hyperlink ref="D88" r:id="rId76" xr:uid="{693047A9-B752-496F-8718-465CAC53BA65}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3094,11 +3300,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8015A8-CD76-4317-A710-EE332EB4DCD2}">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4291,7 +4497,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>131</v>
@@ -4311,7 +4517,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>131</v>
@@ -4331,7 +4537,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>131</v>
@@ -4351,7 +4557,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>131</v>
@@ -4406,6 +4612,26 @@
         <v>36</v>
       </c>
       <c r="F64" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4475,9 +4701,10 @@
     <hyperlink ref="A62" r:id="rId61" xr:uid="{D76022EE-A7CB-4E71-9E8F-38BBF0A2D1C0}"/>
     <hyperlink ref="A63" r:id="rId62" xr:uid="{934BAAED-90F7-4112-AC56-DBC1B05CCB8E}"/>
     <hyperlink ref="A64" r:id="rId63" display="Spell Casting Feats" xr:uid="{7866684D-7A4E-4DF6-910F-623213CA2205}"/>
+    <hyperlink ref="A65" r:id="rId64" xr:uid="{C262916F-172D-438D-929F-FED0C5C87A1C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId64"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId65"/>
 </worksheet>
 </file>
 
@@ -4486,7 +4713,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4494,37 +4721,37 @@
     <col min="1" max="1" width="33.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="33.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4945,33 +5172,34 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5002,77 +5230,980 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C264C694-D993-4798-AD5F-1273142184DE}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="9" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" s="2">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C12" s="2">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C22" s="2">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -5084,50 +6215,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDE69A5-0DEA-4E6C-8C42-A4C78FD0BD58}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5136,13 +6268,13 @@
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C2" s="1">
         <v>100</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>27</v>
@@ -5162,10 +6294,10 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>49</v>
@@ -5185,10 +6317,10 @@
         <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>27</v>
@@ -5205,13 +6337,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>49</v>
@@ -5257,7 +6389,7 @@
         <v>231</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>232</v>
@@ -5358,7 +6490,7 @@
         <v>239</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C11" s="1">
         <v>50000</v>
@@ -5384,7 +6516,7 @@
         <v>242</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C12" s="1">
         <v>12000</v>
@@ -5410,7 +6542,7 @@
         <v>243</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>230</v>
@@ -5433,7 +6565,7 @@
         <v>244</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="1">
         <v>6000</v>
@@ -5485,7 +6617,7 @@
         <v>247</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C16" s="1">
         <v>26000</v>
@@ -5511,7 +6643,7 @@
         <v>248</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C17" s="1">
         <v>7000</v>
@@ -5537,7 +6669,7 @@
         <v>249</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>232</v>
@@ -5583,10 +6715,10 @@
         <v>252</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>27</v>
@@ -5606,7 +6738,7 @@
         <v>253</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>232</v>
@@ -5629,7 +6761,7 @@
         <v>254</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>230</v>
@@ -5652,7 +6784,7 @@
         <v>255</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C23" s="1">
         <v>9000</v>
@@ -5678,7 +6810,7 @@
         <v>256</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>240</v>
@@ -5756,7 +6888,7 @@
         <v>1000</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>49</v>
@@ -5776,7 +6908,7 @@
         <v>263</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C28" s="1">
         <v>3000</v>
@@ -5854,7 +6986,7 @@
         <v>267</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C31" s="1">
         <v>8000</v>
@@ -5932,80 +7064,193 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FD0084-15F3-4E8F-BDC9-AA450191B803}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="Spell Casting Feats" xr:uid="{8D818956-9C64-44E1-881B-897C5E1F6D0F}"/>
+    <hyperlink ref="C3:C6" r:id="rId2" display="Spell Casting Feats" xr:uid="{BD4E7D68-9FA8-40F6-80E5-E0CF18A471B1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECB4EEB-6E0F-4DBC-8ACA-83CFF1219E40}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{274177BB-5649-4EFE-97E3-7A27204D194E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6015,30 +7260,31 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6084,33 +7330,34 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
     </row>

--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD4BCBB-609F-4407-B008-3FADBB279579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E61427-42FD-4E62-BF0F-14C899F726F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,20 @@
     <sheet name="Adventures" sheetId="9" r:id="rId9"/>
     <sheet name="Documents" sheetId="10" r:id="rId10"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Adventures!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Creatures!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">DMResources!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Documents!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Feats!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">MagicItems!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">NewClassFeatures!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Races!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Spells!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Subclasses!$A$1:$H$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="326">
   <si>
     <t>Name</t>
   </si>
@@ -159,9 +172,6 @@
   </si>
   <si>
     <t>1.0.0</t>
-  </si>
-  <si>
-    <t>1.0.4</t>
   </si>
   <si>
     <t>Playtest Ready</t>
@@ -229,9 +239,6 @@
     <t>Wereass</t>
   </si>
   <si>
-    <t>1.0.3</t>
-  </si>
-  <si>
     <t>Lore of Change</t>
   </si>
   <si>
@@ -268,9 +275,6 @@
     <t>Crocodilians</t>
   </si>
   <si>
-    <t>1.1.4</t>
-  </si>
-  <si>
     <t>Alligator</t>
   </si>
   <si>
@@ -301,9 +305,6 @@
     <t>Ranger Archetype - Frost Warden</t>
   </si>
   <si>
-    <t>0.0.3</t>
-  </si>
-  <si>
     <t>Cleric</t>
   </si>
   <si>
@@ -340,9 +341,6 @@
     <t>Demons of Decay</t>
   </si>
   <si>
-    <t>0.0.8</t>
-  </si>
-  <si>
     <t>Diseases</t>
   </si>
   <si>
@@ -370,9 +368,6 @@
     <t>Jaguars</t>
   </si>
   <si>
-    <t>1.2.0</t>
-  </si>
-  <si>
     <t>Jaguar</t>
   </si>
   <si>
@@ -679,9 +674,6 @@
     <t>Monstrous Cauldron Toad</t>
   </si>
   <si>
-    <t>New/Revised</t>
-  </si>
-  <si>
     <t>New Cantrip Invocations</t>
   </si>
   <si>
@@ -1001,6 +993,69 @@
   </si>
   <si>
     <t>Witch Bolt</t>
+  </si>
+  <si>
+    <t>Needs Review (Erin)</t>
+  </si>
+  <si>
+    <t>New/ Revised</t>
+  </si>
+  <si>
+    <t>Harpoons</t>
+  </si>
+  <si>
+    <t>Rats</t>
+  </si>
+  <si>
+    <t>Rat</t>
+  </si>
+  <si>
+    <t>Rat, Giant</t>
+  </si>
+  <si>
+    <t>Rat, Monstrous</t>
+  </si>
+  <si>
+    <t>Rat Swarm</t>
+  </si>
+  <si>
+    <t>Rat Tide</t>
+  </si>
+  <si>
+    <t>Rat Queen</t>
+  </si>
+  <si>
+    <t>Circle of Plagues</t>
+  </si>
+  <si>
+    <t>0.0.5</t>
+  </si>
+  <si>
+    <t>Main content just needs review by Erin</t>
+  </si>
+  <si>
+    <t>Ratfolk</t>
+  </si>
+  <si>
+    <t>Player Race: Ratfolk</t>
+  </si>
+  <si>
+    <t>Death Frenzy</t>
+  </si>
+  <si>
+    <t>Fissure</t>
+  </si>
+  <si>
+    <t>Smoke Shroud</t>
+  </si>
+  <si>
+    <t>Summon Swarm</t>
+  </si>
+  <si>
+    <t>World Sore</t>
+  </si>
+  <si>
+    <t>Lore of Vermin</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +1130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1113,12 +1168,991 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="114">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1394,21 +2428,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1418,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>1</v>
@@ -1444,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>14</v>
@@ -1464,7 +2498,7 @@
         <v>0.125</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>14</v>
@@ -1484,7 +2518,7 @@
         <v>0.5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>14</v>
@@ -1504,7 +2538,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>14</v>
@@ -1524,7 +2558,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>14</v>
@@ -1544,7 +2578,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>14</v>
@@ -1564,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>14</v>
@@ -1584,7 +2618,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>32</v>
@@ -1607,7 +2641,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>32</v>
@@ -1627,7 +2661,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>32</v>
@@ -1644,16 +2678,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="7">
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>15</v>
@@ -1667,16 +2701,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="7">
         <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>15</v>
@@ -1690,16 +2724,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="7">
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>15</v>
@@ -1713,16 +2747,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="7">
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>15</v>
@@ -1733,16 +2767,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" s="7">
         <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>15</v>
@@ -1756,16 +2790,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B17" s="7">
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>15</v>
@@ -1779,16 +2813,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B18" s="7">
         <v>0.5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>15</v>
@@ -1802,16 +2836,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B19" s="7">
         <v>0.25</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>15</v>
@@ -1825,16 +2859,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B20" s="7">
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>15</v>
@@ -1848,19 +2882,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B21" s="7">
         <v>0.5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>17</v>
@@ -1868,19 +2902,19 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B22" s="7">
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>17</v>
@@ -1888,19 +2922,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B23" s="7">
         <v>0.25</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>17</v>
@@ -1908,19 +2942,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B24" s="7">
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>17</v>
@@ -1928,19 +2962,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B25" s="7">
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>17</v>
@@ -1948,19 +2982,19 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B26" s="7">
         <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>17</v>
@@ -1968,19 +3002,19 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B27" s="7">
         <v>8</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>17</v>
@@ -1988,19 +3022,19 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B28" s="7">
         <v>0.5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>17</v>
@@ -2008,22 +3042,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B29" s="7">
         <v>9</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>33</v>
@@ -2031,22 +3065,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B30" s="7">
         <v>17</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>33</v>
@@ -2054,22 +3088,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B31" s="7">
         <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>33</v>
@@ -2077,19 +3111,19 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B32" s="7">
         <v>3</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>17</v>
@@ -2097,19 +3131,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B33" s="7">
         <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>17</v>
@@ -2117,19 +3151,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B34" s="7">
         <v>0.5</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>17</v>
@@ -2137,19 +3171,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B35" s="7">
         <v>2</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>17</v>
@@ -2157,19 +3191,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B36" s="7">
         <v>3</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>17</v>
@@ -2177,19 +3211,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B37" s="7">
         <v>0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>17</v>
@@ -2197,19 +3231,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B38" s="7">
         <v>0.125</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>17</v>
@@ -2217,19 +3251,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B39" s="7">
         <v>0.5</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>17</v>
@@ -2237,19 +3271,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B40" s="7">
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>17</v>
@@ -2257,19 +3291,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B41" s="7">
         <v>5</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>17</v>
@@ -2277,19 +3311,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B42" s="7">
         <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>64</v>
+        <v>305</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>17</v>
@@ -2297,19 +3331,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B43" s="7">
         <v>0.5</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>64</v>
+        <v>305</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>17</v>
@@ -2317,19 +3351,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B44" s="7">
         <v>4</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>64</v>
+        <v>305</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>17</v>
@@ -2337,19 +3371,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B45" s="7">
         <v>0.5</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>17</v>
@@ -2357,19 +3391,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B46" s="7">
         <v>2</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>64</v>
+        <v>305</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>17</v>
@@ -2377,19 +3411,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B47" s="7">
         <v>6</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>64</v>
+        <v>305</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>17</v>
@@ -2397,19 +3431,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B48" s="7">
         <v>10</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>64</v>
+        <v>305</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>17</v>
@@ -2417,19 +3451,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B49" s="7">
         <v>15</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>64</v>
+        <v>305</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>17</v>
@@ -2437,19 +3471,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B50" s="7">
         <v>2</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>131</v>
+        <v>305</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>17</v>
@@ -2457,19 +3491,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B51" s="7">
         <v>7</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>131</v>
+        <v>305</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>17</v>
@@ -2477,19 +3511,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B52" s="7">
         <v>3</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>131</v>
+        <v>305</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>17</v>
@@ -2497,19 +3531,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B53" s="7">
         <v>7</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>131</v>
+        <v>305</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>17</v>
@@ -2517,19 +3551,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B54" s="7">
         <v>2</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>17</v>
@@ -2537,19 +3571,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B55" s="7">
         <v>8</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>17</v>
@@ -2557,19 +3591,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B56" s="7">
         <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>17</v>
@@ -2577,19 +3611,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B57" s="7">
         <v>5</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>17</v>
@@ -2597,19 +3631,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B58" s="7">
         <v>0.125</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>17</v>
@@ -2617,19 +3651,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B59" s="7">
         <v>2</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>17</v>
@@ -2637,19 +3671,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B60" s="7">
         <v>0.25</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>17</v>
@@ -2657,19 +3691,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B61" s="7">
         <v>3</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>17</v>
@@ -2677,19 +3711,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B62" s="7">
         <v>0.5</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>17</v>
@@ -2697,19 +3731,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B63" s="7">
         <v>0</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>17</v>
@@ -2717,19 +3751,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B64" s="7">
         <v>1</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>17</v>
@@ -2737,19 +3771,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B65" s="7">
         <v>5</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>17</v>
@@ -2757,19 +3791,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B66" s="7">
         <v>5</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>17</v>
@@ -2777,19 +3811,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B67" s="7">
         <v>2</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>17</v>
@@ -2797,19 +3831,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B68" s="7">
         <v>8</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>17</v>
@@ -2817,19 +3851,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B69" s="7">
         <v>11</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>17</v>
@@ -2837,19 +3871,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B70" s="7">
         <v>0</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>17</v>
@@ -2857,19 +3891,19 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B71" s="7">
         <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>17</v>
@@ -2877,19 +3911,19 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B72" s="7">
         <v>0.25</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>17</v>
@@ -2897,19 +3931,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B73" s="7">
         <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>17</v>
@@ -2917,19 +3951,19 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B74" s="7">
         <v>5</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>17</v>
@@ -2937,19 +3971,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B75" s="7">
         <v>8</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>17</v>
@@ -2957,19 +3991,19 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B76" s="7">
         <v>8</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>17</v>
@@ -2977,19 +4011,19 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B77" s="7">
         <v>5</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>17</v>
@@ -2997,19 +4031,19 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B78" s="7">
         <v>10</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>17</v>
@@ -3017,19 +4051,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B79" s="7">
         <v>14</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>17</v>
@@ -3037,19 +4071,19 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B80" s="7">
         <v>8</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>17</v>
@@ -3057,19 +4091,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B81" s="7">
         <v>1</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>17</v>
@@ -3077,19 +4111,19 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B82" s="7">
         <v>0.125</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>17</v>
@@ -3097,19 +4131,19 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B83" s="7">
         <v>4</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>17</v>
@@ -3117,19 +4151,19 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B84" s="7">
         <v>3</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>17</v>
@@ -3137,19 +4171,19 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B85" s="7">
         <v>8</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>17</v>
@@ -3157,19 +4191,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B86" s="7">
         <v>3</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>17</v>
@@ -3177,19 +4211,19 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B87" s="7">
         <v>4</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>17</v>
@@ -3197,25 +4231,166 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B88" s="7">
         <v>4</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B89" s="7">
+        <v>0</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B90" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B91" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B92" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B93" s="7">
+        <v>3</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B94" s="7">
+        <v>1</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="containsText" dxfId="113" priority="1" operator="containsText" text="Playtest Ready">
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="112" priority="2" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="111" priority="3" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="110" priority="4" operator="containsText" text="Needs Clean Up">
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="109" priority="5" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="108" priority="6" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{501F6465-8360-4501-987A-54A9C1C9FDBE}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{925E34D7-8F2E-486A-84AA-DB91AC41958D}"/>
@@ -3293,37 +4468,39 @@
     <hyperlink ref="D86" r:id="rId74" xr:uid="{30888777-3C22-4812-8CF7-6C3657A8345E}"/>
     <hyperlink ref="D87" r:id="rId75" xr:uid="{5BBE3482-35FC-4EA0-AA26-64236FE929AA}"/>
     <hyperlink ref="D88" r:id="rId76" xr:uid="{693047A9-B752-496F-8718-465CAC53BA65}"/>
+    <hyperlink ref="D89" r:id="rId77" xr:uid="{EA81FD11-3461-41B1-B006-E69F57550A4D}"/>
+    <hyperlink ref="D90:D94" r:id="rId78" display="Rats" xr:uid="{79B6CD7B-C87E-4410-816A-A16E47DEA79A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId79"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8015A8-CD76-4317-A710-EE332EB4DCD2}">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="12" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="58.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="12" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3331,7 +4508,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>6</v>
@@ -3340,13 +4517,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -3354,7 +4528,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>17</v>
@@ -3362,11 +4536,8 @@
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -3374,7 +4545,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>17</v>
@@ -3382,11 +4553,8 @@
       <c r="E3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -3394,7 +4562,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>17</v>
@@ -3402,11 +4570,8 @@
       <c r="E4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -3414,7 +4579,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>17</v>
@@ -3422,19 +4587,16 @@
       <c r="E5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>25</v>
@@ -3442,11 +4604,8 @@
       <c r="E6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -3462,13 +4621,10 @@
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
@@ -3482,13 +4638,10 @@
       <c r="E8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>15</v>
@@ -3502,13 +4655,10 @@
       <c r="E9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>15</v>
@@ -3522,19 +4672,16 @@
       <c r="E10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>25</v>
@@ -3543,21 +4690,18 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>17</v>
@@ -3565,13 +4709,10 @@
       <c r="E12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>15</v>
@@ -3585,13 +4726,10 @@
       <c r="E13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>15</v>
@@ -3605,13 +4743,10 @@
       <c r="E14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
@@ -3625,19 +4760,16 @@
       <c r="E15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>17</v>
@@ -3645,19 +4777,16 @@
       <c r="E16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>17</v>
@@ -3665,19 +4794,16 @@
       <c r="E17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>25</v>
@@ -3685,19 +4811,16 @@
       <c r="E18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>25</v>
@@ -3705,13 +4828,10 @@
       <c r="E19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>15</v>
@@ -3725,13 +4845,10 @@
       <c r="E20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>15</v>
@@ -3745,13 +4862,10 @@
       <c r="E21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>15</v>
@@ -3765,16 +4879,13 @@
       <c r="E22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>27</v>
@@ -3785,19 +4896,16 @@
       <c r="E23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>25</v>
@@ -3805,19 +4913,16 @@
       <c r="E24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>17</v>
@@ -3825,19 +4930,16 @@
       <c r="E25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>17</v>
@@ -3845,19 +4947,16 @@
       <c r="E26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>17</v>
@@ -3865,19 +4964,16 @@
       <c r="E27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>15</v>
+        <v>305</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>17</v>
@@ -3885,19 +4981,16 @@
       <c r="E28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>17</v>
@@ -3905,19 +4998,16 @@
       <c r="E29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>64</v>
+        <v>305</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>17</v>
@@ -3925,19 +5015,16 @@
       <c r="E30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>64</v>
+        <v>305</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>17</v>
@@ -3945,19 +5032,16 @@
       <c r="E31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>64</v>
+        <v>305</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>17</v>
@@ -3965,19 +5049,16 @@
       <c r="E32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>17</v>
@@ -3986,18 +5067,18 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>64</v>
+        <v>305</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>25</v>
@@ -4005,19 +5086,16 @@
       <c r="E34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>64</v>
+        <v>305</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>25</v>
@@ -4025,19 +5103,16 @@
       <c r="E35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>131</v>
+        <v>305</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>17</v>
@@ -4045,19 +5120,16 @@
       <c r="E36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>131</v>
+        <v>305</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>25</v>
@@ -4065,19 +5137,16 @@
       <c r="E37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>131</v>
+        <v>305</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>25</v>
@@ -4085,19 +5154,16 @@
       <c r="E38" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>131</v>
+        <v>305</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>17</v>
@@ -4105,19 +5171,16 @@
       <c r="E39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>131</v>
+        <v>305</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>25</v>
@@ -4125,19 +5188,16 @@
       <c r="E40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>131</v>
+        <v>305</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>25</v>
@@ -4145,19 +5205,16 @@
       <c r="E41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>131</v>
+        <v>305</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>17</v>
@@ -4165,19 +5222,16 @@
       <c r="E42" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>25</v>
@@ -4185,19 +5239,16 @@
       <c r="E43" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>25</v>
@@ -4205,19 +5256,16 @@
       <c r="E44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>17</v>
@@ -4225,19 +5273,16 @@
       <c r="E45" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>25</v>
@@ -4245,19 +5290,16 @@
       <c r="E46" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>25</v>
@@ -4266,21 +5308,18 @@
         <v>1</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>17</v>
@@ -4289,18 +5328,15 @@
         <v>36</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>27</v>
@@ -4311,16 +5347,13 @@
       <c r="E49" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>27</v>
@@ -4331,16 +5364,13 @@
       <c r="E50" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>27</v>
@@ -4351,16 +5381,13 @@
       <c r="E51" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>27</v>
@@ -4371,16 +5398,13 @@
       <c r="E52" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>27</v>
@@ -4391,16 +5415,13 @@
       <c r="E53" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>27</v>
@@ -4411,16 +5432,13 @@
       <c r="E54" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>27</v>
@@ -4431,16 +5449,13 @@
       <c r="E55" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>27</v>
@@ -4451,16 +5466,13 @@
       <c r="E56" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>27</v>
@@ -4471,19 +5483,16 @@
       <c r="E57" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>17</v>
@@ -4491,19 +5500,16 @@
       <c r="E58" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>131</v>
+        <v>305</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>17</v>
@@ -4511,16 +5517,13 @@
       <c r="E59" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>27</v>
@@ -4531,16 +5534,13 @@
       <c r="E60" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>27</v>
@@ -4551,16 +5551,13 @@
       <c r="E61" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>27</v>
@@ -4571,19 +5568,16 @@
       <c r="E62" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>17</v>
@@ -4591,19 +5585,16 @@
       <c r="E63" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>17</v>
@@ -4611,19 +5602,16 @@
       <c r="E64" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>17</v>
@@ -4631,12 +5619,178 @@
       <c r="E65" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>38</v>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{6F8015A8-CD76-4317-A710-EE332EB4DCD2}"/>
   <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B24 B33 B40:B1048576">
+    <cfRule type="containsText" dxfId="65" priority="25" operator="containsText" text="Playtest Ready">
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",B1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="26" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",B1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="27" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",B1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="28" operator="containsText" text="Needs Clean Up">
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="29" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",B1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="30" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:B32">
+    <cfRule type="containsText" dxfId="59" priority="19" operator="containsText" text="Playtest Ready">
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",B25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="20" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",B25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="21" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",B25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="22" operator="containsText" text="Needs Clean Up">
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="55" priority="23" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",B25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="24" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",B25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34">
+    <cfRule type="containsText" dxfId="53" priority="13" operator="containsText" text="Playtest Ready">
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",B34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="14" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",B34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="15" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",B34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="16" operator="containsText" text="Needs Clean Up">
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="17" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",B34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="18" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",B34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="containsText" dxfId="47" priority="7" operator="containsText" text="Playtest Ready">
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",B35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="8" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",B35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="9" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",B35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="10" operator="containsText" text="Needs Clean Up">
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="11" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",B35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="12" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",B35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:B39">
+    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="Playtest Ready">
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",B36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="2" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",B36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="3" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",B36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="Needs Clean Up">
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",B36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",B36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{C55CB9CD-89FC-41D2-BE89-F83FEF576EBC}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{84669FF6-40B4-49C6-B700-AC57E54B7D84}"/>
@@ -4702,18 +5856,22 @@
     <hyperlink ref="A63" r:id="rId62" xr:uid="{934BAAED-90F7-4112-AC56-DBC1B05CCB8E}"/>
     <hyperlink ref="A64" r:id="rId63" display="Spell Casting Feats" xr:uid="{7866684D-7A4E-4DF6-910F-623213CA2205}"/>
     <hyperlink ref="A65" r:id="rId64" xr:uid="{C262916F-172D-438D-929F-FED0C5C87A1C}"/>
+    <hyperlink ref="A66" r:id="rId65" xr:uid="{0571E7CE-9098-4893-AFBB-E991F1149A93}"/>
+    <hyperlink ref="A67" r:id="rId66" xr:uid="{A5E59BB7-6B0C-4292-BC62-11240AA439EC}"/>
+    <hyperlink ref="A68" r:id="rId67" xr:uid="{9529DD90-02A3-453B-87D8-9715CEEDF28B}"/>
+    <hyperlink ref="A69" r:id="rId68" xr:uid="{7217EF99-1651-4840-8525-D36C44643DFD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId65"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId69"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E52FED-6497-4FDC-A0DA-7ECEAA0549B9}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4721,7 +5879,7 @@
     <col min="1" max="1" width="33.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="33.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -4739,7 +5897,7 @@
       <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="9" t="s">
@@ -4765,8 +5923,8 @@
       <c r="C2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>40</v>
+      <c r="D2" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -4783,16 +5941,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
@@ -4804,134 +5962,134 @@
         <v>27</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>73</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>77</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>73</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>73</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>64</v>
+        <v>117</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>305</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>15</v>
@@ -4939,94 +6097,94 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>64</v>
+        <v>121</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>305</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>64</v>
+        <v>122</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>305</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>64</v>
+        <v>124</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>305</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>305</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>17</v>
@@ -5035,24 +6193,24 @@
         <v>38</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>305</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>17</v>
@@ -5061,24 +6219,24 @@
         <v>38</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>17</v>
@@ -5087,24 +6245,24 @@
         <v>34</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>17</v>
@@ -5113,39 +6271,86 @@
         <v>38</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>64</v>
+        <v>126</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>305</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H1" xr:uid="{45E52FED-6497-4FDC-A0DA-7ECEAA0549B9}"/>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="containsText" dxfId="107" priority="1" operator="containsText" text="Playtest Ready">
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="2" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="105" priority="3" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="104" priority="4" operator="containsText" text="Needs Clean Up">
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="103" priority="5" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="102" priority="6" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{9046E2C3-2DD6-40E2-8C95-41BFEE30F58A}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{989B61CE-0668-402B-B3C6-E72E41726DEA}"/>
@@ -5162,6 +6367,7 @@
     <hyperlink ref="C14" r:id="rId13" xr:uid="{DA8C1FF8-D707-497A-8BB3-1402B5C00BBF}"/>
     <hyperlink ref="C15" r:id="rId14" xr:uid="{C083E929-5CF3-4052-85EB-11B89BC99501}"/>
     <hyperlink ref="C16" r:id="rId15" xr:uid="{386B58F7-C010-4574-A086-788FF9F2A52B}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{FF3F90C9-4B21-4B54-B248-CCFE57CCBE90}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5173,7 +6379,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5181,7 +6387,7 @@
     <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -5191,12 +6397,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="D1" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="9" t="s">
@@ -5205,22 +6411,43 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{DD42EE7F-9159-4C80-95B9-C05FE7C82AF2}"/>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="containsText" dxfId="101" priority="1" operator="containsText" text="Playtest Ready">
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="100" priority="2" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="99" priority="3" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="98" priority="4" operator="containsText" text="Needs Clean Up">
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="97" priority="5" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="96" priority="6" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{BF831952-A8A4-4D67-87F9-EC49AF5853BF}"/>
   </hyperlinks>
@@ -5230,92 +6457,92 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C264C694-D993-4798-AD5F-1273142184DE}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N24" sqref="N24"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" style="15" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="10" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>204</v>
+      <c r="B1" s="13" t="s">
+        <v>306</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>23</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="N1" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C2" s="2">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>27</v>
@@ -5327,7 +6554,7 @@
         <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>27</v>
@@ -5336,27 +6563,27 @@
         <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C3" s="2">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>27</v>
@@ -5368,7 +6595,7 @@
         <v>27</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>27</v>
@@ -5377,27 +6604,27 @@
         <v>27</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C4" s="2">
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>27</v>
@@ -5418,33 +6645,33 @@
         <v>27</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>27</v>
@@ -5459,10 +6686,10 @@
         <v>27</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>27</v>
@@ -5470,16 +6697,16 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C6" s="2">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>27</v>
@@ -5500,33 +6727,33 @@
         <v>27</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>27</v>
@@ -5541,27 +6768,27 @@
         <v>27</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>27</v>
@@ -5582,27 +6809,27 @@
         <v>27</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>27</v>
@@ -5623,27 +6850,27 @@
         <v>27</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C10" s="2">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>27</v>
@@ -5652,7 +6879,7 @@
         <v>27</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>27</v>
@@ -5667,30 +6894,30 @@
         <v>27</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>27</v>
@@ -5705,30 +6932,36 @@
         <v>27</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C12" s="2">
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>27</v>
@@ -5746,30 +6979,36 @@
         <v>27</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C13" s="2">
         <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>27</v>
@@ -5787,30 +7026,36 @@
         <v>27</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C14" s="2">
         <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>27</v>
@@ -5831,27 +7076,33 @@
         <v>27</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C15" s="2">
         <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>27</v>
@@ -5869,27 +7120,33 @@
         <v>27</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C16" s="2">
         <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>27</v>
@@ -5910,27 +7167,33 @@
         <v>27</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>27</v>
@@ -5951,30 +7214,36 @@
         <v>27</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>27</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C18" s="2">
         <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>27</v>
@@ -5983,39 +7252,45 @@
         <v>27</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>27</v>
@@ -6024,36 +7299,42 @@
         <v>27</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O19" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>27</v>
@@ -6065,7 +7346,7 @@
         <v>27</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>27</v>
@@ -6082,19 +7363,25 @@
       <c r="M20" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>27</v>
@@ -6106,7 +7393,7 @@
         <v>27</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>27</v>
@@ -6115,7 +7402,7 @@
         <v>27</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>27</v>
@@ -6123,60 +7410,72 @@
       <c r="M21" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C22" s="2">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>27</v>
@@ -6197,16 +7496,298 @@
         <v>27</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O23" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C25" s="2">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O25" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O26" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C27" s="2">
+        <v>3</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O27" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O28" s="15" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O1" xr:uid="{C264C694-D993-4798-AD5F-1273142184DE}"/>
+  <conditionalFormatting sqref="N1:N1048576">
+    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="Playtest Ready">
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",N1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="8" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",N1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="9" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",N1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="10" operator="containsText" text="Needs Clean Up">
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",N1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",N1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="12" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",N1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1048576">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Playtest Ready">
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",O1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",O1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",O1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Needs Clean Up">
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",O1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",O1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",O1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6217,20 +7798,20 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -6239,24 +7820,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="H1" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="9" t="s">
@@ -6268,13 +7849,13 @@
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C2" s="1">
         <v>100</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>27</v>
@@ -6294,13 +7875,13 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>27</v>
@@ -6317,10 +7898,10 @@
         <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>27</v>
@@ -6337,22 +7918,22 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>131</v>
+        <v>305</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>17</v>
@@ -6360,16 +7941,16 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C6" s="1">
         <v>6000</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>27</v>
@@ -6386,16 +7967,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>27</v>
@@ -6409,16 +7990,16 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C8" s="1">
         <v>2000</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>27</v>
@@ -6435,16 +8016,16 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C9" s="1">
         <v>1500</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>27</v>
@@ -6461,16 +8042,16 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C10" s="1">
         <v>9000</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>27</v>
@@ -6487,22 +8068,22 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C11" s="1">
         <v>50000</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>15</v>
@@ -6513,19 +8094,19 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C12" s="1">
         <v>12000</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>27</v>
@@ -6539,13 +8120,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>27</v>
@@ -6562,19 +8143,19 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C14" s="1">
         <v>6000</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>27</v>
@@ -6588,19 +8169,19 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C15" s="1">
         <v>24000</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>27</v>
@@ -6614,19 +8195,19 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C16" s="1">
         <v>26000</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>27</v>
@@ -6640,19 +8221,19 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C17" s="1">
         <v>7000</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>27</v>
@@ -6666,16 +8247,16 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>27</v>
@@ -6689,16 +8270,16 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>27</v>
@@ -6712,13 +8293,13 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>27</v>
@@ -6735,13 +8316,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>27</v>
@@ -6758,13 +8339,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>27</v>
@@ -6781,16 +8362,16 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C23" s="1">
         <v>9000</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>27</v>
@@ -6807,16 +8388,16 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>27</v>
@@ -6830,16 +8411,16 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C25" s="1">
         <v>20000</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>27</v>
@@ -6856,16 +8437,16 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>27</v>
@@ -6879,19 +8460,19 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C27" s="1">
         <v>1000</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>27</v>
@@ -6905,16 +8486,16 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C28" s="1">
         <v>3000</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>27</v>
@@ -6931,19 +8512,19 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C29" s="1">
         <v>15000</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>27</v>
@@ -6957,19 +8538,19 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C30" s="1">
         <v>26000</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>27</v>
@@ -6983,19 +8564,19 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C31" s="1">
         <v>8000</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>27</v>
@@ -7009,19 +8590,19 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C32" s="1">
         <v>24000</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>27</v>
@@ -7035,16 +8616,16 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>27</v>
@@ -7057,6 +8638,27 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I1" xr:uid="{2BDE69A5-0DEA-4E6C-8C42-A4C78FD0BD58}"/>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="containsText" dxfId="95" priority="1" operator="containsText" text="Playtest Ready">
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",H1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="2" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",H1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="93" priority="3" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",H1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="92" priority="4" operator="containsText" text="Needs Clean Up">
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",H1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="91" priority="5" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",H1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="90" priority="6" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",H1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -7068,16 +8670,16 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -7086,12 +8688,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="9" t="s">
@@ -7100,16 +8702,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>17</v>
@@ -7117,16 +8719,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>17</v>
@@ -7134,16 +8736,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>17</v>
@@ -7151,16 +8753,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>17</v>
@@ -7168,22 +8770,43 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{75FD0084-15F3-4E8F-BDC9-AA450191B803}"/>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="containsText" dxfId="89" priority="1" operator="containsText" text="Playtest Ready">
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="2" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="87" priority="3" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="86" priority="4" operator="containsText" text="Needs Clean Up">
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="5" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="84" priority="6" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="Spell Casting Feats" xr:uid="{8D818956-9C64-44E1-881B-897C5E1F6D0F}"/>
     <hyperlink ref="C3:C6" r:id="rId2" display="Spell Casting Feats" xr:uid="{BD4E7D68-9FA8-40F6-80E5-E0CF18A471B1}"/>
@@ -7194,20 +8817,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECB4EEB-6E0F-4DBC-8ACA-83CFF1219E40}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
@@ -7220,7 +8843,7 @@
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="11" t="s">
@@ -7232,24 +8855,80 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{8ECB4EEB-6E0F-4DBC-8ACA-83CFF1219E40}"/>
+  <conditionalFormatting sqref="C1:C2 C4:C1048576">
+    <cfRule type="containsText" dxfId="83" priority="7" operator="containsText" text="Playtest Ready">
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="8" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="81" priority="9" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="80" priority="10" operator="containsText" text="Needs Clean Up">
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="11" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="12" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="Playtest Ready">
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="4" operator="containsText" text="Needs Clean Up">
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="6" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",C3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{274177BB-5649-4EFE-97E3-7A27204D194E}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{1A331A7C-2FF4-428B-ABDA-855A9E15AA69}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7257,18 +8936,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2F1729-7251-4389-9641-85685F236F2B}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
@@ -7281,7 +8960,7 @@
       <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="9" t="s">
@@ -7290,13 +8969,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
@@ -7304,22 +8983,58 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>87</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{7A2F1729-7251-4389-9641-85685F236F2B}"/>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="containsText" dxfId="77" priority="1" operator="containsText" text="Playtest Ready">
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="2" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="4" operator="containsText" text="Needs Clean Up">
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="6" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{BD2521FD-FF87-4C8B-99BE-7B21AA39FFD0}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{D4EA4825-1487-4570-B412-DF8E221C1BA1}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{69A08EF4-ECA9-4141-8D49-5C1F1C1827E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7327,18 +9042,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EDD4A5-537C-4964-AE58-8E306F1BDAC3}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
@@ -7351,7 +9066,7 @@
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="9" t="s">
@@ -7361,7 +9076,66 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{12EDD4A5-537C-4964-AE58-8E306F1BDAC3}"/>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="Playtest Ready">
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="2" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="3" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="4" operator="containsText" text="Needs Clean Up">
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="5" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="6" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{3EFAC9F1-5F5A-4C59-93FD-3C2D517B2D1E}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{7B705A5F-9E61-4ED2-9B92-55A7CA95D80D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E61427-42FD-4E62-BF0F-14C899F726F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BA1189-919F-4DA9-859F-010C9D891B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Subclasses!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -55,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="334">
   <si>
     <t>Name</t>
   </si>
@@ -1056,6 +1055,30 @@
   </si>
   <si>
     <t>Lore of Vermin</t>
+  </si>
+  <si>
+    <t>Brood Horror</t>
+  </si>
+  <si>
+    <t>Hell Pit Abomination</t>
+  </si>
+  <si>
+    <t>Rat Ogre</t>
+  </si>
+  <si>
+    <t>Wererat</t>
+  </si>
+  <si>
+    <t>Wererat Plague Locus</t>
+  </si>
+  <si>
+    <t>Wolf Rat</t>
+  </si>
+  <si>
+    <t>Rat Monstrosities</t>
+  </si>
+  <si>
+    <t>Hell Pit Abomination should have name change</t>
   </si>
 </sst>
 </file>
@@ -1182,160 +1205,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="114">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="96">
     <dxf>
       <fill>
         <patternFill>
@@ -2428,11 +2298,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4089,7 +3959,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>190</v>
       </c>
@@ -4109,7 +3979,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>193</v>
       </c>
@@ -4129,7 +3999,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>194</v>
       </c>
@@ -4149,7 +4019,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>195</v>
       </c>
@@ -4169,7 +4039,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>197</v>
       </c>
@@ -4189,7 +4059,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>265</v>
       </c>
@@ -4209,7 +4079,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>266</v>
       </c>
@@ -4229,7 +4099,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>267</v>
       </c>
@@ -4249,7 +4119,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>309</v>
       </c>
@@ -4269,7 +4139,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>310</v>
       </c>
@@ -4289,7 +4159,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>311</v>
       </c>
@@ -4309,7 +4179,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>312</v>
       </c>
@@ -4329,7 +4199,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>313</v>
       </c>
@@ -4349,7 +4219,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>314</v>
       </c>
@@ -4366,28 +4236,151 @@
         <v>15</v>
       </c>
       <c r="F94" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B95" s="7">
+        <v>10</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B96" s="7">
+        <v>16</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B97" s="7">
+        <v>3</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B98" s="7">
+        <v>1</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B99" s="7">
+        <v>7</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B100" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="113" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="95" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="94" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="93" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="92" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="91" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="90" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4470,19 +4463,21 @@
     <hyperlink ref="D88" r:id="rId76" xr:uid="{693047A9-B752-496F-8718-465CAC53BA65}"/>
     <hyperlink ref="D89" r:id="rId77" xr:uid="{EA81FD11-3461-41B1-B006-E69F57550A4D}"/>
     <hyperlink ref="D90:D94" r:id="rId78" display="Rats" xr:uid="{79B6CD7B-C87E-4410-816A-A16E47DEA79A}"/>
+    <hyperlink ref="D95" r:id="rId79" xr:uid="{A054A175-4D56-424B-A5EE-CE8CD37CE674}"/>
+    <hyperlink ref="D96:D100" r:id="rId80" display="Rat Monstrosities" xr:uid="{B12095CB-C3DA-4859-9EA0-8B69C3713540}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId79"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId81"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8015A8-CD76-4317-A710-EE332EB4DCD2}">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A77" sqref="A77"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5603,7 +5598,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>264</v>
       </c>
@@ -5620,7 +5615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>308</v>
       </c>
@@ -5637,7 +5632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>315</v>
       </c>
@@ -5654,7 +5649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>319</v>
       </c>
@@ -5671,7 +5666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>325</v>
       </c>
@@ -5686,108 +5681,128 @@
       </c>
       <c r="E69" s="1" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{6F8015A8-CD76-4317-A710-EE332EB4DCD2}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B1:B24 B33 B40:B1048576">
-    <cfRule type="containsText" dxfId="65" priority="25" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="26" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="27" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="28" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="29" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="30" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B32">
-    <cfRule type="containsText" dxfId="59" priority="19" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="20" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="21" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="22" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="23" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="24" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="containsText" dxfId="53" priority="13" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="14" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="15" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="16" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="17" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="18" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="containsText" dxfId="47" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B39">
-    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B36)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5860,9 +5875,10 @@
     <hyperlink ref="A67" r:id="rId66" xr:uid="{A5E59BB7-6B0C-4292-BC62-11240AA439EC}"/>
     <hyperlink ref="A68" r:id="rId67" xr:uid="{9529DD90-02A3-453B-87D8-9715CEEDF28B}"/>
     <hyperlink ref="A69" r:id="rId68" xr:uid="{7217EF99-1651-4840-8525-D36C44643DFD}"/>
+    <hyperlink ref="A70" r:id="rId69" xr:uid="{D3FA5FEE-2DA5-49B7-906F-36E776202F93}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId69"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId70"/>
 </worksheet>
 </file>
 
@@ -6332,22 +6348,22 @@
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{45E52FED-6497-4FDC-A0DA-7ECEAA0549B9}"/>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="107" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="89" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="88" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="87" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="86" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="85" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="84" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6429,22 +6445,22 @@
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{DD42EE7F-9159-4C80-95B9-C05FE7C82AF2}"/>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="101" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="83" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="82" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="81" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="80" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="79" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="78" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7749,42 +7765,42 @@
   </sheetData>
   <autoFilter ref="A1:O1" xr:uid="{C264C694-D993-4798-AD5F-1273142184DE}"/>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="77" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="76" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="75" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="74" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="73" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="72" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="70" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="69" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="68" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="67" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="66" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",O1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8640,22 +8656,22 @@
   </sheetData>
   <autoFilter ref="A1:I1" xr:uid="{2BDE69A5-0DEA-4E6C-8C42-A4C78FD0BD58}"/>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="95" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="65" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="64" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="63" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="62" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="61" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="60" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8788,22 +8804,22 @@
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{75FD0084-15F3-4E8F-BDC9-AA450191B803}"/>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="89" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="59" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="58" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="56" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="54" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8887,42 +8903,42 @@
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{8ECB4EEB-6E0F-4DBC-8ACA-83CFF1219E40}"/>
   <conditionalFormatting sqref="C1:C2 C4:C1048576">
-    <cfRule type="containsText" dxfId="83" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="53" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="52" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="51" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="50" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="49" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="48" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="42" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9012,22 +9028,22 @@
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{7A2F1729-7251-4389-9641-85685F236F2B}"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="77" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="40" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="39" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9113,22 +9129,22 @@
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{12EDD4A5-537C-4964-AE58-8E306F1BDAC3}"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="32" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="30" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BA1189-919F-4DA9-859F-010C9D891B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4807208-DAD5-4F37-B54B-A0B6FFE2F229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,22 +17,23 @@
     <sheet name="Subclasses" sheetId="2" r:id="rId2"/>
     <sheet name="NewClassFeatures" sheetId="11" r:id="rId3"/>
     <sheet name="Spells" sheetId="3" r:id="rId4"/>
-    <sheet name="MagicItems" sheetId="5" r:id="rId5"/>
-    <sheet name="Feats" sheetId="6" r:id="rId6"/>
-    <sheet name="Races" sheetId="7" r:id="rId7"/>
-    <sheet name="DMResources" sheetId="8" r:id="rId8"/>
-    <sheet name="Adventures" sheetId="9" r:id="rId9"/>
-    <sheet name="Documents" sheetId="10" r:id="rId10"/>
+    <sheet name="Items" sheetId="12" r:id="rId5"/>
+    <sheet name="MagicItems" sheetId="5" r:id="rId6"/>
+    <sheet name="Feats" sheetId="6" r:id="rId7"/>
+    <sheet name="Races" sheetId="7" r:id="rId8"/>
+    <sheet name="DMResources" sheetId="8" r:id="rId9"/>
+    <sheet name="Adventures" sheetId="9" r:id="rId10"/>
+    <sheet name="Documents" sheetId="10" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Adventures!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Adventures!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Creatures!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">DMResources!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Documents!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Feats!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">MagicItems!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">DMResources!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Documents!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Feats!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">MagicItems!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">NewClassFeatures!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Races!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Races!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Spells!$A$1:$O$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Subclasses!$A$1:$H$1</definedName>
   </definedNames>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="371">
   <si>
     <t>Name</t>
   </si>
@@ -1079,6 +1080,117 @@
   </si>
   <si>
     <t>Hell Pit Abomination should have name change</t>
+  </si>
+  <si>
+    <t>Weapon</t>
+  </si>
+  <si>
+    <t>Harpoon Spear</t>
+  </si>
+  <si>
+    <t>Feat Type</t>
+  </si>
+  <si>
+    <t>Spellcasting</t>
+  </si>
+  <si>
+    <t>Independent Feats</t>
+  </si>
+  <si>
+    <t>Dagger Master</t>
+  </si>
+  <si>
+    <t>Impaler</t>
+  </si>
+  <si>
+    <t>Whip Master</t>
+  </si>
+  <si>
+    <t>Proficiency with daggers</t>
+  </si>
+  <si>
+    <t>Savage Endurance</t>
+  </si>
+  <si>
+    <t>Armored Berserker</t>
+  </si>
+  <si>
+    <t>Hulking Hurler</t>
+  </si>
+  <si>
+    <t>Rage Mage</t>
+  </si>
+  <si>
+    <t>At least 4 level in the barbarian class</t>
+  </si>
+  <si>
+    <t>Barbarin Class Feat</t>
+  </si>
+  <si>
+    <t>Plague Censer Fanatic</t>
+  </si>
+  <si>
+    <t>Plague Censers</t>
+  </si>
+  <si>
+    <t>Throwing Star Master</t>
+  </si>
+  <si>
+    <t>Throwing Stars</t>
+  </si>
+  <si>
+    <t>New Weapons</t>
+  </si>
+  <si>
+    <t>Harpoon Gun</t>
+  </si>
+  <si>
+    <t>Plague Censer</t>
+  </si>
+  <si>
+    <t>Throwing Star</t>
+  </si>
+  <si>
+    <t>This document will be taken down when we start our Patreon</t>
+  </si>
+  <si>
+    <t>Bull Shark</t>
+  </si>
+  <si>
+    <t>Great White Shark</t>
+  </si>
+  <si>
+    <t>Hammerhead Shark</t>
+  </si>
+  <si>
+    <t>Mako Shark</t>
+  </si>
+  <si>
+    <t>Reef Shark</t>
+  </si>
+  <si>
+    <t>Thresher Shark</t>
+  </si>
+  <si>
+    <t>Tiger Shark</t>
+  </si>
+  <si>
+    <t>Sharks</t>
+  </si>
+  <si>
+    <t>Plague Censer Bearer</t>
+  </si>
+  <si>
+    <t>Plague Censer Bearers</t>
+  </si>
+  <si>
+    <t>Humanoid</t>
+  </si>
+  <si>
+    <t>Night Runner</t>
+  </si>
+  <si>
+    <t>Night Runners</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1317,58 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="96">
+  <dxfs count="102">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2298,11 +2461,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E88" sqref="E88"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4362,25 +4525,205 @@
         <v>17</v>
       </c>
     </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B101" s="7">
+        <v>3</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B102" s="7">
+        <v>5</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B103" s="7">
+        <v>3</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B104" s="7">
+        <v>2</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B105" s="7">
+        <v>1</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B106" s="7">
+        <v>3</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B107" s="7">
+        <v>4</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B108" s="7">
+        <v>3</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B109" s="7">
+        <v>2</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="95" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="101" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="100" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="99" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="98" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="97" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="96" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4465,19 +4808,123 @@
     <hyperlink ref="D90:D94" r:id="rId78" display="Rats" xr:uid="{79B6CD7B-C87E-4410-816A-A16E47DEA79A}"/>
     <hyperlink ref="D95" r:id="rId79" xr:uid="{A054A175-4D56-424B-A5EE-CE8CD37CE674}"/>
     <hyperlink ref="D96:D100" r:id="rId80" display="Rat Monstrosities" xr:uid="{B12095CB-C3DA-4859-9EA0-8B69C3713540}"/>
+    <hyperlink ref="D101" r:id="rId81" xr:uid="{F3624BE0-A487-4238-8F0A-AADCDEC764D3}"/>
+    <hyperlink ref="D102:D107" r:id="rId82" display="Sharks" xr:uid="{E63A5F92-E366-4622-8F1F-35F237D7896E}"/>
+    <hyperlink ref="D108" r:id="rId83" display="Plague Censer Bearer" xr:uid="{2F24DF23-C8F6-4EAB-A71D-3AB23DD2112A}"/>
+    <hyperlink ref="D109" r:id="rId84" xr:uid="{33646707-D6F0-4BEA-9AA9-4542677708BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId81"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId85"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EDD4A5-537C-4964-AE58-8E306F1BDAC3}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{12EDD4A5-537C-4964-AE58-8E306F1BDAC3}"/>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="Playtest Ready">
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="4" operator="containsText" text="Needs Clean Up">
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="6" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{3EFAC9F1-5F5A-4C59-93FD-3C2D517B2D1E}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{7B705A5F-9E61-4ED2-9B92-55A7CA95D80D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8015A8-CD76-4317-A710-EE332EB4DCD2}">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
+      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5701,6 +6148,103 @@
       </c>
       <c r="F70" s="1" t="s">
         <v>333</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -5876,9 +6420,14 @@
     <hyperlink ref="A68" r:id="rId67" xr:uid="{9529DD90-02A3-453B-87D8-9715CEEDF28B}"/>
     <hyperlink ref="A69" r:id="rId68" xr:uid="{7217EF99-1651-4840-8525-D36C44643DFD}"/>
     <hyperlink ref="A70" r:id="rId69" xr:uid="{D3FA5FEE-2DA5-49B7-906F-36E776202F93}"/>
+    <hyperlink ref="A71" r:id="rId70" xr:uid="{9C2DF406-D818-444F-A61A-E1E9592B5887}"/>
+    <hyperlink ref="A72" r:id="rId71" xr:uid="{1CC9A2DB-118D-412A-A241-ABF99487F6B4}"/>
+    <hyperlink ref="A73" r:id="rId72" display="Plague Censer Bearer" xr:uid="{4370DB5D-3FC3-4EB9-A488-FFE7B09B3525}"/>
+    <hyperlink ref="A74" r:id="rId73" xr:uid="{C64D2F64-A496-4B75-B25B-8FEC6498C00A}"/>
+    <hyperlink ref="A75" r:id="rId74" xr:uid="{4BE50A41-A3BF-44C3-AD1B-B0E6194B9FDA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId70"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId75"/>
 </worksheet>
 </file>
 
@@ -5887,7 +6436,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6348,22 +6897,22 @@
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{45E52FED-6497-4FDC-A0DA-7ECEAA0549B9}"/>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="89" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="95" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="94" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="93" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="92" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="91" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="90" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6445,22 +6994,22 @@
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{DD42EE7F-9159-4C80-95B9-C05FE7C82AF2}"/>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="83" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="89" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="88" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="87" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="86" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="85" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="84" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7765,42 +8314,42 @@
   </sheetData>
   <autoFilter ref="A1:O1" xr:uid="{C264C694-D993-4798-AD5F-1273142184DE}"/>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="containsText" dxfId="77" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="83" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="82" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="81" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="80" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="79" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="78" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="77" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="76" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="74" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="72" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",O1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7809,6 +8358,140 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACF069B-924A-40FE-91D9-4FC2DC64FE41}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D1:D5">
+    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="Playtest Ready">
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="2" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="3" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="4" operator="containsText" text="Needs Clean Up">
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="5" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="6" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{CC9F76B0-4120-40E2-8D59-C8EC3C02CBCB}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{9CCBC16C-3905-4424-A2E4-F4234E908BD0}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{57EA43A4-C943-4D39-AAA9-E3AA59D7BAD8}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{3AFF4EA2-E191-4D8D-8050-71B5E48C8D50}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDE69A5-0DEA-4E6C-8C42-A4C78FD0BD58}">
   <dimension ref="A1:I33"/>
   <sheetViews>
@@ -8680,158 +9363,361 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FD0084-15F3-4E8F-BDC9-AA450191B803}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>268</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>269</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>270</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>271</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>272</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{75FD0084-15F3-4E8F-BDC9-AA450191B803}"/>
-  <conditionalFormatting sqref="D1:D1048576">
+  <autoFilter ref="A1:F1" xr:uid="{75FD0084-15F3-4E8F-BDC9-AA450191B803}"/>
+  <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="containsText" dxfId="59" priority="1" operator="containsText" text="Playtest Ready">
-      <formula>NOT(ISERROR(SEARCH("Playtest Ready",D1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="58" priority="2" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="56" priority="4" operator="containsText" text="Needs Clean Up">
-      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",D1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="54" priority="6" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Spell Casting Feats" xr:uid="{8D818956-9C64-44E1-881B-897C5E1F6D0F}"/>
-    <hyperlink ref="C3:C6" r:id="rId2" display="Spell Casting Feats" xr:uid="{BD4E7D68-9FA8-40F6-80E5-E0CF18A471B1}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{8D818956-9C64-44E1-881B-897C5E1F6D0F}"/>
+    <hyperlink ref="D3:D6" r:id="rId2" display="Independent Feats" xr:uid="{21464BF6-6E4D-4716-87A6-414741373543}"/>
+    <hyperlink ref="D7:D9" r:id="rId3" display="Independent Feats" xr:uid="{9BC31011-BDCB-4ED2-A0CD-AA6B3E0B9EDA}"/>
+    <hyperlink ref="D10:D13" r:id="rId4" display="Independent Feats" xr:uid="{E9F4BC65-574C-491C-B12F-C8754FF27EC4}"/>
+    <hyperlink ref="D14" r:id="rId5" xr:uid="{F16E9818-6A18-4211-B6B9-384E9F193F7C}"/>
+    <hyperlink ref="D15" r:id="rId6" xr:uid="{12CCD9A8-AFA3-4FEC-B0C8-CDDB45B44199}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECB4EEB-6E0F-4DBC-8ACA-83CFF1219E40}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -8950,13 +9836,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2F1729-7251-4389-9641-85685F236F2B}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9054,104 +9940,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EDD4A5-537C-4964-AE58-8E306F1BDAC3}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{12EDD4A5-537C-4964-AE58-8E306F1BDAC3}"/>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="Playtest Ready">
-      <formula>NOT(ISERROR(SEARCH("Playtest Ready",C1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="4" operator="containsText" text="Needs Clean Up">
-      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="6" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{3EFAC9F1-5F5A-4C59-93FD-3C2D517B2D1E}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{7B705A5F-9E61-4ED2-9B92-55A7CA95D80D}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4807208-DAD5-4F37-B54B-A0B6FFE2F229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DC7675-91FE-43C6-84A5-E7AE8D6BB491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Creatures!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">DMResources!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Documents!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Feats!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Feats!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">MagicItems!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">NewClassFeatures!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">NewClassFeatures!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Races!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Spells!$A$1:$O$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Subclasses!$A$1:$H$1</definedName>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="402">
   <si>
     <t>Name</t>
   </si>
@@ -1191,6 +1191,99 @@
   </si>
   <si>
     <t>Night Runners</t>
+  </si>
+  <si>
+    <t>Revised Feat</t>
+  </si>
+  <si>
+    <t>Elemental Adept</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Feature Type</t>
+  </si>
+  <si>
+    <t>Invocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agonizing Infusion </t>
+  </si>
+  <si>
+    <t>Cursed Touch</t>
+  </si>
+  <si>
+    <t>Echo of Death</t>
+  </si>
+  <si>
+    <t>Eldritch Grasp</t>
+  </si>
+  <si>
+    <t>Eldritch Reach</t>
+  </si>
+  <si>
+    <t>Eldritch Repulsion</t>
+  </si>
+  <si>
+    <t>Eldritch Stones</t>
+  </si>
+  <si>
+    <t>Ever Frost</t>
+  </si>
+  <si>
+    <t>Lighting Reel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lethargic Infusion </t>
+  </si>
+  <si>
+    <t>Merciful Invocation</t>
+  </si>
+  <si>
+    <t>Merciless Strikes</t>
+  </si>
+  <si>
+    <t>Potent Invocation</t>
+  </si>
+  <si>
+    <t>Rite of Warding</t>
+  </si>
+  <si>
+    <t>Sliver of Insight</t>
+  </si>
+  <si>
+    <t>Specialized Poisons</t>
+  </si>
+  <si>
+    <t>Spectre Strike</t>
+  </si>
+  <si>
+    <t>Spreading Flames</t>
+  </si>
+  <si>
+    <t>Swarm Intelligence</t>
+  </si>
+  <si>
+    <t>Thunderous Impact</t>
+  </si>
+  <si>
+    <t>Oil Slide Boots</t>
+  </si>
+  <si>
+    <t>Primodial Weapons</t>
+  </si>
+  <si>
+    <t>Quantum Coins</t>
+  </si>
+  <si>
+    <t>Robes of Endurance</t>
+  </si>
+  <si>
+    <t>Infusion</t>
+  </si>
+  <si>
+    <t>New Artificer Infusions</t>
   </si>
 </sst>
 </file>
@@ -2463,7 +2556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A113" sqref="A113"/>
     </sheetView>
@@ -4924,7 +5017,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
+      <selection pane="bottomLeft" activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5670,7 +5763,7 @@
         <v>140</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>48</v>
@@ -5687,7 +5780,7 @@
         <v>141</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>48</v>
@@ -5721,7 +5814,7 @@
         <v>136</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>48</v>
@@ -5738,7 +5831,7 @@
         <v>137</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>48</v>
@@ -5931,7 +6024,7 @@
         <v>198</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>48</v>
@@ -6016,7 +6109,7 @@
         <v>219</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>48</v>
@@ -6940,24 +7033,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD42EE7F-9159-4C80-95B9-C05FE7C82AF2}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -6965,56 +7059,545 @@
         <v>199</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>198</v>
+        <v>376</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>62</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{DD42EE7F-9159-4C80-95B9-C05FE7C82AF2}"/>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="89" priority="1" operator="containsText" text="Playtest Ready">
-      <formula>NOT(ISERROR(SEARCH("Playtest Ready",D1)))</formula>
+  <autoFilter ref="A1:F1" xr:uid="{DD42EE7F-9159-4C80-95B9-C05FE7C82AF2}"/>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="containsText" dxfId="89" priority="7" operator="containsText" text="Playtest Ready">
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="2" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
+    <cfRule type="containsText" dxfId="88" priority="8" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="3" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
+    <cfRule type="containsText" dxfId="87" priority="9" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="4" operator="containsText" text="Needs Clean Up">
-      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",D1)))</formula>
+    <cfRule type="containsText" dxfId="86" priority="10" operator="containsText" text="Needs Clean Up">
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="5" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
+    <cfRule type="containsText" dxfId="85" priority="11" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="6" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
+    <cfRule type="containsText" dxfId="84" priority="12" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{BF831952-A8A4-4D67-87F9-EC49AF5853BF}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{06EEC892-708A-4C93-AD7D-6CAE2A93F3CC}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{D9DF54C6-E262-4223-BEE2-02946F7AE42A}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{4086E7D1-D93D-43AF-8722-130A29F944A1}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{F309A568-1B43-45D1-85EB-19A9D13E2460}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{44B8EE6E-BFA2-4239-A78E-D4DD3218AC36}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{0F811F41-D410-4BF0-B6AB-64717188C489}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{611AD9FC-D148-4FEB-8D67-1B235691DD9A}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{7A032E26-C138-44EC-9EE4-6BFB5487782C}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{882DE0F5-C981-4B01-9222-C7F58772EBD5}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{5D58BF68-B510-4699-BF47-314090AA484C}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{F1C693E4-816F-4A6E-9F7F-B2E9F2F813E9}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{E44C8180-C7F4-447C-B74C-F70F31F3EE27}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{F29683BA-1059-4822-A9F7-BAE6C97AAB30}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{C157ACFD-699C-42EE-999D-4BE9CACF8FE8}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{25A57DB2-AF80-43CB-A628-BC2F0F88C319}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{1B5CA1AF-5F94-4DE9-B18E-56734A9DEFDE}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{CC58E77E-EFDF-466A-9A80-0D6FC96BEF6A}"/>
+    <hyperlink ref="D19" r:id="rId18" xr:uid="{335D1BB3-6DE3-4144-B261-BE787EDF22C6}"/>
+    <hyperlink ref="D20" r:id="rId19" xr:uid="{AB7E50D1-4473-4A27-A385-28FDFC26DA21}"/>
+    <hyperlink ref="D21" r:id="rId20" xr:uid="{B4DFCF45-F327-4608-92B5-841EB206F4AE}"/>
+    <hyperlink ref="D22" r:id="rId21" xr:uid="{AB38894E-CD51-4E55-9ABC-02AD651BAFB6}"/>
+    <hyperlink ref="D23" r:id="rId22" xr:uid="{3431E120-CB86-47F9-B59A-0BB3E25291BD}"/>
+    <hyperlink ref="D24" r:id="rId23" xr:uid="{E10A9D47-EBF8-4023-9716-CD04E1B4D830}"/>
+    <hyperlink ref="D25" r:id="rId24" xr:uid="{3F8879F3-B364-400C-A988-44058C883EDD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9365,11 +9948,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FD0084-15F3-4E8F-BDC9-AA450191B803}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9377,13 +9960,14 @@
     <col min="1" max="1" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="40.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -9394,16 +9978,19 @@
         <v>273</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>268</v>
       </c>
@@ -9413,17 +10000,20 @@
       <c r="C2" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>269</v>
       </c>
@@ -9433,17 +10023,20 @@
       <c r="C3" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>270</v>
       </c>
@@ -9453,17 +10046,20 @@
       <c r="C4" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>271</v>
       </c>
@@ -9473,17 +10069,20 @@
       <c r="C5" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>272</v>
       </c>
@@ -9493,17 +10092,20 @@
       <c r="C6" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>339</v>
       </c>
@@ -9513,17 +10115,20 @@
       <c r="C7" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>340</v>
       </c>
@@ -9533,17 +10138,20 @@
       <c r="C8" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>341</v>
       </c>
@@ -9553,17 +10161,20 @@
       <c r="C9" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>343</v>
       </c>
@@ -9573,17 +10184,20 @@
       <c r="C10" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>344</v>
       </c>
@@ -9593,17 +10207,20 @@
       <c r="C11" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>345</v>
       </c>
@@ -9613,17 +10230,20 @@
       <c r="C12" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>346</v>
       </c>
@@ -9633,17 +10253,20 @@
       <c r="C13" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>349</v>
       </c>
@@ -9653,17 +10276,20 @@
       <c r="C14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>351</v>
       </c>
@@ -9673,45 +10299,72 @@
       <c r="C15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>25</v>
       </c>
     </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{75FD0084-15F3-4E8F-BDC9-AA450191B803}"/>
-  <conditionalFormatting sqref="E1:E1048576">
+  <autoFilter ref="A1:G1" xr:uid="{75FD0084-15F3-4E8F-BDC9-AA450191B803}"/>
+  <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="containsText" dxfId="59" priority="1" operator="containsText" text="Playtest Ready">
-      <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",F1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="58" priority="2" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Needs Review",F1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Complete",F1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="56" priority="4" operator="containsText" text="Needs Clean Up">
-      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",F1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Needs Review",F1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="54" priority="6" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Complete",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{8D818956-9C64-44E1-881B-897C5E1F6D0F}"/>
-    <hyperlink ref="D3:D6" r:id="rId2" display="Independent Feats" xr:uid="{21464BF6-6E4D-4716-87A6-414741373543}"/>
-    <hyperlink ref="D7:D9" r:id="rId3" display="Independent Feats" xr:uid="{9BC31011-BDCB-4ED2-A0CD-AA6B3E0B9EDA}"/>
-    <hyperlink ref="D10:D13" r:id="rId4" display="Independent Feats" xr:uid="{E9F4BC65-574C-491C-B12F-C8754FF27EC4}"/>
-    <hyperlink ref="D14" r:id="rId5" xr:uid="{F16E9818-6A18-4211-B6B9-384E9F193F7C}"/>
-    <hyperlink ref="D15" r:id="rId6" xr:uid="{12CCD9A8-AFA3-4FEC-B0C8-CDDB45B44199}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{8D818956-9C64-44E1-881B-897C5E1F6D0F}"/>
+    <hyperlink ref="E3:E6" r:id="rId2" display="Independent Feats" xr:uid="{21464BF6-6E4D-4716-87A6-414741373543}"/>
+    <hyperlink ref="E7:E9" r:id="rId3" display="Independent Feats" xr:uid="{9BC31011-BDCB-4ED2-A0CD-AA6B3E0B9EDA}"/>
+    <hyperlink ref="E10:E13" r:id="rId4" display="Independent Feats" xr:uid="{E9F4BC65-574C-491C-B12F-C8754FF27EC4}"/>
+    <hyperlink ref="E14" r:id="rId5" xr:uid="{F16E9818-6A18-4211-B6B9-384E9F193F7C}"/>
+    <hyperlink ref="E15" r:id="rId6" xr:uid="{12CCD9A8-AFA3-4FEC-B0C8-CDDB45B44199}"/>
+    <hyperlink ref="E16" r:id="rId7" xr:uid="{A8D65C73-7EAB-46C3-90B4-119F84105AE4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DC7675-91FE-43C6-84A5-E7AE8D6BB491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C02136-2CDB-409C-ADC0-DE4951878E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Feats!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">MagicItems!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">NewClassFeatures!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Races!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Races!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Spells!$A$1:$O$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Subclasses!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Subclasses!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="392">
   <si>
     <t>Name</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Not Released</t>
   </si>
   <si>
-    <t>0.0.0</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -159,16 +156,10 @@
     <t>Name may be copyrighted</t>
   </si>
   <si>
-    <t>1.0.2</t>
-  </si>
-  <si>
     <t>Arctic Druid</t>
   </si>
   <si>
     <t>One Off Doc</t>
-  </si>
-  <si>
-    <t>0.0.1</t>
   </si>
   <si>
     <t>1.0.0</t>
@@ -269,9 +260,6 @@
     <t>Needs Review</t>
   </si>
   <si>
-    <t>1.1.0</t>
-  </si>
-  <si>
     <t>Crocodilians</t>
   </si>
   <si>
@@ -314,18 +302,12 @@
     <t>Ranger Archetype - Steppe Rider</t>
   </si>
   <si>
-    <t>0.0.2</t>
-  </si>
-  <si>
     <t>Divine Domain - River</t>
   </si>
   <si>
     <t>Divine Domain - Swamp</t>
   </si>
   <si>
-    <t>0.0.4</t>
-  </si>
-  <si>
     <t>Ranger</t>
   </si>
   <si>
@@ -434,12 +416,6 @@
     <t>Path of the Brawler</t>
   </si>
   <si>
-    <t>1.1.1</t>
-  </si>
-  <si>
-    <t>1.1.2</t>
-  </si>
-  <si>
     <t>Barbarian</t>
   </si>
   <si>
@@ -461,9 +437,6 @@
     <t xml:space="preserve">Otherworldly Patron - The Cauldron </t>
   </si>
   <si>
-    <t>1.2.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Otherworldly Patron - The Cauldron NPCs </t>
   </si>
   <si>
@@ -1026,9 +999,6 @@
   </si>
   <si>
     <t>Circle of Plagues</t>
-  </si>
-  <si>
-    <t>0.0.5</t>
   </si>
   <si>
     <t>Main content just needs review by Erin</t>
@@ -1410,7 +1380,58 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="102">
+  <dxfs count="108">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2578,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>1</v>
@@ -2604,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>14</v>
@@ -2624,7 +2645,7 @@
         <v>0.125</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>14</v>
@@ -2644,7 +2665,7 @@
         <v>0.5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>14</v>
@@ -2664,7 +2685,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>14</v>
@@ -2684,7 +2705,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>14</v>
@@ -2704,7 +2725,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>14</v>
@@ -2724,7 +2745,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>14</v>
@@ -2738,39 +2759,39 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="7">
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="7">
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>15</v>
@@ -2781,39 +2802,39 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="7">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="7">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B12" s="7">
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>15</v>
@@ -2822,21 +2843,21 @@
         <v>17</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B13" s="7">
         <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>15</v>
@@ -2845,21 +2866,21 @@
         <v>17</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B14" s="7">
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>15</v>
@@ -2868,21 +2889,21 @@
         <v>17</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B15" s="7">
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>15</v>
@@ -2893,16 +2914,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B16" s="7">
         <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>15</v>
@@ -2911,21 +2932,21 @@
         <v>17</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B17" s="7">
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>15</v>
@@ -2934,21 +2955,21 @@
         <v>17</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B18" s="7">
         <v>0.5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>15</v>
@@ -2957,21 +2978,21 @@
         <v>17</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B19" s="7">
         <v>0.25</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>15</v>
@@ -2980,21 +3001,21 @@
         <v>17</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B20" s="7">
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>15</v>
@@ -3003,21 +3024,21 @@
         <v>17</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B21" s="7">
         <v>0.5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>15</v>
@@ -3028,16 +3049,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B22" s="7">
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>15</v>
@@ -3048,16 +3069,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B23" s="7">
         <v>0.25</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>15</v>
@@ -3068,16 +3089,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B24" s="7">
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>15</v>
@@ -3088,16 +3109,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B25" s="7">
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>15</v>
@@ -3108,16 +3129,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B26" s="7">
         <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>15</v>
@@ -3128,16 +3149,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B27" s="7">
         <v>8</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>15</v>
@@ -3148,16 +3169,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B28" s="7">
         <v>0.5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>15</v>
@@ -3168,16 +3189,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B29" s="7">
         <v>9</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>15</v>
@@ -3186,21 +3207,21 @@
         <v>17</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B30" s="7">
         <v>17</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>15</v>
@@ -3209,21 +3230,21 @@
         <v>17</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B31" s="7">
         <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>15</v>
@@ -3232,21 +3253,21 @@
         <v>17</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B32" s="7">
         <v>3</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>15</v>
@@ -3257,16 +3278,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B33" s="7">
         <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>15</v>
@@ -3277,16 +3298,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B34" s="7">
         <v>0.5</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>15</v>
@@ -3297,16 +3318,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B35" s="7">
         <v>2</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>15</v>
@@ -3317,16 +3338,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B36" s="7">
         <v>3</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>15</v>
@@ -3337,16 +3358,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B37" s="7">
         <v>0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>15</v>
@@ -3357,16 +3378,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B38" s="7">
         <v>0.125</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>15</v>
@@ -3377,16 +3398,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B39" s="7">
         <v>0.5</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>15</v>
@@ -3397,16 +3418,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B40" s="7">
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>15</v>
@@ -3417,16 +3438,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B41" s="7">
         <v>5</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>15</v>
@@ -3437,19 +3458,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B42" s="7">
         <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>17</v>
@@ -3457,19 +3478,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B43" s="7">
         <v>0.5</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>17</v>
@@ -3477,19 +3498,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B44" s="7">
         <v>4</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>17</v>
@@ -3497,16 +3518,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B45" s="7">
         <v>0.5</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>15</v>
@@ -3517,19 +3538,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B46" s="7">
         <v>2</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>17</v>
@@ -3537,19 +3558,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B47" s="7">
         <v>6</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>17</v>
@@ -3557,19 +3578,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B48" s="7">
         <v>10</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>17</v>
@@ -3577,19 +3598,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B49" s="7">
         <v>15</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>17</v>
@@ -3597,19 +3618,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B50" s="7">
         <v>2</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>17</v>
@@ -3617,19 +3638,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B51" s="7">
         <v>7</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>17</v>
@@ -3637,19 +3658,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B52" s="7">
         <v>3</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>17</v>
@@ -3657,19 +3678,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B53" s="7">
         <v>7</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>17</v>
@@ -3677,19 +3698,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B54" s="7">
         <v>2</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>17</v>
@@ -3697,19 +3718,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B55" s="7">
         <v>8</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>17</v>
@@ -3717,19 +3738,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B56" s="7">
         <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>17</v>
@@ -3737,19 +3758,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B57" s="7">
         <v>5</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>17</v>
@@ -3757,19 +3778,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B58" s="7">
         <v>0.125</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>17</v>
@@ -3777,19 +3798,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B59" s="7">
         <v>2</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>17</v>
@@ -3797,19 +3818,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B60" s="7">
         <v>0.25</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>17</v>
@@ -3817,19 +3838,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B61" s="7">
         <v>3</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>17</v>
@@ -3837,19 +3858,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B62" s="7">
         <v>0.5</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>17</v>
@@ -3857,19 +3878,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B63" s="7">
         <v>0</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>17</v>
@@ -3877,19 +3898,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B64" s="7">
         <v>1</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>17</v>
@@ -3897,19 +3918,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B65" s="7">
         <v>5</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>17</v>
@@ -3917,19 +3938,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B66" s="7">
         <v>5</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>17</v>
@@ -3937,19 +3958,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B67" s="7">
         <v>2</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>17</v>
@@ -3957,19 +3978,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B68" s="7">
         <v>8</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>17</v>
@@ -3977,19 +3998,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B69" s="7">
         <v>11</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>17</v>
@@ -3997,19 +4018,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B70" s="7">
         <v>0</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>17</v>
@@ -4017,19 +4038,19 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B71" s="7">
         <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>17</v>
@@ -4037,19 +4058,19 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B72" s="7">
         <v>0.25</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>17</v>
@@ -4057,19 +4078,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B73" s="7">
         <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>17</v>
@@ -4077,19 +4098,19 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B74" s="7">
         <v>5</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>17</v>
@@ -4097,19 +4118,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B75" s="7">
         <v>8</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>17</v>
@@ -4117,19 +4138,19 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B76" s="7">
         <v>8</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>17</v>
@@ -4137,19 +4158,19 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B77" s="7">
         <v>5</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>17</v>
@@ -4157,19 +4178,19 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B78" s="7">
         <v>10</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>17</v>
@@ -4177,19 +4198,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B79" s="7">
         <v>14</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>17</v>
@@ -4197,19 +4218,19 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B80" s="7">
         <v>8</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>17</v>
@@ -4217,19 +4238,19 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B81" s="7">
         <v>1</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>17</v>
@@ -4237,19 +4258,19 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B82" s="7">
         <v>0.125</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>17</v>
@@ -4257,19 +4278,19 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B83" s="7">
         <v>4</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>17</v>
@@ -4277,19 +4298,19 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B84" s="7">
         <v>3</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>17</v>
@@ -4297,19 +4318,19 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B85" s="7">
         <v>8</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>17</v>
@@ -4317,19 +4338,19 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B86" s="7">
         <v>3</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>17</v>
@@ -4337,19 +4358,19 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B87" s="7">
         <v>4</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>17</v>
@@ -4357,19 +4378,19 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B88" s="7">
         <v>4</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>17</v>
@@ -4377,16 +4398,16 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B89" s="7">
         <v>0</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>15</v>
@@ -4397,16 +4418,16 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B90" s="7">
         <v>0.125</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>15</v>
@@ -4417,16 +4438,16 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B91" s="7">
         <v>0.25</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>15</v>
@@ -4437,16 +4458,16 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B92" s="7">
         <v>0.25</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>15</v>
@@ -4457,16 +4478,16 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B93" s="7">
         <v>3</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>15</v>
@@ -4477,16 +4498,16 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B94" s="7">
         <v>1</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>15</v>
@@ -4497,16 +4518,16 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B95" s="7">
         <v>10</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>15</v>
@@ -4517,16 +4538,16 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B96" s="7">
         <v>16</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>15</v>
@@ -4535,21 +4556,21 @@
         <v>17</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B97" s="7">
         <v>3</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>15</v>
@@ -4560,16 +4581,16 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B98" s="7">
         <v>1</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>15</v>
@@ -4580,16 +4601,16 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="B99" s="7">
         <v>7</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>15</v>
@@ -4600,16 +4621,16 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B100" s="7">
         <v>0.5</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>15</v>
@@ -4620,16 +4641,16 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B101" s="7">
         <v>3</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>15</v>
@@ -4640,16 +4661,16 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B102" s="7">
         <v>5</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>15</v>
@@ -4660,16 +4681,16 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B103" s="7">
         <v>3</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>15</v>
@@ -4680,16 +4701,16 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="B104" s="7">
         <v>2</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>15</v>
@@ -4700,16 +4721,16 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B105" s="7">
         <v>1</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>15</v>
@@ -4720,16 +4741,16 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B106" s="7">
         <v>3</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>15</v>
@@ -4740,16 +4761,16 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="B107" s="7">
         <v>4</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>15</v>
@@ -4760,16 +4781,16 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="B108" s="7">
         <v>3</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>15</v>
@@ -4780,16 +4801,16 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B109" s="7">
         <v>2</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>15</v>
@@ -4801,22 +4822,22 @@
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="101" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="107" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="106" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="105" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="104" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="103" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="102" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4949,57 +4970,57 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{12EDD4A5-537C-4964-AE58-8E306F1BDAC3}"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="40" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="39" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5016,8 +5037,8 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A67" sqref="A67"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5043,7 +5064,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>6</v>
@@ -5063,7 +5084,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>17</v>
@@ -5080,13 +5101,13 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5097,13 +5118,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5114,24 +5135,24 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>25</v>
@@ -5142,13 +5163,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>17</v>
@@ -5159,64 +5180,64 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>25</v>
@@ -5225,18 +5246,18 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>17</v>
@@ -5247,30 +5268,30 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>17</v>
@@ -5281,30 +5302,30 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>17</v>
@@ -5315,13 +5336,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>17</v>
@@ -5332,13 +5353,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>25</v>
@@ -5349,13 +5370,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>25</v>
@@ -5366,64 +5387,64 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>25</v>
@@ -5434,13 +5455,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>25</v>
@@ -5451,13 +5472,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>17</v>
@@ -5468,13 +5489,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>17</v>
@@ -5485,13 +5506,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>17</v>
@@ -5502,13 +5523,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>17</v>
@@ -5519,13 +5540,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>17</v>
@@ -5536,13 +5557,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>17</v>
@@ -5553,13 +5574,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>17</v>
@@ -5570,13 +5591,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>17</v>
@@ -5587,13 +5608,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>17</v>
@@ -5602,18 +5623,18 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>25</v>
@@ -5624,13 +5645,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>25</v>
@@ -5641,30 +5662,30 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>25</v>
@@ -5675,13 +5696,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>25</v>
@@ -5692,30 +5713,30 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>25</v>
@@ -5726,13 +5747,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>25</v>
@@ -5743,30 +5764,30 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>25</v>
@@ -5777,13 +5798,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>25</v>
@@ -5794,30 +5815,30 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>25</v>
@@ -5828,13 +5849,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>25</v>
@@ -5843,38 +5864,38 @@
         <v>1</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>17</v>
@@ -5885,13 +5906,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>17</v>
@@ -5902,13 +5923,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>17</v>
@@ -5919,13 +5940,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>17</v>
@@ -5936,13 +5957,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>17</v>
@@ -5953,13 +5974,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>17</v>
@@ -5970,13 +5991,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>17</v>
@@ -5987,13 +6008,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>17</v>
@@ -6004,13 +6025,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>17</v>
@@ -6021,13 +6042,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>17</v>
@@ -6038,81 +6059,81 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>17</v>
@@ -6123,30 +6144,30 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>17</v>
@@ -6157,13 +6178,13 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>25</v>
@@ -6174,13 +6195,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>25</v>
@@ -6191,13 +6212,13 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>17</v>
@@ -6208,30 +6229,30 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>17</v>
@@ -6240,38 +6261,38 @@
         <v>1</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>17</v>
@@ -6282,13 +6303,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>17</v>
@@ -6297,149 +6318,149 @@
         <v>1</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{6F8015A8-CD76-4317-A710-EE332EB4DCD2}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B1:B24 B33 B40:B1048576">
-    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="35" priority="25" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="34" priority="26" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="33" priority="27" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="32" priority="28" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B32">
-    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="29" priority="19" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="28" priority="20" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="27" priority="21" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="22" priority="14" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B39">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B36)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6526,10 +6547,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E52FED-6497-4FDC-A0DA-7ECEAA0549B9}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6539,13 +6560,12 @@
     <col min="3" max="3" width="33.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="38.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -6562,16 +6582,13 @@
         <v>6</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -6582,7 +6599,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -6593,383 +6610,338 @@
       <c r="G2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="B13" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>15</v>
@@ -6978,34 +6950,31 @@
         <v>25</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>316</v>
+        <v>26</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{45E52FED-6497-4FDC-A0DA-7ECEAA0549B9}"/>
+  <autoFilter ref="A1:G1" xr:uid="{45E52FED-6497-4FDC-A0DA-7ECEAA0549B9}"/>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="95" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="101" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="100" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="99" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="98" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="97" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="96" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7035,7 +7004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD42EE7F-9159-4C80-95B9-C05FE7C82AF2}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
@@ -7056,13 +7025,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>5</v>
@@ -7073,19 +7042,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>17</v>
@@ -7093,19 +7062,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>17</v>
@@ -7113,19 +7082,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>17</v>
@@ -7133,19 +7102,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>17</v>
@@ -7153,19 +7122,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>17</v>
@@ -7173,19 +7142,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>17</v>
@@ -7193,19 +7162,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>17</v>
@@ -7213,19 +7182,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>17</v>
@@ -7233,19 +7202,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>17</v>
@@ -7253,19 +7222,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>17</v>
@@ -7273,19 +7242,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>17</v>
@@ -7293,19 +7262,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>17</v>
@@ -7313,19 +7282,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>17</v>
@@ -7333,19 +7302,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>17</v>
@@ -7353,19 +7322,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>17</v>
@@ -7373,19 +7342,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>17</v>
@@ -7393,19 +7362,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>17</v>
@@ -7413,19 +7382,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>17</v>
@@ -7433,19 +7402,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>17</v>
@@ -7453,19 +7422,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>17</v>
@@ -7473,19 +7442,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>25</v>
@@ -7493,19 +7462,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>25</v>
@@ -7513,19 +7482,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>25</v>
@@ -7533,19 +7502,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>25</v>
@@ -7554,22 +7523,22 @@
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{DD42EE7F-9159-4C80-95B9-C05FE7C82AF2}"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="89" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="95" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="94" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="93" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="92" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="91" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="90" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7637,40 +7606,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>23</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>5</v>
@@ -7681,412 +7650,412 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C2" s="2">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C3" s="2">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C4" s="2">
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C6" s="2">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C10" s="2">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>15</v>
@@ -8097,43 +8066,43 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C12" s="2">
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>15</v>
@@ -8144,43 +8113,43 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C13" s="2">
         <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>15</v>
@@ -8191,43 +8160,43 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C14" s="2">
         <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>15</v>
@@ -8238,43 +8207,43 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C15" s="2">
         <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>15</v>
@@ -8285,43 +8254,43 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C16" s="2">
         <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>15</v>
@@ -8332,43 +8301,43 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>15</v>
@@ -8379,43 +8348,43 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C18" s="2">
         <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>15</v>
@@ -8426,43 +8395,43 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>15</v>
@@ -8473,43 +8442,43 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>15</v>
@@ -8520,43 +8489,43 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>15</v>
@@ -8567,43 +8536,43 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C22" s="2">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>15</v>
@@ -8614,43 +8583,43 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>15</v>
@@ -8661,43 +8630,43 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C24" s="2">
         <v>2</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>15</v>
@@ -8708,43 +8677,43 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C25" s="2">
         <v>6</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>15</v>
@@ -8755,43 +8724,43 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C26" s="2">
         <v>2</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>15</v>
@@ -8802,43 +8771,43 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C27" s="2">
         <v>3</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>15</v>
@@ -8849,43 +8818,43 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>15</v>
@@ -8897,42 +8866,42 @@
   </sheetData>
   <autoFilter ref="A1:O1" xr:uid="{C264C694-D993-4798-AD5F-1273142184DE}"/>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="containsText" dxfId="83" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="89" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="88" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="87" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="86" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="85" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="84" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="containsText" dxfId="77" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="83" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="82" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="81" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="80" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="79" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="78" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",O1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8963,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>1</v>
@@ -8977,16 +8946,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>25</v>
@@ -8994,16 +8963,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>25</v>
@@ -9011,13 +8980,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
@@ -9028,13 +8997,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
@@ -9045,22 +9014,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D5">
-    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="77" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="76" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="74" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="72" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9102,22 +9071,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>5</v>
@@ -9131,19 +9100,19 @@
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C2" s="1">
         <v>100</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>15</v>
@@ -9157,16 +9126,16 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>15</v>
@@ -9180,16 +9149,16 @@
         <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>15</v>
@@ -9200,22 +9169,22 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>17</v>
@@ -9223,22 +9192,22 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C6" s="1">
         <v>6000</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>15</v>
@@ -9249,19 +9218,19 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>15</v>
@@ -9272,22 +9241,22 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C8" s="1">
         <v>2000</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>15</v>
@@ -9298,22 +9267,22 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C9" s="1">
         <v>1500</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>15</v>
@@ -9324,22 +9293,22 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C10" s="1">
         <v>9000</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>15</v>
@@ -9350,22 +9319,22 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C11" s="1">
         <v>50000</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>15</v>
@@ -9376,22 +9345,22 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C12" s="1">
         <v>12000</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>15</v>
@@ -9402,19 +9371,19 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>15</v>
@@ -9425,22 +9394,22 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C14" s="1">
         <v>6000</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>15</v>
@@ -9451,22 +9420,22 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C15" s="1">
         <v>24000</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>15</v>
@@ -9477,22 +9446,22 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C16" s="1">
         <v>26000</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>15</v>
@@ -9503,22 +9472,22 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C17" s="1">
         <v>7000</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>15</v>
@@ -9529,19 +9498,19 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>15</v>
@@ -9552,19 +9521,19 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>15</v>
@@ -9575,19 +9544,19 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>15</v>
@@ -9598,19 +9567,19 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>15</v>
@@ -9621,19 +9590,19 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>15</v>
@@ -9644,22 +9613,22 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C23" s="1">
         <v>9000</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>15</v>
@@ -9670,19 +9639,19 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>15</v>
@@ -9693,22 +9662,22 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C25" s="1">
         <v>20000</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>15</v>
@@ -9719,19 +9688,19 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>15</v>
@@ -9742,22 +9711,22 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C27" s="1">
         <v>1000</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>15</v>
@@ -9768,22 +9737,22 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C28" s="1">
         <v>3000</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>15</v>
@@ -9794,22 +9763,22 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C29" s="1">
         <v>15000</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>15</v>
@@ -9820,22 +9789,22 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C30" s="1">
         <v>26000</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>15</v>
@@ -9846,22 +9815,22 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C31" s="1">
         <v>8000</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>15</v>
@@ -9872,22 +9841,22 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C32" s="1">
         <v>24000</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>15</v>
@@ -9898,19 +9867,19 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>15</v>
@@ -9922,22 +9891,22 @@
   </sheetData>
   <autoFilter ref="A1:I1" xr:uid="{2BDE69A5-0DEA-4E6C-8C42-A4C78FD0BD58}"/>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="65" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="70" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="69" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="68" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="67" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="66" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9972,13 +9941,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>1</v>
@@ -9992,22 +9961,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>17</v>
@@ -10015,22 +9984,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>17</v>
@@ -10038,22 +10007,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>17</v>
@@ -10061,22 +10030,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>17</v>
@@ -10084,22 +10053,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>17</v>
@@ -10107,22 +10076,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>25</v>
@@ -10130,22 +10099,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>25</v>
@@ -10153,22 +10122,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>25</v>
@@ -10176,22 +10145,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>25</v>
@@ -10199,22 +10168,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>25</v>
@@ -10222,22 +10191,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>25</v>
@@ -10245,22 +10214,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>25</v>
@@ -10268,19 +10237,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>15</v>
@@ -10291,19 +10260,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>15</v>
@@ -10314,22 +10283,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>25</v>
@@ -10338,22 +10307,22 @@
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{75FD0084-15F3-4E8F-BDC9-AA450191B803}"/>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="59" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="65" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="64" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="63" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="62" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="61" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="60" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10372,13 +10341,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECB4EEB-6E0F-4DBC-8ACA-83CFF1219E40}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10387,11 +10356,10 @@
     <col min="2" max="2" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -10404,33 +10372,27 @@
       <c r="D1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -10440,45 +10402,65 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{8ECB4EEB-6E0F-4DBC-8ACA-83CFF1219E40}"/>
-  <conditionalFormatting sqref="C1:C2 C4:C1048576">
-    <cfRule type="containsText" dxfId="53" priority="7" operator="containsText" text="Playtest Ready">
+  <autoFilter ref="A1:D1" xr:uid="{8ECB4EEB-6E0F-4DBC-8ACA-83CFF1219E40}"/>
+  <conditionalFormatting sqref="C1 C4:C1048576">
+    <cfRule type="containsText" dxfId="59" priority="13" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="58" priority="14" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="57" priority="15" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="56" priority="16" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="55" priority="17" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="54" priority="18" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="53" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="52" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="51" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="50" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="49" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="48" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Playtest Ready">
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Needs Clean Up">
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -10524,10 +10506,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -10538,10 +10520,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -10552,13 +10534,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>25</v>
@@ -10567,22 +10549,22 @@
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{7A2F1729-7251-4389-9641-85685F236F2B}"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="42" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C02136-2CDB-409C-ADC0-DE4951878E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8CC4EB-B291-4BE5-872A-49296E9F3870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="394">
   <si>
     <t>Name</t>
   </si>
@@ -1254,6 +1254,12 @@
   </si>
   <si>
     <t>New Artificer Infusions</t>
+  </si>
+  <si>
+    <t>Sahuagin</t>
+  </si>
+  <si>
+    <t>Player Race: Sahuagin</t>
   </si>
 </sst>
 </file>
@@ -2578,7 +2584,7 @@
   <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
@@ -5034,11 +5040,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8015A8-CD76-4317-A710-EE332EB4DCD2}">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6359,6 +6365,23 @@
       </c>
       <c r="F75" s="1" t="s">
         <v>347</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6539,9 +6562,10 @@
     <hyperlink ref="A73" r:id="rId72" display="Plague Censer Bearer" xr:uid="{4370DB5D-3FC3-4EB9-A488-FFE7B09B3525}"/>
     <hyperlink ref="A74" r:id="rId73" xr:uid="{C64D2F64-A496-4B75-B25B-8FEC6498C00A}"/>
     <hyperlink ref="A75" r:id="rId74" xr:uid="{4BE50A41-A3BF-44C3-AD1B-B0E6194B9FDA}"/>
+    <hyperlink ref="A76" r:id="rId75" xr:uid="{5BF086D4-5974-483E-9DFB-D1B941F8314B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId75"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId76"/>
 </worksheet>
 </file>
 
@@ -7006,7 +7030,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10341,19 +10365,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECB4EEB-6E0F-4DBC-8ACA-83CFF1219E40}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
@@ -10401,6 +10425,20 @@
         <v>17</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{8ECB4EEB-6E0F-4DBC-8ACA-83CFF1219E40}"/>
   <conditionalFormatting sqref="C1 C4:C1048576">
@@ -10466,6 +10504,7 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{274177BB-5649-4EFE-97E3-7A27204D194E}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{1A331A7C-2FF4-428B-ABDA-855A9E15AA69}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{A96BF5A7-5FA7-4848-8CAA-49C4274F3771}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A01504-AB39-43C5-A81F-3D07FB57C271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D005EA1F-200C-4428-9698-4BBA7D13011B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2579" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2650" uniqueCount="530">
   <si>
     <t>Name</t>
   </si>
@@ -1620,6 +1620,54 @@
   </si>
   <si>
     <t>Bard College - College of the Ancients</t>
+  </si>
+  <si>
+    <t>College of Revelry</t>
+  </si>
+  <si>
+    <t>Bard College - College of Revely</t>
+  </si>
+  <si>
+    <t>College of Pacts</t>
+  </si>
+  <si>
+    <t>Bard College - College of Pacts</t>
+  </si>
+  <si>
+    <t>College of Choir</t>
+  </si>
+  <si>
+    <t>College of Finality</t>
+  </si>
+  <si>
+    <t>Bard College - College of Finality</t>
+  </si>
+  <si>
+    <t>Bard College - College of Choir</t>
+  </si>
+  <si>
+    <t>Divine Domain - War</t>
+  </si>
+  <si>
+    <t>Demon Soul</t>
+  </si>
+  <si>
+    <t>Warcaller</t>
+  </si>
+  <si>
+    <t>Path of the Demon Soul</t>
+  </si>
+  <si>
+    <t>Path of the Warcaller</t>
+  </si>
+  <si>
+    <t>Content Dependant</t>
+  </si>
+  <si>
+    <t>Storm Herald</t>
+  </si>
+  <si>
+    <t>Path of the Storm Herald</t>
   </si>
 </sst>
 </file>
@@ -6931,11 +6979,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E52FED-6497-4FDC-A0DA-7ECEAA0549B9}">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8768,6 +8816,214 @@
         <v>44</v>
       </c>
       <c r="H70" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H78" s="2" t="s">
         <v>70</v>
       </c>
     </row>
@@ -8863,6 +9119,14 @@
     <hyperlink ref="D68" r:id="rId67" xr:uid="{C8966E9D-D761-4375-875F-F6E20629A00B}"/>
     <hyperlink ref="D69" r:id="rId68" xr:uid="{98D2E4B5-FBB8-431D-8D45-633C093DF6BE}"/>
     <hyperlink ref="D70" r:id="rId69" xr:uid="{9871195F-395C-478C-83EB-B72E72D9F90F}"/>
+    <hyperlink ref="D71" r:id="rId70" xr:uid="{569ED6F0-6807-44B1-85B3-11B58B0EBBD2}"/>
+    <hyperlink ref="D72" r:id="rId71" xr:uid="{B98B347B-FA09-4B42-99F6-7BD49CED4E92}"/>
+    <hyperlink ref="D73" r:id="rId72" display="Bard College - Collge of Choir" xr:uid="{255ABBE8-2EFB-45F1-97D8-C425715B2A80}"/>
+    <hyperlink ref="D74" r:id="rId73" xr:uid="{F2EED849-52B7-47FB-A0A1-7A17556C13E4}"/>
+    <hyperlink ref="D75" r:id="rId74" xr:uid="{55094E7F-6584-49E8-BC8D-A97B7FAA1538}"/>
+    <hyperlink ref="D76" r:id="rId75" display="Primal Path - Demon Soul" xr:uid="{BBF1122C-B61C-4BB5-A8A9-B2CF65AE04FE}"/>
+    <hyperlink ref="D77" r:id="rId76" xr:uid="{D034A541-2381-4E07-AE03-618E15137103}"/>
+    <hyperlink ref="D78" r:id="rId77" xr:uid="{94CA75DD-6633-4D4F-94B4-CECD351EE741}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12217,17 +12481,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FD0084-15F3-4E8F-BDC9-AA450191B803}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -12601,6 +12865,29 @@
         <v>35</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -12634,6 +12921,7 @@
     <hyperlink ref="E14" r:id="rId5" xr:uid="{F16E9818-6A18-4211-B6B9-384E9F193F7C}"/>
     <hyperlink ref="E15" r:id="rId6" xr:uid="{12CCD9A8-AFA3-4FEC-B0C8-CDDB45B44199}"/>
     <hyperlink ref="E16" r:id="rId7" xr:uid="{A8D65C73-7EAB-46C3-90B4-119F84105AE4}"/>
+    <hyperlink ref="E17" r:id="rId8" xr:uid="{2407A640-B6F5-4984-91E5-872F7851A9C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D005EA1F-200C-4428-9698-4BBA7D13011B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CD368F-CB87-4262-8727-7C0D8E24C8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2650" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2810" uniqueCount="544">
   <si>
     <t>Name</t>
   </si>
@@ -1668,6 +1668,48 @@
   </si>
   <si>
     <t>Path of the Storm Herald</t>
+  </si>
+  <si>
+    <t>Revised Spells</t>
+  </si>
+  <si>
+    <t>New Spells</t>
+  </si>
+  <si>
+    <t>Barkskin</t>
+  </si>
+  <si>
+    <t>Compelled Duel</t>
+  </si>
+  <si>
+    <t>Enchantment</t>
+  </si>
+  <si>
+    <t>Crown of Madness</t>
+  </si>
+  <si>
+    <t>Find Hazards</t>
+  </si>
+  <si>
+    <t>Friends</t>
+  </si>
+  <si>
+    <t>Grasping Vine</t>
+  </si>
+  <si>
+    <t>Ray of Enfeeblement</t>
+  </si>
+  <si>
+    <t>Ray of Sickness</t>
+  </si>
+  <si>
+    <t>True Strike</t>
+  </si>
+  <si>
+    <t>Weird</t>
+  </si>
+  <si>
+    <t>Illusion</t>
   </si>
 </sst>
 </file>
@@ -1742,7 +1784,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1788,6 +1830,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5451,8 +5499,8 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6561,7 +6609,7 @@
         <v>209</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>44</v>
@@ -6981,7 +7029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E52FED-6497-4FDC-A0DA-7ECEAA0549B9}">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
     </sheetView>
@@ -9137,8 +9185,8 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10138,16 +10186,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C264C694-D993-4798-AD5F-1273142184DE}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N35" sqref="N35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
@@ -10162,10 +10210,12 @@
     <col min="13" max="13" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.5703125" style="1" customWidth="1"/>
     <col min="15" max="15" width="20.42578125" style="15" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="2"/>
+    <col min="16" max="16" width="8" style="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="10" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -10211,8 +10261,14 @@
       <c r="O1" s="14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>266</v>
       </c>
@@ -10252,8 +10308,14 @@
       <c r="M2" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>269</v>
       </c>
@@ -10293,8 +10355,14 @@
       <c r="M3" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>270</v>
       </c>
@@ -10334,8 +10402,14 @@
       <c r="M4" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>272</v>
       </c>
@@ -10375,8 +10449,14 @@
       <c r="M5" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>273</v>
       </c>
@@ -10416,8 +10496,14 @@
       <c r="M6" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>206</v>
       </c>
@@ -10457,8 +10543,14 @@
       <c r="M7" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>274</v>
       </c>
@@ -10498,8 +10590,14 @@
       <c r="M8" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>275</v>
       </c>
@@ -10539,8 +10637,14 @@
       <c r="M9" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>277</v>
       </c>
@@ -10580,8 +10684,14 @@
       <c r="M10" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>279</v>
       </c>
@@ -10628,7 +10738,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>281</v>
       </c>
@@ -10675,7 +10785,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>282</v>
       </c>
@@ -10722,7 +10832,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>283</v>
       </c>
@@ -10769,7 +10879,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>284</v>
       </c>
@@ -10816,7 +10926,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>285</v>
       </c>
@@ -11425,6 +11535,476 @@
       </c>
       <c r="O28" s="15" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O29" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O30" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O31" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O32" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O33" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C34" s="2">
+        <v>4</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O34" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O35" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O36" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O37" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C38" s="2">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O38" s="15" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -11469,6 +12049,10 @@
       <formula>NOT(ISERROR(SEARCH("Complete",O1)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="P1" r:id="rId1" xr:uid="{FAD5800B-432F-4DCB-9044-7DD4D8244A6C}"/>
+    <hyperlink ref="Q1" r:id="rId2" xr:uid="{CCBE817D-14F9-4B8B-9826-DAED274C9422}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12485,7 +13069,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12540,7 +13124,7 @@
         <v>326</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>17</v>
@@ -12563,7 +13147,7 @@
         <v>326</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>17</v>
@@ -12586,7 +13170,7 @@
         <v>326</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>17</v>
@@ -12609,7 +13193,7 @@
         <v>326</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>17</v>
@@ -12632,7 +13216,7 @@
         <v>326</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>17</v>

--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CD368F-CB87-4262-8727-7C0D8E24C8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C41D1AD-7C50-4D16-8492-30D130652FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2810" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2936" uniqueCount="553">
   <si>
     <t>Name</t>
   </si>
@@ -1710,6 +1710,33 @@
   </si>
   <si>
     <t>Illusion</t>
+  </si>
+  <si>
+    <t>Binding Chain</t>
+  </si>
+  <si>
+    <t>Molten Sphere</t>
+  </si>
+  <si>
+    <t>Mud Ball</t>
+  </si>
+  <si>
+    <t>Tranquility</t>
+  </si>
+  <si>
+    <t>Frozen Tomb</t>
+  </si>
+  <si>
+    <t>Water Whip</t>
+  </si>
+  <si>
+    <t>Grasping Tide</t>
+  </si>
+  <si>
+    <t>Stream of Flames</t>
+  </si>
+  <si>
+    <t>Leap Slam</t>
   </si>
 </sst>
 </file>
@@ -7029,8 +7056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E52FED-6497-4FDC-A0DA-7ECEAA0549B9}">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
@@ -10186,11 +10213,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C264C694-D993-4798-AD5F-1273142184DE}">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12004,6 +12031,429 @@
         <v>35</v>
       </c>
       <c r="O38" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O39" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C40" s="2">
+        <v>6</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O40" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O41" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C42" s="2">
+        <v>5</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O42" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C43" s="2">
+        <v>5</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O43" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O44" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C45" s="2">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O45" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C46" s="2">
+        <v>6</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O46" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C47" s="2">
+        <v>3</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O47" s="15" t="s">
         <v>24</v>
       </c>
     </row>

--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C41D1AD-7C50-4D16-8492-30D130652FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C29C53-4AB3-4EDB-9B91-58E9FC538BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2936" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2982" uniqueCount="557">
   <si>
     <t>Name</t>
   </si>
@@ -1737,6 +1737,18 @@
   </si>
   <si>
     <t>Leap Slam</t>
+  </si>
+  <si>
+    <t>Creeping Smite</t>
+  </si>
+  <si>
+    <t>Fiery Temper</t>
+  </si>
+  <si>
+    <t>Senseless Rage</t>
+  </si>
+  <si>
+    <t>Madness Spells</t>
   </si>
 </sst>
 </file>
@@ -7056,8 +7068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E52FED-6497-4FDC-A0DA-7ECEAA0549B9}">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
@@ -10213,11 +10225,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C264C694-D993-4798-AD5F-1273142184DE}">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12454,6 +12466,147 @@
         <v>35</v>
       </c>
       <c r="O47" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O48" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O49" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O50" s="15" t="s">
         <v>24</v>
       </c>
     </row>
@@ -14110,11 +14263,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2F1729-7251-4389-9641-85685F236F2B}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:D4"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14180,6 +14333,20 @@
         <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -14209,6 +14376,7 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{BD2521FD-FF87-4C8B-99BE-7B21AA39FFD0}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{D4EA4825-1487-4570-B412-DF8E221C1BA1}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{69A08EF4-ECA9-4141-8D49-5C1F1C1827E4}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{7BFC501A-AD63-47FD-B8B6-597E83DED8A5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C29C53-4AB3-4EDB-9B91-58E9FC538BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD479FC8-532B-41C2-8911-6E29E748BD4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">DMResources!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Documents!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Feats!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">MagicItems!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">MagicItems!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">NewClassFeatures!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Races!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Spells!$A$1:$O$1</definedName>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2982" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3256" uniqueCount="602">
   <si>
     <t>Name</t>
   </si>
@@ -1749,6 +1749,141 @@
   </si>
   <si>
     <t>Madness Spells</t>
+  </si>
+  <si>
+    <t>Bank of Abundance</t>
+  </si>
+  <si>
+    <t>New Magic Items</t>
+  </si>
+  <si>
+    <t>Blade of Insight</t>
+  </si>
+  <si>
+    <t>Bracers of the Last Stand</t>
+  </si>
+  <si>
+    <t>Cloak of Daggers</t>
+  </si>
+  <si>
+    <t>Club of Savagery</t>
+  </si>
+  <si>
+    <t>Weapon(Club)</t>
+  </si>
+  <si>
+    <t>Dualist's Standard</t>
+  </si>
+  <si>
+    <t>Enchanted Artisan's Tools</t>
+  </si>
+  <si>
+    <t>Echanted Carriage</t>
+  </si>
+  <si>
+    <t>Ghostfire Blade</t>
+  </si>
+  <si>
+    <t>Weapon (scimitar)</t>
+  </si>
+  <si>
+    <t>Glass Casket</t>
+  </si>
+  <si>
+    <t>Healing Salve</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>Jousting Lance</t>
+  </si>
+  <si>
+    <t>Weapon (lance)</t>
+  </si>
+  <si>
+    <t>Light of Restoration</t>
+  </si>
+  <si>
+    <t>Consumable?</t>
+  </si>
+  <si>
+    <t>Mace of the Valiant</t>
+  </si>
+  <si>
+    <t>Weapon (mace)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mantle of Tides </t>
+  </si>
+  <si>
+    <t>Necklace of Xorn</t>
+  </si>
+  <si>
+    <t>Nullifying Chains</t>
+  </si>
+  <si>
+    <t>Orb of Awarness</t>
+  </si>
+  <si>
+    <t>Riot Gear</t>
+  </si>
+  <si>
+    <t>Armor (light, medium, or heavy)</t>
+  </si>
+  <si>
+    <t>Rosethorn Pike</t>
+  </si>
+  <si>
+    <t>Weapon (pike)</t>
+  </si>
+  <si>
+    <t>Rubblemaker</t>
+  </si>
+  <si>
+    <t>Weapon (maul)</t>
+  </si>
+  <si>
+    <t>Rune of Talent</t>
+  </si>
+  <si>
+    <t>Shining Armor</t>
+  </si>
+  <si>
+    <t>Armor (medium or heavy armor made from metal)</t>
+  </si>
+  <si>
+    <t>Smoldering Garrote</t>
+  </si>
+  <si>
+    <t>Weapon (garrote)</t>
+  </si>
+  <si>
+    <t>Spell Bow</t>
+  </si>
+  <si>
+    <t>Weapon (any bow or crossbow)</t>
+  </si>
+  <si>
+    <t>Spore Slinger</t>
+  </si>
+  <si>
+    <t>Weapon (sling)</t>
+  </si>
+  <si>
+    <t>Stalkers Lens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Storm Trident </t>
+  </si>
+  <si>
+    <t>Weapon (trident)</t>
+  </si>
+  <si>
+    <t>Wind Cord</t>
+  </si>
+  <si>
+    <t>Whispersilk Cloak</t>
   </si>
 </sst>
 </file>
@@ -12796,28 +12931,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDE69A5-0DEA-4E6C-8C42-A4C78FD0BD58}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="46.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -12825,844 +12962,1756 @@
         <v>200</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1">
         <v>100</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="F2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="F4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>203</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1">
         <v>6000</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="F6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>15</v>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1">
         <v>2000</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="F8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>15</v>
+      <c r="G8" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1">
         <v>1500</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="F9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>15</v>
+      <c r="G9" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1">
         <v>9000</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="F10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>15</v>
+      <c r="G10" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>221</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1">
         <v>50000</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1">
         <v>12000</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="F13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>15</v>
+      <c r="G13" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>226</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1">
         <v>6000</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="1">
         <v>24000</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>229</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1">
         <v>26000</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1">
         <v>7000</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>232</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>234</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="F20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>15</v>
+      <c r="G20" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>235</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="F21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>15</v>
+      <c r="G21" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="F22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>15</v>
+      <c r="G22" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="1">
         <v>9000</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="F23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>15</v>
+      <c r="G23" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="1">
         <v>20000</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="F25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>15</v>
+      <c r="G25" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>214</v>
+      <c r="C26" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>214</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>15</v>
+        <v>214</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>243</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="1">
         <v>1000</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="1">
         <v>3000</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="F28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>15</v>
+      <c r="G28" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>246</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="1">
         <v>15000</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>248</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="1">
         <v>26000</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>249</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="1">
         <v>8000</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>250</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="1">
         <v>24000</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="F32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>252</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="C33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="F33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="1">
+        <v>500</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="1">
+        <v>5000</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="1">
+        <v>50</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="1">
+        <v>75000</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="1">
+        <v>750</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="1">
+        <v>250</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="1">
+        <v>500</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="1">
+        <v>50</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1" xr:uid="{2BDE69A5-0DEA-4E6C-8C42-A4C78FD0BD58}"/>
-  <conditionalFormatting sqref="H1:H1048576">
+  <autoFilter ref="A1:J1" xr:uid="{2BDE69A5-0DEA-4E6C-8C42-A4C78FD0BD58}"/>
+  <conditionalFormatting sqref="I1:I1048576">
     <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="Playtest Ready">
-      <formula>NOT(ISERROR(SEARCH("Playtest Ready",H1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",I1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="70" priority="2" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH("Needs Review",H1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Needs Review",I1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="69" priority="3" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",H1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Complete",I1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="68" priority="4" operator="containsText" text="Needs Clean Up">
-      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",H1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",I1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="67" priority="5" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH("Needs Review",H1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Needs Review",I1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="66" priority="6" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",H1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Complete",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="K1" r:id="rId1" xr:uid="{11FE0D5E-9786-4A71-9B52-12E2A712C6B4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -14265,7 +15314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2F1729-7251-4389-9641-85685F236F2B}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>

--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD479FC8-532B-41C2-8911-6E29E748BD4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC74D948-D291-4BFA-AA39-53B82DA9E945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3256" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3288" uniqueCount="606">
   <si>
     <t>Name</t>
   </si>
@@ -1884,6 +1884,18 @@
   </si>
   <si>
     <t>Whispersilk Cloak</t>
+  </si>
+  <si>
+    <t>Ruined Armor, +1</t>
+  </si>
+  <si>
+    <t>Ruined Armor, +2</t>
+  </si>
+  <si>
+    <t>Ruined Armor, +3</t>
+  </si>
+  <si>
+    <t>Brass Orb</t>
   </si>
 </sst>
 </file>
@@ -3214,8 +3226,8 @@
   <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A113" sqref="A113"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I109" sqref="I109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5432,7 +5444,7 @@
         <v>15</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -5673,8 +5685,8 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6968,7 +6980,7 @@
         <v>25</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>33</v>
@@ -6988,7 +7000,7 @@
         <v>25</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>33</v>
@@ -12931,11 +12943,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDE69A5-0DEA-4E6C-8C42-A4C78FD0BD58}">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H53" sqref="H53"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14685,8 +14697,125 @@
         <v>24</v>
       </c>
     </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="1">
+        <v>750</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="1">
+        <v>12000</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67" s="1">
+        <v>5000</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{2BDE69A5-0DEA-4E6C-8C42-A4C78FD0BD58}"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
     <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",I1)))</formula>

--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC74D948-D291-4BFA-AA39-53B82DA9E945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88DC0BC-C5A0-4E5C-8895-3606A9E54C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3288" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3334" uniqueCount="615">
   <si>
     <t>Name</t>
   </si>
@@ -1896,6 +1896,33 @@
   </si>
   <si>
     <t>Brass Orb</t>
+  </si>
+  <si>
+    <t>Garrote</t>
+  </si>
+  <si>
+    <t>Poisoned Wind Globe</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Scythe</t>
+  </si>
+  <si>
+    <t>Spike Fist</t>
+  </si>
+  <si>
+    <t>Things Catcher</t>
+  </si>
+  <si>
+    <t>Poisoned Wind Fumigator</t>
+  </si>
+  <si>
+    <t>Spike Fist Brutalist</t>
+  </si>
+  <si>
+    <t>Things Wrangler</t>
   </si>
 </sst>
 </file>
@@ -12809,15 +12836,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACF069B-924A-40FE-91D9-4FC2DC64FE41}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -12910,8 +12937,93 @@
         <v>24</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D5">
+  <conditionalFormatting sqref="D1:D10">
     <cfRule type="containsText" dxfId="77" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",D1)))</formula>
     </cfRule>
@@ -12936,6 +13048,11 @@
     <hyperlink ref="C3" r:id="rId2" xr:uid="{9CCBC16C-3905-4424-A2E4-F4234E908BD0}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{57EA43A4-C943-4D39-AAA9-E3AA59D7BAD8}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{3AFF4EA2-E191-4D8D-8050-71B5E48C8D50}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{3301ABCD-96C1-40CA-AFA1-90143F6DB747}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{A6919838-D682-4D3C-8607-8E30BD0F6F17}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{AD895AE3-6E19-4041-94EC-630DD531692F}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{1733CB9D-AF17-44A3-8D03-D4913043A778}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{FDEB683E-6CD9-47EB-B05F-BFE28BC1A0DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12945,7 +13062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDE69A5-0DEA-4E6C-8C42-A4C78FD0BD58}">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J70" sqref="J70"/>
     </sheetView>
@@ -14846,16 +14963,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FD0084-15F3-4E8F-BDC9-AA450191B803}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -15253,6 +15370,75 @@
         <v>35</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -15287,6 +15473,8 @@
     <hyperlink ref="E15" r:id="rId6" xr:uid="{12CCD9A8-AFA3-4FEC-B0C8-CDDB45B44199}"/>
     <hyperlink ref="E16" r:id="rId7" xr:uid="{A8D65C73-7EAB-46C3-90B4-119F84105AE4}"/>
     <hyperlink ref="E17" r:id="rId8" xr:uid="{2407A640-B6F5-4984-91E5-872F7851A9C8}"/>
+    <hyperlink ref="E18" r:id="rId9" xr:uid="{52881D91-408D-4D5C-A716-A4D7CDD740EB}"/>
+    <hyperlink ref="E19:E20" r:id="rId10" display="New Weapons" xr:uid="{F5339884-D70F-4CD6-9566-0BF8C6533EEC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88DC0BC-C5A0-4E5C-8895-3606A9E54C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51356ECA-C368-4822-85FB-B1A23FD3A23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -7242,9 +7242,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E52FED-6497-4FDC-A0DA-7ECEAA0549B9}">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14965,7 +14965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FD0084-15F3-4E8F-BDC9-AA450191B803}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>

--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51356ECA-C368-4822-85FB-B1A23FD3A23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F866AC34-4025-4298-A5F4-78E86E967656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3334" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3342" uniqueCount="616">
   <si>
     <t>Name</t>
   </si>
@@ -1923,6 +1923,9 @@
   </si>
   <si>
     <t>Things Wrangler</t>
+  </si>
+  <si>
+    <t>Otherworldly Patron - The Undead</t>
   </si>
 </sst>
 </file>
@@ -5712,8 +5715,8 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6562,7 +6565,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>149</v>
       </c>
@@ -6578,8 +6581,11 @@
       <c r="E49" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>156</v>
       </c>
@@ -6595,8 +6601,11 @@
       <c r="E50" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>160</v>
       </c>
@@ -6612,8 +6621,11 @@
       <c r="E51" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>164</v>
       </c>
@@ -6629,8 +6641,11 @@
       <c r="E52" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>166</v>
       </c>
@@ -6646,8 +6661,11 @@
       <c r="E53" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>174</v>
       </c>
@@ -6663,8 +6681,11 @@
       <c r="E54" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>175</v>
       </c>
@@ -6680,8 +6701,11 @@
       <c r="E55" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>178</v>
       </c>
@@ -6697,8 +6721,11 @@
       <c r="E56" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>181</v>
       </c>
@@ -6714,8 +6741,11 @@
       <c r="E57" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>187</v>
       </c>
@@ -6732,7 +6762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>203</v>
       </c>
@@ -6749,12 +6779,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>204</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>25</v>
@@ -6766,12 +6796,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>25</v>
@@ -6783,12 +6813,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>25</v>
@@ -6800,7 +6830,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>208</v>
       </c>
@@ -6817,7 +6847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>209</v>
       </c>
@@ -6848,6 +6878,9 @@
         <v>17</v>
       </c>
       <c r="E65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1">
         <v>1</v>
       </c>
     </row>
@@ -7240,11 +7273,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E52FED-6497-4FDC-A0DA-7ECEAA0549B9}">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9286,6 +9319,32 @@
       </c>
       <c r="H78" s="2" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -9388,6 +9447,7 @@
     <hyperlink ref="D76" r:id="rId75" display="Primal Path - Demon Soul" xr:uid="{BBF1122C-B61C-4BB5-A8A9-B2CF65AE04FE}"/>
     <hyperlink ref="D77" r:id="rId76" xr:uid="{D034A541-2381-4E07-AE03-618E15137103}"/>
     <hyperlink ref="D78" r:id="rId77" xr:uid="{94CA75DD-6633-4D4F-94B4-CECD351EE741}"/>
+    <hyperlink ref="D79" r:id="rId78" xr:uid="{D68685D9-2681-488B-A41E-4636325C3F73}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F866AC34-4025-4298-A5F4-78E86E967656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311B348B-4A8F-4504-A4DD-76C1AAB848F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7277,7 +7277,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7755,7 +7755,7 @@
         <v>24</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>15</v>

--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311B348B-4A8F-4504-A4DD-76C1AAB848F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7D1F42-D552-4E17-AD43-A55A7D11D545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -3255,9 +3255,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I109" sqref="I109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4708,7 +4708,7 @@
         <v>166</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>17</v>
@@ -4728,7 +4728,7 @@
         <v>166</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>17</v>
@@ -4748,7 +4748,7 @@
         <v>166</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>17</v>
@@ -4768,7 +4768,7 @@
         <v>166</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>17</v>
@@ -4788,7 +4788,7 @@
         <v>166</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>17</v>
@@ -4808,7 +4808,7 @@
         <v>166</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>17</v>
@@ -4945,10 +4945,10 @@
         <v>171</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>17</v>
@@ -4965,10 +4965,10 @@
         <v>171</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>17</v>
@@ -4985,10 +4985,10 @@
         <v>185</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>17</v>
@@ -5005,10 +5005,10 @@
         <v>171</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>17</v>
@@ -5500,22 +5500,22 @@
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="107" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5590,23 +5590,24 @@
     <hyperlink ref="D78:D79" r:id="rId68" display="Mishipeshu" xr:uid="{BAF42D5B-FD22-4743-8043-DC2F1941E1D8}"/>
     <hyperlink ref="D81" r:id="rId69" xr:uid="{5805A097-BC9D-4685-86E0-E30134117A8D}"/>
     <hyperlink ref="D80" r:id="rId70" xr:uid="{32007A61-8128-435C-8AA0-543B2ECD8C9F}"/>
-    <hyperlink ref="D82" r:id="rId71" xr:uid="{9EACEB53-922E-4BE1-9434-4CA25F45F00A}"/>
-    <hyperlink ref="D83:D84" r:id="rId72" display="A Wicked Brew" xr:uid="{8CC7516F-2F79-47F4-954B-DD7D68021827}"/>
-    <hyperlink ref="D85" r:id="rId73" xr:uid="{DA59FB52-321A-4018-A2EA-F3850051FF44}"/>
-    <hyperlink ref="D86" r:id="rId74" xr:uid="{30888777-3C22-4812-8CF7-6C3657A8345E}"/>
-    <hyperlink ref="D87" r:id="rId75" xr:uid="{5BBE3482-35FC-4EA0-AA26-64236FE929AA}"/>
-    <hyperlink ref="D88" r:id="rId76" xr:uid="{693047A9-B752-496F-8718-465CAC53BA65}"/>
-    <hyperlink ref="D89" r:id="rId77" xr:uid="{EA81FD11-3461-41B1-B006-E69F57550A4D}"/>
-    <hyperlink ref="D90:D94" r:id="rId78" display="Rats" xr:uid="{79B6CD7B-C87E-4410-816A-A16E47DEA79A}"/>
-    <hyperlink ref="D95" r:id="rId79" xr:uid="{A054A175-4D56-424B-A5EE-CE8CD37CE674}"/>
-    <hyperlink ref="D96:D100" r:id="rId80" display="Rat Monstrosities" xr:uid="{B12095CB-C3DA-4859-9EA0-8B69C3713540}"/>
-    <hyperlink ref="D101" r:id="rId81" xr:uid="{F3624BE0-A487-4238-8F0A-AADCDEC764D3}"/>
-    <hyperlink ref="D102:D107" r:id="rId82" display="Sharks" xr:uid="{E63A5F92-E366-4622-8F1F-35F237D7896E}"/>
-    <hyperlink ref="D108" r:id="rId83" display="Plague Censer Bearer" xr:uid="{2F24DF23-C8F6-4EAB-A71D-3AB23DD2112A}"/>
-    <hyperlink ref="D109" r:id="rId84" xr:uid="{33646707-D6F0-4BEA-9AA9-4542677708BF}"/>
+    <hyperlink ref="D86" r:id="rId71" xr:uid="{30888777-3C22-4812-8CF7-6C3657A8345E}"/>
+    <hyperlink ref="D87" r:id="rId72" xr:uid="{5BBE3482-35FC-4EA0-AA26-64236FE929AA}"/>
+    <hyperlink ref="D88" r:id="rId73" xr:uid="{693047A9-B752-496F-8718-465CAC53BA65}"/>
+    <hyperlink ref="D89" r:id="rId74" xr:uid="{EA81FD11-3461-41B1-B006-E69F57550A4D}"/>
+    <hyperlink ref="D90:D94" r:id="rId75" display="Rats" xr:uid="{79B6CD7B-C87E-4410-816A-A16E47DEA79A}"/>
+    <hyperlink ref="D95" r:id="rId76" xr:uid="{A054A175-4D56-424B-A5EE-CE8CD37CE674}"/>
+    <hyperlink ref="D96:D100" r:id="rId77" display="Rat Monstrosities" xr:uid="{B12095CB-C3DA-4859-9EA0-8B69C3713540}"/>
+    <hyperlink ref="D101" r:id="rId78" xr:uid="{F3624BE0-A487-4238-8F0A-AADCDEC764D3}"/>
+    <hyperlink ref="D102:D107" r:id="rId79" display="Sharks" xr:uid="{E63A5F92-E366-4622-8F1F-35F237D7896E}"/>
+    <hyperlink ref="D108" r:id="rId80" display="Plague Censer Bearer" xr:uid="{2F24DF23-C8F6-4EAB-A71D-3AB23DD2112A}"/>
+    <hyperlink ref="D109" r:id="rId81" xr:uid="{33646707-D6F0-4BEA-9AA9-4542677708BF}"/>
+    <hyperlink ref="D82" r:id="rId82" xr:uid="{EAE0F169-94E4-4969-A7AE-9180BFEAC64F}"/>
+    <hyperlink ref="D83" r:id="rId83" xr:uid="{9B127A72-3026-4FB4-8588-E931E54A6ED2}"/>
+    <hyperlink ref="D84" r:id="rId84" xr:uid="{E0FD2177-4EF5-4418-9EE2-3BFFDCDD721A}"/>
+    <hyperlink ref="D85" r:id="rId85" xr:uid="{B3A78307-9664-44DC-AD02-B96E81A7AE4A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId85"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId86"/>
 </worksheet>
 </file>
 
@@ -5683,22 +5684,22 @@
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{12EDD4A5-537C-4964-AE58-8E306F1BDAC3}"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="40" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="39" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5716,7 +5717,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
+      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6650,7 +6651,7 @@
         <v>166</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>25</v>
@@ -7090,102 +7091,102 @@
   <autoFilter ref="A1:F1" xr:uid="{6F8015A8-CD76-4317-A710-EE332EB4DCD2}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B1:B24 B33 B40:B1048576">
-    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="35" priority="25" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="34" priority="26" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="33" priority="27" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="32" priority="28" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B32">
-    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="29" priority="19" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="28" priority="20" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="27" priority="21" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="22" priority="14" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B39">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B36)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7275,7 +7276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E52FED-6497-4FDC-A0DA-7ECEAA0549B9}">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
@@ -9350,22 +9351,22 @@
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{45E52FED-6497-4FDC-A0DA-7ECEAA0549B9}"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="101" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="107" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="106" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="105" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="104" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="5" operator="containsText" text="In Development">
+    <cfRule type="containsText" dxfId="103" priority="5" operator="containsText" text="In Development">
       <formula>NOT(ISERROR(SEARCH("In Development",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="102" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10396,22 +10397,22 @@
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{DD42EE7F-9159-4C80-95B9-C05FE7C82AF2}"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="95" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="101" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="100" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="99" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="98" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="97" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="96" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12847,42 +12848,42 @@
   </sheetData>
   <autoFilter ref="A1:O1" xr:uid="{C264C694-D993-4798-AD5F-1273142184DE}"/>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="containsText" dxfId="89" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="95" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="94" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="93" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="92" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="91" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="90" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="containsText" dxfId="83" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="89" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="88" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="87" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="86" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="85" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="84" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",O1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13084,22 +13085,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D10">
-    <cfRule type="containsText" dxfId="77" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="83" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="82" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="81" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="80" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="79" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="78" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14994,22 +14995,22 @@
   <autoFilter ref="A1:J1" xr:uid="{2BDE69A5-0DEA-4E6C-8C42-A4C78FD0BD58}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="77" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="76" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="74" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="72" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15505,22 +15506,22 @@
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{75FD0084-15F3-4E8F-BDC9-AA450191B803}"/>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="65" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="70" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="69" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="68" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="67" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="66" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15619,62 +15620,62 @@
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{8ECB4EEB-6E0F-4DBC-8ACA-83CFF1219E40}"/>
   <conditionalFormatting sqref="C1 C4:C1048576">
-    <cfRule type="containsText" dxfId="59" priority="13" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="65" priority="13" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="14" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="64" priority="14" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="15" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="63" priority="15" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="16" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="62" priority="16" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="17" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="61" priority="17" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="18" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="60" priority="18" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="containsText" dxfId="53" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="59" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="58" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="57" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="56" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="55" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="54" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="52" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="51" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="50" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="49" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="48" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15779,22 +15780,22 @@
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{7A2F1729-7251-4389-9641-85685F236F2B}"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="42" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311B348B-4A8F-4504-A4DD-76C1AAB848F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5DE0A7-E197-461E-A194-C46C6918923B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3342" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3382" uniqueCount="630">
   <si>
     <t>Name</t>
   </si>
@@ -1926,6 +1926,48 @@
   </si>
   <si>
     <t>Otherworldly Patron - The Undead</t>
+  </si>
+  <si>
+    <t>Barracuda</t>
+  </si>
+  <si>
+    <t>Giant Barracuda</t>
+  </si>
+  <si>
+    <t>School of Barracuda</t>
+  </si>
+  <si>
+    <t>Lionfish</t>
+  </si>
+  <si>
+    <t>Giant Lionfish</t>
+  </si>
+  <si>
+    <t>Pufferfish</t>
+  </si>
+  <si>
+    <t>Giant Pufferfish</t>
+  </si>
+  <si>
+    <t>Sea Fish Part 1</t>
+  </si>
+  <si>
+    <t>Sea Fish Part 2</t>
+  </si>
+  <si>
+    <t>Sea Fish Part 3</t>
+  </si>
+  <si>
+    <t>Sea Fish Part 4</t>
+  </si>
+  <si>
+    <t>Sea Fish Part 5</t>
+  </si>
+  <si>
+    <t>Sea Fish Part 6</t>
+  </si>
+  <si>
+    <t>Sea Fish Part 7</t>
   </si>
 </sst>
 </file>
@@ -3253,11 +3295,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I109" sqref="I109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4708,7 +4750,7 @@
         <v>166</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>17</v>
@@ -4728,7 +4770,7 @@
         <v>166</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>17</v>
@@ -4748,7 +4790,7 @@
         <v>166</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>17</v>
@@ -4768,7 +4810,7 @@
         <v>166</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>17</v>
@@ -4788,7 +4830,7 @@
         <v>166</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>17</v>
@@ -4808,7 +4850,7 @@
         <v>166</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>17</v>
@@ -4945,10 +4987,10 @@
         <v>171</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>17</v>
@@ -4965,10 +5007,10 @@
         <v>171</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>17</v>
@@ -4985,10 +5027,10 @@
         <v>185</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>17</v>
@@ -5005,10 +5047,10 @@
         <v>171</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>17</v>
@@ -5497,8 +5539,149 @@
         <v>24</v>
       </c>
     </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B110" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B111" s="7">
+        <v>1</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B112" s="7">
+        <v>3</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B113" s="7">
+        <v>0</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B114" s="7">
+        <v>3</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B115" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B116" s="7">
+        <v>4</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="containsText" dxfId="107" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
@@ -5590,23 +5773,26 @@
     <hyperlink ref="D78:D79" r:id="rId68" display="Mishipeshu" xr:uid="{BAF42D5B-FD22-4743-8043-DC2F1941E1D8}"/>
     <hyperlink ref="D81" r:id="rId69" xr:uid="{5805A097-BC9D-4685-86E0-E30134117A8D}"/>
     <hyperlink ref="D80" r:id="rId70" xr:uid="{32007A61-8128-435C-8AA0-543B2ECD8C9F}"/>
-    <hyperlink ref="D82" r:id="rId71" xr:uid="{9EACEB53-922E-4BE1-9434-4CA25F45F00A}"/>
-    <hyperlink ref="D83:D84" r:id="rId72" display="A Wicked Brew" xr:uid="{8CC7516F-2F79-47F4-954B-DD7D68021827}"/>
-    <hyperlink ref="D85" r:id="rId73" xr:uid="{DA59FB52-321A-4018-A2EA-F3850051FF44}"/>
-    <hyperlink ref="D86" r:id="rId74" xr:uid="{30888777-3C22-4812-8CF7-6C3657A8345E}"/>
-    <hyperlink ref="D87" r:id="rId75" xr:uid="{5BBE3482-35FC-4EA0-AA26-64236FE929AA}"/>
-    <hyperlink ref="D88" r:id="rId76" xr:uid="{693047A9-B752-496F-8718-465CAC53BA65}"/>
-    <hyperlink ref="D89" r:id="rId77" xr:uid="{EA81FD11-3461-41B1-B006-E69F57550A4D}"/>
-    <hyperlink ref="D90:D94" r:id="rId78" display="Rats" xr:uid="{79B6CD7B-C87E-4410-816A-A16E47DEA79A}"/>
-    <hyperlink ref="D95" r:id="rId79" xr:uid="{A054A175-4D56-424B-A5EE-CE8CD37CE674}"/>
-    <hyperlink ref="D96:D100" r:id="rId80" display="Rat Monstrosities" xr:uid="{B12095CB-C3DA-4859-9EA0-8B69C3713540}"/>
-    <hyperlink ref="D101" r:id="rId81" xr:uid="{F3624BE0-A487-4238-8F0A-AADCDEC764D3}"/>
-    <hyperlink ref="D102:D107" r:id="rId82" display="Sharks" xr:uid="{E63A5F92-E366-4622-8F1F-35F237D7896E}"/>
-    <hyperlink ref="D108" r:id="rId83" display="Plague Censer Bearer" xr:uid="{2F24DF23-C8F6-4EAB-A71D-3AB23DD2112A}"/>
-    <hyperlink ref="D109" r:id="rId84" xr:uid="{33646707-D6F0-4BEA-9AA9-4542677708BF}"/>
+    <hyperlink ref="D86" r:id="rId71" xr:uid="{30888777-3C22-4812-8CF7-6C3657A8345E}"/>
+    <hyperlink ref="D87" r:id="rId72" xr:uid="{5BBE3482-35FC-4EA0-AA26-64236FE929AA}"/>
+    <hyperlink ref="D88" r:id="rId73" xr:uid="{693047A9-B752-496F-8718-465CAC53BA65}"/>
+    <hyperlink ref="D89" r:id="rId74" xr:uid="{EA81FD11-3461-41B1-B006-E69F57550A4D}"/>
+    <hyperlink ref="D90:D94" r:id="rId75" display="Rats" xr:uid="{79B6CD7B-C87E-4410-816A-A16E47DEA79A}"/>
+    <hyperlink ref="D95" r:id="rId76" xr:uid="{A054A175-4D56-424B-A5EE-CE8CD37CE674}"/>
+    <hyperlink ref="D96:D100" r:id="rId77" display="Rat Monstrosities" xr:uid="{B12095CB-C3DA-4859-9EA0-8B69C3713540}"/>
+    <hyperlink ref="D101" r:id="rId78" xr:uid="{F3624BE0-A487-4238-8F0A-AADCDEC764D3}"/>
+    <hyperlink ref="D102:D107" r:id="rId79" display="Sharks" xr:uid="{E63A5F92-E366-4622-8F1F-35F237D7896E}"/>
+    <hyperlink ref="D108" r:id="rId80" display="Plague Censer Bearer" xr:uid="{2F24DF23-C8F6-4EAB-A71D-3AB23DD2112A}"/>
+    <hyperlink ref="D109" r:id="rId81" xr:uid="{33646707-D6F0-4BEA-9AA9-4542677708BF}"/>
+    <hyperlink ref="D82" r:id="rId82" xr:uid="{EAE0F169-94E4-4969-A7AE-9180BFEAC64F}"/>
+    <hyperlink ref="D83" r:id="rId83" xr:uid="{9B127A72-3026-4FB4-8588-E931E54A6ED2}"/>
+    <hyperlink ref="D84" r:id="rId84" xr:uid="{E0FD2177-4EF5-4418-9EE2-3BFFDCDD721A}"/>
+    <hyperlink ref="D85" r:id="rId85" xr:uid="{B3A78307-9664-44DC-AD02-B96E81A7AE4A}"/>
+    <hyperlink ref="D110" r:id="rId86" xr:uid="{146F3E03-09A2-4512-BB9A-2C060513EEC9}"/>
+    <hyperlink ref="D111:D116" r:id="rId87" display="Sea Fish Part 1" xr:uid="{145A0FED-0D36-4059-A3D2-CCBD8704EAF9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId85"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId88"/>
 </worksheet>
 </file>
 
@@ -5712,11 +5898,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8015A8-CD76-4317-A710-EE332EB4DCD2}">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6650,7 +6836,7 @@
         <v>166</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>25</v>
@@ -7083,6 +7269,23 @@
         <v>24</v>
       </c>
       <c r="E76" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -7265,9 +7468,10 @@
     <hyperlink ref="A74" r:id="rId73" xr:uid="{C64D2F64-A496-4B75-B25B-8FEC6498C00A}"/>
     <hyperlink ref="A75" r:id="rId74" xr:uid="{4BE50A41-A3BF-44C3-AD1B-B0E6194B9FDA}"/>
     <hyperlink ref="A76" r:id="rId75" xr:uid="{5BF086D4-5974-483E-9DFB-D1B941F8314B}"/>
+    <hyperlink ref="A77" r:id="rId76" xr:uid="{FEA4C503-4FF2-4C28-8A10-9EF08B948C47}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId76"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId77"/>
 </worksheet>
 </file>
 
@@ -7275,7 +7479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E52FED-6497-4FDC-A0DA-7ECEAA0549B9}">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
@@ -12899,7 +13103,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7D1F42-D552-4E17-AD43-A55A7D11D545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53331CB2-2134-4067-AC39-F114FF5AB5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3342" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3394" uniqueCount="626">
   <si>
     <t>Name</t>
   </si>
@@ -1926,6 +1926,36 @@
   </si>
   <si>
     <t>Otherworldly Patron - The Undead</t>
+  </si>
+  <si>
+    <t>Barracuda</t>
+  </si>
+  <si>
+    <t>Giant Barracuda</t>
+  </si>
+  <si>
+    <t>School of Barracuda</t>
+  </si>
+  <si>
+    <t>Lionfish</t>
+  </si>
+  <si>
+    <t>Giant Lionfish</t>
+  </si>
+  <si>
+    <t>Pufferfish</t>
+  </si>
+  <si>
+    <t>Giant Pufferfish</t>
+  </si>
+  <si>
+    <t>Sea Fish: Part 1</t>
+  </si>
+  <si>
+    <t>Things Catchers</t>
+  </si>
+  <si>
+    <t>Packmasters</t>
   </si>
 </sst>
 </file>
@@ -3253,11 +3283,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5497,25 +5527,166 @@
         <v>24</v>
       </c>
     </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B110" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B111" s="7">
+        <v>1</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B112" s="7">
+        <v>3</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B113" s="7">
+        <v>0</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B114" s="7">
+        <v>3</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B115" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B116" s="7">
+        <v>4</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="107" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="106" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="105" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="104" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="103" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="102" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5605,9 +5776,16 @@
     <hyperlink ref="D83" r:id="rId83" xr:uid="{9B127A72-3026-4FB4-8588-E931E54A6ED2}"/>
     <hyperlink ref="D84" r:id="rId84" xr:uid="{E0FD2177-4EF5-4418-9EE2-3BFFDCDD721A}"/>
     <hyperlink ref="D85" r:id="rId85" xr:uid="{B3A78307-9664-44DC-AD02-B96E81A7AE4A}"/>
+    <hyperlink ref="D110" r:id="rId86" xr:uid="{741D71D7-A8AA-419E-8A09-C2A1DE5AD559}"/>
+    <hyperlink ref="D111" r:id="rId87" xr:uid="{EB75A49C-4A8E-40E1-A679-9FCD166BF7C1}"/>
+    <hyperlink ref="D112" r:id="rId88" xr:uid="{F8D54356-E3E4-44F6-B89B-5B69CC1EE39E}"/>
+    <hyperlink ref="D113" r:id="rId89" xr:uid="{3DB2C409-922C-4EC9-8053-2335773336BF}"/>
+    <hyperlink ref="D114" r:id="rId90" xr:uid="{953CD5EB-AABD-418B-9578-0EF46DA025D8}"/>
+    <hyperlink ref="D115" r:id="rId91" xr:uid="{7CAD7860-0680-42E3-B03B-D18977817009}"/>
+    <hyperlink ref="D116" r:id="rId92" xr:uid="{AF80B0BE-98C2-4267-A3D5-EF7DCD1F269A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId86"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId93"/>
 </worksheet>
 </file>
 
@@ -5617,7 +5795,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5684,22 +5862,22 @@
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{12EDD4A5-537C-4964-AE58-8E306F1BDAC3}"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="32" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="30" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5713,11 +5891,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8015A8-CD76-4317-A710-EE332EB4DCD2}">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7055,7 +7233,7 @@
         <v>358</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>25</v>
@@ -7075,118 +7253,175 @@
         <v>391</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{6F8015A8-CD76-4317-A710-EE332EB4DCD2}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B1:B24 B33 B40:B1048576">
-    <cfRule type="containsText" dxfId="35" priority="25" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="26" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="27" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="28" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B32">
-    <cfRule type="containsText" dxfId="29" priority="19" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="20" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="21" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="14" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B39">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B36)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7266,9 +7501,12 @@
     <hyperlink ref="A74" r:id="rId73" xr:uid="{C64D2F64-A496-4B75-B25B-8FEC6498C00A}"/>
     <hyperlink ref="A75" r:id="rId74" xr:uid="{4BE50A41-A3BF-44C3-AD1B-B0E6194B9FDA}"/>
     <hyperlink ref="A76" r:id="rId75" xr:uid="{5BF086D4-5974-483E-9DFB-D1B941F8314B}"/>
+    <hyperlink ref="A77" r:id="rId76" xr:uid="{73CD645D-EE3A-4108-984E-1F9CE9A98B4C}"/>
+    <hyperlink ref="A78" r:id="rId77" xr:uid="{E467B59A-C519-4CE0-81FE-688EB1E176AF}"/>
+    <hyperlink ref="A79" r:id="rId78" xr:uid="{8156C637-1110-4572-90DC-540E32C212CA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId76"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId79"/>
 </worksheet>
 </file>
 
@@ -9351,22 +9589,22 @@
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{45E52FED-6497-4FDC-A0DA-7ECEAA0549B9}"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="107" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="101" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="100" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="99" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="98" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="5" operator="containsText" text="In Development">
+    <cfRule type="containsText" dxfId="97" priority="5" operator="containsText" text="In Development">
       <formula>NOT(ISERROR(SEARCH("In Development",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="96" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10397,22 +10635,22 @@
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{DD42EE7F-9159-4C80-95B9-C05FE7C82AF2}"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="101" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="95" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="94" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="93" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="92" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="91" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="90" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12848,42 +13086,42 @@
   </sheetData>
   <autoFilter ref="A1:O1" xr:uid="{C264C694-D993-4798-AD5F-1273142184DE}"/>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="containsText" dxfId="95" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="89" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="88" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="87" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="86" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="85" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="84" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="containsText" dxfId="89" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="83" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="82" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="81" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="80" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="79" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="78" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",O1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13085,22 +13323,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D10">
-    <cfRule type="containsText" dxfId="83" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="77" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="76" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="74" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="72" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14995,22 +15233,22 @@
   <autoFilter ref="A1:J1" xr:uid="{2BDE69A5-0DEA-4E6C-8C42-A4C78FD0BD58}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="77" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="70" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="69" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="68" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="67" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="66" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15506,22 +15744,22 @@
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{75FD0084-15F3-4E8F-BDC9-AA450191B803}"/>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="65" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="64" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="63" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="62" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="61" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="60" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15620,62 +15858,62 @@
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{8ECB4EEB-6E0F-4DBC-8ACA-83CFF1219E40}"/>
   <conditionalFormatting sqref="C1 C4:C1048576">
-    <cfRule type="containsText" dxfId="65" priority="13" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="59" priority="13" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="14" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="58" priority="14" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="15" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="57" priority="15" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="16" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="56" priority="16" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="17" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="55" priority="17" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="18" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="54" priority="18" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="containsText" dxfId="59" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="53" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="52" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="51" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="50" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="49" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="48" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="42" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15780,22 +16018,22 @@
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{7A2F1729-7251-4389-9641-85685F236F2B}"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="40" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="39" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53331CB2-2134-4067-AC39-F114FF5AB5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D0E35A-6E02-428C-B6E0-ED65942F829A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3394" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3402" uniqueCount="627">
   <si>
     <t>Name</t>
   </si>
@@ -1956,6 +1956,9 @@
   </si>
   <si>
     <t>Packmasters</t>
+  </si>
+  <si>
+    <t>Goose Ribbon</t>
   </si>
 </sst>
 </file>
@@ -3286,8 +3289,8 @@
   <dimension ref="A1:G116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E118" sqref="E118"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4498,7 +4501,7 @@
         <v>149</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>17</v>
@@ -4518,7 +4521,7 @@
         <v>149</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>17</v>
@@ -4538,7 +4541,7 @@
         <v>149</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>17</v>
@@ -4558,7 +4561,7 @@
         <v>149</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>17</v>
@@ -4578,7 +4581,7 @@
         <v>149</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>17</v>
@@ -5894,8 +5897,8 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6749,10 +6752,10 @@
         <v>149</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>17</v>
@@ -6832,7 +6835,7 @@
         <v>57</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>17</v>
@@ -6966,7 +6969,7 @@
         <v>57</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>17</v>
@@ -6983,7 +6986,7 @@
         <v>57</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>17</v>
@@ -7000,7 +7003,7 @@
         <v>57</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>17</v>
@@ -13359,11 +13362,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDE69A5-0DEA-4E6C-8C42-A4C78FD0BD58}">
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J70" sqref="J70"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15227,6 +15230,32 @@
       </c>
       <c r="J67" s="1" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D0E35A-6E02-428C-B6E0-ED65942F829A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF7A833-974E-431C-B851-EA298E9D3C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3402" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3407" uniqueCount="628">
   <si>
     <t>Name</t>
   </si>
@@ -1959,6 +1959,9 @@
   </si>
   <si>
     <t>Goose Ribbon</t>
+  </si>
+  <si>
+    <t>Packmaster</t>
   </si>
 </sst>
 </file>
@@ -2091,7 +2094,58 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="108">
+  <dxfs count="114">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3286,11 +3340,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G116"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5524,7 +5578,7 @@
         <v>358</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>24</v>
@@ -5670,27 +5724,67 @@
         <v>17</v>
       </c>
     </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B117" s="7">
+        <v>2</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="107" priority="1" operator="containsText" text="Playtest Ready">
+  <conditionalFormatting sqref="E1:E108 E110:E1048576">
+    <cfRule type="containsText" dxfId="113" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="112" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="111" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="110" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="109" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="108" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Playtest Ready">
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",E109)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",E109)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",E109)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Needs Clean Up">
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E109)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",E109)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",E109)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -5786,9 +5880,10 @@
     <hyperlink ref="D114" r:id="rId90" xr:uid="{953CD5EB-AABD-418B-9578-0EF46DA025D8}"/>
     <hyperlink ref="D115" r:id="rId91" xr:uid="{7CAD7860-0680-42E3-B03B-D18977817009}"/>
     <hyperlink ref="D116" r:id="rId92" xr:uid="{AF80B0BE-98C2-4267-A3D5-EF7DCD1F269A}"/>
+    <hyperlink ref="D117" r:id="rId93" xr:uid="{42685035-A275-432B-9D3F-F81DC15AB39E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId93"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId94"/>
 </worksheet>
 </file>
 
@@ -5865,22 +5960,22 @@
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{12EDD4A5-537C-4964-AE58-8E306F1BDAC3}"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="40" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="39" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5897,8 +5992,8 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7329,102 +7424,102 @@
   <autoFilter ref="A1:F1" xr:uid="{6F8015A8-CD76-4317-A710-EE332EB4DCD2}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B1:B24 B33 B40:B1048576">
-    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="35" priority="25" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="34" priority="26" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="33" priority="27" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="32" priority="28" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B32">
-    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="29" priority="19" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="28" priority="20" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="27" priority="21" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="22" priority="14" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B39">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B36)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9592,22 +9687,22 @@
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{45E52FED-6497-4FDC-A0DA-7ECEAA0549B9}"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="101" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="107" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="106" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="105" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="104" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="5" operator="containsText" text="In Development">
+    <cfRule type="containsText" dxfId="103" priority="5" operator="containsText" text="In Development">
       <formula>NOT(ISERROR(SEARCH("In Development",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="102" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10638,22 +10733,22 @@
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{DD42EE7F-9159-4C80-95B9-C05FE7C82AF2}"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="95" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="101" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="100" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="99" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="98" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="97" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="96" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13089,42 +13184,42 @@
   </sheetData>
   <autoFilter ref="A1:O1" xr:uid="{C264C694-D993-4798-AD5F-1273142184DE}"/>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="containsText" dxfId="89" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="95" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="94" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="93" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="92" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="91" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="90" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="containsText" dxfId="83" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="89" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="88" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="87" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="86" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="85" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="84" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",O1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13326,22 +13421,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D10">
-    <cfRule type="containsText" dxfId="77" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="83" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="82" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="81" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="80" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="79" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="78" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15262,22 +15357,22 @@
   <autoFilter ref="A1:J1" xr:uid="{2BDE69A5-0DEA-4E6C-8C42-A4C78FD0BD58}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="77" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="76" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="74" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="72" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15773,22 +15868,22 @@
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{75FD0084-15F3-4E8F-BDC9-AA450191B803}"/>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="65" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="70" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="69" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="68" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="67" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="66" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15887,62 +15982,62 @@
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{8ECB4EEB-6E0F-4DBC-8ACA-83CFF1219E40}"/>
   <conditionalFormatting sqref="C1 C4:C1048576">
-    <cfRule type="containsText" dxfId="59" priority="13" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="65" priority="13" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="14" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="64" priority="14" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="15" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="63" priority="15" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="16" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="62" priority="16" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="17" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="61" priority="17" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="18" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="60" priority="18" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="containsText" dxfId="53" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="59" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="58" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="57" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="56" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="55" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="54" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="52" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="51" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="50" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="49" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="48" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16047,22 +16142,22 @@
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{7A2F1729-7251-4389-9641-85685F236F2B}"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="42" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF7A833-974E-431C-B851-EA298E9D3C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A18DCE-E070-4951-877C-0DAA70158FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3407" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3412" uniqueCount="631">
   <si>
     <t>Name</t>
   </si>
@@ -1962,6 +1962,15 @@
   </si>
   <si>
     <t>Packmaster</t>
+  </si>
+  <si>
+    <t>Maiden of the Mouantain</t>
+  </si>
+  <si>
+    <t>Maiden of the Mountain</t>
+  </si>
+  <si>
+    <t>0.0.0</t>
   </si>
 </sst>
 </file>
@@ -2094,7 +2103,109 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="114">
+  <dxfs count="126">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5748,42 +5859,42 @@
   <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="E1:E108 E110:E1048576">
-    <cfRule type="containsText" dxfId="113" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="125" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="124" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="123" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="122" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="121" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="120" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="119" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E109)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="118" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E109)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="117" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E109)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="116" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E109)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="115" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E109)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="114" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E109)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5889,17 +6000,17 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EDD4A5-537C-4964-AE58-8E306F1BDAC3}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="1" bestFit="1" customWidth="1"/>
@@ -5957,31 +6068,49 @@
         <v>34</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{12EDD4A5-537C-4964-AE58-8E306F1BDAC3}"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="In Development">
+      <formula>NOT(ISERROR(SEARCH("In Development",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{3EFAC9F1-5F5A-4C59-93FD-3C2D517B2D1E}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{7B705A5F-9E61-4ED2-9B92-55A7CA95D80D}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{D8A3A87D-9811-44A2-BC0C-F580D8CAFACE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5991,7 +6120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8015A8-CD76-4317-A710-EE332EB4DCD2}">
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
     </sheetView>
@@ -7424,102 +7553,102 @@
   <autoFilter ref="A1:F1" xr:uid="{6F8015A8-CD76-4317-A710-EE332EB4DCD2}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B1:B24 B33 B40:B1048576">
-    <cfRule type="containsText" dxfId="35" priority="25" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="41" priority="25" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="26" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="40" priority="26" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="27" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="39" priority="27" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="28" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="38" priority="28" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="37" priority="29" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="36" priority="30" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B32">
-    <cfRule type="containsText" dxfId="29" priority="19" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="35" priority="19" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="20" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="34" priority="20" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="21" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="33" priority="21" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="32" priority="22" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="31" priority="23" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="30" priority="24" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="14" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="28" priority="14" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="27" priority="15" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="26" priority="16" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="25" priority="17" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="24" priority="18" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="22" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="21" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="20" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="18" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B39">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B36)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7614,7 +7743,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9687,22 +9816,22 @@
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{45E52FED-6497-4FDC-A0DA-7ECEAA0549B9}"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="107" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="113" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="112" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="111" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="110" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="5" operator="containsText" text="In Development">
+    <cfRule type="containsText" dxfId="109" priority="5" operator="containsText" text="In Development">
       <formula>NOT(ISERROR(SEARCH("In Development",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="108" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10733,22 +10862,22 @@
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{DD42EE7F-9159-4C80-95B9-C05FE7C82AF2}"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="101" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="107" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="106" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="105" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="104" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="103" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="102" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13184,42 +13313,42 @@
   </sheetData>
   <autoFilter ref="A1:O1" xr:uid="{C264C694-D993-4798-AD5F-1273142184DE}"/>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="containsText" dxfId="95" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="101" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="100" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="99" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="98" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="97" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="96" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="containsText" dxfId="89" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="95" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="94" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="93" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="92" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="91" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="90" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",O1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13421,22 +13550,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D10">
-    <cfRule type="containsText" dxfId="83" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="89" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="88" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="87" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="86" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="85" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="84" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15357,22 +15486,22 @@
   <autoFilter ref="A1:J1" xr:uid="{2BDE69A5-0DEA-4E6C-8C42-A4C78FD0BD58}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="77" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="83" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="82" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="81" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="80" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="79" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="78" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15868,22 +15997,22 @@
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{75FD0084-15F3-4E8F-BDC9-AA450191B803}"/>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="77" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="76" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="74" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="72" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15982,62 +16111,62 @@
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{8ECB4EEB-6E0F-4DBC-8ACA-83CFF1219E40}"/>
   <conditionalFormatting sqref="C1 C4:C1048576">
-    <cfRule type="containsText" dxfId="65" priority="13" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="71" priority="13" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="14" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="70" priority="14" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="15" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="69" priority="15" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="16" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="68" priority="16" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="17" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="67" priority="17" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="18" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="66" priority="18" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="containsText" dxfId="59" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="65" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="64" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="63" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="62" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="61" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="60" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="59" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="58" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="56" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="54" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16142,22 +16271,22 @@
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{7A2F1729-7251-4389-9641-85685F236F2B}"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="52" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="51" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="50" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="49" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="48" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A18DCE-E070-4951-877C-0DAA70158FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A873D9FD-2CC8-49C3-9109-500796963553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3412" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3457" uniqueCount="640">
   <si>
     <t>Name</t>
   </si>
@@ -1971,6 +1971,33 @@
   </si>
   <si>
     <t>0.0.0</t>
+  </si>
+  <si>
+    <t>Giant Anglerfish</t>
+  </si>
+  <si>
+    <t>Largetooth Sawfish</t>
+  </si>
+  <si>
+    <t>Smalltooth Sawfish</t>
+  </si>
+  <si>
+    <t>Giant Stargazer</t>
+  </si>
+  <si>
+    <t>Stonefish</t>
+  </si>
+  <si>
+    <t>Giant Stonefish</t>
+  </si>
+  <si>
+    <t>Swordfish</t>
+  </si>
+  <si>
+    <t>Great Swordfish</t>
+  </si>
+  <si>
+    <t>Sea Fish: Part 2</t>
   </si>
 </sst>
 </file>
@@ -2103,109 +2130,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="126">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="114">
     <dxf>
       <fill>
         <patternFill>
@@ -3451,11 +3376,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G117"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E118" sqref="E118"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5855,46 +5780,206 @@
         <v>24</v>
       </c>
     </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B118" s="7">
+        <v>7</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B119" s="7">
+        <v>1</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B120" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B121" s="7">
+        <v>6</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B122" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B123" s="7">
+        <v>5</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B124" s="7">
+        <v>1</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B125" s="7">
+        <v>3</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="E1:E108 E110:E1048576">
-    <cfRule type="containsText" dxfId="125" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="113" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="112" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="111" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="110" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="109" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="108" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="containsText" dxfId="119" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="107" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E109)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="106" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E109)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="105" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E109)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="104" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E109)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="103" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E109)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="102" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E109)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5992,9 +6077,17 @@
     <hyperlink ref="D115" r:id="rId91" xr:uid="{7CAD7860-0680-42E3-B03B-D18977817009}"/>
     <hyperlink ref="D116" r:id="rId92" xr:uid="{AF80B0BE-98C2-4267-A3D5-EF7DCD1F269A}"/>
     <hyperlink ref="D117" r:id="rId93" xr:uid="{42685035-A275-432B-9D3F-F81DC15AB39E}"/>
+    <hyperlink ref="D118" r:id="rId94" xr:uid="{0086C50D-5303-47F1-B210-19AA231A0499}"/>
+    <hyperlink ref="D119" r:id="rId95" xr:uid="{842EAA2C-8EC8-4566-9E3D-91226725B758}"/>
+    <hyperlink ref="D120" r:id="rId96" xr:uid="{BE8A54D6-3919-4AEA-9CBD-F7A3795D6BBC}"/>
+    <hyperlink ref="D122" r:id="rId97" xr:uid="{E5647353-F310-4E63-94E1-75224878684B}"/>
+    <hyperlink ref="D124" r:id="rId98" xr:uid="{78F7197B-983B-4445-9D18-2525E847904C}"/>
+    <hyperlink ref="D121" r:id="rId99" xr:uid="{0AE1DAFD-5F85-40AF-85AE-9A4B19E50749}"/>
+    <hyperlink ref="D123" r:id="rId100" xr:uid="{1C76907A-21AC-4CA5-B96E-C5C12C3971AB}"/>
+    <hyperlink ref="D125" r:id="rId101" xr:uid="{884ACE17-788C-4EA9-A985-33E2E565411C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId94"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId102"/>
 </worksheet>
 </file>
 
@@ -6002,7 +6095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EDD4A5-537C-4964-AE58-8E306F1BDAC3}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
@@ -6088,22 +6181,22 @@
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{12EDD4A5-537C-4964-AE58-8E306F1BDAC3}"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="32" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="In Development">
+    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="In Development">
       <formula>NOT(ISERROR(SEARCH("In Development",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="30" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6118,11 +6211,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8015A8-CD76-4317-A710-EE332EB4DCD2}">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
+      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7549,106 +7642,123 @@
         <v>345</v>
       </c>
     </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{6F8015A8-CD76-4317-A710-EE332EB4DCD2}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B1:B24 B33 B40:B1048576">
-    <cfRule type="containsText" dxfId="41" priority="25" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="26" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="27" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="28" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="29" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="30" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B32">
-    <cfRule type="containsText" dxfId="35" priority="19" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="20" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="21" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="22" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="23" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="24" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="14" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="15" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="16" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="17" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="18" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B39">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B36)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7731,9 +7841,10 @@
     <hyperlink ref="A77" r:id="rId76" xr:uid="{73CD645D-EE3A-4108-984E-1F9CE9A98B4C}"/>
     <hyperlink ref="A78" r:id="rId77" xr:uid="{E467B59A-C519-4CE0-81FE-688EB1E176AF}"/>
     <hyperlink ref="A79" r:id="rId78" xr:uid="{8156C637-1110-4572-90DC-540E32C212CA}"/>
+    <hyperlink ref="A80" r:id="rId79" xr:uid="{6E53C99C-B755-4860-A6DC-A38001C6B94F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId79"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId80"/>
 </worksheet>
 </file>
 
@@ -9816,22 +9927,22 @@
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{45E52FED-6497-4FDC-A0DA-7ECEAA0549B9}"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="113" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="101" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="100" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="99" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="98" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="5" operator="containsText" text="In Development">
+    <cfRule type="containsText" dxfId="97" priority="5" operator="containsText" text="In Development">
       <formula>NOT(ISERROR(SEARCH("In Development",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="96" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10862,22 +10973,22 @@
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{DD42EE7F-9159-4C80-95B9-C05FE7C82AF2}"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="107" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="95" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="94" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="93" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="92" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="91" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="90" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10928,8 +11039,8 @@
   <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13313,42 +13424,42 @@
   </sheetData>
   <autoFilter ref="A1:O1" xr:uid="{C264C694-D993-4798-AD5F-1273142184DE}"/>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="containsText" dxfId="101" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="89" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="88" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="87" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="86" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="85" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="84" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="containsText" dxfId="95" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="83" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="82" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="81" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="80" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="79" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="78" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",O1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13550,22 +13661,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D10">
-    <cfRule type="containsText" dxfId="89" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="77" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="76" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="74" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="72" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15486,22 +15597,22 @@
   <autoFilter ref="A1:J1" xr:uid="{2BDE69A5-0DEA-4E6C-8C42-A4C78FD0BD58}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="83" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="70" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="69" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="68" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="67" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="66" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15997,22 +16108,22 @@
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{75FD0084-15F3-4E8F-BDC9-AA450191B803}"/>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="77" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="65" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="64" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="63" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="62" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="61" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="60" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16111,62 +16222,62 @@
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{8ECB4EEB-6E0F-4DBC-8ACA-83CFF1219E40}"/>
   <conditionalFormatting sqref="C1 C4:C1048576">
-    <cfRule type="containsText" dxfId="71" priority="13" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="59" priority="13" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="14" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="58" priority="14" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="15" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="57" priority="15" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="16" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="56" priority="16" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="17" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="55" priority="17" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="18" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="54" priority="18" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="containsText" dxfId="65" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="53" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="52" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="51" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="50" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="49" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="48" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="59" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="42" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16271,22 +16382,22 @@
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{7A2F1729-7251-4389-9641-85685F236F2B}"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="40" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="39" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A873D9FD-2CC8-49C3-9109-500796963553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7654CB7-CF8D-4CC3-891B-C16C32A40ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3379,8 +3379,8 @@
   <dimension ref="A1:G125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D125" sqref="D125"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4511,7 +4511,7 @@
         <v>130</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>17</v>
@@ -4531,7 +4531,7 @@
         <v>130</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>17</v>
@@ -4551,7 +4551,7 @@
         <v>126</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>17</v>
@@ -4571,7 +4571,7 @@
         <v>126</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>17</v>
@@ -5028,10 +5028,10 @@
         <v>105</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>17</v>
@@ -5048,10 +5048,10 @@
         <v>105</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>17</v>
@@ -5614,7 +5614,7 @@
         <v>358</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>24</v>
@@ -5774,7 +5774,7 @@
         <v>625</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>24</v>
@@ -5943,7 +5943,7 @@
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="E1:E108 E110:E1048576">
+  <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="containsText" dxfId="113" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
     </cfRule>
@@ -5961,26 +5961,6 @@
     </cfRule>
     <cfRule type="containsText" dxfId="108" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="containsText" dxfId="107" priority="1" operator="containsText" text="Playtest Ready">
-      <formula>NOT(ISERROR(SEARCH("Playtest Ready",E109)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="2" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH("Needs Review",E109)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="3" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",E109)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="4" operator="containsText" text="Needs Clean Up">
-      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E109)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="5" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH("Needs Review",E109)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="6" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",E109)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -6052,39 +6032,39 @@
     <hyperlink ref="D76" r:id="rId66" xr:uid="{BBE390BC-F63A-47C8-9FF8-9A80F2A42018}"/>
     <hyperlink ref="D77" r:id="rId67" xr:uid="{376FE528-A053-44C1-AE1C-3C3C7B615EA2}"/>
     <hyperlink ref="D78:D79" r:id="rId68" display="Mishipeshu" xr:uid="{BAF42D5B-FD22-4743-8043-DC2F1941E1D8}"/>
-    <hyperlink ref="D81" r:id="rId69" xr:uid="{5805A097-BC9D-4685-86E0-E30134117A8D}"/>
-    <hyperlink ref="D80" r:id="rId70" xr:uid="{32007A61-8128-435C-8AA0-543B2ECD8C9F}"/>
-    <hyperlink ref="D86" r:id="rId71" xr:uid="{30888777-3C22-4812-8CF7-6C3657A8345E}"/>
-    <hyperlink ref="D87" r:id="rId72" xr:uid="{5BBE3482-35FC-4EA0-AA26-64236FE929AA}"/>
-    <hyperlink ref="D88" r:id="rId73" xr:uid="{693047A9-B752-496F-8718-465CAC53BA65}"/>
-    <hyperlink ref="D89" r:id="rId74" xr:uid="{EA81FD11-3461-41B1-B006-E69F57550A4D}"/>
-    <hyperlink ref="D90:D94" r:id="rId75" display="Rats" xr:uid="{79B6CD7B-C87E-4410-816A-A16E47DEA79A}"/>
-    <hyperlink ref="D95" r:id="rId76" xr:uid="{A054A175-4D56-424B-A5EE-CE8CD37CE674}"/>
-    <hyperlink ref="D96:D100" r:id="rId77" display="Rat Monstrosities" xr:uid="{B12095CB-C3DA-4859-9EA0-8B69C3713540}"/>
-    <hyperlink ref="D101" r:id="rId78" xr:uid="{F3624BE0-A487-4238-8F0A-AADCDEC764D3}"/>
-    <hyperlink ref="D102:D107" r:id="rId79" display="Sharks" xr:uid="{E63A5F92-E366-4622-8F1F-35F237D7896E}"/>
-    <hyperlink ref="D108" r:id="rId80" display="Plague Censer Bearer" xr:uid="{2F24DF23-C8F6-4EAB-A71D-3AB23DD2112A}"/>
-    <hyperlink ref="D109" r:id="rId81" xr:uid="{33646707-D6F0-4BEA-9AA9-4542677708BF}"/>
-    <hyperlink ref="D82" r:id="rId82" xr:uid="{EAE0F169-94E4-4969-A7AE-9180BFEAC64F}"/>
-    <hyperlink ref="D83" r:id="rId83" xr:uid="{9B127A72-3026-4FB4-8588-E931E54A6ED2}"/>
-    <hyperlink ref="D84" r:id="rId84" xr:uid="{E0FD2177-4EF5-4418-9EE2-3BFFDCDD721A}"/>
-    <hyperlink ref="D85" r:id="rId85" xr:uid="{B3A78307-9664-44DC-AD02-B96E81A7AE4A}"/>
-    <hyperlink ref="D110" r:id="rId86" xr:uid="{741D71D7-A8AA-419E-8A09-C2A1DE5AD559}"/>
-    <hyperlink ref="D111" r:id="rId87" xr:uid="{EB75A49C-4A8E-40E1-A679-9FCD166BF7C1}"/>
-    <hyperlink ref="D112" r:id="rId88" xr:uid="{F8D54356-E3E4-44F6-B89B-5B69CC1EE39E}"/>
-    <hyperlink ref="D113" r:id="rId89" xr:uid="{3DB2C409-922C-4EC9-8053-2335773336BF}"/>
-    <hyperlink ref="D114" r:id="rId90" xr:uid="{953CD5EB-AABD-418B-9578-0EF46DA025D8}"/>
-    <hyperlink ref="D115" r:id="rId91" xr:uid="{7CAD7860-0680-42E3-B03B-D18977817009}"/>
-    <hyperlink ref="D116" r:id="rId92" xr:uid="{AF80B0BE-98C2-4267-A3D5-EF7DCD1F269A}"/>
-    <hyperlink ref="D117" r:id="rId93" xr:uid="{42685035-A275-432B-9D3F-F81DC15AB39E}"/>
-    <hyperlink ref="D118" r:id="rId94" xr:uid="{0086C50D-5303-47F1-B210-19AA231A0499}"/>
-    <hyperlink ref="D119" r:id="rId95" xr:uid="{842EAA2C-8EC8-4566-9E3D-91226725B758}"/>
-    <hyperlink ref="D120" r:id="rId96" xr:uid="{BE8A54D6-3919-4AEA-9CBD-F7A3795D6BBC}"/>
-    <hyperlink ref="D122" r:id="rId97" xr:uid="{E5647353-F310-4E63-94E1-75224878684B}"/>
-    <hyperlink ref="D124" r:id="rId98" xr:uid="{78F7197B-983B-4445-9D18-2525E847904C}"/>
-    <hyperlink ref="D121" r:id="rId99" xr:uid="{0AE1DAFD-5F85-40AF-85AE-9A4B19E50749}"/>
-    <hyperlink ref="D123" r:id="rId100" xr:uid="{1C76907A-21AC-4CA5-B96E-C5C12C3971AB}"/>
-    <hyperlink ref="D125" r:id="rId101" xr:uid="{884ACE17-788C-4EA9-A985-33E2E565411C}"/>
+    <hyperlink ref="D86" r:id="rId69" xr:uid="{30888777-3C22-4812-8CF7-6C3657A8345E}"/>
+    <hyperlink ref="D87" r:id="rId70" xr:uid="{5BBE3482-35FC-4EA0-AA26-64236FE929AA}"/>
+    <hyperlink ref="D88" r:id="rId71" xr:uid="{693047A9-B752-496F-8718-465CAC53BA65}"/>
+    <hyperlink ref="D89" r:id="rId72" xr:uid="{EA81FD11-3461-41B1-B006-E69F57550A4D}"/>
+    <hyperlink ref="D90:D94" r:id="rId73" display="Rats" xr:uid="{79B6CD7B-C87E-4410-816A-A16E47DEA79A}"/>
+    <hyperlink ref="D95" r:id="rId74" xr:uid="{A054A175-4D56-424B-A5EE-CE8CD37CE674}"/>
+    <hyperlink ref="D96:D100" r:id="rId75" display="Rat Monstrosities" xr:uid="{B12095CB-C3DA-4859-9EA0-8B69C3713540}"/>
+    <hyperlink ref="D101" r:id="rId76" xr:uid="{F3624BE0-A487-4238-8F0A-AADCDEC764D3}"/>
+    <hyperlink ref="D102:D107" r:id="rId77" display="Sharks" xr:uid="{E63A5F92-E366-4622-8F1F-35F237D7896E}"/>
+    <hyperlink ref="D108" r:id="rId78" display="Plague Censer Bearer" xr:uid="{2F24DF23-C8F6-4EAB-A71D-3AB23DD2112A}"/>
+    <hyperlink ref="D109" r:id="rId79" xr:uid="{33646707-D6F0-4BEA-9AA9-4542677708BF}"/>
+    <hyperlink ref="D82" r:id="rId80" xr:uid="{EAE0F169-94E4-4969-A7AE-9180BFEAC64F}"/>
+    <hyperlink ref="D83" r:id="rId81" xr:uid="{9B127A72-3026-4FB4-8588-E931E54A6ED2}"/>
+    <hyperlink ref="D84" r:id="rId82" xr:uid="{E0FD2177-4EF5-4418-9EE2-3BFFDCDD721A}"/>
+    <hyperlink ref="D85" r:id="rId83" xr:uid="{B3A78307-9664-44DC-AD02-B96E81A7AE4A}"/>
+    <hyperlink ref="D110" r:id="rId84" xr:uid="{741D71D7-A8AA-419E-8A09-C2A1DE5AD559}"/>
+    <hyperlink ref="D111" r:id="rId85" xr:uid="{EB75A49C-4A8E-40E1-A679-9FCD166BF7C1}"/>
+    <hyperlink ref="D112" r:id="rId86" xr:uid="{F8D54356-E3E4-44F6-B89B-5B69CC1EE39E}"/>
+    <hyperlink ref="D113" r:id="rId87" xr:uid="{3DB2C409-922C-4EC9-8053-2335773336BF}"/>
+    <hyperlink ref="D114" r:id="rId88" xr:uid="{953CD5EB-AABD-418B-9578-0EF46DA025D8}"/>
+    <hyperlink ref="D115" r:id="rId89" xr:uid="{7CAD7860-0680-42E3-B03B-D18977817009}"/>
+    <hyperlink ref="D116" r:id="rId90" xr:uid="{AF80B0BE-98C2-4267-A3D5-EF7DCD1F269A}"/>
+    <hyperlink ref="D117" r:id="rId91" xr:uid="{42685035-A275-432B-9D3F-F81DC15AB39E}"/>
+    <hyperlink ref="D118" r:id="rId92" xr:uid="{0086C50D-5303-47F1-B210-19AA231A0499}"/>
+    <hyperlink ref="D119" r:id="rId93" xr:uid="{842EAA2C-8EC8-4566-9E3D-91226725B758}"/>
+    <hyperlink ref="D120" r:id="rId94" xr:uid="{BE8A54D6-3919-4AEA-9CBD-F7A3795D6BBC}"/>
+    <hyperlink ref="D122" r:id="rId95" xr:uid="{E5647353-F310-4E63-94E1-75224878684B}"/>
+    <hyperlink ref="D124" r:id="rId96" xr:uid="{78F7197B-983B-4445-9D18-2525E847904C}"/>
+    <hyperlink ref="D121" r:id="rId97" xr:uid="{0AE1DAFD-5F85-40AF-85AE-9A4B19E50749}"/>
+    <hyperlink ref="D123" r:id="rId98" xr:uid="{1C76907A-21AC-4CA5-B96E-C5C12C3971AB}"/>
+    <hyperlink ref="D125" r:id="rId99" xr:uid="{884ACE17-788C-4EA9-A985-33E2E565411C}"/>
+    <hyperlink ref="D80" r:id="rId100" xr:uid="{3C34D46C-8B2A-44CC-8679-43078C103696}"/>
+    <hyperlink ref="D81" r:id="rId101" xr:uid="{FC60EF05-7038-4200-BC21-E571C114C54C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId102"/>
@@ -6214,8 +6194,8 @@
   <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6703,7 +6683,7 @@
         <v>101</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>294</v>
+        <v>57</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>44</v>
@@ -7266,7 +7246,7 @@
         <v>203</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>294</v>
+        <v>15</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>44</v>
@@ -7553,7 +7533,7 @@
         <v>358</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>25</v>
@@ -7607,7 +7587,7 @@
         <v>624</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>25</v>
@@ -7627,7 +7607,7 @@
         <v>625</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>25</v>
@@ -13476,7 +13456,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7654CB7-CF8D-4CC3-891B-C16C32A40ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371313C8-8781-4BEF-A428-E00D529E90A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -6193,9 +6193,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8015A8-CD76-4317-A710-EE332EB4DCD2}">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7229,7 +7229,7 @@
         <v>187</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>44</v>
@@ -10014,9 +10014,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD42EE7F-9159-4C80-95B9-C05FE7C82AF2}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10064,7 +10064,7 @@
         <v>187</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>17</v>
@@ -10084,7 +10084,7 @@
         <v>187</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>17</v>
@@ -10104,7 +10104,7 @@
         <v>187</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>17</v>
@@ -10124,7 +10124,7 @@
         <v>187</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>17</v>
@@ -10144,7 +10144,7 @@
         <v>187</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>17</v>
@@ -10164,7 +10164,7 @@
         <v>187</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>17</v>
@@ -10184,7 +10184,7 @@
         <v>187</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>17</v>
@@ -10204,7 +10204,7 @@
         <v>187</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>17</v>
@@ -10224,7 +10224,7 @@
         <v>187</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>17</v>
@@ -10244,7 +10244,7 @@
         <v>187</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>17</v>
@@ -10264,7 +10264,7 @@
         <v>187</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>17</v>
@@ -10284,7 +10284,7 @@
         <v>187</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>17</v>
@@ -10304,7 +10304,7 @@
         <v>187</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>17</v>
@@ -10324,7 +10324,7 @@
         <v>187</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>17</v>
@@ -10344,7 +10344,7 @@
         <v>187</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>17</v>
@@ -10364,7 +10364,7 @@
         <v>187</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>17</v>
@@ -10384,7 +10384,7 @@
         <v>187</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>17</v>
@@ -10404,7 +10404,7 @@
         <v>187</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>17</v>
@@ -10424,7 +10424,7 @@
         <v>187</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>17</v>
@@ -10444,7 +10444,7 @@
         <v>187</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>17</v>

--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371313C8-8781-4BEF-A428-E00D529E90A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA85BB0-2836-46AA-9734-6FCB99FD8330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -2130,58 +2130,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="114">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="108">
     <dxf>
       <fill>
         <patternFill>
@@ -3379,8 +3328,8 @@
   <dimension ref="A1:G125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4511,7 +4460,7 @@
         <v>130</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>17</v>
@@ -4531,7 +4480,7 @@
         <v>130</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>17</v>
@@ -4551,7 +4500,7 @@
         <v>126</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>17</v>
@@ -4571,7 +4520,7 @@
         <v>126</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>17</v>
@@ -5944,22 +5893,22 @@
   <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="113" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="107" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="106" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="105" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="104" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="103" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="102" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6193,9 +6142,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8015A8-CD76-4317-A710-EE332EB4DCD2}">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6941,7 +6890,7 @@
         <v>129</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>44</v>
@@ -6958,7 +6907,7 @@
         <v>130</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>44</v>
@@ -6975,7 +6924,7 @@
         <v>131</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>115</v>
+        <v>294</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>44</v>
@@ -6992,7 +6941,7 @@
         <v>125</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>44</v>
@@ -7009,7 +6958,7 @@
         <v>126</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>44</v>
@@ -7029,7 +6978,7 @@
         <v>127</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>115</v>
+        <v>294</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>44</v>
@@ -7833,8 +7782,8 @@
   <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D82" sqref="D82"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8202,7 +8151,7 @@
         <v>129</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>17</v>
@@ -8228,7 +8177,7 @@
         <v>125</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>17</v>
@@ -10014,7 +9963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD42EE7F-9159-4C80-95B9-C05FE7C82AF2}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E2" sqref="E2:E21"/>
     </sheetView>
@@ -13681,7 +13630,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
+      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA85BB0-2836-46AA-9734-6FCB99FD8330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EDBA74-556D-48EB-BFAA-BA5C8BD85948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -6142,9 +6142,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8015A8-CD76-4317-A710-EE332EB4DCD2}">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F65" sqref="F65"/>
+      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7263,7 +7263,7 @@
         <v>208</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>44</v>
@@ -13629,8 +13629,8 @@
   <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13785,7 +13785,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>294</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>17</v>
@@ -16076,11 +16076,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECB4EEB-6E0F-4DBC-8ACA-83CFF1219E40}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16114,7 +16114,7 @@
         <v>208</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>17</v>
@@ -16142,15 +16142,15 @@
         <v>391</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{8ECB4EEB-6E0F-4DBC-8ACA-83CFF1219E40}"/>
-  <conditionalFormatting sqref="C1 C4:C1048576">
+  <conditionalFormatting sqref="C1 C5:C1048576">
     <cfRule type="containsText" dxfId="59" priority="13" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C1)))</formula>
     </cfRule>
@@ -16170,7 +16170,7 @@
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
+  <conditionalFormatting sqref="C3:C4">
     <cfRule type="containsText" dxfId="53" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C3)))</formula>
     </cfRule>

--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EDBA74-556D-48EB-BFAA-BA5C8BD85948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FECE6C-A43A-47E2-98C7-991E7749C5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -3327,9 +3327,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4540,7 +4540,7 @@
         <v>149</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>17</v>
@@ -4560,7 +4560,7 @@
         <v>149</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>17</v>
@@ -4580,7 +4580,7 @@
         <v>149</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>17</v>
@@ -4600,7 +4600,7 @@
         <v>149</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>17</v>
@@ -4620,7 +4620,7 @@
         <v>149</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>17</v>
@@ -4780,7 +4780,7 @@
         <v>166</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>17</v>
@@ -4800,7 +4800,7 @@
         <v>166</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>17</v>
@@ -4820,7 +4820,7 @@
         <v>166</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>17</v>
@@ -4840,7 +4840,7 @@
         <v>166</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>17</v>
@@ -4860,7 +4860,7 @@
         <v>166</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>17</v>
@@ -4880,7 +4880,7 @@
         <v>166</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>17</v>
@@ -5020,7 +5020,7 @@
         <v>166</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>17</v>
@@ -5040,7 +5040,7 @@
         <v>166</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>17</v>
@@ -5060,7 +5060,7 @@
         <v>166</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>17</v>
@@ -5080,7 +5080,7 @@
         <v>166</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>17</v>
@@ -5949,74 +5949,71 @@
     <hyperlink ref="D35" r:id="rId34" xr:uid="{AB7C40A3-DB8F-4065-BDDA-D744B4661614}"/>
     <hyperlink ref="D36" r:id="rId35" xr:uid="{2FEEA5A8-F135-4ABE-B6B2-03D8C8D244A1}"/>
     <hyperlink ref="D37" r:id="rId36" xr:uid="{196D4A37-533A-4885-B6FD-479A64BF183D}"/>
-    <hyperlink ref="D38" r:id="rId37" xr:uid="{165CFC89-F636-464F-A6A5-749E3716F1AB}"/>
-    <hyperlink ref="D39" r:id="rId38" xr:uid="{1BDE66BD-98AB-4424-B88A-245C7C930027}"/>
-    <hyperlink ref="D40" r:id="rId39" xr:uid="{12882728-0D2A-4C04-B0FD-B5F37D95A424}"/>
-    <hyperlink ref="D41" r:id="rId40" xr:uid="{8949B500-EC1E-490F-9DE3-0E5656A630D4}"/>
-    <hyperlink ref="D42" r:id="rId41" xr:uid="{F5D586C5-C254-4346-8D5A-179FD86A732B}"/>
-    <hyperlink ref="D43" r:id="rId42" xr:uid="{7A3BD16B-8858-465D-830F-AAF9665E5D89}"/>
-    <hyperlink ref="D44" r:id="rId43" xr:uid="{094297A6-51FD-4AF3-9151-DD82513578E4}"/>
-    <hyperlink ref="D45" r:id="rId44" xr:uid="{57546C68-ADAF-4334-B7C0-41099A192C4A}"/>
-    <hyperlink ref="D46" r:id="rId45" xr:uid="{ADD38CEC-06F2-44A7-9700-7CC10BA39E75}"/>
-    <hyperlink ref="D47" r:id="rId46" xr:uid="{E01695A3-B401-4B95-B970-6FA356FD3FE3}"/>
-    <hyperlink ref="D48" r:id="rId47" xr:uid="{E391D678-1D23-4E8E-9E23-A72E9FEB3068}"/>
-    <hyperlink ref="D49" r:id="rId48" xr:uid="{A97CE7D2-1460-454E-B0D2-40ECF741B2FE}"/>
-    <hyperlink ref="D50" r:id="rId49" xr:uid="{FE221D30-7AE1-4EEF-9D84-64C57824A934}"/>
-    <hyperlink ref="D51" r:id="rId50" xr:uid="{12CFBB73-4914-41EA-A225-9DAB15B39F17}"/>
-    <hyperlink ref="D52" r:id="rId51" xr:uid="{49D3FA59-466E-40C3-9307-189F4C25B515}"/>
-    <hyperlink ref="D53" r:id="rId52" xr:uid="{A2C2D73E-3C7B-4269-A2CE-AF2031165F1D}"/>
-    <hyperlink ref="D54" r:id="rId53" xr:uid="{69E37AD3-078C-4ABE-92E1-5B718FD5985B}"/>
-    <hyperlink ref="D55" r:id="rId54" xr:uid="{241E4031-2953-49CA-B78C-ABC6F4218C56}"/>
-    <hyperlink ref="D56" r:id="rId55" xr:uid="{E3FEE332-F12E-4767-B7A2-86D2D14995AA}"/>
-    <hyperlink ref="D57" r:id="rId56" xr:uid="{E09C3C30-4220-47F8-851F-249CDC2F3A48}"/>
-    <hyperlink ref="D58" r:id="rId57" xr:uid="{EA7B830B-8B1D-45C6-B3B0-11144454EBD8}"/>
-    <hyperlink ref="D59:D62" r:id="rId58" display="Geese" xr:uid="{D5210730-CAC4-4647-AA75-C5D2115D7346}"/>
-    <hyperlink ref="D63" r:id="rId59" xr:uid="{B920B403-CE2F-41DD-BC22-6D822A56A84E}"/>
-    <hyperlink ref="D64:D65" r:id="rId60" display="Turkeys" xr:uid="{6E8BC3F9-0861-45A7-A3B8-25095D91B78E}"/>
-    <hyperlink ref="D66" r:id="rId61" xr:uid="{3736D5CA-F738-41D8-B30D-E0D538BC03B0}"/>
-    <hyperlink ref="D67:D68" r:id="rId62" display="Water Horses" xr:uid="{835CBD62-F67E-4BED-888A-79F84748E32F}"/>
-    <hyperlink ref="D69" r:id="rId63" xr:uid="{B9B62ADC-6AD3-4200-AEA5-3E04DF82CF90}"/>
-    <hyperlink ref="D70" r:id="rId64" xr:uid="{53847029-8BC7-4ACB-882F-3DA4BBFFFB48}"/>
-    <hyperlink ref="D71:D75" r:id="rId65" display="Toads" xr:uid="{60A942B1-A307-4EB4-BC0B-E436C5CDC583}"/>
-    <hyperlink ref="D76" r:id="rId66" xr:uid="{BBE390BC-F63A-47C8-9FF8-9A80F2A42018}"/>
-    <hyperlink ref="D77" r:id="rId67" xr:uid="{376FE528-A053-44C1-AE1C-3C3C7B615EA2}"/>
-    <hyperlink ref="D78:D79" r:id="rId68" display="Mishipeshu" xr:uid="{BAF42D5B-FD22-4743-8043-DC2F1941E1D8}"/>
-    <hyperlink ref="D86" r:id="rId69" xr:uid="{30888777-3C22-4812-8CF7-6C3657A8345E}"/>
-    <hyperlink ref="D87" r:id="rId70" xr:uid="{5BBE3482-35FC-4EA0-AA26-64236FE929AA}"/>
-    <hyperlink ref="D88" r:id="rId71" xr:uid="{693047A9-B752-496F-8718-465CAC53BA65}"/>
-    <hyperlink ref="D89" r:id="rId72" xr:uid="{EA81FD11-3461-41B1-B006-E69F57550A4D}"/>
-    <hyperlink ref="D90:D94" r:id="rId73" display="Rats" xr:uid="{79B6CD7B-C87E-4410-816A-A16E47DEA79A}"/>
-    <hyperlink ref="D95" r:id="rId74" xr:uid="{A054A175-4D56-424B-A5EE-CE8CD37CE674}"/>
-    <hyperlink ref="D96:D100" r:id="rId75" display="Rat Monstrosities" xr:uid="{B12095CB-C3DA-4859-9EA0-8B69C3713540}"/>
-    <hyperlink ref="D101" r:id="rId76" xr:uid="{F3624BE0-A487-4238-8F0A-AADCDEC764D3}"/>
-    <hyperlink ref="D102:D107" r:id="rId77" display="Sharks" xr:uid="{E63A5F92-E366-4622-8F1F-35F237D7896E}"/>
-    <hyperlink ref="D108" r:id="rId78" display="Plague Censer Bearer" xr:uid="{2F24DF23-C8F6-4EAB-A71D-3AB23DD2112A}"/>
-    <hyperlink ref="D109" r:id="rId79" xr:uid="{33646707-D6F0-4BEA-9AA9-4542677708BF}"/>
-    <hyperlink ref="D82" r:id="rId80" xr:uid="{EAE0F169-94E4-4969-A7AE-9180BFEAC64F}"/>
-    <hyperlink ref="D83" r:id="rId81" xr:uid="{9B127A72-3026-4FB4-8588-E931E54A6ED2}"/>
-    <hyperlink ref="D84" r:id="rId82" xr:uid="{E0FD2177-4EF5-4418-9EE2-3BFFDCDD721A}"/>
-    <hyperlink ref="D85" r:id="rId83" xr:uid="{B3A78307-9664-44DC-AD02-B96E81A7AE4A}"/>
-    <hyperlink ref="D110" r:id="rId84" xr:uid="{741D71D7-A8AA-419E-8A09-C2A1DE5AD559}"/>
-    <hyperlink ref="D111" r:id="rId85" xr:uid="{EB75A49C-4A8E-40E1-A679-9FCD166BF7C1}"/>
-    <hyperlink ref="D112" r:id="rId86" xr:uid="{F8D54356-E3E4-44F6-B89B-5B69CC1EE39E}"/>
-    <hyperlink ref="D113" r:id="rId87" xr:uid="{3DB2C409-922C-4EC9-8053-2335773336BF}"/>
-    <hyperlink ref="D114" r:id="rId88" xr:uid="{953CD5EB-AABD-418B-9578-0EF46DA025D8}"/>
-    <hyperlink ref="D115" r:id="rId89" xr:uid="{7CAD7860-0680-42E3-B03B-D18977817009}"/>
-    <hyperlink ref="D116" r:id="rId90" xr:uid="{AF80B0BE-98C2-4267-A3D5-EF7DCD1F269A}"/>
-    <hyperlink ref="D117" r:id="rId91" xr:uid="{42685035-A275-432B-9D3F-F81DC15AB39E}"/>
-    <hyperlink ref="D118" r:id="rId92" xr:uid="{0086C50D-5303-47F1-B210-19AA231A0499}"/>
-    <hyperlink ref="D119" r:id="rId93" xr:uid="{842EAA2C-8EC8-4566-9E3D-91226725B758}"/>
-    <hyperlink ref="D120" r:id="rId94" xr:uid="{BE8A54D6-3919-4AEA-9CBD-F7A3795D6BBC}"/>
-    <hyperlink ref="D122" r:id="rId95" xr:uid="{E5647353-F310-4E63-94E1-75224878684B}"/>
-    <hyperlink ref="D124" r:id="rId96" xr:uid="{78F7197B-983B-4445-9D18-2525E847904C}"/>
-    <hyperlink ref="D121" r:id="rId97" xr:uid="{0AE1DAFD-5F85-40AF-85AE-9A4B19E50749}"/>
-    <hyperlink ref="D123" r:id="rId98" xr:uid="{1C76907A-21AC-4CA5-B96E-C5C12C3971AB}"/>
-    <hyperlink ref="D125" r:id="rId99" xr:uid="{884ACE17-788C-4EA9-A985-33E2E565411C}"/>
-    <hyperlink ref="D80" r:id="rId100" xr:uid="{3C34D46C-8B2A-44CC-8679-43078C103696}"/>
-    <hyperlink ref="D81" r:id="rId101" xr:uid="{FC60EF05-7038-4200-BC21-E571C114C54C}"/>
+    <hyperlink ref="D42" r:id="rId37" xr:uid="{F5D586C5-C254-4346-8D5A-179FD86A732B}"/>
+    <hyperlink ref="D43" r:id="rId38" xr:uid="{7A3BD16B-8858-465D-830F-AAF9665E5D89}"/>
+    <hyperlink ref="D44" r:id="rId39" xr:uid="{094297A6-51FD-4AF3-9151-DD82513578E4}"/>
+    <hyperlink ref="D45" r:id="rId40" xr:uid="{57546C68-ADAF-4334-B7C0-41099A192C4A}"/>
+    <hyperlink ref="D46" r:id="rId41" xr:uid="{ADD38CEC-06F2-44A7-9700-7CC10BA39E75}"/>
+    <hyperlink ref="D47" r:id="rId42" xr:uid="{E01695A3-B401-4B95-B970-6FA356FD3FE3}"/>
+    <hyperlink ref="D48" r:id="rId43" xr:uid="{E391D678-1D23-4E8E-9E23-A72E9FEB3068}"/>
+    <hyperlink ref="D49" r:id="rId44" xr:uid="{A97CE7D2-1460-454E-B0D2-40ECF741B2FE}"/>
+    <hyperlink ref="D50" r:id="rId45" xr:uid="{FE221D30-7AE1-4EEF-9D84-64C57824A934}"/>
+    <hyperlink ref="D51" r:id="rId46" xr:uid="{12CFBB73-4914-41EA-A225-9DAB15B39F17}"/>
+    <hyperlink ref="D52" r:id="rId47" xr:uid="{49D3FA59-466E-40C3-9307-189F4C25B515}"/>
+    <hyperlink ref="D53" r:id="rId48" xr:uid="{A2C2D73E-3C7B-4269-A2CE-AF2031165F1D}"/>
+    <hyperlink ref="D54" r:id="rId49" xr:uid="{69E37AD3-078C-4ABE-92E1-5B718FD5985B}"/>
+    <hyperlink ref="D55" r:id="rId50" xr:uid="{241E4031-2953-49CA-B78C-ABC6F4218C56}"/>
+    <hyperlink ref="D56" r:id="rId51" xr:uid="{E3FEE332-F12E-4767-B7A2-86D2D14995AA}"/>
+    <hyperlink ref="D57" r:id="rId52" xr:uid="{E09C3C30-4220-47F8-851F-249CDC2F3A48}"/>
+    <hyperlink ref="D58" r:id="rId53" xr:uid="{EA7B830B-8B1D-45C6-B3B0-11144454EBD8}"/>
+    <hyperlink ref="D59:D62" r:id="rId54" display="Geese" xr:uid="{D5210730-CAC4-4647-AA75-C5D2115D7346}"/>
+    <hyperlink ref="D63" r:id="rId55" xr:uid="{B920B403-CE2F-41DD-BC22-6D822A56A84E}"/>
+    <hyperlink ref="D64:D65" r:id="rId56" display="Turkeys" xr:uid="{6E8BC3F9-0861-45A7-A3B8-25095D91B78E}"/>
+    <hyperlink ref="D66" r:id="rId57" xr:uid="{3736D5CA-F738-41D8-B30D-E0D538BC03B0}"/>
+    <hyperlink ref="D67:D68" r:id="rId58" display="Water Horses" xr:uid="{835CBD62-F67E-4BED-888A-79F84748E32F}"/>
+    <hyperlink ref="D69" r:id="rId59" xr:uid="{B9B62ADC-6AD3-4200-AEA5-3E04DF82CF90}"/>
+    <hyperlink ref="D70" r:id="rId60" xr:uid="{53847029-8BC7-4ACB-882F-3DA4BBFFFB48}"/>
+    <hyperlink ref="D71:D75" r:id="rId61" display="Toads" xr:uid="{60A942B1-A307-4EB4-BC0B-E436C5CDC583}"/>
+    <hyperlink ref="D76" r:id="rId62" xr:uid="{BBE390BC-F63A-47C8-9FF8-9A80F2A42018}"/>
+    <hyperlink ref="D77" r:id="rId63" xr:uid="{376FE528-A053-44C1-AE1C-3C3C7B615EA2}"/>
+    <hyperlink ref="D78:D79" r:id="rId64" display="Mishipeshu" xr:uid="{BAF42D5B-FD22-4743-8043-DC2F1941E1D8}"/>
+    <hyperlink ref="D86" r:id="rId65" xr:uid="{30888777-3C22-4812-8CF7-6C3657A8345E}"/>
+    <hyperlink ref="D87" r:id="rId66" xr:uid="{5BBE3482-35FC-4EA0-AA26-64236FE929AA}"/>
+    <hyperlink ref="D88" r:id="rId67" xr:uid="{693047A9-B752-496F-8718-465CAC53BA65}"/>
+    <hyperlink ref="D89" r:id="rId68" xr:uid="{EA81FD11-3461-41B1-B006-E69F57550A4D}"/>
+    <hyperlink ref="D90:D94" r:id="rId69" display="Rats" xr:uid="{79B6CD7B-C87E-4410-816A-A16E47DEA79A}"/>
+    <hyperlink ref="D95" r:id="rId70" xr:uid="{A054A175-4D56-424B-A5EE-CE8CD37CE674}"/>
+    <hyperlink ref="D96:D100" r:id="rId71" display="Rat Monstrosities" xr:uid="{B12095CB-C3DA-4859-9EA0-8B69C3713540}"/>
+    <hyperlink ref="D101" r:id="rId72" xr:uid="{F3624BE0-A487-4238-8F0A-AADCDEC764D3}"/>
+    <hyperlink ref="D102:D107" r:id="rId73" display="Sharks" xr:uid="{E63A5F92-E366-4622-8F1F-35F237D7896E}"/>
+    <hyperlink ref="D108" r:id="rId74" display="Plague Censer Bearer" xr:uid="{2F24DF23-C8F6-4EAB-A71D-3AB23DD2112A}"/>
+    <hyperlink ref="D109" r:id="rId75" xr:uid="{33646707-D6F0-4BEA-9AA9-4542677708BF}"/>
+    <hyperlink ref="D82" r:id="rId76" xr:uid="{EAE0F169-94E4-4969-A7AE-9180BFEAC64F}"/>
+    <hyperlink ref="D83" r:id="rId77" xr:uid="{9B127A72-3026-4FB4-8588-E931E54A6ED2}"/>
+    <hyperlink ref="D84" r:id="rId78" xr:uid="{E0FD2177-4EF5-4418-9EE2-3BFFDCDD721A}"/>
+    <hyperlink ref="D85" r:id="rId79" xr:uid="{B3A78307-9664-44DC-AD02-B96E81A7AE4A}"/>
+    <hyperlink ref="D110" r:id="rId80" xr:uid="{741D71D7-A8AA-419E-8A09-C2A1DE5AD559}"/>
+    <hyperlink ref="D111" r:id="rId81" xr:uid="{EB75A49C-4A8E-40E1-A679-9FCD166BF7C1}"/>
+    <hyperlink ref="D112" r:id="rId82" xr:uid="{F8D54356-E3E4-44F6-B89B-5B69CC1EE39E}"/>
+    <hyperlink ref="D113" r:id="rId83" xr:uid="{3DB2C409-922C-4EC9-8053-2335773336BF}"/>
+    <hyperlink ref="D114" r:id="rId84" xr:uid="{953CD5EB-AABD-418B-9578-0EF46DA025D8}"/>
+    <hyperlink ref="D115" r:id="rId85" xr:uid="{7CAD7860-0680-42E3-B03B-D18977817009}"/>
+    <hyperlink ref="D116" r:id="rId86" xr:uid="{AF80B0BE-98C2-4267-A3D5-EF7DCD1F269A}"/>
+    <hyperlink ref="D117" r:id="rId87" xr:uid="{42685035-A275-432B-9D3F-F81DC15AB39E}"/>
+    <hyperlink ref="D118" r:id="rId88" xr:uid="{0086C50D-5303-47F1-B210-19AA231A0499}"/>
+    <hyperlink ref="D119" r:id="rId89" xr:uid="{842EAA2C-8EC8-4566-9E3D-91226725B758}"/>
+    <hyperlink ref="D120" r:id="rId90" xr:uid="{BE8A54D6-3919-4AEA-9CBD-F7A3795D6BBC}"/>
+    <hyperlink ref="D122" r:id="rId91" xr:uid="{E5647353-F310-4E63-94E1-75224878684B}"/>
+    <hyperlink ref="D124" r:id="rId92" xr:uid="{78F7197B-983B-4445-9D18-2525E847904C}"/>
+    <hyperlink ref="D121" r:id="rId93" xr:uid="{0AE1DAFD-5F85-40AF-85AE-9A4B19E50749}"/>
+    <hyperlink ref="D123" r:id="rId94" xr:uid="{1C76907A-21AC-4CA5-B96E-C5C12C3971AB}"/>
+    <hyperlink ref="D125" r:id="rId95" xr:uid="{884ACE17-788C-4EA9-A985-33E2E565411C}"/>
+    <hyperlink ref="D80" r:id="rId96" xr:uid="{3C34D46C-8B2A-44CC-8679-43078C103696}"/>
+    <hyperlink ref="D81" r:id="rId97" xr:uid="{FC60EF05-7038-4200-BC21-E571C114C54C}"/>
+    <hyperlink ref="D38:D41" r:id="rId98" display="Otters" xr:uid="{5B129CAF-5388-4616-B378-0AC02F569450}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId102"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId99"/>
 </worksheet>
 </file>
 
@@ -6143,8 +6140,8 @@
   <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6998,7 +6995,7 @@
         <v>149</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>44</v>
@@ -7078,7 +7075,7 @@
         <v>166</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>44</v>
@@ -7717,60 +7714,60 @@
     <hyperlink ref="A24" r:id="rId23" xr:uid="{1F911A34-9511-42A8-90D1-AC771B7F460D}"/>
     <hyperlink ref="A25" r:id="rId24" xr:uid="{B9E764F6-8999-4E13-ACC1-3629B917C588}"/>
     <hyperlink ref="A26" r:id="rId25" xr:uid="{A5ECAA0E-8998-4E2C-A020-8E8774B27403}"/>
-    <hyperlink ref="A27" r:id="rId26" xr:uid="{EAA7D7E7-D4FA-4331-8849-34DE7A52495A}"/>
-    <hyperlink ref="A28" r:id="rId27" xr:uid="{40226450-5F8B-49B3-80D3-02EEE346109F}"/>
-    <hyperlink ref="A29" r:id="rId28" xr:uid="{A358ECF0-A099-471A-96DD-A8D8DC4BEF1C}"/>
-    <hyperlink ref="A30" r:id="rId29" xr:uid="{9948DE4A-01F5-4D99-AFFE-6ED45F78C26A}"/>
-    <hyperlink ref="A31" r:id="rId30" xr:uid="{2E5A13F5-020E-4FB2-883B-64BB2F2B2036}"/>
-    <hyperlink ref="A32" r:id="rId31" xr:uid="{83404035-5C3F-4BE0-8E8B-6883A6419434}"/>
-    <hyperlink ref="A33" r:id="rId32" xr:uid="{AD007FDA-56B6-401A-A0A9-6F049B53D455}"/>
-    <hyperlink ref="A36" r:id="rId33" xr:uid="{459E7CCB-6EB4-4551-83BD-CAFC52ADD6B5}"/>
-    <hyperlink ref="A34" r:id="rId34" xr:uid="{8E1592CC-E8A1-40D2-A93D-9B33E435359D}"/>
-    <hyperlink ref="A35" r:id="rId35" xr:uid="{97980AF9-8725-42CE-B6A9-A1772741E50B}"/>
-    <hyperlink ref="A37" r:id="rId36" xr:uid="{8434E595-8697-4545-AFF4-CE5310B96624}"/>
-    <hyperlink ref="A38" r:id="rId37" xr:uid="{A0FA9B76-EE20-484D-B128-946B519D4B61}"/>
-    <hyperlink ref="A39" r:id="rId38" xr:uid="{0F7FB4C9-DF44-4471-99AC-751539D301D1}"/>
-    <hyperlink ref="A40" r:id="rId39" xr:uid="{2FCD69A0-32CA-4CBA-B010-40A99872022A}"/>
-    <hyperlink ref="A41" r:id="rId40" xr:uid="{7DFBBC54-9A6E-447B-BDA3-4B221344F36B}"/>
-    <hyperlink ref="A42" r:id="rId41" xr:uid="{9E4AD094-1DB7-4F42-970D-B60C148339E2}"/>
-    <hyperlink ref="A46" r:id="rId42" xr:uid="{BF73FE15-80AF-482A-9F1D-73B8EF17958A}"/>
-    <hyperlink ref="A48" r:id="rId43" xr:uid="{F6F79D9D-97E7-4F33-8C43-DAC4AD9EB19A}"/>
-    <hyperlink ref="A47" r:id="rId44" xr:uid="{206F473A-9A80-4223-9753-8717A77EDD0D}"/>
-    <hyperlink ref="A43" r:id="rId45" xr:uid="{EF232471-F9BF-4790-BF60-4D6873A50B9D}"/>
-    <hyperlink ref="A44" r:id="rId46" xr:uid="{9FDC9976-771C-44CA-90AD-3E685A462250}"/>
-    <hyperlink ref="A45" r:id="rId47" xr:uid="{C387D933-12EE-4133-9F7E-4316BFB3C36D}"/>
-    <hyperlink ref="A49" r:id="rId48" xr:uid="{7F4A0F63-B5AC-4DE3-A745-E33AAC5B7B87}"/>
-    <hyperlink ref="A50" r:id="rId49" xr:uid="{6A5E754F-4DB1-45D1-9CFC-1A5059E4737E}"/>
-    <hyperlink ref="A51" r:id="rId50" xr:uid="{3FDEA5A7-57B5-40A6-9E7A-7EDF4D7D9BEF}"/>
-    <hyperlink ref="A52" r:id="rId51" xr:uid="{A4CCFE41-7B5C-4F43-BC67-914085CA9E77}"/>
-    <hyperlink ref="A53" r:id="rId52" xr:uid="{D7A44C96-38AF-4CC3-B1AC-939A90FC7606}"/>
-    <hyperlink ref="A54" r:id="rId53" xr:uid="{4DF06760-F5C0-4B36-8A6E-2AF428B4841F}"/>
-    <hyperlink ref="A55" r:id="rId54" xr:uid="{823C84F9-8E46-44DE-8CFE-D6D79616E9AB}"/>
-    <hyperlink ref="A56" r:id="rId55" xr:uid="{F837A5BB-A4D8-4FB0-8054-7744319A4A07}"/>
-    <hyperlink ref="A57" r:id="rId56" xr:uid="{BEE8A103-A25E-41ED-8A83-2C2526652AF4}"/>
-    <hyperlink ref="A58" r:id="rId57" xr:uid="{29B0F2FA-57E4-40D5-AD93-D74BD18E64E7}"/>
-    <hyperlink ref="A59" r:id="rId58" xr:uid="{61B1C35B-867F-48BF-A055-C2EE16407ED4}"/>
-    <hyperlink ref="A60" r:id="rId59" xr:uid="{ED7E00BE-81F0-4E89-A789-9A410F15A510}"/>
-    <hyperlink ref="A61" r:id="rId60" xr:uid="{51C907B6-F720-4FC0-A001-A8B24CEC6B50}"/>
-    <hyperlink ref="A62" r:id="rId61" xr:uid="{D76022EE-A7CB-4E71-9E8F-38BBF0A2D1C0}"/>
-    <hyperlink ref="A63" r:id="rId62" xr:uid="{934BAAED-90F7-4112-AC56-DBC1B05CCB8E}"/>
-    <hyperlink ref="A64" r:id="rId63" display="Spell Casting Feats" xr:uid="{7866684D-7A4E-4DF6-910F-623213CA2205}"/>
-    <hyperlink ref="A65" r:id="rId64" xr:uid="{C262916F-172D-438D-929F-FED0C5C87A1C}"/>
-    <hyperlink ref="A66" r:id="rId65" xr:uid="{0571E7CE-9098-4893-AFBB-E991F1149A93}"/>
-    <hyperlink ref="A67" r:id="rId66" xr:uid="{A5E59BB7-6B0C-4292-BC62-11240AA439EC}"/>
-    <hyperlink ref="A68" r:id="rId67" xr:uid="{9529DD90-02A3-453B-87D8-9715CEEDF28B}"/>
-    <hyperlink ref="A69" r:id="rId68" xr:uid="{7217EF99-1651-4840-8525-D36C44643DFD}"/>
-    <hyperlink ref="A70" r:id="rId69" xr:uid="{D3FA5FEE-2DA5-49B7-906F-36E776202F93}"/>
-    <hyperlink ref="A71" r:id="rId70" xr:uid="{9C2DF406-D818-444F-A61A-E1E9592B5887}"/>
-    <hyperlink ref="A72" r:id="rId71" xr:uid="{1CC9A2DB-118D-412A-A241-ABF99487F6B4}"/>
-    <hyperlink ref="A73" r:id="rId72" display="Plague Censer Bearer" xr:uid="{4370DB5D-3FC3-4EB9-A488-FFE7B09B3525}"/>
-    <hyperlink ref="A74" r:id="rId73" xr:uid="{C64D2F64-A496-4B75-B25B-8FEC6498C00A}"/>
-    <hyperlink ref="A75" r:id="rId74" xr:uid="{4BE50A41-A3BF-44C3-AD1B-B0E6194B9FDA}"/>
-    <hyperlink ref="A76" r:id="rId75" xr:uid="{5BF086D4-5974-483E-9DFB-D1B941F8314B}"/>
-    <hyperlink ref="A77" r:id="rId76" xr:uid="{73CD645D-EE3A-4108-984E-1F9CE9A98B4C}"/>
-    <hyperlink ref="A78" r:id="rId77" xr:uid="{E467B59A-C519-4CE0-81FE-688EB1E176AF}"/>
-    <hyperlink ref="A79" r:id="rId78" xr:uid="{8156C637-1110-4572-90DC-540E32C212CA}"/>
-    <hyperlink ref="A80" r:id="rId79" xr:uid="{6E53C99C-B755-4860-A6DC-A38001C6B94F}"/>
+    <hyperlink ref="A28" r:id="rId26" xr:uid="{40226450-5F8B-49B3-80D3-02EEE346109F}"/>
+    <hyperlink ref="A29" r:id="rId27" xr:uid="{A358ECF0-A099-471A-96DD-A8D8DC4BEF1C}"/>
+    <hyperlink ref="A30" r:id="rId28" xr:uid="{9948DE4A-01F5-4D99-AFFE-6ED45F78C26A}"/>
+    <hyperlink ref="A31" r:id="rId29" xr:uid="{2E5A13F5-020E-4FB2-883B-64BB2F2B2036}"/>
+    <hyperlink ref="A32" r:id="rId30" xr:uid="{83404035-5C3F-4BE0-8E8B-6883A6419434}"/>
+    <hyperlink ref="A33" r:id="rId31" xr:uid="{AD007FDA-56B6-401A-A0A9-6F049B53D455}"/>
+    <hyperlink ref="A36" r:id="rId32" xr:uid="{459E7CCB-6EB4-4551-83BD-CAFC52ADD6B5}"/>
+    <hyperlink ref="A34" r:id="rId33" xr:uid="{8E1592CC-E8A1-40D2-A93D-9B33E435359D}"/>
+    <hyperlink ref="A35" r:id="rId34" xr:uid="{97980AF9-8725-42CE-B6A9-A1772741E50B}"/>
+    <hyperlink ref="A37" r:id="rId35" xr:uid="{8434E595-8697-4545-AFF4-CE5310B96624}"/>
+    <hyperlink ref="A38" r:id="rId36" xr:uid="{A0FA9B76-EE20-484D-B128-946B519D4B61}"/>
+    <hyperlink ref="A39" r:id="rId37" xr:uid="{0F7FB4C9-DF44-4471-99AC-751539D301D1}"/>
+    <hyperlink ref="A40" r:id="rId38" xr:uid="{2FCD69A0-32CA-4CBA-B010-40A99872022A}"/>
+    <hyperlink ref="A41" r:id="rId39" xr:uid="{7DFBBC54-9A6E-447B-BDA3-4B221344F36B}"/>
+    <hyperlink ref="A42" r:id="rId40" xr:uid="{9E4AD094-1DB7-4F42-970D-B60C148339E2}"/>
+    <hyperlink ref="A46" r:id="rId41" xr:uid="{BF73FE15-80AF-482A-9F1D-73B8EF17958A}"/>
+    <hyperlink ref="A48" r:id="rId42" xr:uid="{F6F79D9D-97E7-4F33-8C43-DAC4AD9EB19A}"/>
+    <hyperlink ref="A47" r:id="rId43" xr:uid="{206F473A-9A80-4223-9753-8717A77EDD0D}"/>
+    <hyperlink ref="A43" r:id="rId44" xr:uid="{EF232471-F9BF-4790-BF60-4D6873A50B9D}"/>
+    <hyperlink ref="A44" r:id="rId45" xr:uid="{9FDC9976-771C-44CA-90AD-3E685A462250}"/>
+    <hyperlink ref="A45" r:id="rId46" xr:uid="{C387D933-12EE-4133-9F7E-4316BFB3C36D}"/>
+    <hyperlink ref="A49" r:id="rId47" xr:uid="{7F4A0F63-B5AC-4DE3-A745-E33AAC5B7B87}"/>
+    <hyperlink ref="A50" r:id="rId48" xr:uid="{6A5E754F-4DB1-45D1-9CFC-1A5059E4737E}"/>
+    <hyperlink ref="A51" r:id="rId49" xr:uid="{3FDEA5A7-57B5-40A6-9E7A-7EDF4D7D9BEF}"/>
+    <hyperlink ref="A52" r:id="rId50" xr:uid="{A4CCFE41-7B5C-4F43-BC67-914085CA9E77}"/>
+    <hyperlink ref="A53" r:id="rId51" xr:uid="{D7A44C96-38AF-4CC3-B1AC-939A90FC7606}"/>
+    <hyperlink ref="A54" r:id="rId52" xr:uid="{4DF06760-F5C0-4B36-8A6E-2AF428B4841F}"/>
+    <hyperlink ref="A55" r:id="rId53" xr:uid="{823C84F9-8E46-44DE-8CFE-D6D79616E9AB}"/>
+    <hyperlink ref="A56" r:id="rId54" xr:uid="{F837A5BB-A4D8-4FB0-8054-7744319A4A07}"/>
+    <hyperlink ref="A57" r:id="rId55" xr:uid="{BEE8A103-A25E-41ED-8A83-2C2526652AF4}"/>
+    <hyperlink ref="A58" r:id="rId56" xr:uid="{29B0F2FA-57E4-40D5-AD93-D74BD18E64E7}"/>
+    <hyperlink ref="A59" r:id="rId57" xr:uid="{61B1C35B-867F-48BF-A055-C2EE16407ED4}"/>
+    <hyperlink ref="A60" r:id="rId58" xr:uid="{ED7E00BE-81F0-4E89-A789-9A410F15A510}"/>
+    <hyperlink ref="A61" r:id="rId59" xr:uid="{51C907B6-F720-4FC0-A001-A8B24CEC6B50}"/>
+    <hyperlink ref="A62" r:id="rId60" xr:uid="{D76022EE-A7CB-4E71-9E8F-38BBF0A2D1C0}"/>
+    <hyperlink ref="A63" r:id="rId61" xr:uid="{934BAAED-90F7-4112-AC56-DBC1B05CCB8E}"/>
+    <hyperlink ref="A64" r:id="rId62" display="Spell Casting Feats" xr:uid="{7866684D-7A4E-4DF6-910F-623213CA2205}"/>
+    <hyperlink ref="A65" r:id="rId63" xr:uid="{C262916F-172D-438D-929F-FED0C5C87A1C}"/>
+    <hyperlink ref="A66" r:id="rId64" xr:uid="{0571E7CE-9098-4893-AFBB-E991F1149A93}"/>
+    <hyperlink ref="A67" r:id="rId65" xr:uid="{A5E59BB7-6B0C-4292-BC62-11240AA439EC}"/>
+    <hyperlink ref="A68" r:id="rId66" xr:uid="{9529DD90-02A3-453B-87D8-9715CEEDF28B}"/>
+    <hyperlink ref="A69" r:id="rId67" xr:uid="{7217EF99-1651-4840-8525-D36C44643DFD}"/>
+    <hyperlink ref="A70" r:id="rId68" xr:uid="{D3FA5FEE-2DA5-49B7-906F-36E776202F93}"/>
+    <hyperlink ref="A71" r:id="rId69" xr:uid="{9C2DF406-D818-444F-A61A-E1E9592B5887}"/>
+    <hyperlink ref="A72" r:id="rId70" xr:uid="{1CC9A2DB-118D-412A-A241-ABF99487F6B4}"/>
+    <hyperlink ref="A73" r:id="rId71" display="Plague Censer Bearer" xr:uid="{4370DB5D-3FC3-4EB9-A488-FFE7B09B3525}"/>
+    <hyperlink ref="A74" r:id="rId72" xr:uid="{C64D2F64-A496-4B75-B25B-8FEC6498C00A}"/>
+    <hyperlink ref="A75" r:id="rId73" xr:uid="{4BE50A41-A3BF-44C3-AD1B-B0E6194B9FDA}"/>
+    <hyperlink ref="A76" r:id="rId74" xr:uid="{5BF086D4-5974-483E-9DFB-D1B941F8314B}"/>
+    <hyperlink ref="A77" r:id="rId75" xr:uid="{73CD645D-EE3A-4108-984E-1F9CE9A98B4C}"/>
+    <hyperlink ref="A78" r:id="rId76" xr:uid="{E467B59A-C519-4CE0-81FE-688EB1E176AF}"/>
+    <hyperlink ref="A79" r:id="rId77" xr:uid="{8156C637-1110-4572-90DC-540E32C212CA}"/>
+    <hyperlink ref="A80" r:id="rId78" xr:uid="{6E53C99C-B755-4860-A6DC-A38001C6B94F}"/>
+    <hyperlink ref="A27" r:id="rId79" xr:uid="{16E9931D-7C2E-4EF8-BC63-A0EEEE0978EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId80"/>
@@ -13629,8 +13626,8 @@
   <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15516,7 +15513,7 @@
         <v>25</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>17</v>
@@ -16076,7 +16073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECB4EEB-6E0F-4DBC-8ACA-83CFF1219E40}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FECE6C-A43A-47E2-98C7-991E7749C5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED968FAE-E83E-423A-8A16-30C60E0FEBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -3327,7 +3327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
     </sheetView>
@@ -6139,9 +6139,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8015A8-CD76-4317-A710-EE332EB4DCD2}">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7006,9 +7006,6 @@
       <c r="E49" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F49" s="1">
-        <v>3</v>
-      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
@@ -7086,9 +7083,6 @@
       <c r="E53" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F53" s="1">
-        <v>5</v>
-      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
@@ -7209,7 +7203,7 @@
         <v>204</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>44</v>
@@ -7226,7 +7220,7 @@
         <v>205</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>44</v>
@@ -7243,7 +7237,7 @@
         <v>206</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>44</v>
@@ -7277,7 +7271,7 @@
         <v>209</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>44</v>
@@ -10965,8 +10959,8 @@
   <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15556,7 +15550,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15611,7 +15605,7 @@
         <v>326</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>17</v>
@@ -15634,7 +15628,7 @@
         <v>326</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>17</v>
@@ -15657,7 +15651,7 @@
         <v>326</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>17</v>
@@ -15680,7 +15674,7 @@
         <v>326</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>17</v>
@@ -15703,7 +15697,7 @@
         <v>326</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>17</v>
@@ -16055,15 +16049,13 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{8D818956-9C64-44E1-881B-897C5E1F6D0F}"/>
-    <hyperlink ref="E3:E6" r:id="rId2" display="Independent Feats" xr:uid="{21464BF6-6E4D-4716-87A6-414741373543}"/>
-    <hyperlink ref="E7:E9" r:id="rId3" display="Independent Feats" xr:uid="{9BC31011-BDCB-4ED2-A0CD-AA6B3E0B9EDA}"/>
-    <hyperlink ref="E10:E13" r:id="rId4" display="Independent Feats" xr:uid="{E9F4BC65-574C-491C-B12F-C8754FF27EC4}"/>
-    <hyperlink ref="E14" r:id="rId5" xr:uid="{F16E9818-6A18-4211-B6B9-384E9F193F7C}"/>
-    <hyperlink ref="E15" r:id="rId6" xr:uid="{12CCD9A8-AFA3-4FEC-B0C8-CDDB45B44199}"/>
-    <hyperlink ref="E16" r:id="rId7" xr:uid="{A8D65C73-7EAB-46C3-90B4-119F84105AE4}"/>
-    <hyperlink ref="E17" r:id="rId8" xr:uid="{2407A640-B6F5-4984-91E5-872F7851A9C8}"/>
-    <hyperlink ref="E18" r:id="rId9" xr:uid="{52881D91-408D-4D5C-A716-A4D7CDD740EB}"/>
-    <hyperlink ref="E19:E20" r:id="rId10" display="New Weapons" xr:uid="{F5339884-D70F-4CD6-9566-0BF8C6533EEC}"/>
+    <hyperlink ref="E14" r:id="rId2" xr:uid="{F16E9818-6A18-4211-B6B9-384E9F193F7C}"/>
+    <hyperlink ref="E15" r:id="rId3" xr:uid="{12CCD9A8-AFA3-4FEC-B0C8-CDDB45B44199}"/>
+    <hyperlink ref="E17" r:id="rId4" xr:uid="{2407A640-B6F5-4984-91E5-872F7851A9C8}"/>
+    <hyperlink ref="E18" r:id="rId5" xr:uid="{52881D91-408D-4D5C-A716-A4D7CDD740EB}"/>
+    <hyperlink ref="E19:E20" r:id="rId6" display="New Weapons" xr:uid="{F5339884-D70F-4CD6-9566-0BF8C6533EEC}"/>
+    <hyperlink ref="E3:E13" r:id="rId7" display="Independent Feats" xr:uid="{25EAA3AF-808E-4703-B673-65CF6287924C}"/>
+    <hyperlink ref="E16" r:id="rId8" xr:uid="{9F511F09-57B3-468D-A291-0A53F0941DE3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED968FAE-E83E-423A-8A16-30C60E0FEBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE77502-0FD8-46F4-B925-3DD46BCFC09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -3328,7 +3328,7 @@
   <dimension ref="A1:G125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
@@ -6139,9 +6139,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8015A8-CD76-4317-A710-EE332EB4DCD2}">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B64" sqref="B64"/>
+      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7032,7 +7032,7 @@
         <v>160</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>25</v>
@@ -7325,7 +7325,7 @@
         <v>304</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>134</v>
+        <v>15</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>44</v>
@@ -7527,7 +7527,7 @@
         <v>624</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>294</v>
+        <v>15</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>25</v>
@@ -7773,7 +7773,7 @@
   <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -9956,7 +9956,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E21"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10958,9 +10958,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C264C694-D993-4798-AD5F-1273142184DE}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11616,7 +11616,7 @@
         <v>280</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>25</v>
@@ -11634,13 +11634,13 @@
         <v>25</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>44</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>15</v>
@@ -13396,7 +13396,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13491,7 +13491,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -13573,10 +13573,10 @@
         <v>341</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE77502-0FD8-46F4-B925-3DD46BCFC09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6048F5-A201-4D62-BE26-350A4A0A9645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3457" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3467" uniqueCount="641">
   <si>
     <t>Name</t>
   </si>
@@ -1998,6 +1998,9 @@
   </si>
   <si>
     <t>Sea Fish: Part 2</t>
+  </si>
+  <si>
+    <t>Isonade</t>
   </si>
 </sst>
 </file>
@@ -3325,11 +3328,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5886,6 +5889,26 @@
         <v>15</v>
       </c>
       <c r="F125" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B126" s="7">
+        <v>7</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F126" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6011,9 +6034,10 @@
     <hyperlink ref="D80" r:id="rId96" xr:uid="{3C34D46C-8B2A-44CC-8679-43078C103696}"/>
     <hyperlink ref="D81" r:id="rId97" xr:uid="{FC60EF05-7038-4200-BC21-E571C114C54C}"/>
     <hyperlink ref="D38:D41" r:id="rId98" display="Otters" xr:uid="{5B129CAF-5388-4616-B378-0AC02F569450}"/>
+    <hyperlink ref="D126" r:id="rId99" xr:uid="{8FD7497B-7CAD-4106-9444-6EDC680D286F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId99"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId100"/>
 </worksheet>
 </file>
 
@@ -6137,11 +6161,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8015A8-CD76-4317-A710-EE332EB4DCD2}">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
+      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7576,6 +7600,23 @@
         <v>17</v>
       </c>
       <c r="E80" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -7762,9 +7803,10 @@
     <hyperlink ref="A79" r:id="rId77" xr:uid="{8156C637-1110-4572-90DC-540E32C212CA}"/>
     <hyperlink ref="A80" r:id="rId78" xr:uid="{6E53C99C-B755-4860-A6DC-A38001C6B94F}"/>
     <hyperlink ref="A27" r:id="rId79" xr:uid="{16E9931D-7C2E-4EF8-BC63-A0EEEE0978EC}"/>
+    <hyperlink ref="A81" r:id="rId80" xr:uid="{D7FFA073-CBFE-4427-B861-B23FB6A1C0F6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId80"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId81"/>
 </worksheet>
 </file>
 
@@ -10958,7 +11000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C264C694-D993-4798-AD5F-1273142184DE}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
     </sheetView>

--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6048F5-A201-4D62-BE26-350A4A0A9645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99E9FA1-9247-47A4-A194-287AEFDBB978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">DMResources!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Documents!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Feats!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">MagicItems!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">MagicItems!$A$1:$K$69</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">NewClassFeatures!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Races!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Spells!$A$1:$O$1</definedName>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3467" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3543" uniqueCount="642">
   <si>
     <t>Name</t>
   </si>
@@ -2001,6 +2001,9 @@
   </si>
   <si>
     <t>Isonade</t>
+  </si>
+  <si>
+    <t>Cold Iron Tack</t>
   </si>
 </sst>
 </file>
@@ -2133,7 +2136,211 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="108">
+  <dxfs count="132">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3330,9 +3537,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C136" sqref="C136"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4703,7 +4910,7 @@
         <v>160</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>115</v>
+        <v>294</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>17</v>
@@ -4723,7 +4930,7 @@
         <v>160</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>115</v>
+        <v>294</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>17</v>
@@ -4743,7 +4950,7 @@
         <v>160</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>115</v>
+        <v>294</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>17</v>
@@ -4763,7 +4970,7 @@
         <v>164</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>17</v>
@@ -5915,24 +6122,84 @@
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="107" priority="7" operator="containsText" text="Playtest Ready">
+  <conditionalFormatting sqref="E1:E65 E69:E1048576">
+    <cfRule type="containsText" dxfId="131" priority="25" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="130" priority="26" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="129" priority="27" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="128" priority="28" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="127" priority="29" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="126" priority="30" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="containsText" dxfId="125" priority="13" operator="containsText" text="Playtest Ready">
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",E66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="124" priority="14" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",E66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="123" priority="15" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",E66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="122" priority="16" operator="containsText" text="Needs Clean Up">
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="121" priority="17" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",E66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="120" priority="18" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",E66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="containsText" dxfId="119" priority="7" operator="containsText" text="Playtest Ready">
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",E67)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="118" priority="8" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",E67)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="117" priority="9" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",E67)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="116" priority="10" operator="containsText" text="Needs Clean Up">
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E67)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="115" priority="11" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",E67)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="114" priority="12" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",E67)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="containsText" dxfId="113" priority="1" operator="containsText" text="Playtest Ready">
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",E68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="112" priority="2" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",E68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="111" priority="3" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",E68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="110" priority="4" operator="containsText" text="Needs Clean Up">
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="109" priority="5" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",E68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="108" priority="6" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",E68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -6131,22 +6398,22 @@
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{12EDD4A5-537C-4964-AE58-8E306F1BDAC3}"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="40" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="39" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="In Development">
+    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="In Development">
       <formula>NOT(ISERROR(SEARCH("In Development",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6165,7 +6432,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
+      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7056,7 +7323,7 @@
         <v>160</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>25</v>
@@ -7076,7 +7343,7 @@
         <v>164</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>25</v>
@@ -7623,104 +7890,124 @@
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{6F8015A8-CD76-4317-A710-EE332EB4DCD2}"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B24 B33 B40:B1048576">
-    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="Playtest Ready">
+  <conditionalFormatting sqref="B1:B24 B33 B53:B1048576 B40:B51">
+    <cfRule type="containsText" dxfId="35" priority="31" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="30" priority="36" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B32">
-    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B39">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B36)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",B36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Playtest Ready">
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",B52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",B52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",B52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Needs Clean Up">
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",B52)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",B36)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Complete",B52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -9889,22 +10176,22 @@
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{45E52FED-6497-4FDC-A0DA-7ECEAA0549B9}"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="101" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="107" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="106" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="105" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="104" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="5" operator="containsText" text="In Development">
+    <cfRule type="containsText" dxfId="103" priority="5" operator="containsText" text="In Development">
       <formula>NOT(ISERROR(SEARCH("In Development",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="102" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10935,22 +11222,22 @@
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{DD42EE7F-9159-4C80-95B9-C05FE7C82AF2}"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="95" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="101" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="100" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="99" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="98" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="97" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="96" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13386,42 +13673,42 @@
   </sheetData>
   <autoFilter ref="A1:O1" xr:uid="{C264C694-D993-4798-AD5F-1273142184DE}"/>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="containsText" dxfId="89" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="95" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="94" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="93" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="92" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="91" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="90" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="containsText" dxfId="83" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="89" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="88" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="87" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="86" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="85" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="84" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",O1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13438,7 +13725,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13623,22 +13910,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D10">
-    <cfRule type="containsText" dxfId="77" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="83" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="82" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="81" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="80" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="79" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="78" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13659,11 +13946,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDE69A5-0DEA-4E6C-8C42-A4C78FD0BD58}">
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13676,9 +13963,9 @@
     <col min="6" max="6" width="21.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -13713,8 +14000,8 @@
       <c r="J1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>558</v>
+      <c r="K1" s="9" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -13745,6 +14032,9 @@
       <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="K2" s="3" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -13771,6 +14061,9 @@
       <c r="J3" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="K3" s="3" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -13797,6 +14090,9 @@
       <c r="J4" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="K4" s="3" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -13823,6 +14119,9 @@
       <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="K5" s="3" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -13852,6 +14151,9 @@
       <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="K6" s="3" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -13878,6 +14180,9 @@
       <c r="J7" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="K7" s="3" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -13907,6 +14212,9 @@
       <c r="J8" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="K8" s="3" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -13936,6 +14244,9 @@
       <c r="J9" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="K9" s="3" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -13965,6 +14276,9 @@
       <c r="J10" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="K10" s="3" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -13994,6 +14308,9 @@
       <c r="J11" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="K11" s="3" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -14023,6 +14340,9 @@
       <c r="J12" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="K12" s="3" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -14049,6 +14369,9 @@
       <c r="J13" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="K13" s="3" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -14078,6 +14401,9 @@
       <c r="J14" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="K14" s="3" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -14107,6 +14433,9 @@
       <c r="J15" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="K15" s="3" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -14136,8 +14465,11 @@
       <c r="J16" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>230</v>
       </c>
@@ -14165,8 +14497,11 @@
       <c r="J17" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>231</v>
       </c>
@@ -14191,8 +14526,11 @@
       <c r="J18" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>232</v>
       </c>
@@ -14217,8 +14555,11 @@
       <c r="J19" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>234</v>
       </c>
@@ -14243,8 +14584,11 @@
       <c r="J20" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>235</v>
       </c>
@@ -14269,8 +14613,11 @@
       <c r="J21" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>236</v>
       </c>
@@ -14295,8 +14642,11 @@
       <c r="J22" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>237</v>
       </c>
@@ -14324,8 +14674,11 @@
       <c r="J23" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>238</v>
       </c>
@@ -14350,8 +14703,11 @@
       <c r="J24" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>239</v>
       </c>
@@ -14379,8 +14735,11 @@
       <c r="J25" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>241</v>
       </c>
@@ -14405,8 +14764,11 @@
       <c r="J26" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>243</v>
       </c>
@@ -14434,8 +14796,11 @@
       <c r="J27" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>245</v>
       </c>
@@ -14463,8 +14828,11 @@
       <c r="J28" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>246</v>
       </c>
@@ -14492,8 +14860,11 @@
       <c r="J29" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>248</v>
       </c>
@@ -14521,8 +14892,11 @@
       <c r="J30" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>249</v>
       </c>
@@ -14550,8 +14924,11 @@
       <c r="J31" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>250</v>
       </c>
@@ -14579,8 +14956,11 @@
       <c r="J32" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>252</v>
       </c>
@@ -14605,8 +14985,11 @@
       <c r="J33" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>557</v>
       </c>
@@ -14634,8 +15017,11 @@
       <c r="J34" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>559</v>
       </c>
@@ -14660,8 +15046,11 @@
       <c r="J35" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>560</v>
       </c>
@@ -14686,8 +15075,11 @@
       <c r="J36" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>561</v>
       </c>
@@ -14712,8 +15104,11 @@
       <c r="J37" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>562</v>
       </c>
@@ -14738,8 +15133,11 @@
       <c r="J38" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>564</v>
       </c>
@@ -14764,8 +15162,11 @@
       <c r="J39" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>565</v>
       </c>
@@ -14793,8 +15194,11 @@
       <c r="J40" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>566</v>
       </c>
@@ -14822,8 +15226,11 @@
       <c r="J41" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>567</v>
       </c>
@@ -14848,8 +15255,11 @@
       <c r="J42" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>569</v>
       </c>
@@ -14874,8 +15284,11 @@
       <c r="J43" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>570</v>
       </c>
@@ -14903,8 +15316,11 @@
       <c r="J44" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>572</v>
       </c>
@@ -14929,8 +15345,11 @@
       <c r="J45" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>574</v>
       </c>
@@ -14958,8 +15377,11 @@
       <c r="J46" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>576</v>
       </c>
@@ -14984,8 +15406,11 @@
       <c r="J47" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>578</v>
       </c>
@@ -15010,8 +15435,11 @@
       <c r="J48" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>579</v>
       </c>
@@ -15039,8 +15467,11 @@
       <c r="J49" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>580</v>
       </c>
@@ -15068,8 +15499,11 @@
       <c r="J50" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>581</v>
       </c>
@@ -15097,8 +15531,11 @@
       <c r="J51" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>582</v>
       </c>
@@ -15123,8 +15560,11 @@
       <c r="J52" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>584</v>
       </c>
@@ -15149,8 +15589,11 @@
       <c r="J53" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>586</v>
       </c>
@@ -15175,8 +15618,11 @@
       <c r="J54" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>588</v>
       </c>
@@ -15204,8 +15650,11 @@
       <c r="J55" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>589</v>
       </c>
@@ -15230,8 +15679,11 @@
       <c r="J56" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>591</v>
       </c>
@@ -15256,8 +15708,11 @@
       <c r="J57" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>593</v>
       </c>
@@ -15282,8 +15737,11 @@
       <c r="J58" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>595</v>
       </c>
@@ -15308,8 +15766,11 @@
       <c r="J59" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K59" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>597</v>
       </c>
@@ -15334,8 +15795,11 @@
       <c r="J60" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K60" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>598</v>
       </c>
@@ -15360,8 +15824,11 @@
       <c r="J61" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>600</v>
       </c>
@@ -15386,8 +15853,11 @@
       <c r="J62" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>601</v>
       </c>
@@ -15412,8 +15882,11 @@
       <c r="J63" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>602</v>
       </c>
@@ -15441,8 +15914,11 @@
       <c r="J64" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>603</v>
       </c>
@@ -15470,8 +15946,11 @@
       <c r="J65" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K65" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>604</v>
       </c>
@@ -15499,8 +15978,11 @@
       <c r="J66" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K66" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>605</v>
       </c>
@@ -15528,8 +16010,11 @@
       <c r="J67" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>626</v>
       </c>
@@ -15554,35 +16039,69 @@
       <c r="J68" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="K68" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>160</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1" xr:uid="{2BDE69A5-0DEA-4E6C-8C42-A4C78FD0BD58}"/>
+  <autoFilter ref="A1:K69" xr:uid="{2BDE69A5-0DEA-4E6C-8C42-A4C78FD0BD58}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="77" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="76" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="74" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="72" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="K1" r:id="rId1" xr:uid="{11FE0D5E-9786-4A71-9B52-12E2A712C6B4}"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{7F5C5684-5944-4475-9E96-4CDA45D63C85}"/>
+    <hyperlink ref="K3:K68" r:id="rId2" display="New Magic Items" xr:uid="{0B420A92-4474-4787-B4FF-A1555810215A}"/>
+    <hyperlink ref="K69" r:id="rId3" xr:uid="{1FB46F41-6996-47A9-AE07-5FCDCDB4395E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -16070,22 +16589,22 @@
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{75FD0084-15F3-4E8F-BDC9-AA450191B803}"/>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="65" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="70" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="69" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="68" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="67" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="66" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16182,62 +16701,62 @@
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{8ECB4EEB-6E0F-4DBC-8ACA-83CFF1219E40}"/>
   <conditionalFormatting sqref="C1 C5:C1048576">
-    <cfRule type="containsText" dxfId="59" priority="13" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="65" priority="13" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="14" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="64" priority="14" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="15" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="63" priority="15" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="16" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="62" priority="16" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="17" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="61" priority="17" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="18" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="60" priority="18" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C4">
-    <cfRule type="containsText" dxfId="53" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="59" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="58" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="57" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="56" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="55" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="54" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="52" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="51" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="50" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="49" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="48" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16342,22 +16861,22 @@
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{7A2F1729-7251-4389-9641-85685F236F2B}"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="42" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99E9FA1-9247-47A4-A194-287AEFDBB978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B577E9-0979-4205-B79A-EC865B6605B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -3539,7 +3539,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
+      <selection pane="bottomLeft" activeCell="E82" sqref="E80:E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5190,7 +5190,7 @@
         <v>101</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>17</v>
@@ -5210,7 +5210,7 @@
         <v>101</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>17</v>
@@ -6430,9 +6430,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8015A8-CD76-4317-A710-EE332EB4DCD2}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6920,7 +6920,7 @@
         <v>101</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>44</v>
@@ -13948,7 +13948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDE69A5-0DEA-4E6C-8C42-A4C78FD0BD58}">
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J71" sqref="J71"/>
     </sheetView>

--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B577E9-0979-4205-B79A-EC865B6605B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F474A557-219E-4479-AFF4-A7FD7BB427D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -2136,7 +2136,58 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="132">
+  <dxfs count="138">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3537,9 +3588,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E82" sqref="E80:E82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5130,7 +5181,7 @@
         <v>175</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>17</v>
@@ -5150,7 +5201,7 @@
         <v>175</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>17</v>
@@ -5170,7 +5221,7 @@
         <v>175</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>17</v>
@@ -6123,82 +6174,82 @@
   <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="E1:E65 E69:E1048576">
-    <cfRule type="containsText" dxfId="131" priority="25" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="137" priority="25" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="26" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="136" priority="26" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="27" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="135" priority="27" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="28" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="134" priority="28" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="29" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="133" priority="29" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="30" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="132" priority="30" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="containsText" dxfId="125" priority="13" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="131" priority="13" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="14" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="130" priority="14" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="15" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="129" priority="15" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="16" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="128" priority="16" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="17" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="127" priority="17" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="18" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="126" priority="18" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="containsText" dxfId="119" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="125" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="124" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="123" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="122" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="121" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="120" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="containsText" dxfId="113" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="119" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="118" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="117" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="116" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="115" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="114" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E68)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6398,22 +6449,22 @@
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{12EDD4A5-537C-4964-AE58-8E306F1BDAC3}"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="In Development">
+    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="In Development">
       <formula>NOT(ISERROR(SEARCH("In Development",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="42" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6430,9 +6481,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8015A8-CD76-4317-A710-EE332EB4DCD2}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7326,7 +7377,7 @@
         <v>294</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>17</v>
@@ -7346,7 +7397,7 @@
         <v>57</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>17</v>
@@ -7400,7 +7451,7 @@
         <v>175</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>25</v>
@@ -7747,7 +7798,7 @@
         <v>15</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>24</v>
@@ -7890,124 +7941,144 @@
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{6F8015A8-CD76-4317-A710-EE332EB4DCD2}"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B24 B33 B53:B1048576 B40:B51">
-    <cfRule type="containsText" dxfId="35" priority="31" operator="containsText" text="Playtest Ready">
+  <conditionalFormatting sqref="B1:B24 B33 B53:B54 B40:B51 B56:B1048576">
+    <cfRule type="containsText" dxfId="41" priority="37" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="40" priority="38" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="36" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="36" priority="42" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B32">
-    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="35" priority="31" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="30" priority="36" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B39">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B52)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",B52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Playtest Ready">
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",B55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",B55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",B55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Needs Clean Up">
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",B55)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",B52)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Complete",B55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -10176,22 +10247,22 @@
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{45E52FED-6497-4FDC-A0DA-7ECEAA0549B9}"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="107" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="113" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="112" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="111" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="110" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="5" operator="containsText" text="In Development">
+    <cfRule type="containsText" dxfId="109" priority="5" operator="containsText" text="In Development">
       <formula>NOT(ISERROR(SEARCH("In Development",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="108" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11222,22 +11293,22 @@
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{DD42EE7F-9159-4C80-95B9-C05FE7C82AF2}"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="101" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="107" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="106" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="105" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="104" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="103" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="102" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13673,42 +13744,42 @@
   </sheetData>
   <autoFilter ref="A1:O1" xr:uid="{C264C694-D993-4798-AD5F-1273142184DE}"/>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="containsText" dxfId="95" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="101" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="100" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="99" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="98" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="97" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="96" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="containsText" dxfId="89" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="95" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="94" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="93" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="92" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="91" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="90" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",O1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13910,22 +13981,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D10">
-    <cfRule type="containsText" dxfId="83" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="89" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="88" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="87" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="86" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="85" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="84" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16076,22 +16147,22 @@
   <autoFilter ref="A1:K69" xr:uid="{2BDE69A5-0DEA-4E6C-8C42-A4C78FD0BD58}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="77" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="83" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="82" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="81" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="80" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="79" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="78" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16589,22 +16660,22 @@
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{75FD0084-15F3-4E8F-BDC9-AA450191B803}"/>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="77" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="76" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="74" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="72" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16701,62 +16772,62 @@
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{8ECB4EEB-6E0F-4DBC-8ACA-83CFF1219E40}"/>
   <conditionalFormatting sqref="C1 C5:C1048576">
-    <cfRule type="containsText" dxfId="65" priority="13" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="71" priority="13" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="14" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="70" priority="14" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="15" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="69" priority="15" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="16" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="68" priority="16" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="17" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="67" priority="17" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="18" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="66" priority="18" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C4">
-    <cfRule type="containsText" dxfId="59" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="65" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="64" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="63" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="62" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="61" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="60" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="59" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="58" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="56" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="54" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16861,22 +16932,22 @@
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{7A2F1729-7251-4389-9641-85685F236F2B}"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="52" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="51" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="50" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="49" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="48" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F474A557-219E-4479-AFF4-A7FD7BB427D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2239B4FF-8841-49D5-9155-72CC5B1396FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2136,7 +2136,58 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="138">
+  <dxfs count="144">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3589,8 +3640,8 @@
   <dimension ref="A1:G126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E79" sqref="E79"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4901,7 +4952,7 @@
         <v>156</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>17</v>
@@ -4921,7 +4972,7 @@
         <v>156</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>17</v>
@@ -4941,7 +4992,7 @@
         <v>156</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>17</v>
@@ -6173,83 +6224,83 @@
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="E1:E65 E69:E1048576">
-    <cfRule type="containsText" dxfId="137" priority="25" operator="containsText" text="Playtest Ready">
+  <conditionalFormatting sqref="E69:E1048576 E1:E65">
+    <cfRule type="containsText" dxfId="143" priority="25" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="26" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="142" priority="26" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="27" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="141" priority="27" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="28" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="140" priority="28" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="29" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="139" priority="29" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="30" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="138" priority="30" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="containsText" dxfId="131" priority="13" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="137" priority="13" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="14" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="136" priority="14" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="15" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="135" priority="15" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="16" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="134" priority="16" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="17" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="133" priority="17" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="18" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="132" priority="18" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="containsText" dxfId="125" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="131" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="130" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="129" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="128" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="127" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="126" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="containsText" dxfId="119" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="125" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="124" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="123" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="122" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="121" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="120" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E68)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6449,22 +6500,22 @@
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{12EDD4A5-537C-4964-AE58-8E306F1BDAC3}"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="52" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="51" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="50" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="In Development">
+    <cfRule type="containsText" dxfId="49" priority="5" operator="containsText" text="In Development">
       <formula>NOT(ISERROR(SEARCH("In Development",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="48" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6483,7 +6534,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
+      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7354,7 +7405,7 @@
         <v>156</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>25</v>
@@ -7941,144 +7992,164 @@
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{6F8015A8-CD76-4317-A710-EE332EB4DCD2}"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B24 B33 B53:B54 B40:B51 B56:B1048576">
-    <cfRule type="containsText" dxfId="41" priority="37" operator="containsText" text="Playtest Ready">
+  <conditionalFormatting sqref="B1:B24 B33 B53:B54 B40:B49 B56:B1048576 B51">
+    <cfRule type="containsText" dxfId="47" priority="43" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="38" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="46" priority="44" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="42" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="42" priority="48" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B32">
-    <cfRule type="containsText" dxfId="35" priority="31" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="41" priority="37" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="40" priority="38" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="36" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="36" priority="42" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="35" priority="31" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="30" priority="36" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B39">
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B55)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",B55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Playtest Ready">
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",B50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",B50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",B50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Needs Clean Up">
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",B50)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",B55)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Complete",B50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -10247,22 +10318,22 @@
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{45E52FED-6497-4FDC-A0DA-7ECEAA0549B9}"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="113" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="119" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="118" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="117" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="116" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="5" operator="containsText" text="In Development">
+    <cfRule type="containsText" dxfId="115" priority="5" operator="containsText" text="In Development">
       <formula>NOT(ISERROR(SEARCH("In Development",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="114" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11293,22 +11364,22 @@
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{DD42EE7F-9159-4C80-95B9-C05FE7C82AF2}"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="107" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="113" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="112" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="111" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="110" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="109" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="108" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13744,42 +13815,42 @@
   </sheetData>
   <autoFilter ref="A1:O1" xr:uid="{C264C694-D993-4798-AD5F-1273142184DE}"/>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="containsText" dxfId="101" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="107" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="106" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="105" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="104" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="103" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="102" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="containsText" dxfId="95" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="101" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="100" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="99" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="98" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="97" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="96" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",O1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13981,22 +14052,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D10">
-    <cfRule type="containsText" dxfId="89" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="95" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="94" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="93" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="92" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="91" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="90" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16147,22 +16218,22 @@
   <autoFilter ref="A1:K69" xr:uid="{2BDE69A5-0DEA-4E6C-8C42-A4C78FD0BD58}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="83" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="89" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="88" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="87" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="86" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="85" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="84" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16660,22 +16731,22 @@
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{75FD0084-15F3-4E8F-BDC9-AA450191B803}"/>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="77" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="83" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="82" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="81" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="80" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="79" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="78" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16772,62 +16843,62 @@
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{8ECB4EEB-6E0F-4DBC-8ACA-83CFF1219E40}"/>
   <conditionalFormatting sqref="C1 C5:C1048576">
-    <cfRule type="containsText" dxfId="71" priority="13" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="77" priority="13" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="14" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="76" priority="14" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="15" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="75" priority="15" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="16" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="74" priority="16" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="17" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="73" priority="17" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="18" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="72" priority="18" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C4">
-    <cfRule type="containsText" dxfId="65" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="71" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="70" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="69" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="68" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="67" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="66" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="59" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="65" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="64" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="63" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="62" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="61" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="60" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16932,22 +17003,22 @@
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{7A2F1729-7251-4389-9641-85685F236F2B}"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="59" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="58" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="56" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="54" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2239B4FF-8841-49D5-9155-72CC5B1396FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B48228-84A1-4743-BF60-4FF65BD24784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -2136,7 +2136,58 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="144">
+  <dxfs count="150">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3639,9 +3690,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
+      <selection pane="bottomLeft" activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5212,7 +5263,7 @@
         <v>174</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>17</v>
@@ -6224,83 +6275,83 @@
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="E69:E1048576 E1:E65">
-    <cfRule type="containsText" dxfId="143" priority="25" operator="containsText" text="Playtest Ready">
+  <conditionalFormatting sqref="E1:E65 E69:E1048576">
+    <cfRule type="containsText" dxfId="149" priority="25" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="26" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="148" priority="26" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="27" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="147" priority="27" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="28" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="146" priority="28" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="29" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="145" priority="29" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="30" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="144" priority="30" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="containsText" dxfId="137" priority="13" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="143" priority="13" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="14" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="142" priority="14" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="15" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="141" priority="15" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="16" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="140" priority="16" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="17" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="139" priority="17" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="18" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="138" priority="18" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="containsText" dxfId="131" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="137" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="136" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="135" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="134" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="133" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="132" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="containsText" dxfId="125" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="131" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="130" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="129" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="128" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="127" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="126" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E68)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6500,22 +6551,22 @@
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{12EDD4A5-537C-4964-AE58-8E306F1BDAC3}"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="59" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="58" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="56" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="5" operator="containsText" text="In Development">
+    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="In Development">
       <formula>NOT(ISERROR(SEARCH("In Development",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="54" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6532,9 +6583,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8015A8-CD76-4317-A710-EE332EB4DCD2}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
+      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7482,7 +7533,7 @@
         <v>174</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>25</v>
@@ -7992,164 +8043,184 @@
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{6F8015A8-CD76-4317-A710-EE332EB4DCD2}"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B24 B33 B53:B54 B40:B49 B56:B1048576 B51">
-    <cfRule type="containsText" dxfId="47" priority="43" operator="containsText" text="Playtest Ready">
+  <conditionalFormatting sqref="B1:B24 B33 B53 B40:B49 B56:B1048576 B51">
+    <cfRule type="containsText" dxfId="53" priority="49" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="44" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="52" priority="50" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="49" priority="53" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="48" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="48" priority="54" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B32">
-    <cfRule type="containsText" dxfId="41" priority="37" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="47" priority="43" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="38" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="46" priority="44" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="42" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="42" priority="48" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="containsText" dxfId="35" priority="31" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="41" priority="37" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="40" priority="38" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="36" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="36" priority="42" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="35" priority="31" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="30" priority="36" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B39">
-    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B50)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",B50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Playtest Ready">
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",B54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",B54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",B54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Needs Clean Up">
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",B54)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",B50)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Complete",B54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -10318,22 +10389,22 @@
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{45E52FED-6497-4FDC-A0DA-7ECEAA0549B9}"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="119" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="125" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="124" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="123" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="122" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="5" operator="containsText" text="In Development">
+    <cfRule type="containsText" dxfId="121" priority="5" operator="containsText" text="In Development">
       <formula>NOT(ISERROR(SEARCH("In Development",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="120" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11364,22 +11435,22 @@
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{DD42EE7F-9159-4C80-95B9-C05FE7C82AF2}"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="113" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="119" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="118" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="117" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="116" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="115" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="114" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13815,42 +13886,42 @@
   </sheetData>
   <autoFilter ref="A1:O1" xr:uid="{C264C694-D993-4798-AD5F-1273142184DE}"/>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="containsText" dxfId="107" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="113" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="112" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="111" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="110" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="109" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="108" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="containsText" dxfId="101" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="107" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="106" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="105" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="104" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="103" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="102" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",O1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14052,22 +14123,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D10">
-    <cfRule type="containsText" dxfId="95" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="101" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="100" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="99" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="98" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="97" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="96" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16218,22 +16289,22 @@
   <autoFilter ref="A1:K69" xr:uid="{2BDE69A5-0DEA-4E6C-8C42-A4C78FD0BD58}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="89" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="95" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="94" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="93" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="92" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="91" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="90" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16731,22 +16802,22 @@
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{75FD0084-15F3-4E8F-BDC9-AA450191B803}"/>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="83" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="89" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="88" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="87" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="86" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="85" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="84" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16843,62 +16914,62 @@
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{8ECB4EEB-6E0F-4DBC-8ACA-83CFF1219E40}"/>
   <conditionalFormatting sqref="C1 C5:C1048576">
-    <cfRule type="containsText" dxfId="77" priority="13" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="83" priority="13" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="14" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="82" priority="14" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="15" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="81" priority="15" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="16" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="80" priority="16" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="17" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="79" priority="17" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="18" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="78" priority="18" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C4">
-    <cfRule type="containsText" dxfId="71" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="77" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="76" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="75" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="74" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="73" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="72" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="65" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="70" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="69" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="68" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="67" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="66" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17003,22 +17074,22 @@
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{7A2F1729-7251-4389-9641-85685F236F2B}"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="59" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="65" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="64" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="63" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="62" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="61" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="60" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B48228-84A1-4743-BF60-4FF65BD24784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8CA34F-81B6-42E3-9F3C-90943725E633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -2136,7 +2136,160 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="150">
+  <dxfs count="168">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6276,82 +6429,82 @@
   <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="E1:E65 E69:E1048576">
-    <cfRule type="containsText" dxfId="149" priority="25" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="167" priority="25" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="26" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="166" priority="26" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="27" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="165" priority="27" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="28" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="164" priority="28" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="29" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="163" priority="29" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="30" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="162" priority="30" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="containsText" dxfId="143" priority="13" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="161" priority="13" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="14" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="160" priority="14" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="15" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="159" priority="15" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="16" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="158" priority="16" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="17" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="157" priority="17" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="18" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="156" priority="18" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="containsText" dxfId="137" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="155" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="154" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="153" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="152" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="151" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="150" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="containsText" dxfId="131" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="149" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="148" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="147" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="146" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="145" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="144" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E68)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6465,9 +6618,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EDD4A5-537C-4964-AE58-8E306F1BDAC3}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6505,7 +6658,7 @@
         <v>181</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>17</v>
@@ -6550,24 +6703,44 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{12EDD4A5-537C-4964-AE58-8E306F1BDAC3}"/>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="59" priority="1" operator="containsText" text="Playtest Ready">
+  <conditionalFormatting sqref="C1 C3:C1048576">
+    <cfRule type="containsText" dxfId="77" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="76" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="75" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="74" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="In Development">
+    <cfRule type="containsText" dxfId="73" priority="11" operator="containsText" text="In Development">
       <formula>NOT(ISERROR(SEARCH("In Development",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="72" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Playtest Ready">
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Needs Clean Up">
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -6583,9 +6756,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8015A8-CD76-4317-A710-EE332EB4DCD2}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7593,7 +7766,7 @@
         <v>181</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>25</v>
@@ -7732,7 +7905,7 @@
         <v>253</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>44</v>
@@ -8043,184 +8216,224 @@
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{6F8015A8-CD76-4317-A710-EE332EB4DCD2}"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B24 B33 B53 B40:B49 B56:B1048576 B51">
-    <cfRule type="containsText" dxfId="53" priority="49" operator="containsText" text="Playtest Ready">
+  <conditionalFormatting sqref="B1:B24 B33 B53 B40:B49 B56 B51 B58:B64 B66:B1048576">
+    <cfRule type="containsText" dxfId="71" priority="61" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="50" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="70" priority="62" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="69" priority="63" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="68" priority="64" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="53" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="67" priority="65" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="54" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="66" priority="66" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B32">
-    <cfRule type="containsText" dxfId="47" priority="43" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="65" priority="55" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="44" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="64" priority="56" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="63" priority="57" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="62" priority="58" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="61" priority="59" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="48" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="60" priority="60" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="containsText" dxfId="41" priority="37" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="59" priority="49" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="38" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="58" priority="50" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="57" priority="51" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="56" priority="52" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="55" priority="53" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="42" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="54" priority="54" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="containsText" dxfId="35" priority="31" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="53" priority="43" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="52" priority="44" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="51" priority="45" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="50" priority="46" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="49" priority="47" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="36" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="48" priority="48" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B39">
-    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="47" priority="37" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="46" priority="38" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="45" priority="39" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="44" priority="40" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="41" priority="31" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="40" priority="32" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="39" priority="33" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="38" priority="34" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="37" priority="35" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="36" priority="36" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="35" priority="25" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="34" priority="26" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="33" priority="27" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="32" priority="28" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="29" priority="19" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="28" priority="20" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="27" priority="21" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="22" priority="14" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="Playtest Ready">
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",B57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",B57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",B57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="Needs Clean Up">
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",B57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",B57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Playtest Ready">
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",B65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",B65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",B65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Needs Clean Up">
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",B65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",B65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -8316,7 +8529,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10389,22 +10602,22 @@
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{45E52FED-6497-4FDC-A0DA-7ECEAA0549B9}"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="125" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="143" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="142" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="141" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="140" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="5" operator="containsText" text="In Development">
+    <cfRule type="containsText" dxfId="139" priority="5" operator="containsText" text="In Development">
       <formula>NOT(ISERROR(SEARCH("In Development",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="138" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11435,22 +11648,22 @@
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{DD42EE7F-9159-4C80-95B9-C05FE7C82AF2}"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="119" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="137" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="136" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="135" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="134" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="133" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="132" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13886,42 +14099,42 @@
   </sheetData>
   <autoFilter ref="A1:O1" xr:uid="{C264C694-D993-4798-AD5F-1273142184DE}"/>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="containsText" dxfId="113" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="131" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="130" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="129" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="128" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="127" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="126" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="containsText" dxfId="107" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="125" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="124" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="123" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="122" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="121" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="120" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",O1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14123,22 +14336,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D10">
-    <cfRule type="containsText" dxfId="101" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="119" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="118" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="117" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="116" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="115" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="114" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16289,22 +16502,22 @@
   <autoFilter ref="A1:K69" xr:uid="{2BDE69A5-0DEA-4E6C-8C42-A4C78FD0BD58}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="95" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="113" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="112" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="111" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="110" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="109" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="108" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16802,22 +17015,22 @@
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{75FD0084-15F3-4E8F-BDC9-AA450191B803}"/>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="89" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="107" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="106" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="105" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="104" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="103" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="102" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16914,62 +17127,62 @@
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{8ECB4EEB-6E0F-4DBC-8ACA-83CFF1219E40}"/>
   <conditionalFormatting sqref="C1 C5:C1048576">
-    <cfRule type="containsText" dxfId="83" priority="13" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="101" priority="13" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="14" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="100" priority="14" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="15" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="99" priority="15" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="16" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="98" priority="16" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="17" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="97" priority="17" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="18" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="96" priority="18" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C4">
-    <cfRule type="containsText" dxfId="77" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="95" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="94" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="93" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="92" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="91" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="90" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="89" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="88" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="87" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="86" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="85" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="84" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17074,22 +17287,22 @@
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{7A2F1729-7251-4389-9641-85685F236F2B}"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="65" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="83" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="82" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="81" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="80" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="79" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="78" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8CA34F-81B6-42E3-9F3C-90943725E633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46502C1-028E-406A-9C47-D0EB38E01F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -3843,9 +3843,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5616,7 +5616,7 @@
         <v>253</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>17</v>
@@ -5636,7 +5636,7 @@
         <v>253</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>17</v>
@@ -5656,7 +5656,7 @@
         <v>253</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>17</v>
@@ -6239,7 +6239,7 @@
         <v>625</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>294</v>
+        <v>15</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>24</v>
@@ -6618,7 +6618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EDD4A5-537C-4964-AE58-8E306F1BDAC3}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
@@ -6724,22 +6724,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="70" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="69" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="68" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="67" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="66" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6757,8 +6757,8 @@
   <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B80" sqref="B79:B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8164,7 +8164,7 @@
         <v>625</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>294</v>
+        <v>15</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>25</v>
@@ -8217,222 +8217,222 @@
   <autoFilter ref="A1:F1" xr:uid="{6F8015A8-CD76-4317-A710-EE332EB4DCD2}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B1:B24 B33 B53 B40:B49 B56 B51 B58:B64 B66:B1048576">
-    <cfRule type="containsText" dxfId="71" priority="61" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="65" priority="61" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="62" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="64" priority="62" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="63" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="63" priority="63" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="64" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="62" priority="64" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="65" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="61" priority="65" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="66" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="60" priority="66" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B32">
-    <cfRule type="containsText" dxfId="65" priority="55" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="59" priority="55" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="56" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="58" priority="56" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="57" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="57" priority="57" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="58" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="56" priority="58" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="59" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="55" priority="59" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="60" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="54" priority="60" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="containsText" dxfId="59" priority="49" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="53" priority="49" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="50" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="52" priority="50" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="51" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="52" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="53" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="49" priority="53" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="54" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="48" priority="54" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="containsText" dxfId="53" priority="43" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="47" priority="43" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="44" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="46" priority="44" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="45" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="46" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="47" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="48" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="42" priority="48" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B39">
-    <cfRule type="containsText" dxfId="47" priority="37" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="41" priority="37" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="38" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="40" priority="38" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="39" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="40" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="36" priority="42" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="containsText" dxfId="41" priority="31" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="35" priority="31" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="32" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="33" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="34" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="35" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="36" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="30" priority="36" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="containsText" dxfId="35" priority="25" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="26" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="27" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="28" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="containsText" dxfId="29" priority="19" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="20" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="21" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="14" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Playtest Ready">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Needs Clean Up">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Needs Clean Up">
       <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH("Needs Review",B65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B65)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14375,8 +14375,8 @@
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J71" sqref="J71"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46502C1-028E-406A-9C47-D0EB38E01F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FECDEE-DCB2-4005-A76C-559C10E10DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -3843,9 +3843,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E120" sqref="E120"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E75" sqref="E75:E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5276,7 +5276,7 @@
         <v>164</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>17</v>
@@ -5416,7 +5416,7 @@
         <v>174</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>17</v>
@@ -5436,7 +5436,7 @@
         <v>175</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>17</v>
@@ -5456,7 +5456,7 @@
         <v>175</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>17</v>
@@ -5476,7 +5476,7 @@
         <v>175</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>17</v>
@@ -6428,7 +6428,7 @@
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="E1:E65 E69:E1048576">
+  <conditionalFormatting sqref="E1:E65 E70:E1048576">
     <cfRule type="containsText" dxfId="167" priority="25" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
     </cfRule>
@@ -6488,7 +6488,7 @@
       <formula>NOT(ISERROR(SEARCH("Complete",E67)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
+  <conditionalFormatting sqref="E68:E69">
     <cfRule type="containsText" dxfId="149" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E68)))</formula>
     </cfRule>
@@ -6756,9 +6756,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8015A8-CD76-4317-A710-EE332EB4DCD2}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B79:B80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7669,7 +7669,7 @@
         <v>164</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>44</v>
@@ -7726,7 +7726,7 @@
         <v>175</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>25</v>
@@ -8216,7 +8216,7 @@
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{6F8015A8-CD76-4317-A710-EE332EB4DCD2}"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B24 B33 B53 B40:B49 B56 B51 B58:B64 B66:B1048576">
+  <conditionalFormatting sqref="B1:B24 B33 B40:B49 B58:B64 B66:B1048576 B55:B56 B51:B53">
     <cfRule type="containsText" dxfId="65" priority="61" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B1)))</formula>
     </cfRule>
@@ -8314,46 +8314,6 @@
     </cfRule>
     <cfRule type="containsText" dxfId="36" priority="42" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52">
-    <cfRule type="containsText" dxfId="35" priority="31" operator="containsText" text="Playtest Ready">
-      <formula>NOT(ISERROR(SEARCH("Playtest Ready",B52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH("Needs Review",B52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",B52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="Needs Clean Up">
-      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH("Needs Review",B52)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="36" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",B52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B55">
-    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="Playtest Ready">
-      <formula>NOT(ISERROR(SEARCH("Playtest Ready",B55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH("Needs Review",B55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",B55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Needs Clean Up">
-      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH("Needs Review",B55)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",B55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">

--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07366CC-D45D-4B5A-9FA7-DC01324D782D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C758A94-32CF-4659-BA96-DF8BBBCA51B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3539" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3546" uniqueCount="637">
   <si>
     <t>Name</t>
   </si>
@@ -473,9 +473,6 @@
     <t>Warlock</t>
   </si>
   <si>
-    <t>Supporting Content Needs Clean Up</t>
-  </si>
-  <si>
     <t>Apothecary</t>
   </si>
   <si>
@@ -986,9 +983,6 @@
     <t>Circle of Plagues</t>
   </si>
   <si>
-    <t>Main content just needs review by Erin</t>
-  </si>
-  <si>
     <t>Ratfolk</t>
   </si>
   <si>
@@ -1992,6 +1986,9 @@
   </si>
   <si>
     <t>Cold Iron Tack</t>
+  </si>
+  <si>
+    <t>Mishipeshu art needs to be replaced</t>
   </si>
 </sst>
 </file>
@@ -3778,11 +3775,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4103,7 +4100,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>45</v>
@@ -4673,7 +4670,7 @@
         <v>99</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>16</v>
@@ -4693,7 +4690,7 @@
         <v>99</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>16</v>
@@ -4713,7 +4710,7 @@
         <v>99</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>16</v>
@@ -4741,19 +4738,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B46" s="7">
         <v>2</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>114</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>16</v>
@@ -4761,19 +4758,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B47" s="7">
         <v>6</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>114</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>16</v>
@@ -4781,19 +4778,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B48" s="7">
         <v>10</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>114</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>16</v>
@@ -4801,19 +4798,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B49" s="7">
         <v>15</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>114</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>16</v>
@@ -4821,19 +4818,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B50" s="7">
         <v>2</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>117</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>16</v>
@@ -4841,19 +4838,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B51" s="7">
         <v>7</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>117</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>16</v>
@@ -4861,19 +4858,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B52" s="7">
         <v>3</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>120</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>16</v>
@@ -4881,19 +4878,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B53" s="7">
         <v>7</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>120</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>16</v>
@@ -4901,19 +4898,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B54" s="7">
         <v>2</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>127</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>16</v>
@@ -4921,19 +4918,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B55" s="7">
         <v>8</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>127</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>16</v>
@@ -4941,19 +4938,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B56" s="7">
         <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>123</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>16</v>
@@ -4961,19 +4958,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B57" s="7">
         <v>5</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>123</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>16</v>
@@ -4981,7 +4978,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B58" s="7">
         <v>0.125</v>
@@ -4990,10 +4987,10 @@
         <v>96</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>16</v>
@@ -5001,19 +4998,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B59" s="7">
         <v>2</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>16</v>
@@ -5021,7 +5018,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B60" s="7">
         <v>0.25</v>
@@ -5030,10 +5027,10 @@
         <v>96</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>16</v>
@@ -5041,7 +5038,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B61" s="7">
         <v>3</v>
@@ -5050,10 +5047,10 @@
         <v>98</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>16</v>
@@ -5061,7 +5058,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B62" s="7">
         <v>0.5</v>
@@ -5070,10 +5067,10 @@
         <v>96</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>16</v>
@@ -5081,7 +5078,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B63" s="7">
         <v>0</v>
@@ -5090,10 +5087,10 @@
         <v>96</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>55</v>
+        <v>290</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>16</v>
@@ -5101,7 +5098,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B64" s="7">
         <v>1</v>
@@ -5110,10 +5107,10 @@
         <v>98</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>55</v>
+        <v>290</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>16</v>
@@ -5121,7 +5118,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B65" s="7">
         <v>5</v>
@@ -5130,10 +5127,10 @@
         <v>98</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>55</v>
+        <v>290</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>16</v>
@@ -5141,7 +5138,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B66" s="7">
         <v>5</v>
@@ -5150,10 +5147,10 @@
         <v>98</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>16</v>
@@ -5161,7 +5158,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B67" s="7">
         <v>2</v>
@@ -5170,10 +5167,10 @@
         <v>98</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>16</v>
@@ -5181,7 +5178,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B68" s="7">
         <v>8</v>
@@ -5190,10 +5187,10 @@
         <v>98</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>16</v>
@@ -5201,7 +5198,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B69" s="7">
         <v>11</v>
@@ -5210,10 +5207,10 @@
         <v>98</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>16</v>
@@ -5221,7 +5218,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B70" s="7">
         <v>0</v>
@@ -5230,10 +5227,10 @@
         <v>96</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>16</v>
@@ -5241,7 +5238,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B71" s="7">
         <v>1</v>
@@ -5250,10 +5247,10 @@
         <v>96</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>16</v>
@@ -5261,19 +5258,19 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B72" s="7">
         <v>0.25</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>16</v>
@@ -5281,19 +5278,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B73" s="7">
         <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>16</v>
@@ -5301,19 +5298,19 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B74" s="7">
         <v>5</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>16</v>
@@ -5321,19 +5318,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B75" s="7">
         <v>8</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>16</v>
@@ -5341,7 +5338,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B76" s="7">
         <v>8</v>
@@ -5350,10 +5347,10 @@
         <v>97</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>16</v>
@@ -5361,7 +5358,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B77" s="7">
         <v>5</v>
@@ -5370,10 +5367,10 @@
         <v>97</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>16</v>
@@ -5381,7 +5378,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B78" s="7">
         <v>10</v>
@@ -5390,10 +5387,10 @@
         <v>97</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>16</v>
@@ -5401,7 +5398,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B79" s="7">
         <v>14</v>
@@ -5410,10 +5407,10 @@
         <v>97</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>16</v>
@@ -5421,7 +5418,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B80" s="7">
         <v>8</v>
@@ -5433,7 +5430,7 @@
         <v>99</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>16</v>
@@ -5441,7 +5438,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B81" s="7">
         <v>1</v>
@@ -5453,7 +5450,7 @@
         <v>99</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>16</v>
@@ -5461,19 +5458,19 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B82" s="7">
         <v>0.125</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>16</v>
@@ -5481,19 +5478,19 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B83" s="7">
         <v>4</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>16</v>
@@ -5501,19 +5498,19 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B84" s="7">
         <v>3</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>16</v>
@@ -5521,19 +5518,19 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B85" s="7">
         <v>8</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>16</v>
@@ -5541,7 +5538,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B86" s="7">
         <v>3</v>
@@ -5550,10 +5547,10 @@
         <v>96</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>55</v>
+        <v>290</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>16</v>
@@ -5561,7 +5558,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B87" s="7">
         <v>4</v>
@@ -5570,10 +5567,10 @@
         <v>96</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>55</v>
+        <v>290</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>16</v>
@@ -5581,19 +5578,19 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B88" s="7">
         <v>4</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>55</v>
+        <v>290</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>16</v>
@@ -5601,7 +5598,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B89" s="7">
         <v>0</v>
@@ -5610,7 +5607,7 @@
         <v>96</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>14</v>
@@ -5621,7 +5618,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B90" s="7">
         <v>0.125</v>
@@ -5630,7 +5627,7 @@
         <v>96</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>14</v>
@@ -5641,7 +5638,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B91" s="7">
         <v>0.25</v>
@@ -5650,7 +5647,7 @@
         <v>96</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>14</v>
@@ -5661,16 +5658,16 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B92" s="7">
         <v>0.25</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>14</v>
@@ -5681,16 +5678,16 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B93" s="7">
         <v>3</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>14</v>
@@ -5701,16 +5698,16 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B94" s="7">
         <v>1</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>14</v>
@@ -5721,16 +5718,16 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B95" s="7">
         <v>10</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>14</v>
@@ -5741,16 +5738,16 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B96" s="7">
         <v>16</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>14</v>
@@ -5764,16 +5761,16 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B97" s="7">
         <v>3</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>14</v>
@@ -5784,16 +5781,16 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B98" s="7">
         <v>1</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>14</v>
@@ -5804,16 +5801,16 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B99" s="7">
         <v>7</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>14</v>
@@ -5824,16 +5821,16 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B100" s="7">
         <v>0.5</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>14</v>
@@ -5844,7 +5841,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B101" s="7">
         <v>3</v>
@@ -5853,7 +5850,7 @@
         <v>96</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>14</v>
@@ -5864,7 +5861,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B102" s="7">
         <v>5</v>
@@ -5873,7 +5870,7 @@
         <v>96</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>14</v>
@@ -5884,7 +5881,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B103" s="7">
         <v>3</v>
@@ -5893,7 +5890,7 @@
         <v>96</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>14</v>
@@ -5904,7 +5901,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B104" s="7">
         <v>2</v>
@@ -5913,7 +5910,7 @@
         <v>96</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>14</v>
@@ -5924,7 +5921,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B105" s="7">
         <v>1</v>
@@ -5933,7 +5930,7 @@
         <v>96</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>14</v>
@@ -5944,7 +5941,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B106" s="7">
         <v>3</v>
@@ -5953,7 +5950,7 @@
         <v>96</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>14</v>
@@ -5964,7 +5961,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B107" s="7">
         <v>4</v>
@@ -5973,7 +5970,7 @@
         <v>96</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>14</v>
@@ -5984,16 +5981,16 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B108" s="7">
         <v>3</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>14</v>
@@ -6004,16 +6001,16 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B109" s="7">
         <v>2</v>
       </c>
       <c r="C109" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D109" s="3" t="s">
         <v>353</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>355</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>14</v>
@@ -6024,7 +6021,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B110" s="7">
         <v>0.125</v>
@@ -6033,7 +6030,7 @@
         <v>96</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>14</v>
@@ -6044,7 +6041,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B111" s="7">
         <v>1</v>
@@ -6053,7 +6050,7 @@
         <v>96</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>14</v>
@@ -6064,7 +6061,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B112" s="7">
         <v>3</v>
@@ -6073,7 +6070,7 @@
         <v>96</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>14</v>
@@ -6084,7 +6081,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B113" s="7">
         <v>0</v>
@@ -6093,7 +6090,7 @@
         <v>96</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>14</v>
@@ -6104,7 +6101,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B114" s="7">
         <v>3</v>
@@ -6113,7 +6110,7 @@
         <v>96</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>14</v>
@@ -6124,7 +6121,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B115" s="7">
         <v>0.5</v>
@@ -6133,7 +6130,7 @@
         <v>96</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>14</v>
@@ -6144,7 +6141,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B116" s="7">
         <v>4</v>
@@ -6153,7 +6150,7 @@
         <v>96</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>14</v>
@@ -6164,16 +6161,16 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B117" s="7">
         <v>2</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>14</v>
@@ -6184,7 +6181,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B118" s="7">
         <v>7</v>
@@ -6193,7 +6190,7 @@
         <v>96</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>14</v>
@@ -6204,7 +6201,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B119" s="7">
         <v>1</v>
@@ -6213,7 +6210,7 @@
         <v>96</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>14</v>
@@ -6224,7 +6221,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B120" s="7">
         <v>0.25</v>
@@ -6233,7 +6230,7 @@
         <v>96</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>14</v>
@@ -6244,7 +6241,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B121" s="7">
         <v>6</v>
@@ -6253,7 +6250,7 @@
         <v>96</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>14</v>
@@ -6264,7 +6261,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B122" s="7">
         <v>0.5</v>
@@ -6273,7 +6270,7 @@
         <v>96</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>14</v>
@@ -6284,7 +6281,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B123" s="7">
         <v>5</v>
@@ -6293,7 +6290,7 @@
         <v>96</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>14</v>
@@ -6304,7 +6301,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B124" s="7">
         <v>1</v>
@@ -6313,7 +6310,7 @@
         <v>96</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>14</v>
@@ -6324,7 +6321,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B125" s="7">
         <v>3</v>
@@ -6333,7 +6330,7 @@
         <v>96</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>14</v>
@@ -6344,16 +6341,16 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B126" s="7">
         <v>7</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>14</v>
@@ -6361,11 +6358,14 @@
       <c r="F126" s="2" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D127" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="E1:E65 E70:E1048576">
+  <conditionalFormatting sqref="E70:E1048576 E1:E65">
     <cfRule type="containsText" dxfId="161" priority="25" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
     </cfRule>
@@ -6586,10 +6586,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>55</v>
@@ -6600,10 +6600,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>55</v>
@@ -6614,13 +6614,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>23</v>
@@ -6679,11 +6679,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8015A8-CD76-4317-A710-EE332EB4DCD2}">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7171,7 +7171,7 @@
         <v>99</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>42</v>
@@ -7205,7 +7205,7 @@
         <v>106</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>42</v>
@@ -7222,7 +7222,7 @@
         <v>108</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>42</v>
@@ -7239,7 +7239,7 @@
         <v>109</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>42</v>
@@ -7256,10 +7256,10 @@
         <v>111</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>131</v>
+        <v>290</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>16</v>
@@ -7268,7 +7268,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>302</v>
+        <v>636</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -7276,7 +7276,7 @@
         <v>113</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>42</v>
@@ -7293,7 +7293,7 @@
         <v>114</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>42</v>
@@ -7310,7 +7310,7 @@
         <v>115</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>42</v>
@@ -7327,7 +7327,7 @@
         <v>116</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>42</v>
@@ -7344,7 +7344,7 @@
         <v>117</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>42</v>
@@ -7361,7 +7361,7 @@
         <v>118</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>42</v>
@@ -7378,7 +7378,7 @@
         <v>119</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>42</v>
@@ -7395,7 +7395,7 @@
         <v>120</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>42</v>
@@ -7412,7 +7412,7 @@
         <v>121</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>42</v>
@@ -7429,7 +7429,7 @@
         <v>126</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>42</v>
@@ -7446,7 +7446,7 @@
         <v>127</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>42</v>
@@ -7463,7 +7463,7 @@
         <v>128</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>42</v>
@@ -7480,7 +7480,7 @@
         <v>122</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>42</v>
@@ -7497,7 +7497,7 @@
         <v>123</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>42</v>
@@ -7517,7 +7517,7 @@
         <v>124</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>42</v>
@@ -7532,12 +7532,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>42</v>
@@ -7549,12 +7549,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>55</v>
+        <v>290</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>24</v>
@@ -7566,12 +7566,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>42</v>
@@ -7583,12 +7583,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>42</v>
@@ -7600,12 +7600,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>42</v>
@@ -7617,12 +7617,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>55</v>
+        <v>290</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>24</v>
@@ -7634,12 +7634,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>24</v>
@@ -7651,9 +7651,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>55</v>
@@ -7667,16 +7667,19 @@
       <c r="E56" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>16</v>
@@ -7685,12 +7688,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>42</v>
@@ -7702,9 +7705,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>14</v>
@@ -7719,12 +7722,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>42</v>
@@ -7736,12 +7739,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>42</v>
@@ -7753,12 +7756,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>42</v>
@@ -7770,12 +7773,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>42</v>
@@ -7787,12 +7790,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>42</v>
@@ -7806,10 +7809,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>55</v>
+        <v>290</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>42</v>
@@ -7823,7 +7826,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>14</v>
@@ -7840,7 +7843,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>14</v>
@@ -7857,7 +7860,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>14</v>
@@ -7874,7 +7877,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>14</v>
@@ -7891,7 +7894,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>14</v>
@@ -7906,12 +7909,12 @@
         <v>1</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>14</v>
@@ -7926,12 +7929,12 @@
         <v>32</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>14</v>
@@ -7948,7 +7951,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>14</v>
@@ -7963,12 +7966,12 @@
         <v>1</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>14</v>
@@ -7983,12 +7986,12 @@
         <v>32</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>14</v>
@@ -8003,12 +8006,12 @@
         <v>32</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>14</v>
@@ -8025,7 +8028,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>14</v>
@@ -8042,7 +8045,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>14</v>
@@ -8057,12 +8060,12 @@
         <v>32</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>14</v>
@@ -8077,12 +8080,12 @@
         <v>32</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>14</v>
@@ -8097,9 +8100,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>14</v>
@@ -8112,12 +8115,32 @@
       </c>
       <c r="E81" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{6F8015A8-CD76-4317-A710-EE332EB4DCD2}"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B24 B33 B40:B49 B58:B64 B66:B1048576 B55 B51:B53">
+  <conditionalFormatting sqref="B1:B24 B40:B55 B58:B1048576">
     <cfRule type="containsText" dxfId="59" priority="67" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B1)))</formula>
     </cfRule>
@@ -8137,7 +8160,7 @@
       <formula>NOT(ISERROR(SEARCH("Complete",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:B32">
+  <conditionalFormatting sqref="B25:B33">
     <cfRule type="containsText" dxfId="53" priority="61" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B25)))</formula>
     </cfRule>
@@ -8217,46 +8240,6 @@
       <formula>NOT(ISERROR(SEARCH("Complete",B36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B50">
-    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="Playtest Ready">
-      <formula>NOT(ISERROR(SEARCH("Playtest Ready",B50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH("Needs Review",B50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",B50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Needs Clean Up">
-      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH("Needs Review",B50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",B50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B54">
-    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="Playtest Ready">
-      <formula>NOT(ISERROR(SEARCH("Playtest Ready",B54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH("Needs Review",B54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",B54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Needs Clean Up">
-      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH("Needs Review",B54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",B54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B57">
     <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B57)))</formula>
@@ -8275,26 +8258,6 @@
     </cfRule>
     <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B57)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B65">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Playtest Ready">
-      <formula>NOT(ISERROR(SEARCH("Playtest Ready",B65)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH("Needs Review",B65)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",B65)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Needs Clean Up">
-      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B65)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH("Needs Review",B65)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",B65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56">
@@ -8398,9 +8361,10 @@
     <hyperlink ref="A80" r:id="rId78" xr:uid="{6E53C99C-B755-4860-A6DC-A38001C6B94F}"/>
     <hyperlink ref="A27" r:id="rId79" xr:uid="{16E9931D-7C2E-4EF8-BC63-A0EEEE0978EC}"/>
     <hyperlink ref="A81" r:id="rId80" xr:uid="{D7FFA073-CBFE-4427-B861-B23FB6A1C0F6}"/>
+    <hyperlink ref="A82" r:id="rId81" xr:uid="{76DFA4CD-CC89-4287-983F-04A478B4C2D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId81"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId82"/>
 </worksheet>
 </file>
 
@@ -8409,8 +8373,8 @@
   <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E98" sqref="E98"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8434,7 +8398,7 @@
         <v>22</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>1</v>
@@ -8446,7 +8410,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>19</v>
@@ -8454,16 +8418,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>387</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>188</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>20</v>
+        <v>388</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>33</v>
@@ -8472,50 +8436,50 @@
         <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>391</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>390</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>188</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>66</v>
+        <v>390</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>33</v>
+        <v>391</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>391</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>392</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>65</v>
+      <c r="D4" s="5" t="s">
+        <v>393</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>33</v>
@@ -8524,50 +8488,50 @@
         <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>391</v>
+        <v>42</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>33</v>
+        <v>290</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>391</v>
+        <v>42</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>70</v>
+        <v>518</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>65</v>
+      <c r="D6" s="5" t="s">
+        <v>520</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>33</v>
@@ -8576,24 +8540,24 @@
         <v>23</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>391</v>
+        <v>42</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>71</v>
+        <v>519</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>65</v>
+      <c r="D7" s="5" t="s">
+        <v>521</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>33</v>
@@ -8602,53 +8566,53 @@
         <v>23</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>391</v>
+        <v>42</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>106</v>
+        <v>523</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>106</v>
+        <v>42</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>524</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>291</v>
+        <v>33</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>16</v>
@@ -8662,7 +8626,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>110</v>
@@ -8671,10 +8635,10 @@
         <v>24</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>16</v>
@@ -8683,24 +8647,24 @@
         <v>42</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>477</v>
+        <v>126</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>16</v>
@@ -8714,7 +8678,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>116</v>
+        <v>507</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>110</v>
@@ -8722,51 +8686,51 @@
       <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>116</v>
+      <c r="D12" s="5" t="s">
+        <v>508</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>291</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>119</v>
+        <v>509</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>119</v>
+      <c r="D13" s="5" t="s">
+        <v>510</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>291</v>
+        <v>33</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>126</v>
+        <v>511</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>110</v>
@@ -8774,112 +8738,112 @@
       <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>126</v>
+      <c r="D14" s="5" t="s">
+        <v>512</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>291</v>
+        <v>33</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>122</v>
+        <v>513</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>122</v>
+      <c r="D15" s="5" t="s">
+        <v>516</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>291</v>
+        <v>112</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>113</v>
+        <v>514</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>113</v>
+      <c r="D16" s="5" t="s">
+        <v>515</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>291</v>
+        <v>112</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>301</v>
+        <v>65</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>301</v>
+      <c r="D17" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>42</v>
+        <v>389</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>389</v>
+        <v>70</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>189</v>
+        <v>67</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>390</v>
+      <c r="D18" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>33</v>
@@ -8888,85 +8852,85 @@
         <v>23</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>42</v>
+        <v>389</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>392</v>
+        <v>71</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>189</v>
+        <v>67</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>392</v>
+      <c r="D19" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>393</v>
+        <v>33</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>24</v>
+        <v>389</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>394</v>
+        <v>108</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>189</v>
+        <v>67</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>395</v>
+      <c r="D20" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>33</v>
+        <v>290</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>396</v>
+        <v>517</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>191</v>
+        <v>67</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>397</v>
+        <v>517</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>68</v>
@@ -8974,16 +8938,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>398</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>191</v>
+        <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>399</v>
+        <v>20</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>33</v>
@@ -8992,79 +8956,79 @@
         <v>23</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>42</v>
+        <v>389</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>400</v>
+        <v>111</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>191</v>
+        <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>400</v>
+      <c r="D23" s="3" t="s">
+        <v>475</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>393</v>
+        <v>290</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>402</v>
+        <v>122</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>190</v>
+        <v>21</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>402</v>
+        <v>24</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>33</v>
+        <v>290</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>403</v>
+        <v>300</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>190</v>
+        <v>21</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>403</v>
+        <v>300</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>23</v>
@@ -9078,42 +9042,42 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>404</v>
+        <v>473</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>190</v>
+        <v>21</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>404</v>
+        <v>474</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>405</v>
+        <v>476</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>405</v>
+        <v>477</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>33</v>
@@ -9125,21 +9089,21 @@
         <v>42</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>406</v>
+        <v>478</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>406</v>
+        <v>479</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>33</v>
@@ -9151,56 +9115,56 @@
         <v>42</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>407</v>
+        <v>480</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>407</v>
+        <v>481</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>417</v>
+        <v>482</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>417</v>
+        <v>483</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>68</v>
@@ -9208,51 +9172,51 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>416</v>
+        <v>484</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>416</v>
+        <v>485</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>428</v>
+        <v>486</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>428</v>
+        <v>487</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>68</v>
@@ -9260,19 +9224,19 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>433</v>
+        <v>488</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>433</v>
+        <v>489</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>23</v>
@@ -9281,128 +9245,128 @@
         <v>24</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>25</v>
+        <v>391</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>434</v>
+        <v>490</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>435</v>
+        <v>491</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>33</v>
+        <v>391</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>68</v>
+        <v>391</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>436</v>
+        <v>492</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>437</v>
+        <v>493</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>33</v>
+        <v>391</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>68</v>
+        <v>391</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>439</v>
+        <v>495</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>33</v>
+        <v>391</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>68</v>
+        <v>391</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>440</v>
+        <v>496</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>440</v>
+        <v>497</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>33</v>
+        <v>391</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>68</v>
+        <v>391</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>441</v>
+        <v>498</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>442</v>
+        <v>499</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>112</v>
+        <v>391</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>23</v>
@@ -9411,30 +9375,30 @@
         <v>24</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>68</v>
+        <v>391</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>129</v>
+        <v>501</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>393</v>
+        <v>33</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>24</v>
+        <v>389</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>68</v>
@@ -9442,25 +9406,25 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>446</v>
+        <v>503</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>129</v>
+        <v>501</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>447</v>
+        <v>504</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>393</v>
+        <v>33</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>68</v>
@@ -9468,25 +9432,25 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>448</v>
+        <v>505</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>449</v>
+        <v>501</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>450</v>
+        <v>506</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>68</v>
@@ -9494,16 +9458,16 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>33</v>
@@ -9520,51 +9484,51 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>453</v>
+        <v>119</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>449</v>
+        <v>129</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>454</v>
+        <v>24</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>33</v>
+        <v>290</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>449</v>
+        <v>129</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>68</v>
@@ -9572,25 +9536,25 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>449</v>
+        <v>129</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>393</v>
+        <v>33</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>68</v>
@@ -9598,25 +9562,25 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>449</v>
+        <v>129</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>68</v>
@@ -9624,16 +9588,16 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>462</v>
+        <v>129</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>33</v>
@@ -9650,51 +9614,51 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>33</v>
+        <v>391</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>68</v>
@@ -9702,25 +9666,25 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>33</v>
+        <v>391</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>68</v>
@@ -9728,7 +9692,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>470</v>
+        <v>40</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>72</v>
@@ -9737,24 +9701,24 @@
         <v>24</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>471</v>
+        <v>66</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>393</v>
+        <v>33</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>24</v>
+        <v>389</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>472</v>
+        <v>69</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>72</v>
@@ -9762,17 +9726,17 @@
       <c r="C52" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>473</v>
+      <c r="D52" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>24</v>
+        <v>389</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>68</v>
@@ -9780,7 +9744,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>72</v>
@@ -9789,33 +9753,33 @@
         <v>24</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>393</v>
+        <v>33</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>33</v>
@@ -9827,21 +9791,21 @@
         <v>42</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>33</v>
@@ -9853,99 +9817,99 @@
         <v>42</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>33</v>
+        <v>391</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>33</v>
+        <v>391</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>21</v>
+        <v>447</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>33</v>
@@ -9957,21 +9921,21 @@
         <v>42</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>488</v>
+        <v>449</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>21</v>
+        <v>447</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>489</v>
+        <v>450</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>33</v>
@@ -9988,45 +9952,45 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>490</v>
+        <v>451</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>21</v>
+        <v>447</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>491</v>
+        <v>452</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>393</v>
+        <v>33</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>393</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>492</v>
+        <v>453</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>21</v>
+        <v>447</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>493</v>
+        <v>454</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>393</v>
+        <v>112</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>23</v>
@@ -10035,24 +9999,24 @@
         <v>24</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>393</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>494</v>
+        <v>455</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>21</v>
+        <v>447</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>495</v>
+        <v>456</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>23</v>
@@ -10061,24 +10025,24 @@
         <v>24</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>393</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>496</v>
+        <v>457</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>21</v>
+        <v>447</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>497</v>
+        <v>458</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>393</v>
+        <v>112</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>23</v>
@@ -10087,134 +10051,134 @@
         <v>24</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>393</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>498</v>
+        <v>400</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>499</v>
+        <v>400</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>393</v>
+        <v>33</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>393</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>500</v>
+        <v>401</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>393</v>
+        <v>33</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>393</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>502</v>
+        <v>402</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>503</v>
+        <v>189</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>504</v>
+        <v>402</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>391</v>
+        <v>24</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>505</v>
+        <v>113</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>503</v>
+        <v>130</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>506</v>
+      <c r="D68" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>33</v>
+        <v>290</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>507</v>
+        <v>403</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>503</v>
+        <v>130</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>508</v>
+        <v>403</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>68</v>
@@ -10222,16 +10186,16 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>509</v>
+        <v>404</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>510</v>
+        <v>404</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>33</v>
@@ -10248,25 +10212,25 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>511</v>
+        <v>405</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>512</v>
+        <v>405</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>68</v>
@@ -10274,25 +10238,25 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>513</v>
+        <v>415</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>514</v>
+        <v>415</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>68</v>
@@ -10300,16 +10264,16 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>515</v>
+        <v>414</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>518</v>
+        <v>414</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>112</v>
@@ -10326,16 +10290,16 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>516</v>
+        <v>426</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>517</v>
+        <v>426</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>112</v>
@@ -10352,19 +10316,19 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>519</v>
+        <v>431</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>519</v>
+        <v>431</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>112</v>
+        <v>391</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>23</v>
@@ -10373,30 +10337,30 @@
         <v>24</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>520</v>
+        <v>610</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>522</v>
+        <v>610</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>33</v>
+        <v>391</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>25</v>
@@ -10404,16 +10368,16 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>521</v>
+        <v>394</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>523</v>
+        <v>395</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>33</v>
@@ -10425,21 +10389,21 @@
         <v>42</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>525</v>
+        <v>396</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>526</v>
+        <v>397</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>33</v>
@@ -10456,19 +10420,19 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>612</v>
+        <v>398</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>612</v>
+        <v>398</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>23</v>
@@ -10481,7 +10445,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{45E52FED-6497-4FDC-A0DA-7ECEAA0549B9}"/>
+  <autoFilter ref="A1:H1" xr:uid="{45E52FED-6497-4FDC-A0DA-7ECEAA0549B9}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H79">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="containsText" dxfId="137" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
@@ -10503,84 +10471,84 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{9046E2C3-2DD6-40E2-8C95-41BFEE30F58A}"/>
-    <hyperlink ref="D3" r:id="rId2" display="Frost Warden" xr:uid="{989B61CE-0668-402B-B3C6-E72E41726DEA}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{3D509BCC-6372-456B-B146-75B5427F68AC}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{3DA93037-63E6-4E98-98BF-A2FAFEE9D05E}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{B46EDF1A-23D2-4E30-A0C7-46FE46C11ADD}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{F219FA32-AB69-4242-9BD1-F90CF23145C6}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{85515404-6730-4D7E-800C-4DF00CE3120B}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{32D3AEAD-DC96-4E4A-A814-B820CCCBC9D8}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{71F8E491-3602-4733-A77C-1F129B96DD15}"/>
-    <hyperlink ref="D11" r:id="rId10" display="Circle of Rivers" xr:uid="{7B0C47BA-6BF0-43D4-97A3-DEC3DD41DE80}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{6B42B538-626A-4AED-88BB-CE788905EFAA}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{A5D00F7F-CAF6-4692-99AF-364156BB3E99}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{DA8C1FF8-D707-497A-8BB3-1402B5C00BBF}"/>
-    <hyperlink ref="D15" r:id="rId14" xr:uid="{C083E929-5CF3-4052-85EB-11B89BC99501}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{386B58F7-C010-4574-A086-788FF9F2A52B}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{FF3F90C9-4B21-4B54-B248-CCFE57CCBE90}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{0CB93F14-8628-4C4B-88B5-A4397F058954}"/>
-    <hyperlink ref="D19" r:id="rId18" xr:uid="{531EC609-15FB-4D4C-84FE-745879E0F279}"/>
-    <hyperlink ref="D20" r:id="rId19" xr:uid="{D3A6E895-5C5D-423C-B78A-99D701E041F5}"/>
-    <hyperlink ref="D21" r:id="rId20" xr:uid="{244BF62E-2B5A-4A0F-9E71-9CC09D2C36AE}"/>
-    <hyperlink ref="D22" r:id="rId21" xr:uid="{7CFB0DCA-0B5D-4452-87E6-9266AD7FAE3A}"/>
-    <hyperlink ref="D23" r:id="rId22" xr:uid="{10719E79-BBAF-459D-80A2-307F42D0BEC4}"/>
-    <hyperlink ref="D24" r:id="rId23" xr:uid="{3324D7A2-1F0E-4EC9-A7B4-30F6FCF298BC}"/>
-    <hyperlink ref="D25" r:id="rId24" xr:uid="{0E494D1D-CA37-4632-8410-3CB7109CB02B}"/>
-    <hyperlink ref="D26" r:id="rId25" xr:uid="{4096314F-4F7A-4828-9FD0-64FE6ACC14AF}"/>
-    <hyperlink ref="D27" r:id="rId26" xr:uid="{E267417C-4F71-48A2-AC98-E0A622110BEF}"/>
-    <hyperlink ref="D28" r:id="rId27" xr:uid="{2F88D6F2-AB59-4C29-930A-BA242885AF6E}"/>
-    <hyperlink ref="D29" r:id="rId28" xr:uid="{9B9FAD98-F04B-431C-B0BA-73028B0F0740}"/>
-    <hyperlink ref="D30" r:id="rId29" display="Otherworldly Patron - Hex Weaver" xr:uid="{DFA26FF4-C4CB-4830-A12B-07C0630C5BD7}"/>
-    <hyperlink ref="D31" r:id="rId30" xr:uid="{09D67D54-1785-44E0-A1D1-20E036040277}"/>
-    <hyperlink ref="D32" r:id="rId31" xr:uid="{C07C0092-C616-4587-8C56-031830BE7E30}"/>
-    <hyperlink ref="D33" r:id="rId32" xr:uid="{CFA861FF-0918-4328-87C3-548031B2BEA5}"/>
-    <hyperlink ref="D34" r:id="rId33" xr:uid="{6D81E510-3F33-4752-AC2E-B0386D0C71BD}"/>
-    <hyperlink ref="D35" r:id="rId34" xr:uid="{E72EF250-64F3-4B55-81A2-250E35242745}"/>
-    <hyperlink ref="D36" r:id="rId35" xr:uid="{3844E088-9BC6-46E5-B5B1-7FD265EA1C4C}"/>
-    <hyperlink ref="D37" r:id="rId36" xr:uid="{EC78B631-6B66-4CFE-961B-5759A94FEC0B}"/>
-    <hyperlink ref="D38" r:id="rId37" xr:uid="{E13B05BF-4222-4E6C-8DAF-E546E7E6F5D1}"/>
-    <hyperlink ref="D39" r:id="rId38" xr:uid="{575261E1-B1EA-4E4F-A303-3A653CB1664E}"/>
-    <hyperlink ref="D40" r:id="rId39" xr:uid="{654C81E3-695E-4043-A3B5-DDFB28FE327A}"/>
-    <hyperlink ref="D41" r:id="rId40" xr:uid="{743CA3C8-BDDD-4640-9A06-013CD8D7DE5D}"/>
-    <hyperlink ref="D42" r:id="rId41" xr:uid="{004E0091-4B58-4E97-9808-8528E6A90D97}"/>
-    <hyperlink ref="D43" r:id="rId42" xr:uid="{1E7B0BE3-620D-4B84-8007-D3B81F68017A}"/>
-    <hyperlink ref="D44" r:id="rId43" xr:uid="{E94E7725-5A75-4C65-8B99-FA7193B3CA2D}"/>
-    <hyperlink ref="D45" r:id="rId44" xr:uid="{FA4749AA-1AEE-4505-8FA3-362C53BAF6FA}"/>
-    <hyperlink ref="D46" r:id="rId45" xr:uid="{4675FEC8-361E-4651-94D9-76B364FABFA8}"/>
-    <hyperlink ref="D47" r:id="rId46" xr:uid="{B9B34479-7013-49AE-8426-9B5C281C4EC8}"/>
-    <hyperlink ref="D48" r:id="rId47" xr:uid="{D4D755AF-FAD6-442D-9028-EF0C761D861E}"/>
-    <hyperlink ref="D49" r:id="rId48" xr:uid="{428924E0-9577-4049-8F45-32D58BC8AAC3}"/>
-    <hyperlink ref="D50" r:id="rId49" xr:uid="{23AC51FE-93AE-4711-97B7-12291A374B55}"/>
-    <hyperlink ref="D51" r:id="rId50" xr:uid="{EC271F88-91BE-4C89-ADF6-B2897F50F735}"/>
-    <hyperlink ref="D52" r:id="rId51" xr:uid="{E0DF5966-7716-4FBF-9A49-954CE85C7E73}"/>
-    <hyperlink ref="D53" r:id="rId52" xr:uid="{4F8A822B-A4A0-4D4F-81D1-0A78B3C62A48}"/>
-    <hyperlink ref="D54" r:id="rId53" xr:uid="{59BAD026-B7A7-4703-8311-C36C19A90BEA}"/>
-    <hyperlink ref="D55" r:id="rId54" xr:uid="{14C8193A-3284-48DC-8F81-6984AAB15329}"/>
-    <hyperlink ref="D56" r:id="rId55" xr:uid="{9665CE56-C621-4412-8068-F90AA2C27B5B}"/>
-    <hyperlink ref="D57" r:id="rId56" xr:uid="{54F169B4-D55C-4B86-92E4-E828046CCCF2}"/>
-    <hyperlink ref="D58" r:id="rId57" xr:uid="{76037009-D342-4093-850F-F490E4A0E3FE}"/>
-    <hyperlink ref="D59" r:id="rId58" xr:uid="{99C54A45-537B-4547-9194-A4189B5204FD}"/>
-    <hyperlink ref="D60" r:id="rId59" xr:uid="{201D345F-642B-48E9-B95E-B5C5133A44CA}"/>
-    <hyperlink ref="D61" r:id="rId60" xr:uid="{5804ABF2-8343-4DFE-8448-5A21697173B3}"/>
-    <hyperlink ref="D62" r:id="rId61" xr:uid="{70FCF315-4512-4199-8496-2B9FB77CECFC}"/>
-    <hyperlink ref="D63" r:id="rId62" xr:uid="{24626094-37BE-44BF-9F2E-659555193AD8}"/>
-    <hyperlink ref="D64" r:id="rId63" xr:uid="{D2E9401C-D289-4D99-ABD7-4678F0104DAA}"/>
-    <hyperlink ref="D65" r:id="rId64" xr:uid="{8B724D66-1C23-4295-8FB4-BC410B7D6697}"/>
-    <hyperlink ref="D66" r:id="rId65" xr:uid="{852113D3-1641-4F03-9B73-D4ED1C9BEAD0}"/>
-    <hyperlink ref="D67" r:id="rId66" xr:uid="{5A168115-5A0A-49C3-853D-47255028358A}"/>
-    <hyperlink ref="D68" r:id="rId67" xr:uid="{C8966E9D-D761-4375-875F-F6E20629A00B}"/>
-    <hyperlink ref="D69" r:id="rId68" xr:uid="{98D2E4B5-FBB8-431D-8D45-633C093DF6BE}"/>
-    <hyperlink ref="D70" r:id="rId69" xr:uid="{9871195F-395C-478C-83EB-B72E72D9F90F}"/>
-    <hyperlink ref="D71" r:id="rId70" xr:uid="{569ED6F0-6807-44B1-85B3-11B58B0EBBD2}"/>
-    <hyperlink ref="D72" r:id="rId71" xr:uid="{B98B347B-FA09-4B42-99F6-7BD49CED4E92}"/>
-    <hyperlink ref="D73" r:id="rId72" display="Bard College - Collge of Choir" xr:uid="{255ABBE8-2EFB-45F1-97D8-C425715B2A80}"/>
-    <hyperlink ref="D74" r:id="rId73" xr:uid="{F2EED849-52B7-47FB-A0A1-7A17556C13E4}"/>
-    <hyperlink ref="D75" r:id="rId74" xr:uid="{55094E7F-6584-49E8-BC8D-A97B7FAA1538}"/>
-    <hyperlink ref="D76" r:id="rId75" display="Primal Path - Demon Soul" xr:uid="{BBF1122C-B61C-4BB5-A8A9-B2CF65AE04FE}"/>
-    <hyperlink ref="D77" r:id="rId76" xr:uid="{D034A541-2381-4E07-AE03-618E15137103}"/>
-    <hyperlink ref="D78" r:id="rId77" xr:uid="{94CA75DD-6633-4D4F-94B4-CECD351EE741}"/>
-    <hyperlink ref="D79" r:id="rId78" xr:uid="{D68685D9-2681-488B-A41E-4636325C3F73}"/>
+    <hyperlink ref="D22" r:id="rId1" xr:uid="{9046E2C3-2DD6-40E2-8C95-41BFEE30F58A}"/>
+    <hyperlink ref="D51" r:id="rId2" display="Frost Warden" xr:uid="{989B61CE-0668-402B-B3C6-E72E41726DEA}"/>
+    <hyperlink ref="D17" r:id="rId3" xr:uid="{3D509BCC-6372-456B-B146-75B5427F68AC}"/>
+    <hyperlink ref="D52" r:id="rId4" xr:uid="{3DA93037-63E6-4E98-98BF-A2FAFEE9D05E}"/>
+    <hyperlink ref="D18" r:id="rId5" xr:uid="{B46EDF1A-23D2-4E30-A0C7-46FE46C11ADD}"/>
+    <hyperlink ref="D19" r:id="rId6" xr:uid="{F219FA32-AB69-4242-9BD1-F90CF23145C6}"/>
+    <hyperlink ref="D5" r:id="rId7" xr:uid="{85515404-6730-4D7E-800C-4DF00CE3120B}"/>
+    <hyperlink ref="D20" r:id="rId8" xr:uid="{32D3AEAD-DC96-4E4A-A814-B820CCCBC9D8}"/>
+    <hyperlink ref="D9" r:id="rId9" xr:uid="{71F8E491-3602-4733-A77C-1F129B96DD15}"/>
+    <hyperlink ref="D23" r:id="rId10" display="Circle of Rivers" xr:uid="{7B0C47BA-6BF0-43D4-97A3-DEC3DD41DE80}"/>
+    <hyperlink ref="D10" r:id="rId11" xr:uid="{6B42B538-626A-4AED-88BB-CE788905EFAA}"/>
+    <hyperlink ref="D43" r:id="rId12" xr:uid="{A5D00F7F-CAF6-4692-99AF-364156BB3E99}"/>
+    <hyperlink ref="D11" r:id="rId13" xr:uid="{DA8C1FF8-D707-497A-8BB3-1402B5C00BBF}"/>
+    <hyperlink ref="D24" r:id="rId14" xr:uid="{C083E929-5CF3-4052-85EB-11B89BC99501}"/>
+    <hyperlink ref="D68" r:id="rId15" xr:uid="{386B58F7-C010-4574-A086-788FF9F2A52B}"/>
+    <hyperlink ref="D25" r:id="rId16" xr:uid="{FF3F90C9-4B21-4B54-B248-CCFE57CCBE90}"/>
+    <hyperlink ref="D2" r:id="rId17" xr:uid="{0CB93F14-8628-4C4B-88B5-A4397F058954}"/>
+    <hyperlink ref="D3" r:id="rId18" xr:uid="{531EC609-15FB-4D4C-84FE-745879E0F279}"/>
+    <hyperlink ref="D4" r:id="rId19" xr:uid="{D3A6E895-5C5D-423C-B78A-99D701E041F5}"/>
+    <hyperlink ref="D77" r:id="rId20" xr:uid="{244BF62E-2B5A-4A0F-9E71-9CC09D2C36AE}"/>
+    <hyperlink ref="D78" r:id="rId21" xr:uid="{7CFB0DCA-0B5D-4452-87E6-9266AD7FAE3A}"/>
+    <hyperlink ref="D79" r:id="rId22" xr:uid="{10719E79-BBAF-459D-80A2-307F42D0BEC4}"/>
+    <hyperlink ref="D65" r:id="rId23" xr:uid="{3324D7A2-1F0E-4EC9-A7B4-30F6FCF298BC}"/>
+    <hyperlink ref="D66" r:id="rId24" xr:uid="{0E494D1D-CA37-4632-8410-3CB7109CB02B}"/>
+    <hyperlink ref="D67" r:id="rId25" xr:uid="{4096314F-4F7A-4828-9FD0-64FE6ACC14AF}"/>
+    <hyperlink ref="D69" r:id="rId26" xr:uid="{E267417C-4F71-48A2-AC98-E0A622110BEF}"/>
+    <hyperlink ref="D70" r:id="rId27" xr:uid="{2F88D6F2-AB59-4C29-930A-BA242885AF6E}"/>
+    <hyperlink ref="D71" r:id="rId28" xr:uid="{9B9FAD98-F04B-431C-B0BA-73028B0F0740}"/>
+    <hyperlink ref="D72" r:id="rId29" display="Otherworldly Patron - Hex Weaver" xr:uid="{DFA26FF4-C4CB-4830-A12B-07C0630C5BD7}"/>
+    <hyperlink ref="D73" r:id="rId30" xr:uid="{09D67D54-1785-44E0-A1D1-20E036040277}"/>
+    <hyperlink ref="D74" r:id="rId31" xr:uid="{C07C0092-C616-4587-8C56-031830BE7E30}"/>
+    <hyperlink ref="D75" r:id="rId32" xr:uid="{CFA861FF-0918-4328-87C3-548031B2BEA5}"/>
+    <hyperlink ref="D44" r:id="rId33" xr:uid="{6D81E510-3F33-4752-AC2E-B0386D0C71BD}"/>
+    <hyperlink ref="D45" r:id="rId34" xr:uid="{E72EF250-64F3-4B55-81A2-250E35242745}"/>
+    <hyperlink ref="D46" r:id="rId35" xr:uid="{3844E088-9BC6-46E5-B5B1-7FD265EA1C4C}"/>
+    <hyperlink ref="D47" r:id="rId36" xr:uid="{EC78B631-6B66-4CFE-961B-5759A94FEC0B}"/>
+    <hyperlink ref="D48" r:id="rId37" xr:uid="{E13B05BF-4222-4E6C-8DAF-E546E7E6F5D1}"/>
+    <hyperlink ref="D49" r:id="rId38" xr:uid="{575261E1-B1EA-4E4F-A303-3A653CB1664E}"/>
+    <hyperlink ref="D50" r:id="rId39" xr:uid="{654C81E3-695E-4043-A3B5-DDFB28FE327A}"/>
+    <hyperlink ref="D59" r:id="rId40" xr:uid="{743CA3C8-BDDD-4640-9A06-013CD8D7DE5D}"/>
+    <hyperlink ref="D60" r:id="rId41" xr:uid="{004E0091-4B58-4E97-9808-8528E6A90D97}"/>
+    <hyperlink ref="D61" r:id="rId42" xr:uid="{1E7B0BE3-620D-4B84-8007-D3B81F68017A}"/>
+    <hyperlink ref="D62" r:id="rId43" xr:uid="{E94E7725-5A75-4C65-8B99-FA7193B3CA2D}"/>
+    <hyperlink ref="D63" r:id="rId44" xr:uid="{FA4749AA-1AEE-4505-8FA3-362C53BAF6FA}"/>
+    <hyperlink ref="D64" r:id="rId45" xr:uid="{4675FEC8-361E-4651-94D9-76B364FABFA8}"/>
+    <hyperlink ref="D42" r:id="rId46" xr:uid="{B9B34479-7013-49AE-8426-9B5C281C4EC8}"/>
+    <hyperlink ref="D53" r:id="rId47" xr:uid="{D4D755AF-FAD6-442D-9028-EF0C761D861E}"/>
+    <hyperlink ref="D54" r:id="rId48" xr:uid="{428924E0-9577-4049-8F45-32D58BC8AAC3}"/>
+    <hyperlink ref="D55" r:id="rId49" xr:uid="{23AC51FE-93AE-4711-97B7-12291A374B55}"/>
+    <hyperlink ref="D56" r:id="rId50" xr:uid="{EC271F88-91BE-4C89-ADF6-B2897F50F735}"/>
+    <hyperlink ref="D57" r:id="rId51" xr:uid="{E0DF5966-7716-4FBF-9A49-954CE85C7E73}"/>
+    <hyperlink ref="D58" r:id="rId52" xr:uid="{4F8A822B-A4A0-4D4F-81D1-0A78B3C62A48}"/>
+    <hyperlink ref="D26" r:id="rId53" xr:uid="{59BAD026-B7A7-4703-8311-C36C19A90BEA}"/>
+    <hyperlink ref="D27" r:id="rId54" xr:uid="{14C8193A-3284-48DC-8F81-6984AAB15329}"/>
+    <hyperlink ref="D28" r:id="rId55" xr:uid="{9665CE56-C621-4412-8068-F90AA2C27B5B}"/>
+    <hyperlink ref="D29" r:id="rId56" xr:uid="{54F169B4-D55C-4B86-92E4-E828046CCCF2}"/>
+    <hyperlink ref="D30" r:id="rId57" xr:uid="{76037009-D342-4093-850F-F490E4A0E3FE}"/>
+    <hyperlink ref="D31" r:id="rId58" xr:uid="{99C54A45-537B-4547-9194-A4189B5204FD}"/>
+    <hyperlink ref="D32" r:id="rId59" xr:uid="{201D345F-642B-48E9-B95E-B5C5133A44CA}"/>
+    <hyperlink ref="D33" r:id="rId60" xr:uid="{5804ABF2-8343-4DFE-8448-5A21697173B3}"/>
+    <hyperlink ref="D34" r:id="rId61" xr:uid="{70FCF315-4512-4199-8496-2B9FB77CECFC}"/>
+    <hyperlink ref="D35" r:id="rId62" xr:uid="{24626094-37BE-44BF-9F2E-659555193AD8}"/>
+    <hyperlink ref="D36" r:id="rId63" xr:uid="{D2E9401C-D289-4D99-ABD7-4678F0104DAA}"/>
+    <hyperlink ref="D37" r:id="rId64" xr:uid="{8B724D66-1C23-4295-8FB4-BC410B7D6697}"/>
+    <hyperlink ref="D38" r:id="rId65" xr:uid="{852113D3-1641-4F03-9B73-D4ED1C9BEAD0}"/>
+    <hyperlink ref="D39" r:id="rId66" xr:uid="{5A168115-5A0A-49C3-853D-47255028358A}"/>
+    <hyperlink ref="D40" r:id="rId67" xr:uid="{C8966E9D-D761-4375-875F-F6E20629A00B}"/>
+    <hyperlink ref="D41" r:id="rId68" xr:uid="{98D2E4B5-FBB8-431D-8D45-633C093DF6BE}"/>
+    <hyperlink ref="D12" r:id="rId69" xr:uid="{9871195F-395C-478C-83EB-B72E72D9F90F}"/>
+    <hyperlink ref="D13" r:id="rId70" xr:uid="{569ED6F0-6807-44B1-85B3-11B58B0EBBD2}"/>
+    <hyperlink ref="D14" r:id="rId71" xr:uid="{B98B347B-FA09-4B42-99F6-7BD49CED4E92}"/>
+    <hyperlink ref="D15" r:id="rId72" display="Bard College - Collge of Choir" xr:uid="{255ABBE8-2EFB-45F1-97D8-C425715B2A80}"/>
+    <hyperlink ref="D16" r:id="rId73" xr:uid="{F2EED849-52B7-47FB-A0A1-7A17556C13E4}"/>
+    <hyperlink ref="D21" r:id="rId74" xr:uid="{55094E7F-6584-49E8-BC8D-A97B7FAA1538}"/>
+    <hyperlink ref="D6" r:id="rId75" display="Primal Path - Demon Soul" xr:uid="{BBF1122C-B61C-4BB5-A8A9-B2CF65AE04FE}"/>
+    <hyperlink ref="D7" r:id="rId76" xr:uid="{D034A541-2381-4E07-AE03-618E15137103}"/>
+    <hyperlink ref="D8" r:id="rId77" xr:uid="{94CA75DD-6633-4D4F-94B4-CECD351EE741}"/>
+    <hyperlink ref="D76" r:id="rId78" xr:uid="{D68685D9-2681-488B-A41E-4636325C3F73}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10611,13 +10579,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>185</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>186</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>4</v>
@@ -10628,19 +10596,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>16</v>
@@ -10648,19 +10616,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>16</v>
@@ -10668,19 +10636,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>16</v>
@@ -10688,19 +10656,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>16</v>
@@ -10708,19 +10676,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>16</v>
@@ -10728,19 +10696,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>16</v>
@@ -10748,19 +10716,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>16</v>
@@ -10768,19 +10736,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>16</v>
@@ -10788,19 +10756,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>16</v>
@@ -10808,19 +10776,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>16</v>
@@ -10828,19 +10796,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>16</v>
@@ -10848,19 +10816,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>16</v>
@@ -10868,19 +10836,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>16</v>
@@ -10888,19 +10856,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>16</v>
@@ -10908,19 +10876,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>16</v>
@@ -10928,19 +10896,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>16</v>
@@ -10948,19 +10916,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>16</v>
@@ -10968,19 +10936,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>16</v>
@@ -10988,19 +10956,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>16</v>
@@ -11008,19 +10976,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>16</v>
@@ -11028,16 +10996,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>33</v>
@@ -11048,16 +11016,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>33</v>
@@ -11068,16 +11036,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>385</v>
-      </c>
       <c r="D24" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>33</v>
@@ -11088,16 +11056,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>386</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>33</v>
@@ -11108,16 +11076,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>112</v>
@@ -11128,16 +11096,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>112</v>
@@ -11148,16 +11116,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>112</v>
@@ -11168,16 +11136,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>112</v>
@@ -11188,16 +11156,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>112</v>
@@ -11208,16 +11176,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>112</v>
@@ -11228,16 +11196,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>112</v>
@@ -11248,16 +11216,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>112</v>
@@ -11268,16 +11236,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>112</v>
@@ -11288,16 +11256,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>112</v>
@@ -11308,16 +11276,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>112</v>
@@ -11328,16 +11296,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>112</v>
@@ -11348,16 +11316,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>112</v>
@@ -11368,16 +11336,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>112</v>
@@ -11388,16 +11356,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>112</v>
@@ -11408,16 +11376,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>112</v>
@@ -11428,16 +11396,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>112</v>
@@ -11448,16 +11416,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>112</v>
@@ -11468,16 +11436,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>112</v>
@@ -11488,16 +11456,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>112</v>
@@ -11508,16 +11476,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>112</v>
@@ -11626,16 +11594,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>188</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>189</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>110</v>
@@ -11653,13 +11621,13 @@
         <v>72</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L1" s="10" t="s">
         <v>130</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>4</v>
@@ -11668,24 +11636,24 @@
         <v>5</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C2" s="2">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -11723,16 +11691,16 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C3" s="2">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
@@ -11770,16 +11738,16 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C4" s="2">
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
@@ -11817,16 +11785,16 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
@@ -11864,16 +11832,16 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C6" s="2">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
@@ -11911,16 +11879,16 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>42</v>
@@ -11958,16 +11926,16 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
@@ -12005,16 +11973,16 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
@@ -12052,16 +12020,16 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C10" s="2">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>24</v>
@@ -12099,16 +12067,16 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
@@ -12146,16 +12114,16 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C12" s="2">
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>42</v>
@@ -12193,16 +12161,16 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C13" s="2">
         <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>42</v>
@@ -12240,16 +12208,16 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C14" s="2">
         <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>24</v>
@@ -12287,16 +12255,16 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C15" s="2">
         <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -12334,16 +12302,16 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C16" s="2">
         <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>24</v>
@@ -12381,16 +12349,16 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>24</v>
@@ -12428,16 +12396,16 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C18" s="2">
         <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>42</v>
@@ -12475,16 +12443,16 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>42</v>
@@ -12522,16 +12490,16 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>24</v>
@@ -12569,16 +12537,16 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>24</v>
@@ -12616,16 +12584,16 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C22" s="2">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>24</v>
@@ -12663,16 +12631,16 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>24</v>
@@ -12710,16 +12678,16 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C24" s="2">
         <v>2</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>24</v>
@@ -12757,16 +12725,16 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C25" s="2">
         <v>6</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>24</v>
@@ -12804,16 +12772,16 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C26" s="2">
         <v>2</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>24</v>
@@ -12851,16 +12819,16 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C27" s="2">
         <v>3</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>24</v>
@@ -12898,16 +12866,16 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>24</v>
@@ -12945,16 +12913,16 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C29" s="2">
         <v>2</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>24</v>
@@ -12992,16 +12960,16 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>24</v>
@@ -13039,16 +13007,16 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C31" s="2">
         <v>2</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>24</v>
@@ -13086,16 +13054,16 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C32" s="2">
         <v>2</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>24</v>
@@ -13133,16 +13101,16 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C33" s="2">
         <v>0</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>24</v>
@@ -13180,16 +13148,16 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C34" s="2">
         <v>4</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>24</v>
@@ -13227,16 +13195,16 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C35" s="2">
         <v>2</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>24</v>
@@ -13274,16 +13242,16 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>24</v>
@@ -13321,16 +13289,16 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C37" s="2">
         <v>0</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>24</v>
@@ -13368,16 +13336,16 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C38" s="2">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>24</v>
@@ -13415,16 +13383,16 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>42</v>
@@ -13462,16 +13430,16 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C40" s="2">
         <v>6</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>24</v>
@@ -13509,16 +13477,16 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C41" s="2">
         <v>2</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>24</v>
@@ -13556,16 +13524,16 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C42" s="2">
         <v>5</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>24</v>
@@ -13603,16 +13571,16 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C43" s="2">
         <v>5</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>24</v>
@@ -13650,16 +13618,16 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>24</v>
@@ -13697,16 +13665,16 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C45" s="2">
         <v>2</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>24</v>
@@ -13744,16 +13712,16 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C46" s="2">
         <v>6</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>24</v>
@@ -13791,16 +13759,16 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C47" s="2">
         <v>3</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>24</v>
@@ -13838,16 +13806,16 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>24</v>
@@ -13885,16 +13853,16 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>24</v>
@@ -13932,16 +13900,16 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>24</v>
@@ -14032,7 +14000,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14050,7 +14018,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>1</v>
@@ -14064,13 +14032,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>33</v>
@@ -14081,13 +14049,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>33</v>
@@ -14098,13 +14066,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
@@ -14115,13 +14083,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
@@ -14132,13 +14100,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>33</v>
@@ -14149,30 +14117,30 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>33</v>
@@ -14183,13 +14151,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>33</v>
@@ -14200,13 +14168,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>14</v>
@@ -14281,25 +14249,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>194</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>195</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>4</v>
@@ -14316,7 +14284,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>24</v>
@@ -14325,7 +14293,7 @@
         <v>100</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>24</v>
@@ -14340,7 +14308,7 @@
         <v>16</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -14348,13 +14316,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>42</v>
@@ -14369,7 +14337,7 @@
         <v>16</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -14377,13 +14345,13 @@
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>24</v>
@@ -14398,21 +14366,21 @@
         <v>16</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>42</v>
@@ -14427,15 +14395,15 @@
         <v>16</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>24</v>
@@ -14444,7 +14412,7 @@
         <v>6000</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -14459,22 +14427,22 @@
         <v>16</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="F7" s="1" t="s">
         <v>42</v>
       </c>
@@ -14488,15 +14456,15 @@
         <v>16</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>24</v>
@@ -14505,7 +14473,7 @@
         <v>2000</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>24</v>
@@ -14520,15 +14488,15 @@
         <v>16</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>24</v>
@@ -14537,7 +14505,7 @@
         <v>1500</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>24</v>
@@ -14552,15 +14520,15 @@
         <v>16</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>24</v>
@@ -14569,7 +14537,7 @@
         <v>9000</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>24</v>
@@ -14584,15 +14552,15 @@
         <v>16</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>24</v>
@@ -14601,7 +14569,7 @@
         <v>50000</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>24</v>
@@ -14616,15 +14584,15 @@
         <v>16</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>24</v>
@@ -14633,7 +14601,7 @@
         <v>12000</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>42</v>
@@ -14648,21 +14616,21 @@
         <v>16</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>24</v>
@@ -14677,15 +14645,15 @@
         <v>16</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>24</v>
@@ -14694,7 +14662,7 @@
         <v>6000</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>42</v>
@@ -14709,15 +14677,15 @@
         <v>16</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>24</v>
@@ -14726,7 +14694,7 @@
         <v>24000</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>42</v>
@@ -14741,15 +14709,15 @@
         <v>16</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>24</v>
@@ -14758,7 +14726,7 @@
         <v>26000</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>42</v>
@@ -14773,15 +14741,15 @@
         <v>16</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>24</v>
@@ -14790,7 +14758,7 @@
         <v>7000</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>42</v>
@@ -14805,21 +14773,21 @@
         <v>16</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>42</v>
@@ -14834,21 +14802,21 @@
         <v>16</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="C19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>42</v>
@@ -14863,21 +14831,21 @@
         <v>16</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>24</v>
@@ -14892,21 +14860,21 @@
         <v>16</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>24</v>
@@ -14921,21 +14889,21 @@
         <v>16</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>24</v>
@@ -14950,15 +14918,15 @@
         <v>16</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>24</v>
@@ -14967,7 +14935,7 @@
         <v>9000</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>24</v>
@@ -14982,21 +14950,21 @@
         <v>16</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>42</v>
@@ -15011,15 +14979,15 @@
         <v>16</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>24</v>
@@ -15028,7 +14996,7 @@
         <v>20000</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>24</v>
@@ -15043,24 +15011,24 @@
         <v>16</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="C26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>24</v>
@@ -15072,15 +15040,15 @@
         <v>16</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>24</v>
@@ -15089,7 +15057,7 @@
         <v>1000</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>42</v>
@@ -15104,15 +15072,15 @@
         <v>16</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>24</v>
@@ -15121,7 +15089,7 @@
         <v>3000</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>24</v>
@@ -15136,15 +15104,15 @@
         <v>16</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>24</v>
@@ -15153,7 +15121,7 @@
         <v>15000</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>42</v>
@@ -15168,15 +15136,15 @@
         <v>16</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>24</v>
@@ -15185,7 +15153,7 @@
         <v>26000</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>42</v>
@@ -15200,15 +15168,15 @@
         <v>16</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>24</v>
@@ -15217,7 +15185,7 @@
         <v>8000</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>42</v>
@@ -15232,15 +15200,15 @@
         <v>16</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>24</v>
@@ -15249,7 +15217,7 @@
         <v>24000</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>42</v>
@@ -15264,21 +15232,21 @@
         <v>16</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>42</v>
@@ -15293,15 +15261,15 @@
         <v>16</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>24</v>
@@ -15310,7 +15278,7 @@
         <v>1000</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>24</v>
@@ -15325,21 +15293,21 @@
         <v>23</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>42</v>
@@ -15354,21 +15322,21 @@
         <v>23</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>24</v>
@@ -15383,21 +15351,21 @@
         <v>23</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>42</v>
@@ -15412,21 +15380,21 @@
         <v>23</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>24</v>
@@ -15441,21 +15409,21 @@
         <v>23</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>24</v>
@@ -15470,15 +15438,15 @@
         <v>23</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>24</v>
@@ -15487,7 +15455,7 @@
         <v>500</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>24</v>
@@ -15502,15 +15470,15 @@
         <v>23</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>24</v>
@@ -15519,7 +15487,7 @@
         <v>5000</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>24</v>
@@ -15534,21 +15502,21 @@
         <v>23</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>24</v>
@@ -15563,21 +15531,21 @@
         <v>23</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>24</v>
@@ -15592,15 +15560,15 @@
         <v>23</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>42</v>
@@ -15609,7 +15577,7 @@
         <v>50</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>24</v>
@@ -15624,21 +15592,21 @@
         <v>23</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>24</v>
@@ -15653,15 +15621,15 @@
         <v>23</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>42</v>
@@ -15670,7 +15638,7 @@
         <v>75000</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>24</v>
@@ -15685,21 +15653,21 @@
         <v>23</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>24</v>
@@ -15714,21 +15682,21 @@
         <v>23</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>24</v>
@@ -15743,15 +15711,15 @@
         <v>23</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>24</v>
@@ -15760,7 +15728,7 @@
         <v>750</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>24</v>
@@ -15775,15 +15743,15 @@
         <v>23</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>24</v>
@@ -15792,7 +15760,7 @@
         <v>250</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>24</v>
@@ -15807,15 +15775,15 @@
         <v>23</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>24</v>
@@ -15824,7 +15792,7 @@
         <v>500</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>24</v>
@@ -15839,21 +15807,21 @@
         <v>23</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>24</v>
@@ -15868,21 +15836,21 @@
         <v>23</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>24</v>
@@ -15897,21 +15865,21 @@
         <v>23</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>24</v>
@@ -15926,15 +15894,15 @@
         <v>23</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>42</v>
@@ -15943,7 +15911,7 @@
         <v>50</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>24</v>
@@ -15958,21 +15926,21 @@
         <v>23</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>24</v>
@@ -15987,21 +15955,21 @@
         <v>23</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>24</v>
@@ -16016,21 +15984,21 @@
         <v>23</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>24</v>
@@ -16045,21 +16013,21 @@
         <v>23</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>42</v>
@@ -16074,21 +16042,21 @@
         <v>23</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>24</v>
@@ -16103,21 +16071,21 @@
         <v>23</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>42</v>
@@ -16132,21 +16100,21 @@
         <v>23</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>24</v>
@@ -16161,21 +16129,21 @@
         <v>23</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>24</v>
@@ -16190,15 +16158,15 @@
         <v>23</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>24</v>
@@ -16207,7 +16175,7 @@
         <v>750</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>24</v>
@@ -16222,15 +16190,15 @@
         <v>23</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>24</v>
@@ -16239,7 +16207,7 @@
         <v>3000</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>24</v>
@@ -16254,15 +16222,15 @@
         <v>23</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>24</v>
@@ -16271,7 +16239,7 @@
         <v>12000</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>24</v>
@@ -16286,15 +16254,15 @@
         <v>23</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>42</v>
@@ -16303,7 +16271,7 @@
         <v>5000</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>24</v>
@@ -16318,21 +16286,21 @@
         <v>23</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>24</v>
@@ -16341,27 +16309,27 @@
         <v>24</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>24</v>
@@ -16370,13 +16338,13 @@
         <v>24</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -16438,13 +16406,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>1</v>
@@ -16458,22 +16426,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>16</v>
@@ -16481,22 +16449,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>16</v>
@@ -16504,22 +16472,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>16</v>
@@ -16527,22 +16495,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>16</v>
@@ -16550,22 +16518,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>16</v>
@@ -16573,19 +16541,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>33</v>
@@ -16596,19 +16564,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>33</v>
@@ -16619,19 +16587,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>33</v>
@@ -16642,19 +16610,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>33</v>
@@ -16665,19 +16633,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>33</v>
@@ -16688,19 +16656,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>33</v>
@@ -16711,19 +16679,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>33</v>
@@ -16734,10 +16702,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>68</v>
@@ -16746,7 +16714,7 @@
         <v>24</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>14</v>
@@ -16757,10 +16725,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>68</v>
@@ -16769,7 +16737,7 @@
         <v>24</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>14</v>
@@ -16780,10 +16748,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>68</v>
@@ -16792,7 +16760,7 @@
         <v>42</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>33</v>
@@ -16803,10 +16771,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>68</v>
@@ -16815,7 +16783,7 @@
         <v>24</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>33</v>
@@ -16826,10 +16794,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>68</v>
@@ -16838,7 +16806,7 @@
         <v>24</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>33</v>
@@ -16849,10 +16817,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>68</v>
@@ -16861,7 +16829,7 @@
         <v>24</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>33</v>
@@ -16872,10 +16840,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>68</v>
@@ -16884,7 +16852,7 @@
         <v>24</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>33</v>
@@ -16965,13 +16933,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>205</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
@@ -16979,10 +16947,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
@@ -16993,10 +16961,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
@@ -17139,10 +17107,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -17153,10 +17121,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>

--- a/ContentList.xlsx
+++ b/ContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\D&amp;D\Homebrew\DnD-Homebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C758A94-32CF-4659-BA96-DF8BBBCA51B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07366CC-D45D-4B5A-9FA7-DC01324D782D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creatures" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3546" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3539" uniqueCount="638">
   <si>
     <t>Name</t>
   </si>
@@ -473,6 +473,9 @@
     <t>Warlock</t>
   </si>
   <si>
+    <t>Supporting Content Needs Clean Up</t>
+  </si>
+  <si>
     <t>Apothecary</t>
   </si>
   <si>
@@ -983,6 +986,9 @@
     <t>Circle of Plagues</t>
   </si>
   <si>
+    <t>Main content just needs review by Erin</t>
+  </si>
+  <si>
     <t>Ratfolk</t>
   </si>
   <si>
@@ -1986,9 +1992,6 @@
   </si>
   <si>
     <t>Cold Iron Tack</t>
-  </si>
-  <si>
-    <t>Mishipeshu art needs to be replaced</t>
   </si>
 </sst>
 </file>
@@ -3775,11 +3778,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G127"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4100,7 +4103,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>45</v>
@@ -4670,7 +4673,7 @@
         <v>99</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>16</v>
@@ -4690,7 +4693,7 @@
         <v>99</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>16</v>
@@ -4710,7 +4713,7 @@
         <v>99</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>16</v>
@@ -4738,19 +4741,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B46" s="7">
         <v>2</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>114</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>16</v>
@@ -4758,19 +4761,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B47" s="7">
         <v>6</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>114</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>16</v>
@@ -4778,19 +4781,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B48" s="7">
         <v>10</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>114</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>16</v>
@@ -4798,19 +4801,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B49" s="7">
         <v>15</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>114</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>16</v>
@@ -4818,19 +4821,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B50" s="7">
         <v>2</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>117</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>16</v>
@@ -4838,19 +4841,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B51" s="7">
         <v>7</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>117</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>16</v>
@@ -4858,19 +4861,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B52" s="7">
         <v>3</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>120</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>16</v>
@@ -4878,19 +4881,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B53" s="7">
         <v>7</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>120</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>16</v>
@@ -4898,19 +4901,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B54" s="7">
         <v>2</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>127</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>16</v>
@@ -4918,19 +4921,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B55" s="7">
         <v>8</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>127</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>16</v>
@@ -4938,19 +4941,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B56" s="7">
         <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>123</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>16</v>
@@ -4958,19 +4961,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B57" s="7">
         <v>5</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>123</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>16</v>
@@ -4978,7 +4981,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B58" s="7">
         <v>0.125</v>
@@ -4987,10 +4990,10 @@
         <v>96</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>16</v>
@@ -4998,19 +5001,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B59" s="7">
         <v>2</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>16</v>
@@ -5018,7 +5021,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B60" s="7">
         <v>0.25</v>
@@ -5027,10 +5030,10 @@
         <v>96</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>16</v>
@@ -5038,7 +5041,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B61" s="7">
         <v>3</v>
@@ -5047,10 +5050,10 @@
         <v>98</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>16</v>
@@ -5058,7 +5061,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B62" s="7">
         <v>0.5</v>
@@ -5067,10 +5070,10 @@
         <v>96</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>16</v>
@@ -5078,7 +5081,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B63" s="7">
         <v>0</v>
@@ -5087,10 +5090,10 @@
         <v>96</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>290</v>
+        <v>55</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>16</v>
@@ -5098,7 +5101,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B64" s="7">
         <v>1</v>
@@ -5107,10 +5110,10 @@
         <v>98</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>290</v>
+        <v>55</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>16</v>
@@ -5118,7 +5121,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B65" s="7">
         <v>5</v>
@@ -5127,10 +5130,10 @@
         <v>98</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>290</v>
+        <v>55</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>16</v>
@@ -5138,7 +5141,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B66" s="7">
         <v>5</v>
@@ -5147,10 +5150,10 @@
         <v>98</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>16</v>
@@ -5158,7 +5161,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B67" s="7">
         <v>2</v>
@@ -5167,10 +5170,10 @@
         <v>98</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>16</v>
@@ -5178,7 +5181,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B68" s="7">
         <v>8</v>
@@ -5187,10 +5190,10 @@
         <v>98</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>16</v>
@@ -5198,7 +5201,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B69" s="7">
         <v>11</v>
@@ -5207,10 +5210,10 @@
         <v>98</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>16</v>
@@ -5218,7 +5221,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B70" s="7">
         <v>0</v>
@@ -5227,10 +5230,10 @@
         <v>96</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>16</v>
@@ -5238,7 +5241,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B71" s="7">
         <v>1</v>
@@ -5247,10 +5250,10 @@
         <v>96</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>16</v>
@@ -5258,19 +5261,19 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B72" s="7">
         <v>0.25</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>16</v>
@@ -5278,19 +5281,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B73" s="7">
         <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>16</v>
@@ -5298,19 +5301,19 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B74" s="7">
         <v>5</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>16</v>
@@ -5318,19 +5321,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B75" s="7">
         <v>8</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>16</v>
@@ -5338,7 +5341,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B76" s="7">
         <v>8</v>
@@ -5347,10 +5350,10 @@
         <v>97</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>16</v>
@@ -5358,7 +5361,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B77" s="7">
         <v>5</v>
@@ -5367,10 +5370,10 @@
         <v>97</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>16</v>
@@ -5378,7 +5381,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B78" s="7">
         <v>10</v>
@@ -5387,10 +5390,10 @@
         <v>97</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>16</v>
@@ -5398,7 +5401,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B79" s="7">
         <v>14</v>
@@ -5407,10 +5410,10 @@
         <v>97</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>16</v>
@@ -5418,7 +5421,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B80" s="7">
         <v>8</v>
@@ -5430,7 +5433,7 @@
         <v>99</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>16</v>
@@ -5438,7 +5441,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B81" s="7">
         <v>1</v>
@@ -5450,7 +5453,7 @@
         <v>99</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>16</v>
@@ -5458,19 +5461,19 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B82" s="7">
         <v>0.125</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>16</v>
@@ -5478,19 +5481,19 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B83" s="7">
         <v>4</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>16</v>
@@ -5498,19 +5501,19 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B84" s="7">
         <v>3</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>16</v>
@@ -5518,19 +5521,19 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B85" s="7">
         <v>8</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>16</v>
@@ -5538,7 +5541,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B86" s="7">
         <v>3</v>
@@ -5547,10 +5550,10 @@
         <v>96</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>290</v>
+        <v>55</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>16</v>
@@ -5558,7 +5561,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B87" s="7">
         <v>4</v>
@@ -5567,10 +5570,10 @@
         <v>96</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>290</v>
+        <v>55</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>16</v>
@@ -5578,19 +5581,19 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B88" s="7">
         <v>4</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>290</v>
+        <v>55</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>16</v>
@@ -5598,7 +5601,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B89" s="7">
         <v>0</v>
@@ -5607,7 +5610,7 @@
         <v>96</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>14</v>
@@ -5618,7 +5621,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B90" s="7">
         <v>0.125</v>
@@ -5627,7 +5630,7 @@
         <v>96</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>14</v>
@@ -5638,7 +5641,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B91" s="7">
         <v>0.25</v>
@@ -5647,7 +5650,7 @@
         <v>96</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>14</v>
@@ -5658,16 +5661,16 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B92" s="7">
         <v>0.25</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>14</v>
@@ -5678,16 +5681,16 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B93" s="7">
         <v>3</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>14</v>
@@ -5698,16 +5701,16 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B94" s="7">
         <v>1</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>14</v>
@@ -5718,16 +5721,16 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B95" s="7">
         <v>10</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>14</v>
@@ -5738,16 +5741,16 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B96" s="7">
         <v>16</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>14</v>
@@ -5761,16 +5764,16 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B97" s="7">
         <v>3</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>14</v>
@@ -5781,16 +5784,16 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B98" s="7">
         <v>1</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>14</v>
@@ -5801,16 +5804,16 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B99" s="7">
         <v>7</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>14</v>
@@ -5821,16 +5824,16 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B100" s="7">
         <v>0.5</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>14</v>
@@ -5841,7 +5844,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B101" s="7">
         <v>3</v>
@@ -5850,7 +5853,7 @@
         <v>96</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>14</v>
@@ -5861,7 +5864,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B102" s="7">
         <v>5</v>
@@ -5870,7 +5873,7 @@
         <v>96</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>14</v>
@@ -5881,7 +5884,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B103" s="7">
         <v>3</v>
@@ -5890,7 +5893,7 @@
         <v>96</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>14</v>
@@ -5901,7 +5904,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B104" s="7">
         <v>2</v>
@@ -5910,7 +5913,7 @@
         <v>96</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>14</v>
@@ -5921,7 +5924,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B105" s="7">
         <v>1</v>
@@ -5930,7 +5933,7 @@
         <v>96</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>14</v>
@@ -5941,7 +5944,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B106" s="7">
         <v>3</v>
@@ -5950,7 +5953,7 @@
         <v>96</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>14</v>
@@ -5961,7 +5964,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B107" s="7">
         <v>4</v>
@@ -5970,7 +5973,7 @@
         <v>96</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>14</v>
@@ -5981,16 +5984,16 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B108" s="7">
         <v>3</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>14</v>
@@ -6001,16 +6004,16 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B109" s="7">
         <v>2</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>14</v>
@@ -6021,7 +6024,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B110" s="7">
         <v>0.125</v>
@@ -6030,7 +6033,7 @@
         <v>96</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>14</v>
@@ -6041,7 +6044,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B111" s="7">
         <v>1</v>
@@ -6050,7 +6053,7 @@
         <v>96</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>14</v>
@@ -6061,7 +6064,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B112" s="7">
         <v>3</v>
@@ -6070,7 +6073,7 @@
         <v>96</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>14</v>
@@ -6081,7 +6084,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B113" s="7">
         <v>0</v>
@@ -6090,7 +6093,7 @@
         <v>96</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>14</v>
@@ -6101,7 +6104,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B114" s="7">
         <v>3</v>
@@ -6110,7 +6113,7 @@
         <v>96</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>14</v>
@@ -6121,7 +6124,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B115" s="7">
         <v>0.5</v>
@@ -6130,7 +6133,7 @@
         <v>96</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>14</v>
@@ -6141,7 +6144,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B116" s="7">
         <v>4</v>
@@ -6150,7 +6153,7 @@
         <v>96</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>14</v>
@@ -6161,16 +6164,16 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B117" s="7">
         <v>2</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>14</v>
@@ -6181,7 +6184,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B118" s="7">
         <v>7</v>
@@ -6190,7 +6193,7 @@
         <v>96</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>14</v>
@@ -6201,7 +6204,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B119" s="7">
         <v>1</v>
@@ -6210,7 +6213,7 @@
         <v>96</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>14</v>
@@ -6221,7 +6224,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B120" s="7">
         <v>0.25</v>
@@ -6230,7 +6233,7 @@
         <v>96</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>14</v>
@@ -6241,7 +6244,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B121" s="7">
         <v>6</v>
@@ -6250,7 +6253,7 @@
         <v>96</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>14</v>
@@ -6261,7 +6264,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B122" s="7">
         <v>0.5</v>
@@ -6270,7 +6273,7 @@
         <v>96</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>14</v>
@@ -6281,7 +6284,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B123" s="7">
         <v>5</v>
@@ -6290,7 +6293,7 @@
         <v>96</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>14</v>
@@ -6301,7 +6304,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B124" s="7">
         <v>1</v>
@@ -6310,7 +6313,7 @@
         <v>96</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>14</v>
@@ -6321,7 +6324,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B125" s="7">
         <v>3</v>
@@ -6330,7 +6333,7 @@
         <v>96</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>14</v>
@@ -6341,16 +6344,16 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B126" s="7">
         <v>7</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>14</v>
@@ -6358,14 +6361,11 @@
       <c r="F126" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D127" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="E70:E1048576 E1:E65">
+  <conditionalFormatting sqref="E1:E65 E70:E1048576">
     <cfRule type="containsText" dxfId="161" priority="25" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
     </cfRule>
@@ -6586,10 +6586,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>55</v>
@@ -6600,10 +6600,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>55</v>
@@ -6614,13 +6614,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>23</v>
@@ -6679,11 +6679,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8015A8-CD76-4317-A710-EE332EB4DCD2}">
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7171,7 +7171,7 @@
         <v>99</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>42</v>
@@ -7205,7 +7205,7 @@
         <v>106</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>42</v>
@@ -7222,7 +7222,7 @@
         <v>108</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>42</v>
@@ -7239,7 +7239,7 @@
         <v>109</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>42</v>
@@ -7256,10 +7256,10 @@
         <v>111</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>290</v>
+        <v>131</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>16</v>
@@ -7268,7 +7268,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>636</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -7276,7 +7276,7 @@
         <v>113</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>42</v>
@@ -7293,7 +7293,7 @@
         <v>114</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>42</v>
@@ -7310,7 +7310,7 @@
         <v>115</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>42</v>
@@ -7327,7 +7327,7 @@
         <v>116</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>42</v>
@@ -7344,7 +7344,7 @@
         <v>117</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>42</v>
@@ -7361,7 +7361,7 @@
         <v>118</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>42</v>
@@ -7378,7 +7378,7 @@
         <v>119</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>42</v>
@@ -7395,7 +7395,7 @@
         <v>120</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>42</v>
@@ -7412,7 +7412,7 @@
         <v>121</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>42</v>
@@ -7429,7 +7429,7 @@
         <v>126</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>42</v>
@@ -7446,7 +7446,7 @@
         <v>127</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>42</v>
@@ -7463,7 +7463,7 @@
         <v>128</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>42</v>
@@ -7480,7 +7480,7 @@
         <v>122</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>42</v>
@@ -7497,7 +7497,7 @@
         <v>123</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>42</v>
@@ -7517,7 +7517,7 @@
         <v>124</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>42</v>
@@ -7532,12 +7532,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>42</v>
@@ -7549,12 +7549,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>290</v>
+        <v>55</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>24</v>
@@ -7566,12 +7566,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>42</v>
@@ -7583,12 +7583,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>42</v>
@@ -7600,12 +7600,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>42</v>
@@ -7617,12 +7617,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>290</v>
+        <v>55</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>24</v>
@@ -7634,12 +7634,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>24</v>
@@ -7651,9 +7651,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>55</v>
@@ -7667,19 +7667,16 @@
       <c r="E56" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>16</v>
@@ -7688,12 +7685,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>42</v>
@@ -7705,9 +7702,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>14</v>
@@ -7722,12 +7719,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>42</v>
@@ -7739,12 +7736,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>42</v>
@@ -7756,12 +7753,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>42</v>
@@ -7773,12 +7770,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>42</v>
@@ -7790,12 +7787,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>42</v>
@@ -7809,10 +7806,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>290</v>
+        <v>55</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>42</v>
@@ -7826,7 +7823,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>14</v>
@@ -7843,7 +7840,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>14</v>
@@ -7860,7 +7857,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>14</v>
@@ -7877,7 +7874,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>14</v>
@@ -7894,7 +7891,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>14</v>
@@ -7909,12 +7906,12 @@
         <v>1</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>14</v>
@@ -7929,12 +7926,12 @@
         <v>32</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>14</v>
@@ -7951,7 +7948,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>14</v>
@@ -7966,12 +7963,12 @@
         <v>1</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>14</v>
@@ -7986,12 +7983,12 @@
         <v>32</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>14</v>
@@ -8006,12 +8003,12 @@
         <v>32</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>14</v>
@@ -8028,7 +8025,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>14</v>
@@ -8045,7 +8042,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>14</v>
@@ -8060,12 +8057,12 @@
         <v>32</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>14</v>
@@ -8080,12 +8077,12 @@
         <v>32</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>14</v>
@@ -8100,9 +8097,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>14</v>
@@ -8115,32 +8112,12 @@
       </c>
       <c r="E81" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>340</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{6F8015A8-CD76-4317-A710-EE332EB4DCD2}"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B24 B40:B55 B58:B1048576">
+  <conditionalFormatting sqref="B1:B24 B33 B40:B49 B58:B64 B66:B1048576 B55 B51:B53">
     <cfRule type="containsText" dxfId="59" priority="67" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B1)))</formula>
     </cfRule>
@@ -8160,7 +8137,7 @@
       <formula>NOT(ISERROR(SEARCH("Complete",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:B33">
+  <conditionalFormatting sqref="B25:B32">
     <cfRule type="containsText" dxfId="53" priority="61" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B25)))</formula>
     </cfRule>
@@ -8240,6 +8217,46 @@
       <formula>NOT(ISERROR(SEARCH("Complete",B36)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B50">
+    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="Playtest Ready">
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",B50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",B50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",B50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Needs Clean Up">
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",B50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",B50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
+    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="Playtest Ready">
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",B54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",B54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",B54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Needs Clean Up">
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",B54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",B54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B57">
     <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",B57)))</formula>
@@ -8258,6 +8275,26 @@
     </cfRule>
     <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",B57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Playtest Ready">
+      <formula>NOT(ISERROR(SEARCH("Playtest Ready",B65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",B65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",B65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Needs Clean Up">
+      <formula>NOT(ISERROR(SEARCH("Needs Clean Up",B65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH("Needs Review",B65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",B65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56">
@@ -8361,10 +8398,9 @@
     <hyperlink ref="A80" r:id="rId78" xr:uid="{6E53C99C-B755-4860-A6DC-A38001C6B94F}"/>
     <hyperlink ref="A27" r:id="rId79" xr:uid="{16E9931D-7C2E-4EF8-BC63-A0EEEE0978EC}"/>
     <hyperlink ref="A81" r:id="rId80" xr:uid="{D7FFA073-CBFE-4427-B861-B23FB6A1C0F6}"/>
-    <hyperlink ref="A82" r:id="rId81" xr:uid="{76DFA4CD-CC89-4287-983F-04A478B4C2D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId82"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId81"/>
 </worksheet>
 </file>
 
@@ -8373,8 +8409,8 @@
   <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8398,7 +8434,7 @@
         <v>22</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>1</v>
@@ -8410,7 +8446,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>19</v>
@@ -8418,16 +8454,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>387</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>188</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>388</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>33</v>
@@ -8436,50 +8472,50 @@
         <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>42</v>
+        <v>391</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>390</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>188</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>390</v>
+        <v>66</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>392</v>
+        <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>188</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>393</v>
+      <c r="D4" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>33</v>
@@ -8488,50 +8524,50 @@
         <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>42</v>
+        <v>391</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>290</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>42</v>
+        <v>391</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>518</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>520</v>
+      <c r="D6" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>33</v>
@@ -8540,24 +8576,24 @@
         <v>23</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>42</v>
+        <v>391</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>519</v>
+        <v>71</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>521</v>
+      <c r="D7" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>33</v>
@@ -8566,53 +8602,53 @@
         <v>23</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>42</v>
+        <v>391</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>523</v>
+        <v>106</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>524</v>
+        <v>24</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>291</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>16</v>
@@ -8626,7 +8662,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>110</v>
@@ -8635,10 +8671,10 @@
         <v>24</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>16</v>
@@ -8647,24 +8683,24 @@
         <v>42</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>126</v>
+        <v>477</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>16</v>
@@ -8678,7 +8714,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>507</v>
+        <v>116</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>110</v>
@@ -8686,51 +8722,51 @@
       <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>508</v>
+      <c r="D12" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>33</v>
+        <v>291</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>509</v>
+        <v>119</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>510</v>
+      <c r="D13" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>33</v>
+        <v>291</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>511</v>
+        <v>126</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>110</v>
@@ -8738,112 +8774,112 @@
       <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>512</v>
+      <c r="D14" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>33</v>
+        <v>291</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>513</v>
+        <v>122</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>516</v>
+      <c r="D15" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>514</v>
+        <v>113</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>515</v>
+      <c r="D16" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>112</v>
+        <v>291</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>65</v>
+        <v>301</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>65</v>
+      <c r="D17" s="5" t="s">
+        <v>301</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>389</v>
+        <v>42</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>70</v>
+        <v>389</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>65</v>
+      <c r="D18" s="5" t="s">
+        <v>390</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>33</v>
@@ -8852,85 +8888,85 @@
         <v>23</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>389</v>
+        <v>42</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>71</v>
+        <v>392</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>65</v>
+      <c r="D19" s="5" t="s">
+        <v>392</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>33</v>
+        <v>393</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>389</v>
+        <v>24</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>108</v>
+        <v>394</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>108</v>
+      <c r="D20" s="5" t="s">
+        <v>395</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>290</v>
+        <v>33</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>517</v>
+        <v>396</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>517</v>
+        <v>397</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>68</v>
@@ -8938,16 +8974,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>398</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>21</v>
+        <v>191</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>20</v>
+        <v>399</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>33</v>
@@ -8956,79 +8992,79 @@
         <v>23</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>389</v>
+        <v>42</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>111</v>
+        <v>400</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>21</v>
+        <v>191</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>475</v>
+      <c r="D23" s="5" t="s">
+        <v>400</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>290</v>
+        <v>393</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>122</v>
+        <v>402</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>122</v>
+        <v>42</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>290</v>
+        <v>33</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>300</v>
+        <v>403</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>300</v>
+        <v>403</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>23</v>
@@ -9042,42 +9078,42 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>473</v>
+        <v>404</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>474</v>
+        <v>404</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>476</v>
+        <v>405</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>477</v>
+        <v>405</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>33</v>
@@ -9089,21 +9125,21 @@
         <v>42</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>478</v>
+        <v>406</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>479</v>
+        <v>406</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>33</v>
@@ -9115,56 +9151,56 @@
         <v>42</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>480</v>
+        <v>407</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>481</v>
+        <v>407</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>482</v>
+        <v>417</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>68</v>
@@ -9172,51 +9208,51 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>484</v>
+        <v>416</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>485</v>
+        <v>416</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>486</v>
+        <v>428</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>487</v>
+        <v>428</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>68</v>
@@ -9224,19 +9260,19 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>488</v>
+        <v>433</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>489</v>
+        <v>433</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>23</v>
@@ -9245,128 +9281,128 @@
         <v>24</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>391</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>490</v>
+        <v>434</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>491</v>
+        <v>435</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>391</v>
+        <v>33</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>391</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>492</v>
+        <v>436</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>493</v>
+        <v>437</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>391</v>
+        <v>33</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>391</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>494</v>
+        <v>438</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>495</v>
+        <v>439</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>391</v>
+        <v>33</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>391</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>496</v>
+        <v>440</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>497</v>
+        <v>440</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>391</v>
+        <v>33</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>391</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>499</v>
+        <v>442</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>391</v>
+        <v>112</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>23</v>
@@ -9375,30 +9411,30 @@
         <v>24</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>391</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>501</v>
+        <v>129</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>502</v>
+        <v>445</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>33</v>
+        <v>393</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>389</v>
+        <v>24</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>68</v>
@@ -9406,25 +9442,25 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>503</v>
+        <v>446</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>501</v>
+        <v>129</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>504</v>
+        <v>447</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>33</v>
+        <v>393</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>68</v>
@@ -9432,25 +9468,25 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>505</v>
+        <v>448</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>501</v>
+        <v>449</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>506</v>
+        <v>450</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>68</v>
@@ -9458,16 +9494,16 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>33</v>
@@ -9484,51 +9520,51 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>119</v>
+        <v>453</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>129</v>
+        <v>449</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>119</v>
+        <v>42</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>454</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>290</v>
+        <v>33</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>129</v>
+        <v>449</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>68</v>
@@ -9536,25 +9572,25 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>434</v>
+        <v>457</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>129</v>
+        <v>449</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>435</v>
+        <v>458</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>33</v>
+        <v>393</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>68</v>
@@ -9562,25 +9598,25 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>129</v>
+        <v>449</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>68</v>
@@ -9588,16 +9624,16 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>438</v>
+        <v>461</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>129</v>
+        <v>462</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>438</v>
+        <v>463</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>33</v>
@@ -9614,51 +9650,51 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>439</v>
+        <v>464</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>442</v>
+        <v>466</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>391</v>
+        <v>33</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>68</v>
@@ -9666,25 +9702,25 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>391</v>
+        <v>33</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>68</v>
@@ -9692,7 +9728,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>40</v>
+        <v>470</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>72</v>
@@ -9701,24 +9737,24 @@
         <v>24</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>66</v>
+        <v>471</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>33</v>
+        <v>393</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>389</v>
+        <v>24</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>69</v>
+        <v>472</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>72</v>
@@ -9726,17 +9762,17 @@
       <c r="C52" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>69</v>
+      <c r="D52" s="5" t="s">
+        <v>473</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>389</v>
+        <v>24</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>68</v>
@@ -9744,7 +9780,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>72</v>
@@ -9753,33 +9789,33 @@
         <v>24</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>33</v>
+        <v>393</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>33</v>
@@ -9791,21 +9827,21 @@
         <v>42</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>33</v>
@@ -9817,99 +9853,99 @@
         <v>42</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>391</v>
+        <v>33</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>391</v>
+        <v>33</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>446</v>
+        <v>486</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>447</v>
+        <v>21</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>448</v>
+        <v>487</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>33</v>
@@ -9921,21 +9957,21 @@
         <v>42</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>449</v>
+        <v>488</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>447</v>
+        <v>21</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>33</v>
@@ -9952,45 +9988,45 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>447</v>
+        <v>21</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>452</v>
+        <v>491</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>33</v>
+        <v>393</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>68</v>
+        <v>393</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>447</v>
+        <v>21</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>454</v>
+        <v>493</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>112</v>
+        <v>393</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>23</v>
@@ -9999,24 +10035,24 @@
         <v>24</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>68</v>
+        <v>393</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>455</v>
+        <v>494</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>447</v>
+        <v>21</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>456</v>
+        <v>495</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>23</v>
@@ -10025,24 +10061,24 @@
         <v>24</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>68</v>
+        <v>393</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>457</v>
+        <v>496</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>447</v>
+        <v>21</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>458</v>
+        <v>497</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>112</v>
+        <v>393</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>23</v>
@@ -10051,134 +10087,134 @@
         <v>24</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>68</v>
+        <v>393</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>400</v>
+        <v>498</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>189</v>
+        <v>21</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>400</v>
+        <v>499</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>33</v>
+        <v>393</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>68</v>
+        <v>393</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>401</v>
+        <v>500</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>189</v>
+        <v>21</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>33</v>
+        <v>393</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>68</v>
+        <v>393</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>402</v>
+        <v>502</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>189</v>
+        <v>503</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>402</v>
+        <v>504</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>24</v>
+        <v>391</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>113</v>
+        <v>505</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>130</v>
+        <v>503</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>113</v>
+      <c r="D68" s="5" t="s">
+        <v>506</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>290</v>
+        <v>33</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>403</v>
+        <v>507</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>130</v>
+        <v>503</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>403</v>
+        <v>508</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>68</v>
@@ -10186,16 +10222,16 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>404</v>
+        <v>509</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>404</v>
+        <v>510</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>33</v>
@@ -10212,25 +10248,25 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>405</v>
+        <v>511</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>405</v>
+        <v>512</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>68</v>
@@ -10238,25 +10274,25 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>415</v>
+        <v>513</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>415</v>
+        <v>514</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>68</v>
@@ -10264,16 +10300,16 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>414</v>
+        <v>515</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>414</v>
+        <v>518</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>112</v>
@@ -10290,16 +10326,16 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>426</v>
+        <v>516</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>426</v>
+        <v>517</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>112</v>
@@ -10316,19 +10352,19 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>431</v>
+        <v>519</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>431</v>
+        <v>519</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>391</v>
+        <v>112</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>23</v>
@@ -10337,30 +10373,30 @@
         <v>24</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>610</v>
+        <v>520</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>610</v>
+        <v>522</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>391</v>
+        <v>33</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>25</v>
@@ -10368,16 +10404,16 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>394</v>
+        <v>521</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>190</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>395</v>
+        <v>523</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>33</v>
@@ -10389,21 +10425,21 @@
         <v>42</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>396</v>
+        <v>525</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>190</v>
+        <v>107</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>397</v>
+        <v>526</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>33</v>
@@ -10420,19 +10456,19 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>398</v>
+        <v>612</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>398</v>
+        <v>612</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>23</v>
@@ -10445,11 +10481,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{45E52FED-6497-4FDC-A0DA-7ECEAA0549B9}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H79">
-      <sortCondition ref="B1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:H1" xr:uid="{45E52FED-6497-4FDC-A0DA-7ECEAA0549B9}"/>
   <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="containsText" dxfId="137" priority="1" operator="containsText" text="Playtest Ready">
       <formula>NOT(ISERROR(SEARCH("Playtest Ready",E1)))</formula>
@@ -10471,84 +10503,84 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D22" r:id="rId1" xr:uid="{9046E2C3-2DD6-40E2-8C95-41BFEE30F58A}"/>
-    <hyperlink ref="D51" r:id="rId2" display="Frost Warden" xr:uid="{989B61CE-0668-402B-B3C6-E72E41726DEA}"/>
-    <hyperlink ref="D17" r:id="rId3" xr:uid="{3D509BCC-6372-456B-B146-75B5427F68AC}"/>
-    <hyperlink ref="D52" r:id="rId4" xr:uid="{3DA93037-63E6-4E98-98BF-A2FAFEE9D05E}"/>
-    <hyperlink ref="D18" r:id="rId5" xr:uid="{B46EDF1A-23D2-4E30-A0C7-46FE46C11ADD}"/>
-    <hyperlink ref="D19" r:id="rId6" xr:uid="{F219FA32-AB69-4242-9BD1-F90CF23145C6}"/>
-    <hyperlink ref="D5" r:id="rId7" xr:uid="{85515404-6730-4D7E-800C-4DF00CE3120B}"/>
-    <hyperlink ref="D20" r:id="rId8" xr:uid="{32D3AEAD-DC96-4E4A-A814-B820CCCBC9D8}"/>
-    <hyperlink ref="D9" r:id="rId9" xr:uid="{71F8E491-3602-4733-A77C-1F129B96DD15}"/>
-    <hyperlink ref="D23" r:id="rId10" display="Circle of Rivers" xr:uid="{7B0C47BA-6BF0-43D4-97A3-DEC3DD41DE80}"/>
-    <hyperlink ref="D10" r:id="rId11" xr:uid="{6B42B538-626A-4AED-88BB-CE788905EFAA}"/>
-    <hyperlink ref="D43" r:id="rId12" xr:uid="{A5D00F7F-CAF6-4692-99AF-364156BB3E99}"/>
-    <hyperlink ref="D11" r:id="rId13" xr:uid="{DA8C1FF8-D707-497A-8BB3-1402B5C00BBF}"/>
-    <hyperlink ref="D24" r:id="rId14" xr:uid="{C083E929-5CF3-4052-85EB-11B89BC99501}"/>
-    <hyperlink ref="D68" r:id="rId15" xr:uid="{386B58F7-C010-4574-A086-788FF9F2A52B}"/>
-    <hyperlink ref="D25" r:id="rId16" xr:uid="{FF3F90C9-4B21-4B54-B248-CCFE57CCBE90}"/>
-    <hyperlink ref="D2" r:id="rId17" xr:uid="{0CB93F14-8628-4C4B-88B5-A4397F058954}"/>
-    <hyperlink ref="D3" r:id="rId18" xr:uid="{531EC609-15FB-4D4C-84FE-745879E0F279}"/>
-    <hyperlink ref="D4" r:id="rId19" xr:uid="{D3A6E895-5C5D-423C-B78A-99D701E041F5}"/>
-    <hyperlink ref="D77" r:id="rId20" xr:uid="{244BF62E-2B5A-4A0F-9E71-9CC09D2C36AE}"/>
-    <hyperlink ref="D78" r:id="rId21" xr:uid="{7CFB0DCA-0B5D-4452-87E6-9266AD7FAE3A}"/>
-    <hyperlink ref="D79" r:id="rId22" xr:uid="{10719E79-BBAF-459D-80A2-307F42D0BEC4}"/>
-    <hyperlink ref="D65" r:id="rId23" xr:uid="{3324D7A2-1F0E-4EC9-A7B4-30F6FCF298BC}"/>
-    <hyperlink ref="D66" r:id="rId24" xr:uid="{0E494D1D-CA37-4632-8410-3CB7109CB02B}"/>
-    <hyperlink ref="D67" r:id="rId25" xr:uid="{4096314F-4F7A-4828-9FD0-64FE6ACC14AF}"/>
-    <hyperlink ref="D69" r:id="rId26" xr:uid="{E267417C-4F71-48A2-AC98-E0A622110BEF}"/>
-    <hyperlink ref="D70" r:id="rId27" xr:uid="{2F88D6F2-AB59-4C29-930A-BA242885AF6E}"/>
-    <hyperlink ref="D71" r:id="rId28" xr:uid="{9B9FAD98-F04B-431C-B0BA-73028B0F0740}"/>
-    <hyperlink ref="D72" r:id="rId29" display="Otherworldly Patron - Hex Weaver" xr:uid="{DFA26FF4-C4CB-4830-A12B-07C0630C5BD7}"/>
-    <hyperlink ref="D73" r:id="rId30" xr:uid="{09D67D54-1785-44E0-A1D1-20E036040277}"/>
-    <hyperlink ref="D74" r:id="rId31" xr:uid="{C07C0092-C616-4587-8C56-031830BE7E30}"/>
-    <hyperlink ref="D75" r:id="rId32" xr:uid="{CFA861FF-0918-4328-87C3-548031B2BEA5}"/>
-    <hyperlink ref="D44" r:id="rId33" xr:uid="{6D81E510-3F33-4752-AC2E-B0386D0C71BD}"/>
-    <hyperlink ref="D45" r:id="rId34" xr:uid="{E72EF250-64F3-4B55-81A2-250E35242745}"/>
-    <hyperlink ref="D46" r:id="rId35" xr:uid="{3844E088-9BC6-46E5-B5B1-7FD265EA1C4C}"/>
-    <hyperlink ref="D47" r:id="rId36" xr:uid="{EC78B631-6B66-4CFE-961B-5759A94FEC0B}"/>
-    <hyperlink ref="D48" r:id="rId37" xr:uid="{E13B05BF-4222-4E6C-8DAF-E546E7E6F5D1}"/>
-    <hyperlink ref="D49" r:id="rId38" xr:uid="{575261E1-B1EA-4E4F-A303-3A653CB1664E}"/>
-    <hyperlink ref="D50" r:id="rId39" xr:uid="{654C81E3-695E-4043-A3B5-DDFB28FE327A}"/>
-    <hyperlink ref="D59" r:id="rId40" xr:uid="{743CA3C8-BDDD-4640-9A06-013CD8D7DE5D}"/>
-    <hyperlink ref="D60" r:id="rId41" xr:uid="{004E0091-4B58-4E97-9808-8528E6A90D97}"/>
-    <hyperlink ref="D61" r:id="rId42" xr:uid="{1E7B0BE3-620D-4B84-8007-D3B81F68017A}"/>
-    <hyperlink ref="D62" r:id="rId43" xr:uid="{E94E7725-5A75-4C65-8B99-FA7193B3CA2D}"/>
-    <hyperlink ref="D63" r:id="rId44" xr:uid="{FA4749AA-1AEE-4505-8FA3-362C53BAF6FA}"/>
-    <hyperlink ref="D64" r:id="rId45" xr:uid="{4675FEC8-361E-4651-94D9-76B364FABFA8}"/>
-    <hyperlink ref="D42" r:id="rId46" xr:uid="{B9B34479-7013-49AE-8426-9B5C281C4EC8}"/>
-    <hyperlink ref="D53" r:id="rId47" xr:uid="{D4D755AF-FAD6-442D-9028-EF0C761D861E}"/>
-    <hyperlink ref="D54" r:id="rId48" xr:uid="{428924E0-9577-4049-8F45-32D58BC8AAC3}"/>
-    <hyperlink ref="D55" r:id="rId49" xr:uid="{23AC51FE-93AE-4711-97B7-12291A374B55}"/>
-    <hyperlink ref="D56" r:id="rId50" xr:uid="{EC271F88-91BE-4C89-ADF6-B2897F50F735}"/>
-    <hyperlink ref="D57" r:id="rId51" xr:uid="{E0DF5966-7716-4FBF-9A49-954CE85C7E73}"/>
-    <hyperlink ref="D58" r:id="rId52" xr:uid="{4F8A822B-A4A0-4D4F-81D1-0A78B3C62A48}"/>
-    <hyperlink ref="D26" r:id="rId53" xr:uid="{59BAD026-B7A7-4703-8311-C36C19A90BEA}"/>
-    <hyperlink ref="D27" r:id="rId54" xr:uid="{14C8193A-3284-48DC-8F81-6984AAB15329}"/>
-    <hyperlink ref="D28" r:id="rId55" xr:uid="{9665CE56-C621-4412-8068-F90AA2C27B5B}"/>
-    <hyperlink ref="D29" r:id="rId56" xr:uid="{54F169B4-D55C-4B86-92E4-E828046CCCF2}"/>
-    <hyperlink ref="D30" r:id="rId57" xr:uid="{76037009-D342-4093-850F-F490E4A0E3FE}"/>
-    <hyperlink ref="D31" r:id="rId58" xr:uid="{99C54A45-537B-4547-9194-A4189B5204FD}"/>
-    <hyperlink ref="D32" r:id="rId59" xr:uid="{201D345F-642B-48E9-B95E-B5C5133A44CA}"/>
-    <hyperlink ref="D33" r:id="rId60" xr:uid="{5804ABF2-8343-4DFE-8448-5A21697173B3}"/>
-    <hyperlink ref="D34" r:id="rId61" xr:uid="{70FCF315-4512-4199-8496-2B9FB77CECFC}"/>
-    <hyperlink ref="D35" r:id="rId62" xr:uid="{24626094-37BE-44BF-9F2E-659555193AD8}"/>
-    <hyperlink ref="D36" r:id="rId63" xr:uid="{D2E9401C-D289-4D99-ABD7-4678F0104DAA}"/>
-    <hyperlink ref="D37" r:id="rId64" xr:uid="{8B724D66-1C23-4295-8FB4-BC410B7D6697}"/>
-    <hyperlink ref="D38" r:id="rId65" xr:uid="{852113D3-1641-4F03-9B73-D4ED1C9BEAD0}"/>
-    <hyperlink ref="D39" r:id="rId66" xr:uid="{5A168115-5A0A-49C3-853D-47255028358A}"/>
-    <hyperlink ref="D40" r:id="rId67" xr:uid="{C8966E9D-D761-4375-875F-F6E20629A00B}"/>
-    <hyperlink ref="D41" r:id="rId68" xr:uid="{98D2E4B5-FBB8-431D-8D45-633C093DF6BE}"/>
-    <hyperlink ref="D12" r:id="rId69" xr:uid="{9871195F-395C-478C-83EB-B72E72D9F90F}"/>
-    <hyperlink ref="D13" r:id="rId70" xr:uid="{569ED6F0-6807-44B1-85B3-11B58B0EBBD2}"/>
-    <hyperlink ref="D14" r:id="rId71" xr:uid="{B98B347B-FA09-4B42-99F6-7BD49CED4E92}"/>
-    <hyperlink ref="D15" r:id="rId72" display="Bard College - Collge of Choir" xr:uid="{255ABBE8-2EFB-45F1-97D8-C425715B2A80}"/>
-    <hyperlink ref="D16" r:id="rId73" xr:uid="{F2EED849-52B7-47FB-A0A1-7A17556C13E4}"/>
-    <hyperlink ref="D21" r:id="rId74" xr:uid="{55094E7F-6584-49E8-BC8D-A97B7FAA1538}"/>
-    <hyperlink ref="D6" r:id="rId75" display="Primal Path - Demon Soul" xr:uid="{BBF1122C-B61C-4BB5-A8A9-B2CF65AE04FE}"/>
-    <hyperlink ref="D7" r:id="rId76" xr:uid="{D034A541-2381-4E07-AE03-618E15137103}"/>
-    <hyperlink ref="D8" r:id="rId77" xr:uid="{94CA75DD-6633-4D4F-94B4-CECD351EE741}"/>
-    <hyperlink ref="D76" r:id="rId78" xr:uid="{D68685D9-2681-488B-A41E-4636325C3F73}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{9046E2C3-2DD6-40E2-8C95-41BFEE30F58A}"/>
+    <hyperlink ref="D3" r:id="rId2" display="Frost Warden" xr:uid="{989B61CE-0668-402B-B3C6-E72E41726DEA}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{3D509BCC-6372-456B-B146-75B5427F68AC}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{3DA93037-63E6-4E98-98BF-A2FAFEE9D05E}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{B46EDF1A-23D2-4E30-A0C7-46FE46C11ADD}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{F219FA32-AB69-4242-9BD1-F90CF23145C6}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{85515404-6730-4D7E-800C-4DF00CE3120B}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{32D3AEAD-DC96-4E4A-A814-B820CCCBC9D8}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{71F8E491-3602-4733-A77C-1F129B96DD15}"/>
+    <hyperlink ref="D11" r:id="rId10" display="Circle of Rivers" xr:uid="{7B0C47BA-6BF0-43D4-97A3-DEC3DD41DE80}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{6B42B538-626A-4AED-88BB-CE788905EFAA}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{A5D00F7F-CAF6-4692-99AF-364156BB3E99}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{DA8C1FF8-D707-497A-8BB3-1402B5C00BBF}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{C083E929-5CF3-4052-85EB-11B89BC99501}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{386B58F7-C010-4574-A086-788FF9F2A52B}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{FF3F90C9-4B21-4B54-B248-CCFE57CCBE90}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{0CB93F14-8628-4C4B-88B5-A4397F058954}"/>
+    <hyperlink ref="D19" r:id="rId18" xr:uid="{531EC609-15FB-4D4C-84FE-745879E0F279}"/>
+    <hyperlink ref="D20" r:id="rId19" xr:uid="{D3A6E895-5C5D-423C-B78A-99D701E041F5}"/>
+    <hyperlink ref="D21" r:id="rId20" xr:uid="{244BF62E-2B5A-4A0F-9E71-9CC09D2C36AE}"/>
+    <hyperlink ref="D22" r:id="rId21" xr:uid="{7CFB0DCA-0B5D-4452-87E6-9266AD7FAE3A}"/>
+    <hyperlink ref="D23" r:id="rId22" xr:uid="{10719E79-BBAF-459D-80A2-307F42D0BEC4}"/>
+    <hyperlink ref="D24" r:id="rId23" xr:uid="{3324D7A2-1F0E-4EC9-A7B4-30F6FCF298BC}"/>
+    <hyperlink ref="D25" r:id="rId24" xr:uid="{0E494D1D-CA37-4632-8410-3CB7109CB02B}"/>
+    <hyperlink ref="D26" r:id="rId25" xr:uid="{4096314F-4F7A-4828-9FD0-64FE6ACC14AF}"/>
+    <hyperlink ref="D27" r:id="rId26" xr:uid="{E267417C-4F71-48A2-AC98-E0A622110BEF}"/>
+    <hyperlink ref="D28" r:id="rId27" xr:uid="{2F88D6F2-AB59-4C29-930A-BA242885AF6E}"/>
+    <hyperlink ref="D29" r:id="rId28" xr:uid="{9B9FAD98-F04B-431C-B0BA-73028B0F0740}"/>
+    <hyperlink ref="D30" r:id="rId29" display="Otherworldly Patron - Hex Weaver" xr:uid="{DFA26FF4-C4CB-4830-A12B-07C0630C5BD7}"/>
+    <hyperlink ref="D31" r:id="rId30" xr:uid="{09D67D54-1785-44E0-A1D1-20E036040277}"/>
+    <hyperlink ref="D32" r:id="rId31" xr:uid="{C07C0092-C616-4587-8C56-031830BE7E30}"/>
+    <hyperlink ref="D33" r:id="rId32" xr:uid="{CFA861FF-0918-4328-87C3-548031B2BEA5}"/>
+    <hyperlink ref="D34" r:id="rId33" xr:uid="{6D81E510-3F33-4752-AC2E-B0386D0C71BD}"/>
+    <hyperlink ref="D35" r:id="rId34" xr:uid="{E72EF250-64F3-4B55-81A2-250E35242745}"/>
+    <hyperlink ref="D36" r:id="rId35" xr:uid="{3844E088-9BC6-46E5-B5B1-7FD265EA1C4C}"/>
+    <hyperlink ref="D37" r:id="rId36" xr:uid="{EC78B631-6B66-4CFE-961B-5759A94FEC0B}"/>
+    <hyperlink ref="D38" r:id="rId37" xr:uid="{E13B05BF-4222-4E6C-8DAF-E546E7E6F5D1}"/>
+    <hyperlink ref="D39" r:id="rId38" xr:uid="{575261E1-B1EA-4E4F-A303-3A653CB1664E}"/>
+    <hyperlink ref="D40" r:id="rId39" xr:uid="{654C81E3-695E-4043-A3B5-DDFB28FE327A}"/>
+    <hyperlink ref="D41" r:id="rId40" xr:uid="{743CA3C8-BDDD-4640-9A06-013CD8D7DE5D}"/>
+    <hyperlink ref="D42" r:id="rId41" xr:uid="{004E0091-4B58-4E97-9808-8528E6A90D97}"/>
+    <hyperlink ref="D43" r:id="rId42" xr:uid="{1E7B0BE3-620D-4B84-8007-D3B81F68017A}"/>
+    <hyperlink ref="D44" r:id="rId43" xr:uid="{E94E7725-5A75-4C65-8B99-FA7193B3CA2D}"/>
+    <hyperlink ref="D45" r:id="rId44" xr:uid="{FA4749AA-1AEE-4505-8FA3-362C53BAF6FA}"/>
+    <hyperlink ref="D46" r:id="rId45" xr:uid="{4675FEC8-361E-4651-94D9-76B364FABFA8}"/>
+    <hyperlink ref="D47" r:id="rId46" xr:uid="{B9B34479-7013-49AE-8426-9B5C281C4EC8}"/>
+    <hyperlink ref="D48" r:id="rId47" xr:uid="{D4D755AF-FAD6-442D-9028-EF0C761D861E}"/>
+    <hyperlink ref="D49" r:id="rId48" xr:uid="{428924E0-9577-4049-8F45-32D58BC8AAC3}"/>
+    <hyperlink ref="D50" r:id="rId49" xr:uid="{23AC51FE-93AE-4711-97B7-12291A374B55}"/>
+    <hyperlink ref="D51" r:id="rId50" xr:uid="{EC271F88-91BE-4C89-ADF6-B2897F50F735}"/>
+    <hyperlink ref="D52" r:id="rId51" xr:uid="{E0DF5966-7716-4FBF-9A49-954CE85C7E73}"/>
+    <hyperlink ref="D53" r:id="rId52" xr:uid="{4F8A822B-A4A0-4D4F-81D1-0A78B3C62A48}"/>
+    <hyperlink ref="D54" r:id="rId53" xr:uid="{59BAD026-B7A7-4703-8311-C36C19A90BEA}"/>
+    <hyperlink ref="D55" r:id="rId54" xr:uid="{14C8193A-3284-48DC-8F81-6984AAB15329}"/>
+    <hyperlink ref="D56" r:id="rId55" xr:uid="{9665CE56-C621-4412-8068-F90AA2C27B5B}"/>
+    <hyperlink ref="D57" r:id="rId56" xr:uid="{54F169B4-D55C-4B86-92E4-E828046CCCF2}"/>
+    <hyperlink ref="D58" r:id="rId57" xr:uid="{76037009-D342-4093-850F-F490E4A0E3FE}"/>
+    <hyperlink ref="D59" r:id="rId58" xr:uid="{99C54A45-537B-4547-9194-A4189B5204FD}"/>
+    <hyperlink ref="D60" r:id="rId59" xr:uid="{201D345F-642B-48E9-B95E-B5C5133A44CA}"/>
+    <hyperlink ref="D61" r:id="rId60" xr:uid="{5804ABF2-8343-4DFE-8448-5A21697173B3}"/>
+    <hyperlink ref="D62" r:id="rId61" xr:uid="{70FCF315-4512-4199-8496-2B9FB77CECFC}"/>
+    <hyperlink ref="D63" r:id="rId62" xr:uid="{24626094-37BE-44BF-9F2E-659555193AD8}"/>
+    <hyperlink ref="D64" r:id="rId63" xr:uid="{D2E9401C-D289-4D99-ABD7-4678F0104DAA}"/>
+    <hyperlink ref="D65" r:id="rId64" xr:uid="{8B724D66-1C23-4295-8FB4-BC410B7D6697}"/>
+    <hyperlink ref="D66" r:id="rId65" xr:uid="{852113D3-1641-4F03-9B73-D4ED1C9BEAD0}"/>
+    <hyperlink ref="D67" r:id="rId66" xr:uid="{5A168115-5A0A-49C3-853D-47255028358A}"/>
+    <hyperlink ref="D68" r:id="rId67" xr:uid="{C8966E9D-D761-4375-875F-F6E20629A00B}"/>
+    <hyperlink ref="D69" r:id="rId68" xr:uid="{98D2E4B5-FBB8-431D-8D45-633C093DF6BE}"/>
+    <hyperlink ref="D70" r:id="rId69" xr:uid="{9871195F-395C-478C-83EB-B72E72D9F90F}"/>
+    <hyperlink ref="D71" r:id="rId70" xr:uid="{569ED6F0-6807-44B1-85B3-11B58B0EBBD2}"/>
+    <hyperlink ref="D72" r:id="rId71" xr:uid="{B98B347B-FA09-4B42-99F6-7BD49CED4E92}"/>
+    <hyperlink ref="D73" r:id="rId72" display="Bard College - Collge of Choir" xr:uid="{255ABBE8-2EFB-45F1-97D8-C425715B2A80}"/>
+    <hyperlink ref="D74" r:id="rId73" xr:uid="{F2EED849-52B7-47FB-A0A1-7A17556C13E4}"/>
+    <hyperlink ref="D75" r:id="rId74" xr:uid="{55094E7F-6584-49E8-BC8D-A97B7FAA1538}"/>
+    <hyperlink ref="D76" r:id="rId75" display="Primal Path - Demon Soul" xr:uid="{BBF1122C-B61C-4BB5-A8A9-B2CF65AE04FE}"/>
+    <hyperlink ref="D77" r:id="rId76" xr:uid="{D034A541-2381-4E07-AE03-618E15137103}"/>
+    <hyperlink ref="D78" r:id="rId77" xr:uid="{94CA75DD-6633-4D4F-94B4-CECD351EE741}"/>
+    <hyperlink ref="D79" r:id="rId78" xr:uid="{D68685D9-2681-488B-A41E-4636325C3F73}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10579,13 +10611,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>4</v>
@@ -10596,19 +10628,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>16</v>
@@ -10616,19 +10648,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>16</v>
@@ -10636,19 +10668,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>16</v>
@@ -10656,19 +10688,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>16</v>
@@ -10676,19 +10708,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>16</v>
@@ -10696,19 +10728,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>16</v>
@@ -10716,19 +10748,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>16</v>
@@ -10736,19 +10768,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>16</v>
@@ -10756,19 +10788,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>16</v>
@@ -10776,19 +10808,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>16</v>
@@ -10796,19 +10828,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>16</v>
@@ -10816,19 +10848,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>16</v>
@@ -10836,19 +10868,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>16</v>
@@ -10856,19 +10888,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>16</v>
@@ -10876,19 +10908,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>16</v>
@@ -10896,19 +10928,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>16</v>
@@ -10916,19 +10948,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>16</v>
@@ -10936,19 +10968,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>16</v>
@@ -10956,19 +10988,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>16</v>
@@ -10976,19 +11008,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>16</v>
@@ -10996,16 +11028,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>33</v>
@@ -11016,16 +11048,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>33</v>
@@ -11036,16 +11068,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>33</v>
@@ -11056,16 +11088,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>33</v>
@@ -11076,16 +11108,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>112</v>
@@ -11096,16 +11128,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>112</v>
@@ -11116,16 +11148,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>112</v>
@@ -11136,16 +11168,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>112</v>
@@ -11156,16 +11188,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>112</v>
@@ -11176,16 +11208,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>112</v>
@@ -11196,16 +11228,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>112</v>
@@ -11216,16 +11248,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>112</v>
@@ -11236,16 +11268,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>112</v>
@@ -11256,16 +11288,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>112</v>
@@ -11276,16 +11308,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>112</v>
@@ -11296,16 +11328,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>112</v>
@@ -11316,16 +11348,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>112</v>
@@ -11336,16 +11368,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>112</v>
@@ -11356,16 +11388,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>112</v>
@@ -11376,16 +11408,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>112</v>
@@ -11396,16 +11428,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>112</v>
@@ -11416,16 +11448,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>112</v>
@@ -11436,16 +11468,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>112</v>
@@ -11456,16 +11488,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>112</v>
@@ -11476,16 +11508,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>112</v>
@@ -11594,16 +11626,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>110</v>
@@ -11621,13 +11653,13 @@
         <v>72</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L1" s="10" t="s">
         <v>130</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>4</v>
@@ -11636,24 +11668,24 @@
         <v>5</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -11691,16 +11723,16 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="C3" s="2">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
@@ -11738,16 +11770,16 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C4" s="2">
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
@@ -11785,16 +11817,16 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
@@ -11832,16 +11864,16 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C6" s="2">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
@@ -11879,16 +11911,16 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>42</v>
@@ -11926,16 +11958,16 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
@@ -11973,16 +12005,16 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
@@ -12020,16 +12052,16 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C10" s="2">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>24</v>
@@ -12067,16 +12099,16 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
@@ -12114,16 +12146,16 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C12" s="2">
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>42</v>
@@ -12161,16 +12193,16 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C13" s="2">
         <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>42</v>
@@ -12208,16 +12240,16 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C14" s="2">
         <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>24</v>
@@ -12255,16 +12287,16 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C15" s="2">
         <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -12302,16 +12334,16 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C16" s="2">
         <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>24</v>
@@ -12349,16 +12381,16 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>24</v>
@@ -12396,16 +12428,16 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="C18" s="2">
         <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>42</v>
@@ -12443,16 +12475,16 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>42</v>
@@ -12490,16 +12522,16 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>24</v>
@@ -12537,16 +12569,16 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>24</v>
@@ -12584,16 +12616,16 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C22" s="2">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>24</v>
@@ -12631,16 +12663,16 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>24</v>
@@ -12678,16 +12710,16 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C24" s="2">
         <v>2</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>24</v>
@@ -12725,16 +12757,16 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C25" s="2">
         <v>6</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>24</v>
@@ -12772,16 +12804,16 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C26" s="2">
         <v>2</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>24</v>
@@ -12819,16 +12851,16 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C27" s="2">
         <v>3</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>24</v>
@@ -12866,16 +12898,16 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>24</v>
@@ -12913,16 +12945,16 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C29" s="2">
         <v>2</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>24</v>
@@ -12960,16 +12992,16 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>24</v>
@@ -13007,16 +13039,16 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C31" s="2">
         <v>2</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>24</v>
@@ -13054,16 +13086,16 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C32" s="2">
         <v>2</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>24</v>
@@ -13101,16 +13133,16 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C33" s="2">
         <v>0</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>24</v>
@@ -13148,16 +13180,16 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C34" s="2">
         <v>4</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>24</v>
@@ -13195,16 +13227,16 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C35" s="2">
         <v>2</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>24</v>
@@ -13242,16 +13274,16 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>24</v>
@@ -13289,16 +13321,16 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C37" s="2">
         <v>0</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>24</v>
@@ -13336,16 +13368,16 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C38" s="2">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>24</v>
@@ -13383,16 +13415,16 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>42</v>
@@ -13430,16 +13462,16 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C40" s="2">
         <v>6</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>24</v>
@@ -13477,16 +13509,16 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C41" s="2">
         <v>2</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>24</v>
@@ -13524,16 +13556,16 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C42" s="2">
         <v>5</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>24</v>
@@ -13571,16 +13603,16 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C43" s="2">
         <v>5</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>24</v>
@@ -13618,16 +13650,16 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>24</v>
@@ -13665,16 +13697,16 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C45" s="2">
         <v>2</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>24</v>
@@ -13712,16 +13744,16 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C46" s="2">
         <v>6</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>24</v>
@@ -13759,16 +13791,16 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C47" s="2">
         <v>3</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>24</v>
@@ -13806,16 +13838,16 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>24</v>
@@ -13853,16 +13885,16 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>24</v>
@@ -13900,16 +13932,16 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>24</v>
@@ -14000,7 +14032,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14018,7 +14050,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>1</v>
@@ -14032,13 +14064,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>33</v>
@@ -14049,13 +14081,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>33</v>
@@ -14066,13 +14098,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>336</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
@@ -14083,13 +14115,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
@@ -14100,13 +14132,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>33</v>
@@ -14117,30 +14149,30 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>33</v>
@@ -14151,13 +14183,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>33</v>
@@ -14168,13 +14200,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>14</v>
@@ -14249,25 +14281,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>192</v>
-      </c>
       <c r="G1" s="9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>4</v>
@@ -14284,7 +14316,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>24</v>
@@ -14293,7 +14325,7 @@
         <v>100</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>24</v>
@@ -14308,7 +14340,7 @@
         <v>16</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -14316,13 +14348,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>42</v>
@@ -14337,7 +14369,7 @@
         <v>16</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -14345,13 +14377,13 @@
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>24</v>
@@ -14366,21 +14398,21 @@
         <v>16</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>42</v>
@@ -14395,15 +14427,15 @@
         <v>16</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>24</v>
@@ -14412,7 +14444,7 @@
         <v>6000</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -14427,21 +14459,21 @@
         <v>16</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>42</v>
@@ -14456,15 +14488,15 @@
         <v>16</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>24</v>
@@ -14473,7 +14505,7 @@
         <v>2000</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>24</v>
@@ -14488,15 +14520,15 @@
         <v>16</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>24</v>
@@ -14505,7 +14537,7 @@
         <v>1500</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>24</v>
@@ -14520,15 +14552,15 @@
         <v>16</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>24</v>
@@ -14537,7 +14569,7 @@
         <v>9000</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>24</v>
@@ -14552,15 +14584,15 @@
         <v>16</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>24</v>
@@ -14569,7 +14601,7 @@
         <v>50000</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>24</v>
@@ -14584,15 +14616,15 @@
         <v>16</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>24</v>
@@ -14601,7 +14633,7 @@
         <v>12000</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>42</v>
@@ -14616,21 +14648,21 @@
         <v>16</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>24</v>
@@ -14645,15 +14677,15 @@
         <v>16</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>24</v>
@@ -14662,7 +14694,7 @@
         <v>6000</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>42</v>
@@ -14677,15 +14709,15 @@
         <v>16</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>24</v>
@@ -14694,7 +14726,7 @@
         <v>24000</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>42</v>
@@ -14709,15 +14741,15 @@
         <v>16</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>24</v>
@@ -14726,7 +14758,7 @@
         <v>26000</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>42</v>
@@ -14741,15 +14773,15 @@
         <v>16</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>24</v>
@@ -14758,7 +14790,7 @@
         <v>7000</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>42</v>
@@ -14773,21 +14805,21 @@
         <v>16</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>42</v>
@@ -14802,21 +14834,21 @@
         <v>16</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>42</v>
@@ -14831,21 +14863,21 @@
         <v>16</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>24</v>
@@ -14860,21 +14892,21 @@
         <v>16</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>24</v>
@@ -14889,21 +14921,21 @@
         <v>16</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>24</v>
@@ -14918,15 +14950,15 @@
         <v>16</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>24</v>
@@ -14935,7 +14967,7 @@
         <v>9000</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>24</v>
@@ -14950,21 +14982,21 @@
         <v>16</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>42</v>
@@ -14979,15 +15011,15 @@
         <v>16</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>24</v>
@@ -14996,7 +15028,7 @@
         <v>20000</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>24</v>
@@ -15011,24 +15043,24 @@
         <v>16</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>24</v>
@@ -15040,15 +15072,15 @@
         <v>16</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>24</v>
@@ -15057,7 +15089,7 @@
         <v>1000</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>42</v>
@@ -15072,15 +15104,15 @@
         <v>16</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>24</v>
@@ -15089,7 +15121,7 @@
         <v>3000</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>24</v>
@@ -15104,15 +15136,15 @@
         <v>16</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>24</v>
@@ -15121,7 +15153,7 @@
         <v>15000</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>42</v>
@@ -15136,15 +15168,15 @@
         <v>16</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>24</v>
@@ -15153,7 +15185,7 @@
         <v>26000</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>42</v>
@@ -15168,15 +15200,15 @@
         <v>16</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>24</v>
@@ -15185,7 +15217,7 @@
         <v>8000</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>42</v>
@@ -15200,15 +15232,15 @@
         <v>16</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>24</v>
@@ -15217,7 +15249,7 @@
         <v>24000</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>42</v>
@@ -15232,21 +15264,21 @@
         <v>16</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>42</v>
@@ -15261,15 +15293,15 @@
         <v>16</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>24</v>
@@ -15278,7 +15310,7 @@
         <v>1000</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>24</v>
@@ -15293,21 +15325,21 @@
         <v>23</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>42</v>
@@ -15322,21 +15354,21 @@
         <v>23</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>24</v>
@@ -15351,21 +15383,21 @@
         <v>23</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>42</v>
@@ -15380,21 +15412,21 @@
         <v>23</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>24</v>
@@ -15409,21 +15441,21 @@
         <v>23</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>24</v>
@@ -15438,15 +15470,15 @@
         <v>23</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>24</v>
@@ -15455,7 +15487,7 @@
         <v>500</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>24</v>
@@ -15470,15 +15502,15 @@
         <v>23</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>24</v>
@@ -15487,7 +15519,7 @@
         <v>5000</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>24</v>
@@ -15502,21 +15534,21 @@
         <v>23</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>24</v>
@@ -15531,21 +15563,21 @@
         <v>23</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>24</v>
@@ -15560,15 +15592,15 @@
         <v>23</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>42</v>
@@ -15577,7 +15609,7 @@
         <v>50</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>24</v>
@@ -15592,21 +15624,21 @@
         <v>23</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>24</v>
@@ -15621,15 +15653,15 @@
         <v>23</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>42</v>
@@ -15638,7 +15670,7 @@
         <v>75000</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>24</v>
@@ -15653,21 +15685,21 @@
         <v>23</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>24</v>
@@ -15682,21 +15714,21 @@
         <v>23</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>24</v>
@@ -15711,15 +15743,15 @@
         <v>23</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>24</v>
@@ -15728,7 +15760,7 @@
         <v>750</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>24</v>
@@ -15743,15 +15775,15 @@
         <v>23</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>24</v>
@@ -15760,7 +15792,7 @@
         <v>250</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>24</v>
@@ -15775,15 +15807,15 @@
         <v>23</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>24</v>
@@ -15792,7 +15824,7 @@
         <v>500</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>24</v>
@@ -15807,21 +15839,21 @@
         <v>23</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>24</v>
@@ -15836,21 +15868,21 @@
         <v>23</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>24</v>
@@ -15865,21 +15897,21 @@
         <v>23</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>24</v>
@@ -15894,15 +15926,15 @@
         <v>23</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>42</v>
@@ -15911,7 +15943,7 @@
         <v>50</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>24</v>
@@ -15926,21 +15958,21 @@
         <v>23</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>24</v>
@@ -15955,21 +15987,21 @@
         <v>23</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>24</v>
@@ -15984,21 +16016,21 @@
         <v>23</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>24</v>
@@ -16013,21 +16045,21 @@
         <v>23</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>42</v>
@@ -16042,21 +16074,21 @@
         <v>23</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>24</v>
@@ -16071,21 +16103,21 @@
         <v>23</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>42</v>
@@ -16100,21 +16132,21 @@
         <v>23</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>24</v>
@@ -16129,21 +16161,21 @@
         <v>23</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>24</v>
@@ -16158,15 +16190,15 @@
         <v>23</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>24</v>
@@ -16175,7 +16207,7 @@
         <v>750</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>24</v>
@@ -16190,15 +16222,15 @@
         <v>23</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>24</v>
@@ -16207,7 +16239,7 @@
         <v>3000</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>24</v>
@@ -16222,15 +16254,15 @@
         <v>23</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>24</v>
@@ -16239,7 +16271,7 @@
         <v>12000</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>24</v>
@@ -16254,15 +16286,15 @@
         <v>23</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>42</v>
@@ -16271,7 +16303,7 @@
         <v>5000</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>24</v>
@@ -16286,21 +16318,21 @@
         <v>23</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>24</v>
@@ -16309,27 +16341,27 @@
         <v>24</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>24</v>
@@ -16338,13 +16370,13 @@
         <v>24</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -16406,13 +16438,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>1</v>
@@ -16426,22 +16458,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>16</v>
@@ -16449,22 +16481,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>16</v>
@@ -16472,22 +16504,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>16</v>
@@ -16495,22 +16527,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>16</v>
@@ -16518,22 +16550,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>16</v>
@@ -16541,19 +16573,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>33</v>
@@ -16564,19 +16596,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>323</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>321</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>33</v>
@@ -16587,19 +16619,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>33</v>
@@ -16610,19 +16642,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>33</v>
@@ -16633,19 +16665,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>33</v>
@@ -16656,19 +16688,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>33</v>
@@ -16679,19 +16711,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>33</v>
@@ -16702,10 +16734,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>68</v>
@@ -16714,7 +16746,7 @@
         <v>24</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>14</v>
@@ -16725,10 +16757,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>68</v>
@@ -16737,7 +16769,7 @@
         <v>24</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>14</v>
@@ -16748,10 +16780,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>68</v>
@@ -16760,7 +16792,7 @@
         <v>42</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>33</v>
@@ -16771,10 +16803,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>68</v>
@@ -16783,7 +16815,7 @@
         <v>24</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>33</v>
@@ -16794,10 +16826,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>68</v>
@@ -16806,7 +16838,7 @@
         <v>24</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>33</v>
@@ -16817,10 +16849,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>68</v>
@@ -16829,7 +16861,7 @@
         <v>24</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>33</v>
@@ -16840,10 +16872,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>68</v>
@@ -16852,7 +16884,7 @@
         <v>24</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>33</v>
@@ -16933,13 +16965,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
@@ -16947,10 +16979,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
@@ -16961,10 +16993,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B4" s="3" t="s"